--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4875B3-03D9-4491-8154-9581E4B03B50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38607E30-38CF-42A5-93D7-CCF808EAA99A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,13 +60,35 @@
     <t>总份额变化量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +169,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -201,7 +235,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>国金证券账户净值</a:t>
+              <a:t>资产净值</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -238,8 +272,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -250,13 +284,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>净值</c:v>
+                  <c:v>我的净值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -265,26 +299,14 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$7</c:f>
+              <c:f>按日净值!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -303,15 +325,36 @@
                 <c:pt idx="5">
                   <c:v>43945</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43959</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$7</c:f>
+              <c:f>按日净值!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -330,13 +373,163 @@
                 <c:pt idx="5">
                   <c:v>1.0231856641994546</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0355884690299961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0558662251655628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0528970393455395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.057833657966498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0740587845734322</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0783610829762367</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0990989092325671</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9329-4E2A-AF33-5E4CF262AA20}"/>
+              <c16:uniqueId val="{00000000-467B-4D91-82B5-9710F3E712C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>按日净值!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>沪深300净值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>按日净值!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43959</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>按日净值!$H$2:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1.0169110402474812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0206110752084416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0085839751671242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0168819061139305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0143313451494316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0056016993145533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0124826519477492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0194695468847665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0242051678655806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0362693477132354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0425384835418632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0395297221133371</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0497875856808383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-467B-4D91-82B5-9710F3E712C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -348,32 +541,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387169967"/>
-        <c:axId val="460017791"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="387169967"/>
+        <c:smooth val="0"/>
+        <c:axId val="1481331088"/>
+        <c:axId val="1483348512"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1481331088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -381,8 +561,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -409,12 +589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460017791"/>
+        <c:crossAx val="1483348512"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="460017791"/>
+        <c:axId val="1483348512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,14 +622,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -471,9 +647,9 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387169967"/>
+        <c:crossAx val="1481331088"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -483,6 +659,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -561,7 +768,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -588,8 +795,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -669,6 +876,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -679,6 +891,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -690,7 +907,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -710,6 +927,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -722,10 +942,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -765,23 +985,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -886,8 +1105,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1019,20 +1238,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1046,17 +1264,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1080,23 +1287,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>33335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B212D6-5273-4E8E-9524-1FD136461821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602CB85E-11B0-4378-B8BC-DC37A17DD0EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,10 +1587,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="10.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
+    <col min="9" max="10" width="14.125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>43938</v>
+      </c>
+      <c r="B2" s="4">
+        <f>E2/F2</f>
+        <v>1.0169115699259836</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>261041.2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <f>I2/J2</f>
+        <v>1.0169110402474812</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3839.49</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>43941</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B5" si="0">E3/F3</f>
+        <v>1.0251110245422672</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>263146</v>
+      </c>
+      <c r="F3" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H14" si="1">I3/J3</f>
+        <v>1.0206110752084416</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3853.46</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>43942</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0113876119984417</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>259623.2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0085839751671242</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3808.05</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0271086871834827</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>263658.8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0168819061139305</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3839.38</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" ref="B6:B14" si="2">E6/F6</f>
+        <v>1.0357513050253213</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>265877.36</v>
+      </c>
+      <c r="F6" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0143313451494316</v>
+      </c>
+      <c r="I6" s="10">
+        <v>3829.75</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0231856641994546</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>262651.76</v>
+      </c>
+      <c r="F7" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0056016993145533</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3796.79</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0355884690299961</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>265835.56</v>
+      </c>
+      <c r="F8" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0124826519477492</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3822.77</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0558662251655628</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>271040.86</v>
+      </c>
+      <c r="F9" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0194695468847665</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3849.15</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0528970393455395</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>270278.67</v>
+      </c>
+      <c r="F10" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0242051678655806</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3867.03</v>
+      </c>
+      <c r="J10" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.057833657966498</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>271545.90000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0362693477132354</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3912.58</v>
+      </c>
+      <c r="J11" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0740587845734322</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>275710.89</v>
+      </c>
+      <c r="F12" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0425384835418632</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3936.25</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0783610829762367</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>276815.28999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0395297221133371</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3924.89</v>
+      </c>
+      <c r="J13" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0990989092325671</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>282138.69</v>
+      </c>
+      <c r="F14" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0497875856808383</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3963.62</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496F803-AE22-4016-8F1A-2848567C3AD6}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1443,319 +2159,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43941</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B6" si="0">E3/F3</f>
-        <v>1.0251110245422672</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>263146</v>
-      </c>
-      <c r="F3" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43942</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0113876119984417</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>259623.2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43943</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0271086871834827</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>263658.8</v>
-      </c>
-      <c r="F5" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43944</v>
-      </c>
-      <c r="B6" s="4">
-        <f>E6/F6</f>
-        <v>1.0357513050253213</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>265877.36</v>
-      </c>
-      <c r="F6" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43945</v>
-      </c>
-      <c r="B7" s="4">
-        <f>E7/F7</f>
-        <v>1.0231856641994546</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>262651.76</v>
-      </c>
-      <c r="F7" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J20" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496F803-AE22-4016-8F1A-2848567C3AD6}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="10.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>43938</v>
-      </c>
-      <c r="B2" s="4">
-        <f>E2/F2</f>
-        <v>1.0169115699259836</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>261041.2</v>
-      </c>
-      <c r="F2" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43941</v>
-      </c>
-      <c r="B3" s="4">
-        <f t="shared" ref="B3:B5" si="0">E3/F3</f>
-        <v>1.0251110245422672</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>263146</v>
-      </c>
-      <c r="F3" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43942</v>
-      </c>
-      <c r="B4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0113876119984417</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>259623.2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43943</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0271086871834827</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>263658.8</v>
-      </c>
-      <c r="F5" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43944</v>
-      </c>
-      <c r="B6" s="4">
-        <f>E6/F6</f>
-        <v>1.0357513050253213</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>265877.36</v>
-      </c>
-      <c r="F6" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43945</v>
-      </c>
-      <c r="B7" s="4">
-        <f>E7/F7</f>
-        <v>1.0231856641994546</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>262651.76</v>
-      </c>
-      <c r="F7" s="8">
-        <v>256700</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
+      <c r="F7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38607E30-38CF-42A5-93D7-CCF808EAA99A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF0084-D65F-4E9D-92E4-40CFB066BAEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>沪深300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,15 +72,20 @@
     <t>我的净值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>跑赢沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -147,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +180,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -346,6 +348,66 @@
                 <c:pt idx="12">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43987</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -393,6 +455,66 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.0990989092325671</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1003462797039345</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1170428515777173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1377502532138684</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.134080599922088</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1416657187378263</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1572208414491625</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1681425009738995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1675853135956371</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1637847682119205</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.138125009738995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1536797428905339</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1709977405531748</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1698590183093105</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1691022204908452</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1768190494740942</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1945655239579274</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1860140241527073</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1851528243085312</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1957701597195169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.19508336579665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,6 +597,66 @@
                 <c:pt idx="12">
                   <c:v>43959</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43987</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -522,6 +704,66 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.0497875856808383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0488764818679748</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0488923732135478</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0510138678475702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0396171245139896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0363329130955283</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0390053077094215</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.04783559873293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0422656821095231</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.036589823182295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0128243158775732</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0142174571728237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0257254399254165</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0185319574959477</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0214506679662256</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0242025193079849</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0518322721445901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0550714580839275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0550926465446919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.054705957135744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0597541079128308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,16 +1529,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>33335</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>71439</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1587,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1602,41 +1844,45 @@
     <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="12" customWidth="1"/>
     <col min="9" max="10" width="14.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43938</v>
       </c>
@@ -1669,8 +1915,12 @@
       <c r="J2" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="15">
+        <f>(B2-H2)</f>
+        <v>5.2967850239227232E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43941</v>
       </c>
@@ -1694,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" ref="H3:H14" si="1">I3/J3</f>
+        <f t="shared" ref="H3:H15" si="1">I3/J3</f>
         <v>1.0206110752084416</v>
       </c>
       <c r="I3" s="10">
@@ -1703,8 +1953,12 @@
       <c r="J3" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="15">
+        <f t="shared" ref="K3:K34" si="2">(B3-H3)</f>
+        <v>4.4999493338255814E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43942</v>
       </c>
@@ -1737,8 +1991,12 @@
       <c r="J4" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8036368313175686E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43943</v>
       </c>
@@ -1771,13 +2029,17 @@
       <c r="J5" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0226781069552215E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43944</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B14" si="2">E6/F6</f>
+        <f t="shared" ref="B6:B34" si="3">E6/F6</f>
         <v>1.0357513050253213</v>
       </c>
       <c r="C6" s="4">
@@ -1805,13 +2067,17 @@
       <c r="J6" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="15">
+        <f t="shared" si="2"/>
+        <v>2.1419959875889738E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43945</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0231856641994546</v>
       </c>
       <c r="C7" s="4">
@@ -1839,13 +2105,17 @@
       <c r="J7" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7583964884901215E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43948</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0355884690299961</v>
       </c>
       <c r="C8" s="4">
@@ -1873,13 +2143,17 @@
       <c r="J8" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="15">
+        <f t="shared" si="2"/>
+        <v>2.3105817082246904E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43949</v>
       </c>
       <c r="B9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0558662251655628</v>
       </c>
       <c r="C9" s="4">
@@ -1907,13 +2181,17 @@
       <c r="J9" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="15">
+        <f t="shared" si="2"/>
+        <v>3.6396678280796291E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43950</v>
       </c>
       <c r="B10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0528970393455395</v>
       </c>
       <c r="C10" s="4">
@@ -1941,13 +2219,17 @@
       <c r="J10" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="15">
+        <f t="shared" si="2"/>
+        <v>2.8691871479958886E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43951</v>
       </c>
       <c r="B11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.057833657966498</v>
       </c>
       <c r="C11" s="4">
@@ -1975,13 +2257,17 @@
       <c r="J11" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>2.1564310253262553E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43957</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0740587845734322</v>
       </c>
       <c r="C12" s="4">
@@ -2009,13 +2295,17 @@
       <c r="J12" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>3.1520301031568998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43958</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0783610829762367</v>
       </c>
       <c r="C13" s="4">
@@ -2043,13 +2333,17 @@
       <c r="J13" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="15">
+        <f t="shared" si="2"/>
+        <v>3.8831360862899622E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43959</v>
       </c>
       <c r="B14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0990989092325671</v>
       </c>
       <c r="C14" s="4">
@@ -2077,14 +2371,771 @@
       <c r="J14" s="10">
         <v>3775.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="15">
+        <f t="shared" si="2"/>
+        <v>4.9311323551728847E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1003462797039345</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>282458.89</v>
+      </c>
+      <c r="F15" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0488764818679748</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3960.18</v>
+      </c>
+      <c r="J15" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="2"/>
+        <v>5.146979783595973E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1170428515777173</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>286744.90000000002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <f>I16/J16</f>
+        <v>1.0488923732135478</v>
+      </c>
+      <c r="I16" s="10">
+        <v>3960.24</v>
+      </c>
+      <c r="J16" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="2"/>
+        <v>6.8150478364169542E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1377502532138684</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>292060.49</v>
+      </c>
+      <c r="F17" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <f>I17/J17</f>
+        <v>1.0510138678475702</v>
+      </c>
+      <c r="I17" s="10">
+        <v>3968.25</v>
+      </c>
+      <c r="J17" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="2"/>
+        <v>8.673638536629813E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="3"/>
+        <v>1.134080599922088</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>291118.49</v>
+      </c>
+      <c r="F18" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
+        <f>I18/J18</f>
+        <v>1.0396171245139896</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3925.22</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="2"/>
+        <v>9.4463475408098407E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1416657187378263</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>293065.59000000003</v>
+      </c>
+      <c r="F19" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" ref="H19:H34" si="4">I19/J19</f>
+        <v>1.0363329130955283</v>
+      </c>
+      <c r="I19" s="10">
+        <v>3912.82</v>
+      </c>
+      <c r="J19" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="2"/>
+        <v>0.10533280564229797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1572208414491625</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>297058.59000000003</v>
+      </c>
+      <c r="F20" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0390053077094215</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3922.91</v>
+      </c>
+      <c r="J20" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="2"/>
+        <v>0.11821553373974103</v>
+      </c>
       <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1681425009738995</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>299862.18</v>
+      </c>
+      <c r="F21" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="4"/>
+        <v>1.04783559873293</v>
+      </c>
+      <c r="I21" s="10">
+        <v>3956.25</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12030690224096952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1675853135956371</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>299719.15000000002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0422656821095231</v>
+      </c>
+      <c r="I22" s="10">
+        <v>3935.22</v>
+      </c>
+      <c r="J22" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12531963148611402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1637847682119205</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>298743.55</v>
+      </c>
+      <c r="F23" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="4"/>
+        <v>1.036589823182295</v>
+      </c>
+      <c r="I23" s="10">
+        <v>3913.79</v>
+      </c>
+      <c r="J23" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12719494502962547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="3"/>
+        <v>1.138125009738995</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>292156.69</v>
+      </c>
+      <c r="F24" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0128243158775732</v>
+      </c>
+      <c r="I24" s="10">
+        <v>3824.06</v>
+      </c>
+      <c r="J24" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12530069386142184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>43976</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1536797428905339</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>296149.59000000003</v>
+      </c>
+      <c r="F25" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0142174571728237</v>
+      </c>
+      <c r="I25" s="10">
+        <v>3829.32</v>
+      </c>
+      <c r="J25" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="2"/>
+        <v>0.13946228571771013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1709977405531748</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>300595.12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0257254399254165</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3872.77</v>
+      </c>
+      <c r="J26" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14527230062775831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1698590183093105</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>300302.81</v>
+      </c>
+      <c r="F27" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0185319574959477</v>
+      </c>
+      <c r="I27" s="10">
+        <v>3845.61</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15132706081336278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1691022204908452</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>300108.53999999998</v>
+      </c>
+      <c r="F28" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0214506679662256</v>
+      </c>
+      <c r="I28" s="10">
+        <v>3856.63</v>
+      </c>
+      <c r="J28" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14765155252461959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>43980</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1768190494740942</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>302089.45</v>
+      </c>
+      <c r="F29" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0242025193079849</v>
+      </c>
+      <c r="I29" s="10">
+        <v>3867.02</v>
+      </c>
+      <c r="J29" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.15261653016610932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1945655239579274</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>306644.96999999997</v>
+      </c>
+      <c r="F30" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0518322721445901</v>
+      </c>
+      <c r="I30" s="10">
+        <v>3971.34</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14273325181333729</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>43984</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1860140241527073</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>304449.8</v>
+      </c>
+      <c r="F31" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0550714580839275</v>
+      </c>
+      <c r="I31" s="10">
+        <v>3983.57</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.13094256606877974</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1851528243085312</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>304228.73</v>
+      </c>
+      <c r="F32" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0550926465446919</v>
+      </c>
+      <c r="I32" s="10">
+        <v>3983.65</v>
+      </c>
+      <c r="J32" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.13006017776383927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>43986</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1957701597195169</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>306954.2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="4"/>
+        <v>1.054705957135744</v>
+      </c>
+      <c r="I33" s="10">
+        <v>3982.19</v>
+      </c>
+      <c r="J33" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="2"/>
+        <v>0.14106420258377295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="3"/>
+        <v>1.19508336579665</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>306777.90000000002</v>
+      </c>
+      <c r="F34" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="4"/>
+        <v>1.0597541079128308</v>
+      </c>
+      <c r="I34" s="10">
+        <v>4001.25</v>
+      </c>
+      <c r="J34" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="2"/>
+        <v>0.13532925788381922</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2096,10 +3147,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F496F803-AE22-4016-8F1A-2848567C3AD6}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L6" activeCellId="1" sqref="K4 L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2108,33 +3159,45 @@
     <col min="2" max="4" width="9" style="4"/>
     <col min="5" max="5" width="10.375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43938</v>
       </c>
@@ -2157,20 +3220,93 @@
       <c r="G2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="12">
+        <f>I2/J2</f>
+        <v>1.0169110402474812</v>
+      </c>
+      <c r="I2" s="10">
+        <v>3839.49</v>
+      </c>
+      <c r="J2" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:B4" si="0">E3/F3</f>
+        <v>1.0740587845734322</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>275710.89</v>
+      </c>
+      <c r="F3" s="8">
+        <v>256700</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H4" si="1">I3/J3</f>
+        <v>1.0425384835418632</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3936.25</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3775.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" si="0"/>
+        <v>1.19508336579665</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>306777.90000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>256700</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0597541079128308</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4001.25</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3775.64</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F7" s="8"/>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F83C44-F271-4D15-BA32-534A17CEDA77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BEA7AC-1654-4786-9C0C-B5F53C216343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -133,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +173,12 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,10 +360,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$54</c:f>
+              <c:f>按日净值!$A$2:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -512,16 +519,82 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$54</c:f>
+              <c:f>按日净值!$B$2:$B$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -677,6 +750,72 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.3682084534476042</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3786777950915468</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3916876509544214</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4143011686793923</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4062054927931438</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.439796727656514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4430216878697963</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4408897627804518</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.3641114011219306</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.3921588248802075</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4170258465190468</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4333457031622385</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4458283014521656</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4512415005934385</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.3775655456980214</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3870482246876514</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4067421913283062</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4434520458897571</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4388247465931121</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4411904578465915</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4625868600051246</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4612071277335972</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4750353682603634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,10 +876,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$54</c:f>
+              <c:f>按日净值!$A$2:$A$82</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -896,16 +1035,82 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$H$2:$H$54</c:f>
+              <c:f>按日净值!$H$2:$H$82</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -1060,7 +1265,73 @@
                   <c:v>1.1705565149219737</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2368674749850361</c:v>
+                  <c:v>1.2369002341324915</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2443267896303674</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2644213961076798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2821058151730569</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2588938564058014</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.2853344068820121</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2730795308874787</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2566002055280696</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1961548240828046</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2036899704420971</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2396044114375313</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.242448962295134</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.249443802904938</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2481168755495757</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1933314616859658</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1993860643493552</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2099299721371741</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2392627475077074</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2332081448443177</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.243511033890943</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2637089341144814</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2648981364748759</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2652450975198906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,8 +1513,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>122760</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>237060</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
@@ -1570,23 +1841,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:J53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="4" customWidth="1"/>
     <col min="9" max="10" width="14.125" style="5" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="6" customWidth="1"/>
-    <col min="12" max="1025" width="8.625" customWidth="1"/>
+    <col min="12" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1596,10 +1871,10 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1608,7 +1883,7 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -1632,10 +1907,10 @@
         <f t="shared" ref="B2:B44" si="0">E2/F2</f>
         <v>1.0169115699259836</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3">
@@ -1644,7 +1919,7 @@
       <c r="F2" s="2">
         <v>256700</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="4">
@@ -1670,10 +1945,10 @@
         <f t="shared" si="0"/>
         <v>1.0251110245422672</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
@@ -1682,7 +1957,7 @@
       <c r="F3" s="2">
         <v>256700</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="4">
@@ -1708,10 +1983,10 @@
         <f t="shared" si="0"/>
         <v>1.0113876119984417</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
@@ -1720,7 +1995,7 @@
       <c r="F4" s="2">
         <v>256700</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="4">
@@ -1746,10 +2021,10 @@
         <f t="shared" si="0"/>
         <v>1.0271086871834827</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
@@ -1758,7 +2033,7 @@
       <c r="F5" s="2">
         <v>256700</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="4">
@@ -1784,10 +2059,10 @@
         <f t="shared" si="0"/>
         <v>1.0357513050253213</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
@@ -1796,7 +2071,7 @@
       <c r="F6" s="2">
         <v>256700</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -1822,10 +2097,10 @@
         <f t="shared" si="0"/>
         <v>1.0231856641994546</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
@@ -1834,7 +2109,7 @@
       <c r="F7" s="2">
         <v>256700</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="4">
@@ -1860,10 +2135,10 @@
         <f t="shared" si="0"/>
         <v>1.0355884690299961</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
@@ -1872,7 +2147,7 @@
       <c r="F8" s="2">
         <v>256700</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="4">
@@ -1898,10 +2173,10 @@
         <f t="shared" si="0"/>
         <v>1.0558662251655628</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3">
@@ -1910,7 +2185,7 @@
       <c r="F9" s="2">
         <v>256700</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="4">
@@ -1936,10 +2211,10 @@
         <f t="shared" si="0"/>
         <v>1.0528970393455395</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
@@ -1948,7 +2223,7 @@
       <c r="F10" s="2">
         <v>256700</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="4">
@@ -1974,10 +2249,10 @@
         <f t="shared" si="0"/>
         <v>1.057833657966498</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
@@ -1986,7 +2261,7 @@
       <c r="F11" s="2">
         <v>256700</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="4">
@@ -2012,10 +2287,10 @@
         <f t="shared" si="0"/>
         <v>1.0740587845734322</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
@@ -2024,7 +2299,7 @@
       <c r="F12" s="2">
         <v>256700</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
       <c r="H12" s="4">
@@ -2050,10 +2325,10 @@
         <f t="shared" si="0"/>
         <v>1.0783610829762367</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
@@ -2062,7 +2337,7 @@
       <c r="F13" s="2">
         <v>256700</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="4">
@@ -2088,10 +2363,10 @@
         <f t="shared" si="0"/>
         <v>1.0990989092325671</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
@@ -2100,7 +2375,7 @@
       <c r="F14" s="2">
         <v>256700</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="4">
@@ -2126,10 +2401,10 @@
         <f t="shared" si="0"/>
         <v>1.1003462797039345</v>
       </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
@@ -2138,7 +2413,7 @@
       <c r="F15" s="2">
         <v>256700</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -2164,10 +2439,10 @@
         <f t="shared" si="0"/>
         <v>1.1170428515777173</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
@@ -2176,7 +2451,7 @@
       <c r="F16" s="2">
         <v>256700</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="4">
@@ -2202,10 +2477,10 @@
         <f t="shared" si="0"/>
         <v>1.1377502532138684</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
@@ -2214,7 +2489,7 @@
       <c r="F17" s="2">
         <v>256700</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="4">
@@ -2240,10 +2515,10 @@
         <f t="shared" si="0"/>
         <v>1.134080599922088</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
@@ -2252,7 +2527,7 @@
       <c r="F18" s="2">
         <v>256700</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="4">
@@ -2278,10 +2553,10 @@
         <f t="shared" si="0"/>
         <v>1.1416657187378263</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" s="3">
@@ -2290,7 +2565,7 @@
       <c r="F19" s="2">
         <v>256700</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -2316,10 +2591,10 @@
         <f t="shared" si="0"/>
         <v>1.1572208414491625</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
@@ -2328,7 +2603,7 @@
       <c r="F20" s="2">
         <v>256700</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="4">
@@ -2355,10 +2630,10 @@
         <f t="shared" si="0"/>
         <v>1.1681425009738995</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
@@ -2367,7 +2642,7 @@
       <c r="F21" s="2">
         <v>256700</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="4">
@@ -2393,10 +2668,10 @@
         <f t="shared" si="0"/>
         <v>1.1675853135956371</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
@@ -2405,7 +2680,7 @@
       <c r="F22" s="2">
         <v>256700</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="4">
@@ -2431,10 +2706,10 @@
         <f t="shared" si="0"/>
         <v>1.1637847682119205</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
@@ -2443,7 +2718,7 @@
       <c r="F23" s="2">
         <v>256700</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="4">
@@ -2469,10 +2744,10 @@
         <f t="shared" si="0"/>
         <v>1.138125009738995</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
@@ -2481,7 +2756,7 @@
       <c r="F24" s="2">
         <v>256700</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="4">
@@ -2507,10 +2782,10 @@
         <f t="shared" si="0"/>
         <v>1.1536797428905339</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
@@ -2519,7 +2794,7 @@
       <c r="F25" s="2">
         <v>256700</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -2545,10 +2820,10 @@
         <f t="shared" si="0"/>
         <v>1.1709977405531748</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="3">
@@ -2557,7 +2832,7 @@
       <c r="F26" s="2">
         <v>256700</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="4">
@@ -2583,10 +2858,10 @@
         <f t="shared" si="0"/>
         <v>1.1698590183093105</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
@@ -2595,7 +2870,7 @@
       <c r="F27" s="2">
         <v>256700</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="4">
@@ -2621,10 +2896,10 @@
         <f t="shared" si="0"/>
         <v>1.1691022204908452</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" s="3">
@@ -2633,7 +2908,7 @@
       <c r="F28" s="2">
         <v>256700</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>0</v>
       </c>
       <c r="H28" s="4">
@@ -2659,10 +2934,10 @@
         <f t="shared" si="0"/>
         <v>1.1768190494740942</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
@@ -2671,7 +2946,7 @@
       <c r="F29" s="2">
         <v>256700</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="4">
@@ -2697,10 +2972,10 @@
         <f t="shared" si="0"/>
         <v>1.1945655239579274</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
@@ -2709,7 +2984,7 @@
       <c r="F30" s="2">
         <v>256700</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="4">
@@ -2735,10 +3010,10 @@
         <f t="shared" si="0"/>
         <v>1.1860140241527073</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="3">
@@ -2747,7 +3022,7 @@
       <c r="F31" s="2">
         <v>256700</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="4">
@@ -2773,10 +3048,10 @@
         <f t="shared" si="0"/>
         <v>1.1851528243085312</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="3">
@@ -2785,7 +3060,7 @@
       <c r="F32" s="2">
         <v>256700</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="4">
@@ -2811,10 +3086,10 @@
         <f t="shared" si="0"/>
         <v>1.1957701597195169</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="3">
@@ -2823,7 +3098,7 @@
       <c r="F33" s="2">
         <v>256700</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="4">
@@ -2849,10 +3124,10 @@
         <f t="shared" si="0"/>
         <v>1.19508336579665</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="3">
@@ -2861,7 +3136,7 @@
       <c r="F34" s="2">
         <v>256700</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="4">
@@ -2887,10 +3162,10 @@
         <f t="shared" si="0"/>
         <v>1.2057566030385662</v>
       </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
@@ -2899,7 +3174,7 @@
       <c r="F35" s="2">
         <v>256700</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="4">
@@ -2925,10 +3200,10 @@
         <f t="shared" si="0"/>
         <v>1.2294353720296065</v>
       </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
@@ -2937,7 +3212,7 @@
       <c r="F36" s="2">
         <v>256700</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="4">
@@ -2963,10 +3238,10 @@
         <f t="shared" si="0"/>
         <v>1.2311172185430463</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" s="3">
@@ -2975,7 +3250,7 @@
       <c r="F37" s="2">
         <v>256700</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
         <v>0</v>
       </c>
       <c r="H37" s="4">
@@ -3001,10 +3276,10 @@
         <f t="shared" si="0"/>
         <v>1.2091353330736268</v>
       </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
         <v>0</v>
       </c>
       <c r="E38" s="3">
@@ -3013,7 +3288,7 @@
       <c r="F38" s="2">
         <v>256700</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="3">
         <v>0</v>
       </c>
       <c r="H38" s="4">
@@ -3039,10 +3314,10 @@
         <f t="shared" si="0"/>
         <v>1.2174755746007011</v>
       </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
@@ -3051,7 +3326,7 @@
       <c r="F39" s="2">
         <v>256700</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" s="4">
@@ -3077,10 +3352,10 @@
         <f t="shared" si="0"/>
         <v>1.2052065835605767</v>
       </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
@@ -3089,7 +3364,7 @@
       <c r="F40" s="2">
         <v>256700</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="4">
@@ -3115,10 +3390,10 @@
         <f t="shared" si="0"/>
         <v>1.2250053369692249</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
@@ -3127,7 +3402,7 @@
       <c r="F41" s="2">
         <v>256700</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="4">
@@ -3153,10 +3428,10 @@
         <f t="shared" si="0"/>
         <v>1.237970899883132</v>
       </c>
-      <c r="C42" s="2">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
@@ -3165,7 +3440,7 @@
       <c r="F42" s="2">
         <v>256700</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="4">
@@ -3191,10 +3466,10 @@
         <f t="shared" si="0"/>
         <v>1.2361700038955981</v>
       </c>
-      <c r="C43" s="2">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2">
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
@@ -3203,7 +3478,7 @@
       <c r="F43" s="2">
         <v>256700</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="4">
@@ -3229,10 +3504,10 @@
         <f t="shared" si="0"/>
         <v>1.2462258667705493</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
@@ -3241,7 +3516,7 @@
       <c r="F44" s="2">
         <v>256700</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="4">
@@ -3267,10 +3542,10 @@
         <f t="shared" ref="B45" si="3">E45/F45</f>
         <v>1.236173470977795</v>
       </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
         <v>0</v>
       </c>
       <c r="E45" s="3">
@@ -3279,7 +3554,7 @@
       <c r="F45" s="2">
         <v>256700</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="4">
@@ -3302,13 +3577,13 @@
         <v>44005</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" ref="B46:B53" si="6">E46/F46</f>
+        <f t="shared" ref="B46:B72" si="6">E46/F46</f>
         <v>1.2518468640436309</v>
       </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
         <v>0</v>
       </c>
       <c r="E46" s="3">
@@ -3317,11 +3592,11 @@
       <c r="F46" s="2">
         <v>256700</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" ref="H46:H53" si="7">I46/J46</f>
+        <f t="shared" ref="H46:H75" si="7">I46/J46</f>
         <v>1.0916798211693912</v>
       </c>
       <c r="I46" s="5">
@@ -3331,7 +3606,7 @@
         <v>3775.64</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" ref="K46:K53" si="8">(B46-H46)</f>
+        <f t="shared" ref="K46:K83" si="8">(B46-H46)</f>
         <v>0.16016704287423966</v>
       </c>
     </row>
@@ -3343,10 +3618,10 @@
         <f t="shared" si="6"/>
         <v>1.2537977795091546</v>
       </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
         <v>0</v>
       </c>
       <c r="E47" s="3">
@@ -3355,7 +3630,7 @@
       <c r="F47" s="2">
         <v>256700</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="4">
@@ -3381,10 +3656,10 @@
         <f t="shared" si="6"/>
         <v>1.2485844955200625</v>
       </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
         <v>0</v>
       </c>
       <c r="E48" s="3">
@@ -3393,7 +3668,7 @@
       <c r="F48" s="2">
         <v>256700</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="4">
@@ -3411,7 +3686,7 @@
         <v>0.16010148336848018</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44012</v>
       </c>
@@ -3419,10 +3694,10 @@
         <f t="shared" si="6"/>
         <v>1.2620310089598752</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="3">
@@ -3431,7 +3706,7 @@
       <c r="F49" s="2">
         <v>256700</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="4">
@@ -3449,7 +3724,7 @@
         <v>0.15918222041011942</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44013</v>
       </c>
@@ -3457,10 +3732,10 @@
         <f t="shared" si="6"/>
         <v>1.2869325671990652</v>
       </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
         <v>0</v>
       </c>
       <c r="E50" s="3">
@@ -3469,7 +3744,7 @@
       <c r="F50" s="2">
         <v>256700</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="3">
         <v>0</v>
       </c>
       <c r="H50" s="4">
@@ -3487,7 +3762,7 @@
         <v>0.16188356888354782</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44014</v>
       </c>
@@ -3495,10 +3770,10 @@
         <f t="shared" si="6"/>
         <v>1.2999017919750682</v>
       </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="E51" s="3">
@@ -3507,7 +3782,7 @@
       <c r="F51" s="2">
         <v>256700</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="4">
@@ -3525,7 +3800,7 @@
         <v>0.15152959547328293</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44015</v>
       </c>
@@ -3533,10 +3808,10 @@
         <f t="shared" si="6"/>
         <v>1.3167456564082587</v>
       </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="E52" s="3">
@@ -3545,7 +3820,7 @@
       <c r="F52" s="2">
         <v>256700</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="4">
@@ -3563,7 +3838,7 @@
         <v>0.14618914148628503</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44018</v>
       </c>
@@ -3571,10 +3846,10 @@
         <f t="shared" si="6"/>
         <v>1.3682084534476042</v>
       </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="3">
@@ -3583,22 +3858,897 @@
       <c r="F53" s="2">
         <v>256700</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="3">
         <v>0</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" si="7"/>
-        <v>1.2368674749850361</v>
+        <v>1.2369002341324915</v>
       </c>
       <c r="I53" s="5">
         <v>4670.09</v>
       </c>
       <c r="J53" s="5">
-        <v>3775.74</v>
+        <v>3775.64</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="8"/>
-        <v>0.13134097846256809</v>
+        <v>0.13130821931511272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3786777950915468</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>353906.59</v>
+      </c>
+      <c r="F54" s="2">
+        <v>256700</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2443267896303674</v>
+      </c>
+      <c r="I54" s="5">
+        <v>4698.13</v>
+      </c>
+      <c r="J54" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="8"/>
+        <v>0.1343510054611794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3916876509544214</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>357246.22</v>
+      </c>
+      <c r="F55" s="2">
+        <v>256700</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2644213961076798</v>
+      </c>
+      <c r="I55" s="5">
+        <v>4774</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K55" s="6">
+        <f t="shared" si="8"/>
+        <v>0.12726625484674159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4143011686793923</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>363051.11</v>
+      </c>
+      <c r="F56" s="2">
+        <v>256700</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2821058151730569</v>
+      </c>
+      <c r="I56" s="5">
+        <v>4840.7700000000004</v>
+      </c>
+      <c r="J56" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13219535350633538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4062054927931438</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>346972.95</v>
+      </c>
+      <c r="F57" s="3">
+        <f>F56+G57</f>
+        <v>246744.12934542602</v>
+      </c>
+      <c r="G57" s="3">
+        <f>-D57/((D57+E57)/F56)</f>
+        <v>-9955.8706545739788</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2588938564058014</v>
+      </c>
+      <c r="I57" s="5">
+        <v>4753.13</v>
+      </c>
+      <c r="J57" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="8"/>
+        <v>0.14731163638734235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="6"/>
+        <v>1.439796727656514</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>355261.39</v>
+      </c>
+      <c r="F58" s="3">
+        <f>F57-G58</f>
+        <v>246744.12934542602</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2853344068820121</v>
+      </c>
+      <c r="I58" s="5">
+        <v>4852.96</v>
+      </c>
+      <c r="J58" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="8"/>
+        <v>0.15446232077450195</v>
+      </c>
+      <c r="N58" s="16"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4430216878697963</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>356057.13</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" ref="F59:F60" si="9">F58-G59</f>
+        <v>246744.12934542602</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2730795308874787</v>
+      </c>
+      <c r="I59" s="5">
+        <v>4806.6899999999996</v>
+      </c>
+      <c r="J59" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="8"/>
+        <v>0.16994215698231763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4408897627804518</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>355531.09</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="9"/>
+        <v>246744.12934542602</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2566002055280696</v>
+      </c>
+      <c r="I60" s="5">
+        <v>4744.47</v>
+      </c>
+      <c r="J60" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="8"/>
+        <v>0.18428955725238216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3641114011219306</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>339586.48</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" ref="F61:F72" si="10">F60+G61</f>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G61" s="3">
+        <f>C61/((E61-C61)/F60)</f>
+        <v>2199.2338730785564</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1961548240828046</v>
+      </c>
+      <c r="I61" s="5">
+        <v>4516.25</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.16795657703912603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3921588248802075</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>346568.7</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="10"/>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" ref="G62:G73" si="11">C62/((E62-C62)/F61)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2036899704420971</v>
+      </c>
+      <c r="I62" s="5">
+        <v>4544.7</v>
+      </c>
+      <c r="J62" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="8"/>
+        <v>0.18846885443811034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4170258465190468</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>352759.18</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="10"/>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2396044114375313</v>
+      </c>
+      <c r="I63" s="5">
+        <v>4680.3</v>
+      </c>
+      <c r="J63" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.17742143508151553</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4333457031622385</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>356821.9</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="10"/>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="7"/>
+        <v>1.242448962295134</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4691.04</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K64" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19089674086710451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4458283014521656</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>359929.36</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="10"/>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="7"/>
+        <v>1.249443802904938</v>
+      </c>
+      <c r="I65" s="5">
+        <v>4717.45</v>
+      </c>
+      <c r="J65" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K65" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19638449854722762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4512415005934385</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>361276.94</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="10"/>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2481168755495757</v>
+      </c>
+      <c r="I66" s="5">
+        <v>4712.4399999999996</v>
+      </c>
+      <c r="J66" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K66" s="6">
+        <f t="shared" si="8"/>
+        <v>0.20312462504386275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3775655456980214</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>342935.8</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="10"/>
+        <v>248943.36321850459</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1933314616859658</v>
+      </c>
+      <c r="I67" s="5">
+        <v>4505.59</v>
+      </c>
+      <c r="J67" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="8"/>
+        <v>0.18423408401205554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3870482246876514</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>346796.45</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="10"/>
+        <v>250024.79641837606</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="11"/>
+        <v>1081.4331998714636</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="7"/>
+        <v>1.1993860643493552</v>
+      </c>
+      <c r="I68" s="5">
+        <v>4528.45</v>
+      </c>
+      <c r="J68" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="8"/>
+        <v>0.18766216033829619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4067421913283062</v>
+      </c>
+      <c r="C69" s="3">
+        <v>900</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>352620.43</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="10"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="11"/>
+        <v>639.77607663148387</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2099299721371741</v>
+      </c>
+      <c r="I69" s="5">
+        <v>4568.26</v>
+      </c>
+      <c r="J69" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19681221919113212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4434520458897571</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>361822.29</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="10"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2392627475077074</v>
+      </c>
+      <c r="I70" s="5">
+        <v>4679.01</v>
+      </c>
+      <c r="J70" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="8"/>
+        <v>0.20418929838204969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4388247465931121</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>360662.39</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="10"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2332081448443177</v>
+      </c>
+      <c r="I71" s="5">
+        <v>4656.1499999999996</v>
+      </c>
+      <c r="J71" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K71" s="6">
+        <f t="shared" si="8"/>
+        <v>0.20561660174879437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4411904578465915</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>361255.39</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="10"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <f t="shared" si="7"/>
+        <v>1.243511033890943</v>
+      </c>
+      <c r="I72" s="5">
+        <v>4695.05</v>
+      </c>
+      <c r="J72" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K72" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19767942395564853</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B73" s="2">
+        <f>E73/F73</f>
+        <v>1.4625868600051246</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>366618.71</v>
+      </c>
+      <c r="F73" s="3">
+        <f>F72+G73</f>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2637089341144814</v>
+      </c>
+      <c r="I73" s="5">
+        <v>4771.3100000000004</v>
+      </c>
+      <c r="J73" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K73" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19887792589064324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B74" s="2">
+        <f>E74/F74</f>
+        <v>1.4612071277335972</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>366272.86</v>
+      </c>
+      <c r="F74" s="3">
+        <f>F73+G74</f>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G74" s="3">
+        <f>C74/((E74-C74)/F73)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2648981364748759</v>
+      </c>
+      <c r="I74" s="5">
+        <v>4775.8</v>
+      </c>
+      <c r="J74" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K74" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19630899125872125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B75" s="2">
+        <f>E75/F75</f>
+        <v>1.4750353682603634</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>369739.11</v>
+      </c>
+      <c r="F75" s="3">
+        <f>F74+G75</f>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G75" s="3">
+        <f>C75/((E75-C75)/F74)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2652450975198906</v>
+      </c>
+      <c r="I75" s="5">
+        <v>4777.1099999999997</v>
+      </c>
+      <c r="J75" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K75" s="6">
+        <f t="shared" si="8"/>
+        <v>0.20979027074047285</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BEA7AC-1654-4786-9C0C-B5F53C216343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D057B-B17C-45B1-BE49-D113546B1931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$82</c:f>
+              <c:f>按日净值!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -585,16 +585,91 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$82</c:f>
+              <c:f>按日净值!$B$2:$B$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -816,6 +891,81 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.4750353682603634</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4582846166156185</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4467850258624921</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4617275842093627</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4571231840401961</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4347524918271526</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4214212102394181</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4404783508335288</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4632337803033779</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4767615794903473</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.474194483575695</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.454400463862221</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4835922524799656</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4811251717620542</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4850514743836893</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4758327011412462</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4916635860513952</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5416125936798442</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5339491953936493</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5296022033008869</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5284044741256639</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.5199518104750533</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4855771059983107</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4470486119076662</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4428056554127713</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.405999944722361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,10 +1026,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$82</c:f>
+              <c:f>按日净值!$A$2:$A$108</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="107"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1101,16 +1251,91 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$H$2:$H$82</c:f>
+              <c:f>按日净值!$H$2:$H$107</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="106"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -1332,6 +1557,81 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.2652450975198906</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2614444173703003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2469223760739903</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.2514090326408238</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.2399963979616699</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.230954222330519</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2277944931190474</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2460483520674641</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2753413990740643</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2746872053479676</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2555964021993624</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2392998273140448</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2498119524107172</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2596142640717867</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.261229884205062</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2464456357067941</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2531252979627296</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2830328103314936</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.2756036062760221</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.2824633704484538</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.2829321651428633</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2758366793444291</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2634202413365683</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.236709537985613</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2433362290896379</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2142550666906804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3596,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" ref="H46:H75" si="7">I46/J46</f>
+        <f t="shared" ref="H46:H80" si="7">I46/J46</f>
         <v>1.0916798211693912</v>
       </c>
       <c r="I46" s="5">
@@ -3606,7 +3906,7 @@
         <v>3775.64</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" ref="K46:K83" si="8">(B46-H46)</f>
+        <f t="shared" ref="K46:K76" si="8">(B46-H46)</f>
         <v>0.16016704287423966</v>
       </c>
     </row>
@@ -4636,7 +4936,7 @@
         <v>44046</v>
       </c>
       <c r="B73" s="2">
-        <f>E73/F73</f>
+        <f t="shared" ref="B73:B80" si="12">E73/F73</f>
         <v>1.4625868600051246</v>
       </c>
       <c r="C73" s="3">
@@ -4649,7 +4949,7 @@
         <v>366618.71</v>
       </c>
       <c r="F73" s="3">
-        <f>F72+G73</f>
+        <f t="shared" ref="F73:F80" si="13">F72+G73</f>
         <v>250664.57249500754</v>
       </c>
       <c r="G73" s="3">
@@ -4676,7 +4976,7 @@
         <v>44047</v>
       </c>
       <c r="B74" s="2">
-        <f>E74/F74</f>
+        <f t="shared" si="12"/>
         <v>1.4612071277335972</v>
       </c>
       <c r="C74" s="3">
@@ -4689,11 +4989,11 @@
         <v>366272.86</v>
       </c>
       <c r="F74" s="3">
-        <f>F73+G74</f>
+        <f t="shared" si="13"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G74" s="3">
-        <f>C74/((E74-C74)/F73)</f>
+        <f t="shared" ref="G74:G80" si="14">C74/((E74-C74)/F73)</f>
         <v>0</v>
       </c>
       <c r="H74" s="4">
@@ -4716,7 +5016,7 @@
         <v>44048</v>
       </c>
       <c r="B75" s="2">
-        <f>E75/F75</f>
+        <f t="shared" si="12"/>
         <v>1.4750353682603634</v>
       </c>
       <c r="C75" s="3">
@@ -4729,11 +5029,11 @@
         <v>369739.11</v>
       </c>
       <c r="F75" s="3">
-        <f>F74+G75</f>
+        <f t="shared" si="13"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G75" s="3">
-        <f>C75/((E75-C75)/F74)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H75" s="4">
@@ -4749,6 +5049,1006 @@
       <c r="K75" s="6">
         <f t="shared" si="8"/>
         <v>0.20979027074047285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4582846166156185</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>365540.29</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="13"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2614444173703003</v>
+      </c>
+      <c r="I76" s="5">
+        <v>4762.76</v>
+      </c>
+      <c r="J76" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="shared" si="8"/>
+        <v>0.19684019924531815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4467850258624921</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>362657.75</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="13"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2469223760739903</v>
+      </c>
+      <c r="I77" s="5">
+        <v>4707.93</v>
+      </c>
+      <c r="J77" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K77" s="6">
+        <f>(B77-H77)</f>
+        <v>0.19986264978850188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4617275842093627</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>366403.32</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="13"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2514090326408238</v>
+      </c>
+      <c r="I78" s="5">
+        <v>4724.87</v>
+      </c>
+      <c r="J78" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K78" s="6">
+        <f>(B78-H78)</f>
+        <v>0.21031855156853885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4571231840401961</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>365249.16</v>
+      </c>
+      <c r="F79" s="3">
+        <f t="shared" si="13"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2399963979616699</v>
+      </c>
+      <c r="I79" s="5">
+        <v>4681.78</v>
+      </c>
+      <c r="J79" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K79" s="6">
+        <f>(B79-H79)</f>
+        <v>0.2171267860785262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4347524918271526</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>359641.62</v>
+      </c>
+      <c r="F80" s="3">
+        <f t="shared" si="13"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="4">
+        <f t="shared" si="7"/>
+        <v>1.230954222330519</v>
+      </c>
+      <c r="I80" s="5">
+        <v>4647.6400000000003</v>
+      </c>
+      <c r="J80" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K80" s="6">
+        <f>(B80-H80)</f>
+        <v>0.2037982694966336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" ref="B81" si="15">E81/F81</f>
+        <v>1.4214212102394181</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>356299.94</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" ref="F81" si="16">F80+G81</f>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" ref="G81" si="17">C81/((E81-C81)/F80)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="4">
+        <f t="shared" ref="H81" si="18">I81/J81</f>
+        <v>1.2277944931190474</v>
+      </c>
+      <c r="I81" s="5">
+        <v>4635.71</v>
+      </c>
+      <c r="J81" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K81" s="6">
+        <f>(B81-H81)</f>
+        <v>0.19362671712037072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" ref="B82:B83" si="19">E82/F82</f>
+        <v>1.4404783508335288</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>361076.89</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" ref="F82:F83" si="20">F81+G82</f>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" ref="G82:G83" si="21">C82/((E82-C82)/F81)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="4">
+        <f t="shared" ref="H82:H83" si="22">I82/J82</f>
+        <v>1.2460483520674641</v>
+      </c>
+      <c r="I82" s="5">
+        <v>4704.63</v>
+      </c>
+      <c r="J82" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" ref="K82:K83" si="23">(B82-H82)</f>
+        <v>0.1944299987660647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="19"/>
+        <v>1.4632337803033779</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>366780.87</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" si="20"/>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="4">
+        <f t="shared" si="22"/>
+        <v>1.2753413990740643</v>
+      </c>
+      <c r="I83" s="5">
+        <v>4815.2299999999996</v>
+      </c>
+      <c r="J83" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" si="23"/>
+        <v>0.18789238122931362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" ref="B84" si="24">E84/F84</f>
+        <v>1.4767615794903473</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>370171.81</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" ref="F84" si="25">F83+G84</f>
+        <v>250664.57249500754</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" ref="G84" si="26">C84/((E84-C84)/F83)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="4">
+        <f t="shared" ref="H84" si="27">I84/J84</f>
+        <v>1.2746872053479676</v>
+      </c>
+      <c r="I84" s="5">
+        <v>4812.76</v>
+      </c>
+      <c r="J84" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" ref="K84" si="28">(B84-H84)</f>
+        <v>0.20207437414237961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" ref="B85" si="29">E85/F85</f>
+        <v>1.474194483575695</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>371028.33</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" ref="F85" si="30">F84+G85</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" ref="G85" si="31">C85/((E85-C85)/F84)</f>
+        <v>1017.5048249819204</v>
+      </c>
+      <c r="H85" s="4">
+        <f t="shared" ref="H85" si="32">I85/J85</f>
+        <v>1.2555964021993624</v>
+      </c>
+      <c r="I85" s="5">
+        <v>4740.68</v>
+      </c>
+      <c r="J85" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K85" s="6">
+        <f t="shared" ref="K85" si="33">(B85-H85)</f>
+        <v>0.21859808137633263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" ref="B86" si="34">E86/F86</f>
+        <v>1.454400463862221</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>366046.53</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" ref="F86" si="35">F85+G86</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" ref="G86" si="36">C86/((E86-C86)/F85)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="4">
+        <f t="shared" ref="H86" si="37">I86/J86</f>
+        <v>1.2392998273140448</v>
+      </c>
+      <c r="I86" s="5">
+        <v>4679.1499999999996</v>
+      </c>
+      <c r="J86" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K86" s="6">
+        <f t="shared" ref="K86" si="38">(B86-H86)</f>
+        <v>0.21510063654817624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" ref="B87" si="39">E87/F87</f>
+        <v>1.4835922524799656</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>373393.58</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" ref="F87" si="40">F86+G87</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" ref="G87" si="41">C87/((E87-C87)/F86)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="4">
+        <f t="shared" ref="H87" si="42">I87/J87</f>
+        <v>1.2498119524107172</v>
+      </c>
+      <c r="I87" s="5">
+        <v>4718.84</v>
+      </c>
+      <c r="J87" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" ref="K87" si="43">(B87-H87)</f>
+        <v>0.23378030006924844</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" ref="B88" si="44">E88/F88</f>
+        <v>1.4811251717620542</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>372772.66</v>
+      </c>
+      <c r="F88" s="3">
+        <f t="shared" ref="F88" si="45">F87+G88</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" ref="G88" si="46">C88/((E88-C88)/F87)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="4">
+        <f t="shared" ref="H88" si="47">I88/J88</f>
+        <v>1.2596142640717867</v>
+      </c>
+      <c r="I88" s="5">
+        <v>4755.8500000000004</v>
+      </c>
+      <c r="J88" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K88" s="6">
+        <f t="shared" ref="K88" si="48">(B88-H88)</f>
+        <v>0.22151090769026749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" ref="B89" si="49">E89/F89</f>
+        <v>1.4850514743836893</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>373760.84</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" ref="F89" si="50">F88+G89</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" ref="G89" si="51">C89/((E89-C89)/F88)</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" ref="H89" si="52">I89/J89</f>
+        <v>1.261229884205062</v>
+      </c>
+      <c r="I89" s="5">
+        <v>4761.95</v>
+      </c>
+      <c r="J89" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K89" s="6">
+        <f t="shared" ref="K89" si="53">(B89-H89)</f>
+        <v>0.22382159017862735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" ref="B90" si="54">E90/F90</f>
+        <v>1.4758327011412462</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>371440.64000000001</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" ref="F90" si="55">F89+G90</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" ref="G90" si="56">C90/((E90-C90)/F89)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" ref="H90" si="57">I90/J90</f>
+        <v>1.2464456357067941</v>
+      </c>
+      <c r="I90" s="5">
+        <v>4706.13</v>
+      </c>
+      <c r="J90" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K90" s="6">
+        <f t="shared" ref="K90" si="58">(B90-H90)</f>
+        <v>0.22938706543445209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" ref="B91:B92" si="59">E91/F91</f>
+        <v>1.4916635860513952</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>375424.99</v>
+      </c>
+      <c r="F91" s="3">
+        <f t="shared" ref="F91:F92" si="60">F90+G91</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" ref="G91:G92" si="61">C91/((E91-C91)/F90)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="4">
+        <f t="shared" ref="H91:H92" si="62">I91/J91</f>
+        <v>1.2531252979627296</v>
+      </c>
+      <c r="I91" s="5">
+        <v>4731.3500000000004</v>
+      </c>
+      <c r="J91" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K91" s="6">
+        <f t="shared" ref="K91:K92" si="63">(B91-H91)</f>
+        <v>0.23853828808866551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="59"/>
+        <v>1.5416125936798442</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>387996.26</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="60"/>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="4">
+        <f t="shared" si="62"/>
+        <v>1.2830328103314936</v>
+      </c>
+      <c r="I92" s="5">
+        <v>4844.2700000000004</v>
+      </c>
+      <c r="J92" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K92" s="6">
+        <f t="shared" si="63"/>
+        <v>0.25857978334835052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" ref="B93" si="64">E93/F93</f>
+        <v>1.5339491953936493</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>386067.52</v>
+      </c>
+      <c r="F93" s="3">
+        <f t="shared" ref="F93" si="65">F92+G93</f>
+        <v>251682.07731998945</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" ref="G93" si="66">C93/((E93-C93)/F92)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" ref="H93" si="67">I93/J93</f>
+        <v>1.2756036062760221</v>
+      </c>
+      <c r="I93" s="5">
+        <v>4816.22</v>
+      </c>
+      <c r="J93" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" ref="K93" si="68">(B93-H93)</f>
+        <v>0.25834558911762717</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" ref="B94" si="69">E94/F94</f>
+        <v>1.5296022033008869</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>385973.46</v>
+      </c>
+      <c r="F94" s="3">
+        <f t="shared" ref="F94" si="70">F93+G94</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" ref="G94" si="71">C94/((E94-C94)/F93)</f>
+        <v>653.76474866602348</v>
+      </c>
+      <c r="H94" s="4">
+        <f t="shared" ref="H94" si="72">I94/J94</f>
+        <v>1.2824633704484538</v>
+      </c>
+      <c r="I94" s="5">
+        <v>4842.12</v>
+      </c>
+      <c r="J94" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K94" s="6">
+        <f t="shared" ref="K94" si="73">(B94-H94)</f>
+        <v>0.2471388328524331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" ref="B95" si="74">E95/F95</f>
+        <v>1.5284044741256639</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>385671.23</v>
+      </c>
+      <c r="F95" s="3">
+        <f t="shared" ref="F95" si="75">F94+G95</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" ref="G95" si="76">C95/((E95-C95)/F94)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="4">
+        <f t="shared" ref="H95" si="77">I95/J95</f>
+        <v>1.2829321651428633</v>
+      </c>
+      <c r="I95" s="5">
+        <v>4843.8900000000003</v>
+      </c>
+      <c r="J95" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K95" s="6">
+        <f t="shared" ref="K95" si="78">(B95-H95)</f>
+        <v>0.24547230898280059</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" ref="B96" si="79">E96/F96</f>
+        <v>1.5199518104750533</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>383538.32</v>
+      </c>
+      <c r="F96" s="3">
+        <f t="shared" ref="F96" si="80">F95+G96</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" ref="G96" si="81">C96/((E96-C96)/F95)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="4">
+        <f t="shared" ref="H96" si="82">I96/J96</f>
+        <v>1.2758366793444291</v>
+      </c>
+      <c r="I96" s="5">
+        <v>4817.1000000000004</v>
+      </c>
+      <c r="J96" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K96" s="6">
+        <f t="shared" ref="K96" si="83">(B96-H96)</f>
+        <v>0.24411513113062422</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" ref="B97" si="84">E97/F97</f>
+        <v>1.4855771059983107</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <v>374864.35</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" ref="F97" si="85">F96+G97</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" ref="G97" si="86">C97/((E97-C97)/F96)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="4">
+        <f t="shared" ref="H97" si="87">I97/J97</f>
+        <v>1.2634202413365683</v>
+      </c>
+      <c r="I97" s="5">
+        <v>4770.22</v>
+      </c>
+      <c r="J97" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K97" s="6">
+        <f t="shared" ref="K97" si="88">(B97-H97)</f>
+        <v>0.22215686466174245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" ref="B98:B100" si="89">E98/F98</f>
+        <v>1.4470486119076662</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>365142.23</v>
+      </c>
+      <c r="F98" s="3">
+        <f t="shared" ref="F98:F100" si="90">F97+G98</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" ref="G98:G100" si="91">C98/((E98-C98)/F97)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="4">
+        <f t="shared" ref="H98:H100" si="92">I98/J98</f>
+        <v>1.236709537985613</v>
+      </c>
+      <c r="I98" s="5">
+        <v>4669.37</v>
+      </c>
+      <c r="J98" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" ref="K98:K100" si="93">(B98-H98)</f>
+        <v>0.2103390739220532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="89"/>
+        <v>1.4428056554127713</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>364071.58</v>
+      </c>
+      <c r="F99" s="3">
+        <f t="shared" si="90"/>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="4">
+        <f t="shared" si="92"/>
+        <v>1.2433362290896379</v>
+      </c>
+      <c r="I99" s="5">
+        <v>4694.3900000000003</v>
+      </c>
+      <c r="J99" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K99" s="6">
+        <f t="shared" si="93"/>
+        <v>0.19946942632313336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="89"/>
+        <v>1.405999944722361</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>354784.18</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="90"/>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <f t="shared" si="92"/>
+        <v>1.2142550666906804</v>
+      </c>
+      <c r="I100" s="5">
+        <v>4584.59</v>
+      </c>
+      <c r="J100" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K100" s="6">
+        <f t="shared" si="93"/>
+        <v>0.19174487803168061</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D057B-B17C-45B1-BE49-D113546B1931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D1D246-AB7C-463E-AD9D-4F37AE4D780E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,10 +360,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$108</c:f>
+              <c:f>按日净值!$A$2:$A$130</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -660,16 +660,61 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$108</c:f>
+              <c:f>按日净值!$B$2:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -966,6 +1011,51 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1.405999944722361</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4037658189819255</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4118389091275805</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.4067335701894463</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.424740445323593</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4123139902695112</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4024777736636882</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4306558950978421</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4168848431081111</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4014174407446445</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4089715003834706</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3827134787497575</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3837743664849496</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3783601534710554</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3892470729727748</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3985555405322938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,10 +1116,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$108</c:f>
+              <c:f>按日净值!$A$2:$A$130</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1326,16 +1416,61 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$H$2:$H$107</c:f>
+              <c:f>按日净值!$H$2:$H$130</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="106"/>
+                <c:ptCount val="129"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -1632,6 +1767,51 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>1.2142550666906804</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2135637931582459</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2255617590660126</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.2318573804705959</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.2417709315506775</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2335286203133773</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.2269999258403874</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2546455700225658</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.24255225604136</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.2278077359070252</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2321963958428239</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.2085553707450922</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.2103961182739882</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2135452532550772</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.21616467671706</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.214999311375025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6049,6 +6229,606 @@
       <c r="K100" s="6">
         <f t="shared" si="93"/>
         <v>0.19174487803168061</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" ref="B101" si="94">E101/F101</f>
+        <v>1.4037658189819255</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>354220.43</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" ref="F101" si="95">F100+G101</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" ref="G101" si="96">C101/((E101-C101)/F100)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <f t="shared" ref="H101" si="97">I101/J101</f>
+        <v>1.2135637931582459</v>
+      </c>
+      <c r="I101" s="5">
+        <v>4581.9799999999996</v>
+      </c>
+      <c r="J101" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K101" s="6">
+        <f t="shared" ref="K101" si="98">(B101-H101)</f>
+        <v>0.19020202582367962</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" ref="B102" si="99">E102/F102</f>
+        <v>1.4118389091275805</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>356257.56</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" ref="F102" si="100">F101+G102</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" ref="G102" si="101">C102/((E102-C102)/F101)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <f t="shared" ref="H102" si="102">I102/J102</f>
+        <v>1.2255617590660126</v>
+      </c>
+      <c r="I102" s="5">
+        <v>4627.28</v>
+      </c>
+      <c r="J102" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" ref="K102" si="103">(B102-H102)</f>
+        <v>0.18627715006156786</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" ref="B103" si="104">E103/F103</f>
+        <v>1.4067335701894463</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3">
+        <v>354969.3</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" ref="F103" si="105">F102+G103</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" ref="G103" si="106">C103/((E103-C103)/F102)</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="4">
+        <f t="shared" ref="H103" si="107">I103/J103</f>
+        <v>1.2318573804705959</v>
+      </c>
+      <c r="I103" s="5">
+        <v>4651.05</v>
+      </c>
+      <c r="J103" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K103" s="6">
+        <f t="shared" ref="K103" si="108">(B103-H103)</f>
+        <v>0.17487618971885044</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" ref="B104" si="109">E104/F104</f>
+        <v>1.424740445323593</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3">
+        <v>359513.08</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" ref="F104" si="110">F103+G104</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" ref="G104" si="111">C104/((E104-C104)/F103)</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <f t="shared" ref="H104" si="112">I104/J104</f>
+        <v>1.2417709315506775</v>
+      </c>
+      <c r="I104" s="5">
+        <v>4688.4799999999996</v>
+      </c>
+      <c r="J104" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K104" s="6">
+        <f t="shared" ref="K104" si="113">(B104-H104)</f>
+        <v>0.18296951377291548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" ref="B105" si="114">E105/F105</f>
+        <v>1.4123139902695112</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <v>356377.44</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" ref="F105" si="115">F104+G105</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" ref="G105" si="116">C105/((E105-C105)/F104)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <f t="shared" ref="H105" si="117">I105/J105</f>
+        <v>1.2335286203133773</v>
+      </c>
+      <c r="I105" s="5">
+        <v>4657.3599999999997</v>
+      </c>
+      <c r="J105" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K105" s="6">
+        <f t="shared" ref="K105" si="118">(B105-H105)</f>
+        <v>0.17878536995613392</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" ref="B106" si="119">E106/F106</f>
+        <v>1.4024777736636882</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>353895.41</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" ref="F106" si="120">F105+G106</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" ref="G106" si="121">C106/((E106-C106)/F105)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <f t="shared" ref="H106" si="122">I106/J106</f>
+        <v>1.2269999258403874</v>
+      </c>
+      <c r="I106" s="5">
+        <v>4632.71</v>
+      </c>
+      <c r="J106" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K106" s="6">
+        <f t="shared" ref="K106" si="123">(B106-H106)</f>
+        <v>0.17547784782330078</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" ref="B107" si="124">E107/F107</f>
+        <v>1.4306558950978421</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0</v>
+      </c>
+      <c r="E107" s="3">
+        <v>361005.76</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" ref="F107" si="125">F106+G107</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" ref="G107" si="126">C107/((E107-C107)/F106)</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <f t="shared" ref="H107" si="127">I107/J107</f>
+        <v>1.2546455700225658</v>
+      </c>
+      <c r="I107" s="5">
+        <v>4737.09</v>
+      </c>
+      <c r="J107" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K107" s="6">
+        <f t="shared" ref="K107" si="128">(B107-H107)</f>
+        <v>0.17601032507527625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" ref="B108" si="129">E108/F108</f>
+        <v>1.4168848431081111</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>357530.83</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" ref="F108" si="130">F107+G108</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" ref="G108" si="131">C108/((E108-C108)/F107)</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <f t="shared" ref="H108" si="132">I108/J108</f>
+        <v>1.24255225604136</v>
+      </c>
+      <c r="I108" s="5">
+        <v>4691.43</v>
+      </c>
+      <c r="J108" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K108" s="6">
+        <f t="shared" ref="K108" si="133">(B108-H108)</f>
+        <v>0.17433258706675114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" ref="B109" si="134">E109/F109</f>
+        <v>1.4014174407446445</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0</v>
+      </c>
+      <c r="E109" s="3">
+        <v>353627.85</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" ref="F109" si="135">F108+G109</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" ref="G109" si="136">C109/((E109-C109)/F108)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <f t="shared" ref="H109" si="137">I109/J109</f>
+        <v>1.2278077359070252</v>
+      </c>
+      <c r="I109" s="5">
+        <v>4635.76</v>
+      </c>
+      <c r="J109" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K109" s="6">
+        <f t="shared" ref="K109" si="138">(B109-H109)</f>
+        <v>0.17360970483761928</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" ref="B110" si="139">E110/F110</f>
+        <v>1.4089715003834706</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <v>355534.01</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" ref="F110" si="140">F109+G110</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" ref="G110" si="141">C110/((E110-C110)/F109)</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <f t="shared" ref="H110" si="142">I110/J110</f>
+        <v>1.2321963958428239</v>
+      </c>
+      <c r="I110" s="5">
+        <v>4652.33</v>
+      </c>
+      <c r="J110" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K110" s="6">
+        <f t="shared" ref="K110" si="143">(B110-H110)</f>
+        <v>0.17677510454064671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" ref="B111" si="144">E111/F111</f>
+        <v>1.3827134787497575</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <v>348908.17</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" ref="F111" si="145">F110+G111</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" ref="G111" si="146">C111/((E111-C111)/F110)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <f t="shared" ref="H111" si="147">I111/J111</f>
+        <v>1.2085553707450922</v>
+      </c>
+      <c r="I111" s="5">
+        <v>4563.07</v>
+      </c>
+      <c r="J111" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K111" s="6">
+        <f t="shared" ref="K111" si="148">(B111-H111)</f>
+        <v>0.17415810800466525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" ref="B112" si="149">E112/F112</f>
+        <v>1.3837743664849496</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>349175.87</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" ref="F112" si="150">F111+G112</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" ref="G112" si="151">C112/((E112-C112)/F111)</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <f t="shared" ref="H112" si="152">I112/J112</f>
+        <v>1.2103961182739882</v>
+      </c>
+      <c r="I112" s="5">
+        <v>4570.0200000000004</v>
+      </c>
+      <c r="J112" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K112" s="6">
+        <f t="shared" ref="K112" si="153">(B112-H112)</f>
+        <v>0.17337824821096137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" ref="B113" si="154">E113/F113</f>
+        <v>1.3783601534710554</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <v>347809.67</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" ref="F113" si="155">F112+G113</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" ref="G113" si="156">C113/((E113-C113)/F112)</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <f t="shared" ref="H113" si="157">I113/J113</f>
+        <v>1.2135452532550772</v>
+      </c>
+      <c r="I113" s="5">
+        <v>4581.91</v>
+      </c>
+      <c r="J113" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K113" s="6">
+        <f t="shared" ref="K113" si="158">(B113-H113)</f>
+        <v>0.16481490021597822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" ref="B114" si="159">E114/F114</f>
+        <v>1.3892470729727748</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0</v>
+      </c>
+      <c r="E114" s="3">
+        <v>350556.83</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" ref="F114" si="160">F113+G114</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" ref="G114" si="161">C114/((E114-C114)/F113)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <f t="shared" ref="H114" si="162">I114/J114</f>
+        <v>1.21616467671706</v>
+      </c>
+      <c r="I114" s="5">
+        <v>4591.8</v>
+      </c>
+      <c r="J114" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K114" s="6">
+        <f t="shared" ref="K114" si="163">(B114-H114)</f>
+        <v>0.17308239625571487</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" ref="B115" si="164">E115/F115</f>
+        <v>1.3985555405322938</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <v>352905.69</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" ref="F115" si="165">F114+G115</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" ref="G115" si="166">C115/((E115-C115)/F114)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="4">
+        <f t="shared" ref="H115" si="167">I115/J115</f>
+        <v>1.214999311375025</v>
+      </c>
+      <c r="I115" s="5">
+        <v>4587.3999999999996</v>
+      </c>
+      <c r="J115" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K115" s="6">
+        <f t="shared" ref="K115" si="168">(B115-H115)</f>
+        <v>0.18355622915726877</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D1D246-AB7C-463E-AD9D-4F37AE4D780E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389B3E4-9B65-4082-84B0-1784CF6F46EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15915" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="按日净值" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>资产净值</a:t>
+              <a:t>证券账户资产净值走势图</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -360,10 +360,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$130</c:f>
+              <c:f>按日净值!$A$2:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -705,16 +705,64 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$130</c:f>
+              <c:f>按日净值!$B$2:$B$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -1056,6 +1104,54 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>1.3985555405322938</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4263370873095156</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4627350081308512</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4727005365289765</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4784175206409977</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4719790840825711</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4810386826112294</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4528926332189491</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4734421207248232</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4720912537316626</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4702321752404983</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4336520123999759</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4240768776445782</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4440781403736653</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.4564591137706024</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4777779315616333</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4469671614399393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,10 +1212,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$130</c:f>
+              <c:f>按日净值!$A$2:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1461,16 +1557,64 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$H$2:$H$130</c:f>
+              <c:f>按日净值!$H$2:$H$150</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="129"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -1812,6 +1956,54 @@
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>1.214999311375025</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.239826890275556</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2774417052473224</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.281689991630558</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.2731881217488956</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2709739275990295</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.269104045936583</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.2595189159983473</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.2695781377461834</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2694086300600693</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2654755220307019</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2497192528948735</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2425019334470446</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2446313737538537</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.2546932440592855</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.2641353518873621</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.243585193503618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,15 +2180,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>19335</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>237060</xdr:colOff>
+      <xdr:colOff>189435</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>108300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2321,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6829,6 +7021,646 @@
       <c r="K115" s="6">
         <f t="shared" ref="K115" si="168">(B115-H115)</f>
         <v>0.18355622915726877</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" ref="B116" si="169">E116/F116</f>
+        <v>1.4263370873095156</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>359915.97</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" ref="F116" si="170">F115+G116</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" ref="G116" si="171">C116/((E116-C116)/F115)</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <f t="shared" ref="H116" si="172">I116/J116</f>
+        <v>1.239826890275556</v>
+      </c>
+      <c r="I116" s="5">
+        <v>4681.1400000000003</v>
+      </c>
+      <c r="J116" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K116" s="6">
+        <f t="shared" ref="K116" si="173">(B116-H116)</f>
+        <v>0.18651019703395955</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" ref="B117" si="174">E117/F117</f>
+        <v>1.4627350081308512</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>369100.47</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" ref="F117" si="175">F116+G117</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" ref="G117" si="176">C117/((E117-C117)/F116)</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <f t="shared" ref="H117" si="177">I117/J117</f>
+        <v>1.2774417052473224</v>
+      </c>
+      <c r="I117" s="5">
+        <v>4823.16</v>
+      </c>
+      <c r="J117" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K117" s="6">
+        <f t="shared" ref="K117" si="178">(B117-H117)</f>
+        <v>0.18529330288352885</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" ref="B118" si="179">E118/F118</f>
+        <v>1.4727005365289765</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <v>371615.13</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" ref="F118" si="180">F117+G118</f>
+        <v>252335.84206865547</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" ref="G118" si="181">C118/((E118-C118)/F117)</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
+        <f t="shared" ref="H118" si="182">I118/J118</f>
+        <v>1.281689991630558</v>
+      </c>
+      <c r="I118" s="5">
+        <v>4839.2</v>
+      </c>
+      <c r="J118" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K118" s="6">
+        <f t="shared" ref="K118" si="183">(B118-H118)</f>
+        <v>0.19101054489841851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" ref="B119" si="184">E119/F119</f>
+        <v>1.4784175206409977</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6400</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="3">
+        <v>379457.73</v>
+      </c>
+      <c r="F119" s="3">
+        <f t="shared" ref="F119" si="185">F118+G119</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" ref="G119" si="186">C119/((E119-C119)/F118)</f>
+        <v>4328.9530262230328</v>
+      </c>
+      <c r="H119" s="4">
+        <f t="shared" ref="H119" si="187">I119/J119</f>
+        <v>1.2731881217488956</v>
+      </c>
+      <c r="I119" s="5">
+        <v>4807.1000000000004</v>
+      </c>
+      <c r="J119" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K119" s="6">
+        <f t="shared" ref="K119" si="188">(B119-H119)</f>
+        <v>0.20522939889210212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" ref="B120" si="189">E120/F120</f>
+        <v>1.4719790840825711</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0</v>
+      </c>
+      <c r="E120" s="3">
+        <v>377805.21</v>
+      </c>
+      <c r="F120" s="3">
+        <f t="shared" ref="F120" si="190">F119+G120</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" ref="G120" si="191">C120/((E120-C120)/F119)</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <f t="shared" ref="H120" si="192">I120/J120</f>
+        <v>1.2709739275990295</v>
+      </c>
+      <c r="I120" s="5">
+        <v>4798.74</v>
+      </c>
+      <c r="J120" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K120" s="6">
+        <f t="shared" ref="K120" si="193">(B120-H120)</f>
+        <v>0.20100515648354156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" ref="B121" si="194">E121/F121</f>
+        <v>1.4810386826112294</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="3">
+        <v>380130.49</v>
+      </c>
+      <c r="F121" s="3">
+        <f t="shared" ref="F121" si="195">F120+G121</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" ref="G121" si="196">C121/((E121-C121)/F120)</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <f t="shared" ref="H121" si="197">I121/J121</f>
+        <v>1.269104045936583</v>
+      </c>
+      <c r="I121" s="5">
+        <v>4791.68</v>
+      </c>
+      <c r="J121" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K121" s="6">
+        <f t="shared" ref="K121" si="198">(B121-H121)</f>
+        <v>0.2119346366746464</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" ref="B122" si="199">E122/F122</f>
+        <v>1.4528926332189491</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>372906.39</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" ref="F122" si="200">F121+G122</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" ref="G122" si="201">C122/((E122-C122)/F121)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <f t="shared" ref="H122" si="202">I122/J122</f>
+        <v>1.2595189159983473</v>
+      </c>
+      <c r="I122" s="5">
+        <v>4755.49</v>
+      </c>
+      <c r="J122" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K122" s="6">
+        <f t="shared" ref="K122" si="203">(B122-H122)</f>
+        <v>0.19337371722060182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" ref="B123" si="204">E123/F123</f>
+        <v>1.4734421207248232</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>378180.72</v>
+      </c>
+      <c r="F123" s="3">
+        <f t="shared" ref="F123" si="205">F122+G123</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" ref="G123" si="206">C123/((E123-C123)/F122)</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <f t="shared" ref="H123" si="207">I123/J123</f>
+        <v>1.2695781377461834</v>
+      </c>
+      <c r="I123" s="5">
+        <v>4793.47</v>
+      </c>
+      <c r="J123" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K123" s="6">
+        <f t="shared" ref="K123" si="208">(B123-H123)</f>
+        <v>0.20386398297863972</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" ref="B124" si="209">E124/F124</f>
+        <v>1.4720912537316626</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="3">
+        <v>377834</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" ref="F124" si="210">F123+G124</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" ref="G124" si="211">C124/((E124-C124)/F123)</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <f t="shared" ref="H124" si="212">I124/J124</f>
+        <v>1.2694086300600693</v>
+      </c>
+      <c r="I124" s="5">
+        <v>4792.83</v>
+      </c>
+      <c r="J124" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K124" s="6">
+        <f t="shared" ref="K124" si="213">(B124-H124)</f>
+        <v>0.20268262367159329</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" ref="B125" si="214">E125/F125</f>
+        <v>1.4702321752404983</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>377356.84</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" ref="F125" si="215">F124+G125</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" ref="G125" si="216">C125/((E125-C125)/F124)</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <f t="shared" ref="H125" si="217">I125/J125</f>
+        <v>1.2654755220307019</v>
+      </c>
+      <c r="I125" s="5">
+        <v>4777.9799999999996</v>
+      </c>
+      <c r="J125" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K125" s="6">
+        <f t="shared" ref="K125" si="218">(B125-H125)</f>
+        <v>0.20475665320979641</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" ref="B126" si="219">E126/F126</f>
+        <v>1.4336520123999759</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0</v>
+      </c>
+      <c r="E126" s="3">
+        <v>367968</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" ref="F126" si="220">F125+G126</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" ref="G126" si="221">C126/((E126-C126)/F125)</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <f t="shared" ref="H126" si="222">I126/J126</f>
+        <v>1.2497192528948735</v>
+      </c>
+      <c r="I126" s="5">
+        <v>4718.49</v>
+      </c>
+      <c r="J126" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K126" s="6">
+        <f t="shared" ref="K126" si="223">(B126-H126)</f>
+        <v>0.18393275950510235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" ref="B127" si="224">E127/F127</f>
+        <v>1.4240768776445782</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>365510.40000000002</v>
+      </c>
+      <c r="F127" s="3">
+        <f t="shared" ref="F127" si="225">F126+G127</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" ref="G127" si="226">C127/((E127-C127)/F126)</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <f t="shared" ref="H127" si="227">I127/J127</f>
+        <v>1.2425019334470446</v>
+      </c>
+      <c r="I127" s="5">
+        <v>4691.24</v>
+      </c>
+      <c r="J127" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K127" s="6">
+        <f t="shared" ref="K127" si="228">(B127-H127)</f>
+        <v>0.18157494419753362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" ref="B128" si="229">E128/F128</f>
+        <v>1.4440781403736653</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>370644.02</v>
+      </c>
+      <c r="F128" s="3">
+        <f t="shared" ref="F128" si="230">F127+G128</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" ref="G128" si="231">C128/((E128-C128)/F127)</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <f t="shared" ref="H128" si="232">I128/J128</f>
+        <v>1.2446313737538537</v>
+      </c>
+      <c r="I128" s="5">
+        <v>4699.28</v>
+      </c>
+      <c r="J128" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K128" s="6">
+        <f t="shared" ref="K128" si="233">(B128-H128)</f>
+        <v>0.19944676661981164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" ref="B129" si="234">E129/F129</f>
+        <v>1.4564591137706024</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>373821.78</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" ref="F129" si="235">F128+G129</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" ref="G129" si="236">C129/((E129-C129)/F128)</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <f t="shared" ref="H129" si="237">I129/J129</f>
+        <v>1.2546932440592855</v>
+      </c>
+      <c r="I129" s="5">
+        <v>4737.2700000000004</v>
+      </c>
+      <c r="J129" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K129" s="6">
+        <f t="shared" ref="K129" si="238">(B129-H129)</f>
+        <v>0.20176586971131694</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" ref="B130" si="239">E130/F130</f>
+        <v>1.4777779315616333</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>379293.57</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" ref="F130" si="240">F129+G130</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" ref="G130" si="241">C130/((E130-C130)/F129)</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <f t="shared" ref="H130" si="242">I130/J130</f>
+        <v>1.2641353518873621</v>
+      </c>
+      <c r="I130" s="5">
+        <v>4772.92</v>
+      </c>
+      <c r="J130" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K130" s="6">
+        <f t="shared" ref="K130" si="243">(B130-H130)</f>
+        <v>0.21364257967427114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" ref="B131" si="244">E131/F131</f>
+        <v>1.4469671614399393</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>371385.53</v>
+      </c>
+      <c r="F131" s="3">
+        <f t="shared" ref="F131" si="245">F130+G131</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" ref="G131" si="246">C131/((E131-C131)/F130)</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="4">
+        <f t="shared" ref="H131" si="247">I131/J131</f>
+        <v>1.243585193503618</v>
+      </c>
+      <c r="I131" s="5">
+        <v>4695.33</v>
+      </c>
+      <c r="J131" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K131" s="6">
+        <f t="shared" ref="K131" si="248">(B131-H131)</f>
+        <v>0.20338196793632135</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389B3E4-9B65-4082-84B0-1784CF6F46EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B4A6ED-5C9B-4DDA-8183-1A855E73BE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15915" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="按日净值" sheetId="1" r:id="rId1"/>
@@ -360,10 +360,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$150</c:f>
+              <c:f>按日净值!$A$2:$A$178</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -753,16 +753,76 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$150</c:f>
+              <c:f>按日净值!$B$2:$B$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -1152,6 +1212,66 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>1.4469671614399393</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4367138269340238</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4534614685356353</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4768183920972944</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5023697732190244</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4981162097351957</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.518835802377553</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5082896735288365</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5015240397793459</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4990365151472125</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.477041562555786</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.4994386349625217</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.5003697326610266</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.5129008629970395</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.516244056206232</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.5198759528193044</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.5207065303043126</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.512916642332879</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4804031065481402</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4826793828866385</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4918720343335494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,10 +1332,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>按日净值!$A$2:$A$150</c:f>
+              <c:f>按日净值!$A$2:$A$178</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1605,16 +1725,76 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$H$2:$H$150</c:f>
+              <c:f>按日净值!$H$2:$H$178</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="177"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -2004,6 +2184,66 @@
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>1.243585193503618</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.2503390153722282</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2653642826116898</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.2749255755315656</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.2938495195516522</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.2940110815649799</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.3193392378510664</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.312063650136136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.2990910150332129</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.3000339015372229</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2863646957866748</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2988976703287389</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2964133233041286</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.2955869733343222</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.3052065345212998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.3092588276424659</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.3256110222372897</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.3174693561886197</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.3006271784386223</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.3029817461410516</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.3191856215105255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M160" sqref="M160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7661,6 +7901,806 @@
       <c r="K131" s="6">
         <f t="shared" ref="K131" si="248">(B131-H131)</f>
         <v>0.20338196793632135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" ref="B132" si="249">E132/F132</f>
+        <v>1.4367138269340238</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0</v>
+      </c>
+      <c r="E132" s="3">
+        <v>368753.86</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" ref="F132" si="250">F131+G132</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" ref="G132" si="251">C132/((E132-C132)/F131)</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <f t="shared" ref="H132" si="252">I132/J132</f>
+        <v>1.2503390153722282</v>
+      </c>
+      <c r="I132" s="5">
+        <v>4720.83</v>
+      </c>
+      <c r="J132" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K132" s="6">
+        <f t="shared" ref="K132" si="253">(B132-H132)</f>
+        <v>0.18637481156179558</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" ref="B133:B136" si="254">E133/F133</f>
+        <v>1.4534614685356353</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0</v>
+      </c>
+      <c r="E133" s="3">
+        <v>373052.39</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" ref="F133:F136" si="255">F132+G133</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" ref="G133:G136" si="256">C133/((E133-C133)/F132)</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="4">
+        <f t="shared" ref="H133:H136" si="257">I133/J133</f>
+        <v>1.2653642826116898</v>
+      </c>
+      <c r="I133" s="5">
+        <v>4777.5600000000004</v>
+      </c>
+      <c r="J133" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K133" s="6">
+        <f t="shared" ref="K133:K136" si="258">(B133-H133)</f>
+        <v>0.18809718592394553</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="254"/>
+        <v>1.4768183920972944</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0</v>
+      </c>
+      <c r="E134" s="3">
+        <v>379047.29</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="255"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="4">
+        <f t="shared" si="257"/>
+        <v>1.2749255755315656</v>
+      </c>
+      <c r="I134" s="5">
+        <v>4813.66</v>
+      </c>
+      <c r="J134" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K134" s="6">
+        <f t="shared" si="258"/>
+        <v>0.20189281656572877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="254"/>
+        <v>1.5023697732190244</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>385605.43</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="255"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="4">
+        <f t="shared" si="257"/>
+        <v>1.2938495195516522</v>
+      </c>
+      <c r="I135" s="5">
+        <v>4885.1099999999997</v>
+      </c>
+      <c r="J135" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K135" s="6">
+        <f t="shared" si="258"/>
+        <v>0.20852025366737226</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="254"/>
+        <v>1.4981162097351957</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="3">
+        <v>384513.69</v>
+      </c>
+      <c r="F136" s="3">
+        <f t="shared" si="255"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="256"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="4">
+        <f t="shared" si="257"/>
+        <v>1.2940110815649799</v>
+      </c>
+      <c r="I136" s="5">
+        <v>4885.72</v>
+      </c>
+      <c r="J136" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K136" s="6">
+        <f t="shared" si="258"/>
+        <v>0.20410512817021575</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" ref="B137" si="259">E137/F137</f>
+        <v>1.518835802377553</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0</v>
+      </c>
+      <c r="E137" s="3">
+        <v>389831.67999999999</v>
+      </c>
+      <c r="F137" s="3">
+        <f t="shared" ref="F137" si="260">F136+G137</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" ref="G137" si="261">C137/((E137-C137)/F136)</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="4">
+        <f t="shared" ref="H137" si="262">I137/J137</f>
+        <v>1.3193392378510664</v>
+      </c>
+      <c r="I137" s="5">
+        <v>4981.3500000000004</v>
+      </c>
+      <c r="J137" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K137" s="6">
+        <f t="shared" ref="K137" si="263">(B137-H137)</f>
+        <v>0.19949656452648656</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" ref="B138" si="264">E138/F138</f>
+        <v>1.5082896735288365</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>387124.86</v>
+      </c>
+      <c r="F138" s="3">
+        <f t="shared" ref="F138" si="265">F137+G138</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" ref="G138" si="266">C138/((E138-C138)/F137)</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="4">
+        <f t="shared" ref="H138" si="267">I138/J138</f>
+        <v>1.312063650136136</v>
+      </c>
+      <c r="I138" s="5">
+        <v>4953.88</v>
+      </c>
+      <c r="J138" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K138" s="6">
+        <f t="shared" ref="K138" si="268">(B138-H138)</f>
+        <v>0.19622602339270045</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" ref="B139:B141" si="269">E139/F139</f>
+        <v>1.5015240397793459</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0</v>
+      </c>
+      <c r="E139" s="3">
+        <v>385388.36</v>
+      </c>
+      <c r="F139" s="3">
+        <f t="shared" ref="F139:F141" si="270">F138+G139</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" ref="G139:G141" si="271">C139/((E139-C139)/F138)</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="4">
+        <f t="shared" ref="H139:H141" si="272">I139/J139</f>
+        <v>1.2990910150332129</v>
+      </c>
+      <c r="I139" s="5">
+        <v>4904.8999999999996</v>
+      </c>
+      <c r="J139" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K139" s="6">
+        <f t="shared" ref="K139:K141" si="273">(B139-H139)</f>
+        <v>0.20243302474613301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="269"/>
+        <v>1.4990365151472125</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="3">
+        <v>384749.9</v>
+      </c>
+      <c r="F140" s="3">
+        <f t="shared" si="270"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="4">
+        <f t="shared" si="272"/>
+        <v>1.3000339015372229</v>
+      </c>
+      <c r="I140" s="5">
+        <v>4908.46</v>
+      </c>
+      <c r="J140" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K140" s="6">
+        <f t="shared" si="273"/>
+        <v>0.19900261360998961</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="269"/>
+        <v>1.477041562555786</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="3">
+        <v>379104.57</v>
+      </c>
+      <c r="F141" s="3">
+        <f t="shared" si="270"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="4">
+        <f t="shared" si="272"/>
+        <v>1.2863646957866748</v>
+      </c>
+      <c r="I141" s="5">
+        <v>4856.8500000000004</v>
+      </c>
+      <c r="J141" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K141" s="6">
+        <f t="shared" si="273"/>
+        <v>0.19067686676911122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" ref="B142" si="274">E142/F142</f>
+        <v>1.4994386349625217</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>384853.11</v>
+      </c>
+      <c r="F142" s="3">
+        <f t="shared" ref="F142" si="275">F141+G142</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" ref="G142" si="276">C142/((E142-C142)/F141)</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="4">
+        <f t="shared" ref="H142" si="277">I142/J142</f>
+        <v>1.2988976703287389</v>
+      </c>
+      <c r="I142" s="5">
+        <v>4904.17</v>
+      </c>
+      <c r="J142" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K142" s="6">
+        <f t="shared" ref="K142" si="278">(B142-H142)</f>
+        <v>0.20054096463378279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" ref="B143:B146" si="279">E143/F143</f>
+        <v>1.5003697326610266</v>
+      </c>
+      <c r="C143" s="3">
+        <v>0</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0</v>
+      </c>
+      <c r="E143" s="3">
+        <v>385092.09</v>
+      </c>
+      <c r="F143" s="3">
+        <f t="shared" ref="F143:F146" si="280">F142+G143</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" ref="G143:G146" si="281">C143/((E143-C143)/F142)</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="4">
+        <f t="shared" ref="H143:H146" si="282">I143/J143</f>
+        <v>1.2964133233041286</v>
+      </c>
+      <c r="I143" s="5">
+        <v>4894.79</v>
+      </c>
+      <c r="J143" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K143" s="6">
+        <f t="shared" ref="K143:K146" si="283">(B143-H143)</f>
+        <v>0.20395640935689796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="279"/>
+        <v>1.5129008629970395</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0</v>
+      </c>
+      <c r="E144" s="3">
+        <v>388308.39</v>
+      </c>
+      <c r="F144" s="3">
+        <f t="shared" si="280"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="4">
+        <f t="shared" si="282"/>
+        <v>1.2955869733343222</v>
+      </c>
+      <c r="I144" s="5">
+        <v>4891.67</v>
+      </c>
+      <c r="J144" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K144" s="6">
+        <f t="shared" si="283"/>
+        <v>0.21731388966271736</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="279"/>
+        <v>1.516244056206232</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3">
+        <v>389166.47</v>
+      </c>
+      <c r="F145" s="3">
+        <f t="shared" si="280"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G145" s="3">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="4">
+        <f t="shared" si="282"/>
+        <v>1.3052065345212998</v>
+      </c>
+      <c r="I145" s="5">
+        <v>4927.99</v>
+      </c>
+      <c r="J145" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K145" s="6">
+        <f t="shared" si="283"/>
+        <v>0.21103752168493228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="279"/>
+        <v>1.5198759528193044</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0</v>
+      </c>
+      <c r="E146" s="3">
+        <v>390098.65</v>
+      </c>
+      <c r="F146" s="3">
+        <f t="shared" si="280"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G146" s="3">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="4">
+        <f t="shared" si="282"/>
+        <v>1.3092588276424659</v>
+      </c>
+      <c r="I146" s="5">
+        <v>4943.29</v>
+      </c>
+      <c r="J146" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K146" s="6">
+        <f t="shared" si="283"/>
+        <v>0.2106171251768385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" ref="B147" si="284">E147/F147</f>
+        <v>1.5207065303043126</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>390311.83</v>
+      </c>
+      <c r="F147" s="3">
+        <f t="shared" ref="F147" si="285">F146+G147</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" ref="G147" si="286">C147/((E147-C147)/F146)</f>
+        <v>0</v>
+      </c>
+      <c r="H147" s="4">
+        <f t="shared" ref="H147" si="287">I147/J147</f>
+        <v>1.3256110222372897</v>
+      </c>
+      <c r="I147" s="5">
+        <v>5005.03</v>
+      </c>
+      <c r="J147" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K147" s="6">
+        <f t="shared" ref="K147" si="288">(B147-H147)</f>
+        <v>0.19509550806702292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" ref="B148:B151" si="289">E148/F148</f>
+        <v>1.512916642332879</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0</v>
+      </c>
+      <c r="E148" s="3">
+        <v>388312.44</v>
+      </c>
+      <c r="F148" s="3">
+        <f t="shared" ref="F148:F151" si="290">F147+G148</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" ref="G148:G151" si="291">C148/((E148-C148)/F147)</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="4">
+        <f t="shared" ref="H148:H151" si="292">I148/J148</f>
+        <v>1.3174693561886197</v>
+      </c>
+      <c r="I148" s="5">
+        <v>4974.29</v>
+      </c>
+      <c r="J148" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K148" s="6">
+        <f t="shared" ref="K148:K151" si="293">(B148-H148)</f>
+        <v>0.19544728614425932</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="289"/>
+        <v>1.4804031065481402</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0</v>
+      </c>
+      <c r="E149" s="3">
+        <v>379967.36</v>
+      </c>
+      <c r="F149" s="3">
+        <f t="shared" si="290"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="4">
+        <f t="shared" si="292"/>
+        <v>1.3006271784386223</v>
+      </c>
+      <c r="I149" s="5">
+        <v>4910.7</v>
+      </c>
+      <c r="J149" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K149" s="6">
+        <f t="shared" si="293"/>
+        <v>0.17977592810951792</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="289"/>
+        <v>1.4826793828866385</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0</v>
+      </c>
+      <c r="E150" s="3">
+        <v>380551.6</v>
+      </c>
+      <c r="F150" s="3">
+        <f t="shared" si="290"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="4">
+        <f t="shared" si="292"/>
+        <v>1.3029817461410516</v>
+      </c>
+      <c r="I150" s="5">
+        <v>4919.59</v>
+      </c>
+      <c r="J150" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K150" s="6">
+        <f t="shared" si="293"/>
+        <v>0.17969763674558692</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="289"/>
+        <v>1.4918720343335494</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>382911.03</v>
+      </c>
+      <c r="F151" s="3">
+        <f t="shared" si="290"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="291"/>
+        <v>0</v>
+      </c>
+      <c r="H151" s="4">
+        <f t="shared" si="292"/>
+        <v>1.3191856215105255</v>
+      </c>
+      <c r="I151" s="5">
+        <v>4980.7700000000004</v>
+      </c>
+      <c r="J151" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K151" s="6">
+        <f t="shared" si="293"/>
+        <v>0.17268641282302388</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B4A6ED-5C9B-4DDA-8183-1A855E73BE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22D5903-0E88-4E4A-B718-C5ECBEB63FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,14 +171,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -814,6 +814,78 @@
                 <c:pt idx="149">
                   <c:v>44162</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1273,13 +1345,85 @@
                 <c:pt idx="149">
                   <c:v>1.4918720343335494</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.470463722383448</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.5025323198588338</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.5083451934141978</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.5230712098848356</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.5509163999404414</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.5421294137892385</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.5376999009704675</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.516511642573013</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.5203021896935884</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.5161494191525176</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.5442448967474653</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5353774554641422</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.5384282419724744</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.5610725383844368</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.5438021187171633</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.5406986143618018</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5233479488640012</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.5252158634577344</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.5043505822892238</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.5110127281190957</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.5161288469013372</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.5146702430795806</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.5324974508946938</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.5478805285226169</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-687B-4A2F-B460-5A6F5C5C6280}"/>
+              <c16:uniqueId val="{00000000-CF23-4A7A-BE54-392F0E300ED0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1786,6 +1930,78 @@
                 <c:pt idx="149">
                   <c:v>44162</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2245,13 +2461,85 @@
                 <c:pt idx="149">
                   <c:v>1.3191856215105255</c:v>
                 </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.3137507813244906</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.3420506192327659</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.342061213463148</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.3393914674068503</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.341738089436493</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.3301691898592027</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.3268955726711233</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.3091025627443293</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.3085251771885034</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.2950466675848333</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.3070207964742402</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.3097382165672575</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.3120610015785403</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.3289084764437287</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.3242708520939497</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.3366846415442151</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.314947929357672</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.326164570774756</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.3242840948819274</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.3354053882255725</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.3413381572395673</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.3356517040819569</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.3543955461855475</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.380240171202763</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-687B-4A2F-B460-5A6F5C5C6280}"/>
+              <c16:uniqueId val="{00000001-CF23-4A7A-BE54-392F0E300ED0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2271,11 +2559,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:smooth val="0"/>
-        <c:axId val="7167829"/>
-        <c:axId val="99449310"/>
+        <c:axId val="76519275"/>
+        <c:axId val="68950766"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="7167829"/>
+        <c:axId val="76519275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,14 +2596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99449310"/>
+        <c:crossAx val="68950766"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="99449310"/>
+        <c:axId val="68950766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -2356,7 +2644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7167829"/>
+        <c:crossAx val="76519275"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2420,15 +2708,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19335</xdr:colOff>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>189435</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108300</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2753,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q151"/>
+  <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M160" sqref="M160"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2816,7 +3104,7 @@
         <v>43938</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B44" si="0">E2/F2</f>
+        <f t="shared" ref="B2:B33" si="0">E2/F2</f>
         <v>1.0169115699259836</v>
       </c>
       <c r="C2" s="3">
@@ -2835,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <f t="shared" ref="H2:H44" si="1">I2/J2</f>
+        <f t="shared" ref="H2:H33" si="1">I2/J2</f>
         <v>1.0169110402474812</v>
       </c>
       <c r="I2" s="5">
@@ -2845,7 +3133,7 @@
         <v>3775.64</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K44" si="2">(B2-H2)</f>
+        <f t="shared" ref="K2:K33" si="2">(B2-H2)</f>
         <v>5.2967850239227232E-7</v>
       </c>
     </row>
@@ -4033,7 +4321,7 @@
         <v>43987</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B34:B65" si="3">E34/F34</f>
         <v>1.19508336579665</v>
       </c>
       <c r="C34" s="3">
@@ -4052,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H34:H65" si="4">I34/J34</f>
         <v>1.0597541079128308</v>
       </c>
       <c r="I34" s="5">
@@ -4062,7 +4350,7 @@
         <v>3775.64</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K34:K65" si="5">(B34-H34)</f>
         <v>0.13532925788381922</v>
       </c>
     </row>
@@ -4071,7 +4359,7 @@
         <v>43990</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2057566030385662</v>
       </c>
       <c r="C35" s="3">
@@ -4090,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0652366221355849</v>
       </c>
       <c r="I35" s="5">
@@ -4100,7 +4388,7 @@
         <v>3775.64</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.14051998090298135</v>
       </c>
     </row>
@@ -4109,7 +4397,7 @@
         <v>43991</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2294353720296065</v>
       </c>
       <c r="C36" s="3">
@@ -4128,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.071879204585183</v>
       </c>
       <c r="I36" s="5">
@@ -4138,7 +4426,7 @@
         <v>3775.64</v>
       </c>
       <c r="K36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15755616744442347</v>
       </c>
     </row>
@@ -4147,7 +4435,7 @@
         <v>43992</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2311172185430463</v>
       </c>
       <c r="C37" s="3">
@@ -4166,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0699404604252525</v>
       </c>
       <c r="I37" s="5">
@@ -4176,7 +4464,7 @@
         <v>3775.64</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16117675811779386</v>
       </c>
     </row>
@@ -4185,7 +4473,7 @@
         <v>43993</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2091353330736268</v>
       </c>
       <c r="C38" s="3">
@@ -4204,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0583318324840292</v>
       </c>
       <c r="I38" s="5">
@@ -4214,7 +4502,7 @@
         <v>3775.64</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15080350058959757</v>
       </c>
     </row>
@@ -4223,7 +4511,7 @@
         <v>43994</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2174755746007011</v>
       </c>
       <c r="C39" s="3">
@@ -4242,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0602387939528133</v>
       </c>
       <c r="I39" s="5">
@@ -4252,7 +4540,7 @@
         <v>3775.64</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15723678064788782</v>
       </c>
     </row>
@@ -4261,7 +4549,7 @@
         <v>43997</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2052065835605767</v>
       </c>
       <c r="C40" s="3">
@@ -4280,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0475018804758929</v>
       </c>
       <c r="I40" s="5">
@@ -4290,7 +4578,7 @@
         <v>3775.64</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.15770470308468387</v>
       </c>
     </row>
@@ -4299,7 +4587,7 @@
         <v>43998</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2250053369692249</v>
       </c>
       <c r="C41" s="3">
@@ -4318,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0632819866300813</v>
       </c>
       <c r="I41" s="5">
@@ -4328,7 +4616,7 @@
         <v>3775.64</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16172335033914353</v>
       </c>
     </row>
@@ -4337,7 +4625,7 @@
         <v>43999</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.237970899883132</v>
       </c>
       <c r="C42" s="3">
@@ -4356,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0640818510239325</v>
       </c>
       <c r="I42" s="5">
@@ -4366,7 +4654,7 @@
         <v>3775.64</v>
       </c>
       <c r="K42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.17388904885919954</v>
       </c>
     </row>
@@ -4375,7 +4663,7 @@
         <v>44000</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2361700038955981</v>
       </c>
       <c r="C43" s="3">
@@ -4394,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0711773368223667</v>
       </c>
       <c r="I43" s="5">
@@ -4404,7 +4692,7 @@
         <v>3775.64</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16499266707323135</v>
       </c>
     </row>
@@ -4413,7 +4701,7 @@
         <v>44001</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2462258667705493</v>
       </c>
       <c r="C44" s="3">
@@ -4432,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0855669502389</v>
       </c>
       <c r="I44" s="5">
@@ -4442,7 +4730,7 @@
         <v>3775.64</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.16065891653164921</v>
       </c>
     </row>
@@ -4451,7 +4739,7 @@
         <v>44004</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" ref="B45" si="3">E45/F45</f>
+        <f t="shared" si="3"/>
         <v>1.236173470977795</v>
       </c>
       <c r="C45" s="3">
@@ -4470,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" ref="H45" si="4">I45/J45</f>
+        <f t="shared" si="4"/>
         <v>1.0864515684758083</v>
       </c>
       <c r="I45" s="5">
@@ -4480,7 +4768,7 @@
         <v>3775.64</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45" si="5">(B45-H45)</f>
+        <f t="shared" si="5"/>
         <v>0.14972190250198669</v>
       </c>
     </row>
@@ -4489,7 +4777,7 @@
         <v>44005</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" ref="B46:B72" si="6">E46/F46</f>
+        <f t="shared" si="3"/>
         <v>1.2518468640436309</v>
       </c>
       <c r="C46" s="3">
@@ -4508,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" ref="H46:H80" si="7">I46/J46</f>
+        <f t="shared" si="4"/>
         <v>1.0916798211693912</v>
       </c>
       <c r="I46" s="5">
@@ -4518,7 +4806,7 @@
         <v>3775.64</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" ref="K46:K76" si="8">(B46-H46)</f>
+        <f t="shared" si="5"/>
         <v>0.16016704287423966</v>
       </c>
     </row>
@@ -4527,7 +4815,7 @@
         <v>44006</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2537977795091546</v>
       </c>
       <c r="C47" s="3">
@@ -4546,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.0962353402337086</v>
       </c>
       <c r="I47" s="5">
@@ -4556,7 +4844,7 @@
         <v>3775.64</v>
       </c>
       <c r="K47" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.157562439275446</v>
       </c>
     </row>
@@ -4565,7 +4853,7 @@
         <v>44011</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2485844955200625</v>
       </c>
       <c r="C48" s="3">
@@ -4584,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.0884830121515823</v>
       </c>
       <c r="I48" s="5">
@@ -4594,7 +4882,7 @@
         <v>3775.64</v>
       </c>
       <c r="K48" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.16010148336848018</v>
       </c>
     </row>
@@ -4603,7 +4891,7 @@
         <v>44012</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2620310089598752</v>
       </c>
       <c r="C49" s="3">
@@ -4622,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.1028487885497558</v>
       </c>
       <c r="I49" s="5">
@@ -4632,7 +4920,7 @@
         <v>3775.64</v>
       </c>
       <c r="K49" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.15918222041011942</v>
       </c>
     </row>
@@ -4641,7 +4929,7 @@
         <v>44013</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2869325671990652</v>
       </c>
       <c r="C50" s="3">
@@ -4660,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.1250489983155174</v>
       </c>
       <c r="I50" s="5">
@@ -4670,7 +4958,7 @@
         <v>3775.64</v>
       </c>
       <c r="K50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.16188356888354782</v>
       </c>
     </row>
@@ -4679,7 +4967,7 @@
         <v>44014</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.2999017919750682</v>
       </c>
       <c r="C51" s="3">
@@ -4698,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.1483721965017852</v>
       </c>
       <c r="I51" s="5">
@@ -4708,7 +4996,7 @@
         <v>3775.64</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.15152959547328293</v>
       </c>
     </row>
@@ -4717,7 +5005,7 @@
         <v>44015</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3167456564082587</v>
       </c>
       <c r="C52" s="3">
@@ -4736,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.1705565149219737</v>
       </c>
       <c r="I52" s="5">
@@ -4746,7 +5034,7 @@
         <v>3775.64</v>
       </c>
       <c r="K52" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.14618914148628503</v>
       </c>
     </row>
@@ -4755,7 +5043,7 @@
         <v>44018</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3682084534476042</v>
       </c>
       <c r="C53" s="3">
@@ -4774,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2369002341324915</v>
       </c>
       <c r="I53" s="5">
@@ -4784,7 +5072,7 @@
         <v>3775.64</v>
       </c>
       <c r="K53" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.13130821931511272</v>
       </c>
     </row>
@@ -4793,7 +5081,7 @@
         <v>44019</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3786777950915468</v>
       </c>
       <c r="C54" s="3">
@@ -4812,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2443267896303674</v>
       </c>
       <c r="I54" s="5">
@@ -4822,7 +5110,7 @@
         <v>3775.64</v>
       </c>
       <c r="K54" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.1343510054611794</v>
       </c>
     </row>
@@ -4831,7 +5119,7 @@
         <v>44020</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3916876509544214</v>
       </c>
       <c r="C55" s="3">
@@ -4850,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2644213961076798</v>
       </c>
       <c r="I55" s="5">
@@ -4860,7 +5148,7 @@
         <v>3775.64</v>
       </c>
       <c r="K55" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.12726625484674159</v>
       </c>
     </row>
@@ -4869,7 +5157,7 @@
         <v>44021</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4143011686793923</v>
       </c>
       <c r="C56" s="3">
@@ -4888,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2821058151730569</v>
       </c>
       <c r="I56" s="5">
@@ -4898,7 +5186,7 @@
         <v>3775.64</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.13219535350633538</v>
       </c>
     </row>
@@ -4907,7 +5195,7 @@
         <v>44022</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4062054927931438</v>
       </c>
       <c r="C57" s="3">
@@ -4928,7 +5216,7 @@
         <v>-9955.8706545739788</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2588938564058014</v>
       </c>
       <c r="I57" s="5">
@@ -4938,7 +5226,7 @@
         <v>3775.64</v>
       </c>
       <c r="K57" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.14731163638734235</v>
       </c>
     </row>
@@ -4947,7 +5235,7 @@
         <v>44025</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.439796727656514</v>
       </c>
       <c r="C58" s="3">
@@ -4967,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2853344068820121</v>
       </c>
       <c r="I58" s="5">
@@ -4977,20 +5265,20 @@
         <v>3775.64</v>
       </c>
       <c r="K58" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.15446232077450195</v>
       </c>
-      <c r="N58" s="16"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="16"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="14"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44026</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4430216878697963</v>
       </c>
       <c r="C59" s="3">
@@ -5003,14 +5291,14 @@
         <v>356057.13</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" ref="F59:F60" si="9">F58-G59</f>
+        <f>F58-G59</f>
         <v>246744.12934542602</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2730795308874787</v>
       </c>
       <c r="I59" s="5">
@@ -5020,7 +5308,7 @@
         <v>3775.64</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.16994215698231763</v>
       </c>
     </row>
@@ -5029,7 +5317,7 @@
         <v>44027</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4408897627804518</v>
       </c>
       <c r="C60" s="3">
@@ -5042,14 +5330,14 @@
         <v>355531.09</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="9"/>
+        <f>F59-G60</f>
         <v>246744.12934542602</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2566002055280696</v>
       </c>
       <c r="I60" s="5">
@@ -5059,7 +5347,7 @@
         <v>3775.64</v>
       </c>
       <c r="K60" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.18428955725238216</v>
       </c>
     </row>
@@ -5068,7 +5356,7 @@
         <v>44028</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3641114011219306</v>
       </c>
       <c r="C61" s="3">
@@ -5081,15 +5369,15 @@
         <v>339586.48</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" ref="F61:F72" si="10">F60+G61</f>
+        <f t="shared" ref="F61:F92" si="6">F60+G61</f>
         <v>248943.36321850459</v>
       </c>
       <c r="G61" s="3">
-        <f>C61/((E61-C61)/F60)</f>
+        <f t="shared" ref="G61:G92" si="7">C61/((E61-C61)/F60)</f>
         <v>2199.2338730785564</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.1961548240828046</v>
       </c>
       <c r="I61" s="5">
@@ -5099,7 +5387,7 @@
         <v>3775.64</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.16795657703912603</v>
       </c>
     </row>
@@ -5108,7 +5396,7 @@
         <v>44029</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.3921588248802075</v>
       </c>
       <c r="C62" s="3">
@@ -5121,15 +5409,15 @@
         <v>346568.7</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>248943.36321850459</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" ref="G62:G73" si="11">C62/((E62-C62)/F61)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2036899704420971</v>
       </c>
       <c r="I62" s="5">
@@ -5139,7 +5427,7 @@
         <v>3775.64</v>
       </c>
       <c r="K62" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.18846885443811034</v>
       </c>
     </row>
@@ -5148,7 +5436,7 @@
         <v>44032</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4170258465190468</v>
       </c>
       <c r="C63" s="3">
@@ -5161,15 +5449,15 @@
         <v>352759.18</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>248943.36321850459</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.2396044114375313</v>
       </c>
       <c r="I63" s="5">
@@ -5179,7 +5467,7 @@
         <v>3775.64</v>
       </c>
       <c r="K63" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.17742143508151553</v>
       </c>
     </row>
@@ -5188,7 +5476,7 @@
         <v>44033</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4333457031622385</v>
       </c>
       <c r="C64" s="3">
@@ -5201,15 +5489,15 @@
         <v>356821.9</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>248943.36321850459</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.242448962295134</v>
       </c>
       <c r="I64" s="5">
@@ -5219,7 +5507,7 @@
         <v>3775.64</v>
       </c>
       <c r="K64" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.19089674086710451</v>
       </c>
     </row>
@@ -5228,7 +5516,7 @@
         <v>44034</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.4458283014521656</v>
       </c>
       <c r="C65" s="3">
@@ -5241,15 +5529,15 @@
         <v>359929.36</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>248943.36321850459</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1.249443802904938</v>
       </c>
       <c r="I65" s="5">
@@ -5259,7 +5547,7 @@
         <v>3775.64</v>
       </c>
       <c r="K65" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.19638449854722762</v>
       </c>
     </row>
@@ -5268,7 +5556,7 @@
         <v>44035</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B66:B97" si="8">E66/F66</f>
         <v>1.4512415005934385</v>
       </c>
       <c r="C66" s="3">
@@ -5281,15 +5569,15 @@
         <v>361276.94</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>248943.36321850459</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H66:H97" si="9">I66/J66</f>
         <v>1.2481168755495757</v>
       </c>
       <c r="I66" s="5">
@@ -5299,7 +5587,7 @@
         <v>3775.64</v>
       </c>
       <c r="K66" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K66:K97" si="10">(B66-H66)</f>
         <v>0.20312462504386275</v>
       </c>
     </row>
@@ -5308,7 +5596,7 @@
         <v>44036</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3775655456980214</v>
       </c>
       <c r="C67" s="3">
@@ -5321,15 +5609,15 @@
         <v>342935.8</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>248943.36321850459</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1933314616859658</v>
       </c>
       <c r="I67" s="5">
@@ -5339,7 +5627,7 @@
         <v>3775.64</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18423408401205554</v>
       </c>
     </row>
@@ -5348,7 +5636,7 @@
         <v>44039</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3870482246876514</v>
       </c>
       <c r="C68" s="3">
@@ -5361,15 +5649,15 @@
         <v>346796.45</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>250024.79641837606</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>1081.4331998714636</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1993860643493552</v>
       </c>
       <c r="I68" s="5">
@@ -5379,7 +5667,7 @@
         <v>3775.64</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18766216033829619</v>
       </c>
     </row>
@@ -5388,7 +5676,7 @@
         <v>44040</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4067421913283062</v>
       </c>
       <c r="C69" s="3">
@@ -5401,15 +5689,15 @@
         <v>352620.43</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>639.77607663148387</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2099299721371741</v>
       </c>
       <c r="I69" s="5">
@@ -5419,7 +5707,7 @@
         <v>3775.64</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19681221919113212</v>
       </c>
     </row>
@@ -5428,7 +5716,7 @@
         <v>44041</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4434520458897571</v>
       </c>
       <c r="C70" s="3">
@@ -5441,15 +5729,15 @@
         <v>361822.29</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2392627475077074</v>
       </c>
       <c r="I70" s="5">
@@ -5459,7 +5747,7 @@
         <v>3775.64</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20418929838204969</v>
       </c>
     </row>
@@ -5468,7 +5756,7 @@
         <v>44042</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4388247465931121</v>
       </c>
       <c r="C71" s="3">
@@ -5481,15 +5769,15 @@
         <v>360662.39</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2332081448443177</v>
       </c>
       <c r="I71" s="5">
@@ -5499,7 +5787,7 @@
         <v>3775.64</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20561660174879437</v>
       </c>
     </row>
@@ -5508,7 +5796,7 @@
         <v>44043</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4411904578465915</v>
       </c>
       <c r="C72" s="3">
@@ -5521,15 +5809,15 @@
         <v>361255.39</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.243511033890943</v>
       </c>
       <c r="I72" s="5">
@@ -5539,7 +5827,7 @@
         <v>3775.64</v>
       </c>
       <c r="K72" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19767942395564853</v>
       </c>
     </row>
@@ -5548,7 +5836,7 @@
         <v>44046</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" ref="B73:B80" si="12">E73/F73</f>
+        <f t="shared" si="8"/>
         <v>1.4625868600051246</v>
       </c>
       <c r="C73" s="3">
@@ -5561,15 +5849,15 @@
         <v>366618.71</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" ref="F73:F80" si="13">F72+G73</f>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2637089341144814</v>
       </c>
       <c r="I73" s="5">
@@ -5579,7 +5867,7 @@
         <v>3775.64</v>
       </c>
       <c r="K73" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19887792589064324</v>
       </c>
     </row>
@@ -5588,7 +5876,7 @@
         <v>44047</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4612071277335972</v>
       </c>
       <c r="C74" s="3">
@@ -5601,15 +5889,15 @@
         <v>366272.86</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" ref="G74:G80" si="14">C74/((E74-C74)/F73)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2648981364748759</v>
       </c>
       <c r="I74" s="5">
@@ -5619,7 +5907,7 @@
         <v>3775.64</v>
       </c>
       <c r="K74" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19630899125872125</v>
       </c>
     </row>
@@ -5628,7 +5916,7 @@
         <v>44048</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4750353682603634</v>
       </c>
       <c r="C75" s="3">
@@ -5641,15 +5929,15 @@
         <v>369739.11</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2652450975198906</v>
       </c>
       <c r="I75" s="5">
@@ -5659,7 +5947,7 @@
         <v>3775.64</v>
       </c>
       <c r="K75" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.20979027074047285</v>
       </c>
     </row>
@@ -5668,7 +5956,7 @@
         <v>44049</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4582846166156185</v>
       </c>
       <c r="C76" s="3">
@@ -5681,15 +5969,15 @@
         <v>365540.29</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2614444173703003</v>
       </c>
       <c r="I76" s="5">
@@ -5699,7 +5987,7 @@
         <v>3775.64</v>
       </c>
       <c r="K76" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.19684019924531815</v>
       </c>
     </row>
@@ -5708,7 +5996,7 @@
         <v>44050</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4467850258624921</v>
       </c>
       <c r="C77" s="3">
@@ -5721,15 +6009,15 @@
         <v>362657.75</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2469223760739903</v>
       </c>
       <c r="I77" s="5">
@@ -5739,7 +6027,7 @@
         <v>3775.64</v>
       </c>
       <c r="K77" s="6">
-        <f>(B77-H77)</f>
+        <f t="shared" si="10"/>
         <v>0.19986264978850188</v>
       </c>
     </row>
@@ -5748,7 +6036,7 @@
         <v>44053</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4617275842093627</v>
       </c>
       <c r="C78" s="3">
@@ -5761,15 +6049,15 @@
         <v>366403.32</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2514090326408238</v>
       </c>
       <c r="I78" s="5">
@@ -5779,7 +6067,7 @@
         <v>3775.64</v>
       </c>
       <c r="K78" s="6">
-        <f>(B78-H78)</f>
+        <f t="shared" si="10"/>
         <v>0.21031855156853885</v>
       </c>
     </row>
@@ -5788,7 +6076,7 @@
         <v>44054</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4571231840401961</v>
       </c>
       <c r="C79" s="3">
@@ -5801,15 +6089,15 @@
         <v>365249.16</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2399963979616699</v>
       </c>
       <c r="I79" s="5">
@@ -5819,7 +6107,7 @@
         <v>3775.64</v>
       </c>
       <c r="K79" s="6">
-        <f>(B79-H79)</f>
+        <f t="shared" si="10"/>
         <v>0.2171267860785262</v>
       </c>
     </row>
@@ -5828,7 +6116,7 @@
         <v>44055</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1.4347524918271526</v>
       </c>
       <c r="C80" s="3">
@@ -5841,15 +6129,15 @@
         <v>359641.62</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.230954222330519</v>
       </c>
       <c r="I80" s="5">
@@ -5859,7 +6147,7 @@
         <v>3775.64</v>
       </c>
       <c r="K80" s="6">
-        <f>(B80-H80)</f>
+        <f t="shared" si="10"/>
         <v>0.2037982694966336</v>
       </c>
     </row>
@@ -5868,7 +6156,7 @@
         <v>44056</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" ref="B81" si="15">E81/F81</f>
+        <f t="shared" si="8"/>
         <v>1.4214212102394181</v>
       </c>
       <c r="C81" s="3">
@@ -5881,15 +6169,15 @@
         <v>356299.94</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" ref="F81" si="16">F80+G81</f>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" ref="G81" si="17">C81/((E81-C81)/F80)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" ref="H81" si="18">I81/J81</f>
+        <f t="shared" si="9"/>
         <v>1.2277944931190474</v>
       </c>
       <c r="I81" s="5">
@@ -5899,7 +6187,7 @@
         <v>3775.64</v>
       </c>
       <c r="K81" s="6">
-        <f>(B81-H81)</f>
+        <f t="shared" si="10"/>
         <v>0.19362671712037072</v>
       </c>
     </row>
@@ -5908,7 +6196,7 @@
         <v>44057</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" ref="B82:B83" si="19">E82/F82</f>
+        <f t="shared" si="8"/>
         <v>1.4404783508335288</v>
       </c>
       <c r="C82" s="3">
@@ -5921,15 +6209,15 @@
         <v>361076.89</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" ref="F82:F83" si="20">F81+G82</f>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" ref="G82:G83" si="21">C82/((E82-C82)/F81)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" ref="H82:H83" si="22">I82/J82</f>
+        <f t="shared" si="9"/>
         <v>1.2460483520674641</v>
       </c>
       <c r="I82" s="5">
@@ -5939,7 +6227,7 @@
         <v>3775.64</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" ref="K82:K83" si="23">(B82-H82)</f>
+        <f t="shared" si="10"/>
         <v>0.1944299987660647</v>
       </c>
     </row>
@@ -5948,7 +6236,7 @@
         <v>44060</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>1.4632337803033779</v>
       </c>
       <c r="C83" s="3">
@@ -5961,15 +6249,15 @@
         <v>366780.87</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="9"/>
         <v>1.2753413990740643</v>
       </c>
       <c r="I83" s="5">
@@ -5979,7 +6267,7 @@
         <v>3775.64</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="10"/>
         <v>0.18789238122931362</v>
       </c>
     </row>
@@ -5988,7 +6276,7 @@
         <v>44061</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" ref="B84" si="24">E84/F84</f>
+        <f t="shared" si="8"/>
         <v>1.4767615794903473</v>
       </c>
       <c r="C84" s="3">
@@ -6001,15 +6289,15 @@
         <v>370171.81</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" ref="F84" si="25">F83+G84</f>
+        <f t="shared" si="6"/>
         <v>250664.57249500754</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" ref="G84" si="26">C84/((E84-C84)/F83)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" ref="H84" si="27">I84/J84</f>
+        <f t="shared" si="9"/>
         <v>1.2746872053479676</v>
       </c>
       <c r="I84" s="5">
@@ -6019,7 +6307,7 @@
         <v>3775.64</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" ref="K84" si="28">(B84-H84)</f>
+        <f t="shared" si="10"/>
         <v>0.20207437414237961</v>
       </c>
     </row>
@@ -6028,7 +6316,7 @@
         <v>44062</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" ref="B85" si="29">E85/F85</f>
+        <f t="shared" si="8"/>
         <v>1.474194483575695</v>
       </c>
       <c r="C85" s="3">
@@ -6041,15 +6329,15 @@
         <v>371028.33</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" ref="F85" si="30">F84+G85</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" ref="G85" si="31">C85/((E85-C85)/F84)</f>
+        <f t="shared" si="7"/>
         <v>1017.5048249819204</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" ref="H85" si="32">I85/J85</f>
+        <f t="shared" si="9"/>
         <v>1.2555964021993624</v>
       </c>
       <c r="I85" s="5">
@@ -6059,7 +6347,7 @@
         <v>3775.64</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" ref="K85" si="33">(B85-H85)</f>
+        <f t="shared" si="10"/>
         <v>0.21859808137633263</v>
       </c>
     </row>
@@ -6068,7 +6356,7 @@
         <v>44063</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" ref="B86" si="34">E86/F86</f>
+        <f t="shared" si="8"/>
         <v>1.454400463862221</v>
       </c>
       <c r="C86" s="3">
@@ -6081,15 +6369,15 @@
         <v>366046.53</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" ref="F86" si="35">F85+G86</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" ref="G86" si="36">C86/((E86-C86)/F85)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" ref="H86" si="37">I86/J86</f>
+        <f t="shared" si="9"/>
         <v>1.2392998273140448</v>
       </c>
       <c r="I86" s="5">
@@ -6099,7 +6387,7 @@
         <v>3775.64</v>
       </c>
       <c r="K86" s="6">
-        <f t="shared" ref="K86" si="38">(B86-H86)</f>
+        <f t="shared" si="10"/>
         <v>0.21510063654817624</v>
       </c>
     </row>
@@ -6108,7 +6396,7 @@
         <v>44064</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" ref="B87" si="39">E87/F87</f>
+        <f t="shared" si="8"/>
         <v>1.4835922524799656</v>
       </c>
       <c r="C87" s="3">
@@ -6121,15 +6409,15 @@
         <v>373393.58</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" ref="F87" si="40">F86+G87</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" ref="G87" si="41">C87/((E87-C87)/F86)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" ref="H87" si="42">I87/J87</f>
+        <f t="shared" si="9"/>
         <v>1.2498119524107172</v>
       </c>
       <c r="I87" s="5">
@@ -6139,7 +6427,7 @@
         <v>3775.64</v>
       </c>
       <c r="K87" s="6">
-        <f t="shared" ref="K87" si="43">(B87-H87)</f>
+        <f t="shared" si="10"/>
         <v>0.23378030006924844</v>
       </c>
     </row>
@@ -6148,7 +6436,7 @@
         <v>44067</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" ref="B88" si="44">E88/F88</f>
+        <f t="shared" si="8"/>
         <v>1.4811251717620542</v>
       </c>
       <c r="C88" s="3">
@@ -6161,15 +6449,15 @@
         <v>372772.66</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" ref="F88" si="45">F87+G88</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" ref="G88" si="46">C88/((E88-C88)/F87)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" ref="H88" si="47">I88/J88</f>
+        <f t="shared" si="9"/>
         <v>1.2596142640717867</v>
       </c>
       <c r="I88" s="5">
@@ -6179,7 +6467,7 @@
         <v>3775.64</v>
       </c>
       <c r="K88" s="6">
-        <f t="shared" ref="K88" si="48">(B88-H88)</f>
+        <f t="shared" si="10"/>
         <v>0.22151090769026749</v>
       </c>
     </row>
@@ -6188,7 +6476,7 @@
         <v>44068</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" ref="B89" si="49">E89/F89</f>
+        <f t="shared" si="8"/>
         <v>1.4850514743836893</v>
       </c>
       <c r="C89" s="3">
@@ -6201,15 +6489,15 @@
         <v>373760.84</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" ref="F89" si="50">F88+G89</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" ref="G89" si="51">C89/((E89-C89)/F88)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" ref="H89" si="52">I89/J89</f>
+        <f t="shared" si="9"/>
         <v>1.261229884205062</v>
       </c>
       <c r="I89" s="5">
@@ -6219,7 +6507,7 @@
         <v>3775.64</v>
       </c>
       <c r="K89" s="6">
-        <f t="shared" ref="K89" si="53">(B89-H89)</f>
+        <f t="shared" si="10"/>
         <v>0.22382159017862735</v>
       </c>
     </row>
@@ -6228,7 +6516,7 @@
         <v>44069</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" ref="B90" si="54">E90/F90</f>
+        <f t="shared" si="8"/>
         <v>1.4758327011412462</v>
       </c>
       <c r="C90" s="3">
@@ -6241,15 +6529,15 @@
         <v>371440.64000000001</v>
       </c>
       <c r="F90" s="3">
-        <f t="shared" ref="F90" si="55">F89+G90</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" ref="G90" si="56">C90/((E90-C90)/F89)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" ref="H90" si="57">I90/J90</f>
+        <f t="shared" si="9"/>
         <v>1.2464456357067941</v>
       </c>
       <c r="I90" s="5">
@@ -6259,7 +6547,7 @@
         <v>3775.64</v>
       </c>
       <c r="K90" s="6">
-        <f t="shared" ref="K90" si="58">(B90-H90)</f>
+        <f t="shared" si="10"/>
         <v>0.22938706543445209</v>
       </c>
     </row>
@@ -6268,7 +6556,7 @@
         <v>44070</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" ref="B91:B92" si="59">E91/F91</f>
+        <f t="shared" si="8"/>
         <v>1.4916635860513952</v>
       </c>
       <c r="C91" s="3">
@@ -6281,15 +6569,15 @@
         <v>375424.99</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" ref="F91:F92" si="60">F90+G91</f>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" ref="G91:G92" si="61">C91/((E91-C91)/F90)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" ref="H91:H92" si="62">I91/J91</f>
+        <f t="shared" si="9"/>
         <v>1.2531252979627296</v>
       </c>
       <c r="I91" s="5">
@@ -6299,7 +6587,7 @@
         <v>3775.64</v>
       </c>
       <c r="K91" s="6">
-        <f t="shared" ref="K91:K92" si="63">(B91-H91)</f>
+        <f t="shared" si="10"/>
         <v>0.23853828808866551</v>
       </c>
     </row>
@@ -6308,7 +6596,7 @@
         <v>44071</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="8"/>
         <v>1.5416125936798442</v>
       </c>
       <c r="C92" s="3">
@@ -6321,15 +6609,15 @@
         <v>387996.26</v>
       </c>
       <c r="F92" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="6"/>
         <v>251682.07731998945</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="9"/>
         <v>1.2830328103314936</v>
       </c>
       <c r="I92" s="5">
@@ -6339,7 +6627,7 @@
         <v>3775.64</v>
       </c>
       <c r="K92" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="10"/>
         <v>0.25857978334835052</v>
       </c>
     </row>
@@ -6348,7 +6636,7 @@
         <v>44074</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" ref="B93" si="64">E93/F93</f>
+        <f t="shared" si="8"/>
         <v>1.5339491953936493</v>
       </c>
       <c r="C93" s="3">
@@ -6361,15 +6649,15 @@
         <v>386067.52</v>
       </c>
       <c r="F93" s="3">
-        <f t="shared" ref="F93" si="65">F92+G93</f>
+        <f t="shared" ref="F93:F124" si="11">F92+G93</f>
         <v>251682.07731998945</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" ref="G93" si="66">C93/((E93-C93)/F92)</f>
+        <f t="shared" ref="G93:G124" si="12">C93/((E93-C93)/F92)</f>
         <v>0</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" ref="H93" si="67">I93/J93</f>
+        <f t="shared" si="9"/>
         <v>1.2756036062760221</v>
       </c>
       <c r="I93" s="5">
@@ -6379,7 +6667,7 @@
         <v>3775.64</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" ref="K93" si="68">(B93-H93)</f>
+        <f t="shared" si="10"/>
         <v>0.25834558911762717</v>
       </c>
     </row>
@@ -6388,7 +6676,7 @@
         <v>44075</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" ref="B94" si="69">E94/F94</f>
+        <f t="shared" si="8"/>
         <v>1.5296022033008869</v>
       </c>
       <c r="C94" s="3">
@@ -6401,15 +6689,15 @@
         <v>385973.46</v>
       </c>
       <c r="F94" s="3">
-        <f t="shared" ref="F94" si="70">F93+G94</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" ref="G94" si="71">C94/((E94-C94)/F93)</f>
+        <f t="shared" si="12"/>
         <v>653.76474866602348</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" ref="H94" si="72">I94/J94</f>
+        <f t="shared" si="9"/>
         <v>1.2824633704484538</v>
       </c>
       <c r="I94" s="5">
@@ -6419,7 +6707,7 @@
         <v>3775.64</v>
       </c>
       <c r="K94" s="6">
-        <f t="shared" ref="K94" si="73">(B94-H94)</f>
+        <f t="shared" si="10"/>
         <v>0.2471388328524331</v>
       </c>
     </row>
@@ -6428,7 +6716,7 @@
         <v>44076</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" ref="B95" si="74">E95/F95</f>
+        <f t="shared" si="8"/>
         <v>1.5284044741256639</v>
       </c>
       <c r="C95" s="3">
@@ -6441,15 +6729,15 @@
         <v>385671.23</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" ref="F95" si="75">F94+G95</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" ref="G95" si="76">C95/((E95-C95)/F94)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" ref="H95" si="77">I95/J95</f>
+        <f t="shared" si="9"/>
         <v>1.2829321651428633</v>
       </c>
       <c r="I95" s="5">
@@ -6459,7 +6747,7 @@
         <v>3775.64</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" ref="K95" si="78">(B95-H95)</f>
+        <f t="shared" si="10"/>
         <v>0.24547230898280059</v>
       </c>
     </row>
@@ -6468,7 +6756,7 @@
         <v>44077</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" ref="B96" si="79">E96/F96</f>
+        <f t="shared" si="8"/>
         <v>1.5199518104750533</v>
       </c>
       <c r="C96" s="3">
@@ -6481,15 +6769,15 @@
         <v>383538.32</v>
       </c>
       <c r="F96" s="3">
-        <f t="shared" ref="F96" si="80">F95+G96</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" ref="G96" si="81">C96/((E96-C96)/F95)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" ref="H96" si="82">I96/J96</f>
+        <f t="shared" si="9"/>
         <v>1.2758366793444291</v>
       </c>
       <c r="I96" s="5">
@@ -6499,7 +6787,7 @@
         <v>3775.64</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" ref="K96" si="83">(B96-H96)</f>
+        <f t="shared" si="10"/>
         <v>0.24411513113062422</v>
       </c>
     </row>
@@ -6508,7 +6796,7 @@
         <v>44078</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" ref="B97" si="84">E97/F97</f>
+        <f t="shared" si="8"/>
         <v>1.4855771059983107</v>
       </c>
       <c r="C97" s="3">
@@ -6521,15 +6809,15 @@
         <v>374864.35</v>
       </c>
       <c r="F97" s="3">
-        <f t="shared" ref="F97" si="85">F96+G97</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" ref="G97" si="86">C97/((E97-C97)/F96)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" ref="H97" si="87">I97/J97</f>
+        <f t="shared" si="9"/>
         <v>1.2634202413365683</v>
       </c>
       <c r="I97" s="5">
@@ -6539,7 +6827,7 @@
         <v>3775.64</v>
       </c>
       <c r="K97" s="6">
-        <f t="shared" ref="K97" si="88">(B97-H97)</f>
+        <f t="shared" si="10"/>
         <v>0.22215686466174245</v>
       </c>
     </row>
@@ -6548,7 +6836,7 @@
         <v>44081</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" ref="B98:B100" si="89">E98/F98</f>
+        <f t="shared" ref="B98:B129" si="13">E98/F98</f>
         <v>1.4470486119076662</v>
       </c>
       <c r="C98" s="3">
@@ -6561,15 +6849,15 @@
         <v>365142.23</v>
       </c>
       <c r="F98" s="3">
-        <f t="shared" ref="F98:F100" si="90">F97+G98</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G98" s="3">
-        <f t="shared" ref="G98:G100" si="91">C98/((E98-C98)/F97)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" ref="H98:H100" si="92">I98/J98</f>
+        <f t="shared" ref="H98:H129" si="14">I98/J98</f>
         <v>1.236709537985613</v>
       </c>
       <c r="I98" s="5">
@@ -6579,7 +6867,7 @@
         <v>3775.64</v>
       </c>
       <c r="K98" s="6">
-        <f t="shared" ref="K98:K100" si="93">(B98-H98)</f>
+        <f t="shared" ref="K98:K129" si="15">(B98-H98)</f>
         <v>0.2103390739220532</v>
       </c>
     </row>
@@ -6588,7 +6876,7 @@
         <v>44082</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="13"/>
         <v>1.4428056554127713</v>
       </c>
       <c r="C99" s="3">
@@ -6601,15 +6889,15 @@
         <v>364071.58</v>
       </c>
       <c r="F99" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="14"/>
         <v>1.2433362290896379</v>
       </c>
       <c r="I99" s="5">
@@ -6619,7 +6907,7 @@
         <v>3775.64</v>
       </c>
       <c r="K99" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="15"/>
         <v>0.19946942632313336</v>
       </c>
     </row>
@@ -6628,7 +6916,7 @@
         <v>44083</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="13"/>
         <v>1.405999944722361</v>
       </c>
       <c r="C100" s="3">
@@ -6641,15 +6929,15 @@
         <v>354784.18</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G100" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="92"/>
+        <f t="shared" si="14"/>
         <v>1.2142550666906804</v>
       </c>
       <c r="I100" s="5">
@@ -6659,7 +6947,7 @@
         <v>3775.64</v>
       </c>
       <c r="K100" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="15"/>
         <v>0.19174487803168061</v>
       </c>
     </row>
@@ -6668,7 +6956,7 @@
         <v>44084</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" ref="B101" si="94">E101/F101</f>
+        <f t="shared" si="13"/>
         <v>1.4037658189819255</v>
       </c>
       <c r="C101" s="3">
@@ -6681,15 +6969,15 @@
         <v>354220.43</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" ref="F101" si="95">F100+G101</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G101" s="3">
-        <f t="shared" ref="G101" si="96">C101/((E101-C101)/F100)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" ref="H101" si="97">I101/J101</f>
+        <f t="shared" si="14"/>
         <v>1.2135637931582459</v>
       </c>
       <c r="I101" s="5">
@@ -6699,7 +6987,7 @@
         <v>3775.64</v>
       </c>
       <c r="K101" s="6">
-        <f t="shared" ref="K101" si="98">(B101-H101)</f>
+        <f t="shared" si="15"/>
         <v>0.19020202582367962</v>
       </c>
     </row>
@@ -6708,7 +6996,7 @@
         <v>44085</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102" si="99">E102/F102</f>
+        <f t="shared" si="13"/>
         <v>1.4118389091275805</v>
       </c>
       <c r="C102" s="3">
@@ -6721,15 +7009,15 @@
         <v>356257.56</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" ref="F102" si="100">F101+G102</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G102" s="3">
-        <f t="shared" ref="G102" si="101">C102/((E102-C102)/F101)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" ref="H102" si="102">I102/J102</f>
+        <f t="shared" si="14"/>
         <v>1.2255617590660126</v>
       </c>
       <c r="I102" s="5">
@@ -6739,7 +7027,7 @@
         <v>3775.64</v>
       </c>
       <c r="K102" s="6">
-        <f t="shared" ref="K102" si="103">(B102-H102)</f>
+        <f t="shared" si="15"/>
         <v>0.18627715006156786</v>
       </c>
     </row>
@@ -6748,7 +7036,7 @@
         <v>44088</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" ref="B103" si="104">E103/F103</f>
+        <f t="shared" si="13"/>
         <v>1.4067335701894463</v>
       </c>
       <c r="C103" s="3">
@@ -6761,15 +7049,15 @@
         <v>354969.3</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" ref="F103" si="105">F102+G103</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" ref="G103" si="106">C103/((E103-C103)/F102)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" ref="H103" si="107">I103/J103</f>
+        <f t="shared" si="14"/>
         <v>1.2318573804705959</v>
       </c>
       <c r="I103" s="5">
@@ -6779,7 +7067,7 @@
         <v>3775.64</v>
       </c>
       <c r="K103" s="6">
-        <f t="shared" ref="K103" si="108">(B103-H103)</f>
+        <f t="shared" si="15"/>
         <v>0.17487618971885044</v>
       </c>
     </row>
@@ -6788,7 +7076,7 @@
         <v>44089</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" ref="B104" si="109">E104/F104</f>
+        <f t="shared" si="13"/>
         <v>1.424740445323593</v>
       </c>
       <c r="C104" s="3">
@@ -6801,15 +7089,15 @@
         <v>359513.08</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" ref="F104" si="110">F103+G104</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G104" s="3">
-        <f t="shared" ref="G104" si="111">C104/((E104-C104)/F103)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" ref="H104" si="112">I104/J104</f>
+        <f t="shared" si="14"/>
         <v>1.2417709315506775</v>
       </c>
       <c r="I104" s="5">
@@ -6819,7 +7107,7 @@
         <v>3775.64</v>
       </c>
       <c r="K104" s="6">
-        <f t="shared" ref="K104" si="113">(B104-H104)</f>
+        <f t="shared" si="15"/>
         <v>0.18296951377291548</v>
       </c>
     </row>
@@ -6828,7 +7116,7 @@
         <v>44090</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" ref="B105" si="114">E105/F105</f>
+        <f t="shared" si="13"/>
         <v>1.4123139902695112</v>
       </c>
       <c r="C105" s="3">
@@ -6841,15 +7129,15 @@
         <v>356377.44</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" ref="F105" si="115">F104+G105</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G105" s="3">
-        <f t="shared" ref="G105" si="116">C105/((E105-C105)/F104)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" ref="H105" si="117">I105/J105</f>
+        <f t="shared" si="14"/>
         <v>1.2335286203133773</v>
       </c>
       <c r="I105" s="5">
@@ -6859,7 +7147,7 @@
         <v>3775.64</v>
       </c>
       <c r="K105" s="6">
-        <f t="shared" ref="K105" si="118">(B105-H105)</f>
+        <f t="shared" si="15"/>
         <v>0.17878536995613392</v>
       </c>
     </row>
@@ -6868,7 +7156,7 @@
         <v>44091</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" ref="B106" si="119">E106/F106</f>
+        <f t="shared" si="13"/>
         <v>1.4024777736636882</v>
       </c>
       <c r="C106" s="3">
@@ -6881,15 +7169,15 @@
         <v>353895.41</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" ref="F106" si="120">F105+G106</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G106" s="3">
-        <f t="shared" ref="G106" si="121">C106/((E106-C106)/F105)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" ref="H106" si="122">I106/J106</f>
+        <f t="shared" si="14"/>
         <v>1.2269999258403874</v>
       </c>
       <c r="I106" s="5">
@@ -6899,7 +7187,7 @@
         <v>3775.64</v>
       </c>
       <c r="K106" s="6">
-        <f t="shared" ref="K106" si="123">(B106-H106)</f>
+        <f t="shared" si="15"/>
         <v>0.17547784782330078</v>
       </c>
     </row>
@@ -6908,7 +7196,7 @@
         <v>44092</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" ref="B107" si="124">E107/F107</f>
+        <f t="shared" si="13"/>
         <v>1.4306558950978421</v>
       </c>
       <c r="C107" s="3">
@@ -6921,15 +7209,15 @@
         <v>361005.76</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" ref="F107" si="125">F106+G107</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" ref="G107" si="126">C107/((E107-C107)/F106)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" ref="H107" si="127">I107/J107</f>
+        <f t="shared" si="14"/>
         <v>1.2546455700225658</v>
       </c>
       <c r="I107" s="5">
@@ -6939,7 +7227,7 @@
         <v>3775.64</v>
       </c>
       <c r="K107" s="6">
-        <f t="shared" ref="K107" si="128">(B107-H107)</f>
+        <f t="shared" si="15"/>
         <v>0.17601032507527625</v>
       </c>
     </row>
@@ -6948,7 +7236,7 @@
         <v>44095</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" ref="B108" si="129">E108/F108</f>
+        <f t="shared" si="13"/>
         <v>1.4168848431081111</v>
       </c>
       <c r="C108" s="3">
@@ -6961,15 +7249,15 @@
         <v>357530.83</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" ref="F108" si="130">F107+G108</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" ref="G108" si="131">C108/((E108-C108)/F107)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" ref="H108" si="132">I108/J108</f>
+        <f t="shared" si="14"/>
         <v>1.24255225604136</v>
       </c>
       <c r="I108" s="5">
@@ -6979,7 +7267,7 @@
         <v>3775.64</v>
       </c>
       <c r="K108" s="6">
-        <f t="shared" ref="K108" si="133">(B108-H108)</f>
+        <f t="shared" si="15"/>
         <v>0.17433258706675114</v>
       </c>
     </row>
@@ -6988,7 +7276,7 @@
         <v>44096</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" ref="B109" si="134">E109/F109</f>
+        <f t="shared" si="13"/>
         <v>1.4014174407446445</v>
       </c>
       <c r="C109" s="3">
@@ -7001,15 +7289,15 @@
         <v>353627.85</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" ref="F109" si="135">F108+G109</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" ref="G109" si="136">C109/((E109-C109)/F108)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" ref="H109" si="137">I109/J109</f>
+        <f t="shared" si="14"/>
         <v>1.2278077359070252</v>
       </c>
       <c r="I109" s="5">
@@ -7019,7 +7307,7 @@
         <v>3775.64</v>
       </c>
       <c r="K109" s="6">
-        <f t="shared" ref="K109" si="138">(B109-H109)</f>
+        <f t="shared" si="15"/>
         <v>0.17360970483761928</v>
       </c>
     </row>
@@ -7028,7 +7316,7 @@
         <v>44097</v>
       </c>
       <c r="B110" s="2">
-        <f t="shared" ref="B110" si="139">E110/F110</f>
+        <f t="shared" si="13"/>
         <v>1.4089715003834706</v>
       </c>
       <c r="C110" s="3">
@@ -7041,15 +7329,15 @@
         <v>355534.01</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" ref="F110" si="140">F109+G110</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" ref="G110" si="141">C110/((E110-C110)/F109)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H110" s="4">
-        <f t="shared" ref="H110" si="142">I110/J110</f>
+        <f t="shared" si="14"/>
         <v>1.2321963958428239</v>
       </c>
       <c r="I110" s="5">
@@ -7059,7 +7347,7 @@
         <v>3775.64</v>
       </c>
       <c r="K110" s="6">
-        <f t="shared" ref="K110" si="143">(B110-H110)</f>
+        <f t="shared" si="15"/>
         <v>0.17677510454064671</v>
       </c>
     </row>
@@ -7068,7 +7356,7 @@
         <v>44098</v>
       </c>
       <c r="B111" s="2">
-        <f t="shared" ref="B111" si="144">E111/F111</f>
+        <f t="shared" si="13"/>
         <v>1.3827134787497575</v>
       </c>
       <c r="C111" s="3">
@@ -7081,15 +7369,15 @@
         <v>348908.17</v>
       </c>
       <c r="F111" s="3">
-        <f t="shared" ref="F111" si="145">F110+G111</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" ref="G111" si="146">C111/((E111-C111)/F110)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H111" s="4">
-        <f t="shared" ref="H111" si="147">I111/J111</f>
+        <f t="shared" si="14"/>
         <v>1.2085553707450922</v>
       </c>
       <c r="I111" s="5">
@@ -7099,7 +7387,7 @@
         <v>3775.64</v>
       </c>
       <c r="K111" s="6">
-        <f t="shared" ref="K111" si="148">(B111-H111)</f>
+        <f t="shared" si="15"/>
         <v>0.17415810800466525</v>
       </c>
     </row>
@@ -7108,7 +7396,7 @@
         <v>44099</v>
       </c>
       <c r="B112" s="2">
-        <f t="shared" ref="B112" si="149">E112/F112</f>
+        <f t="shared" si="13"/>
         <v>1.3837743664849496</v>
       </c>
       <c r="C112" s="3">
@@ -7121,15 +7409,15 @@
         <v>349175.87</v>
       </c>
       <c r="F112" s="3">
-        <f t="shared" ref="F112" si="150">F111+G112</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G112" s="3">
-        <f t="shared" ref="G112" si="151">C112/((E112-C112)/F111)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H112" s="4">
-        <f t="shared" ref="H112" si="152">I112/J112</f>
+        <f t="shared" si="14"/>
         <v>1.2103961182739882</v>
       </c>
       <c r="I112" s="5">
@@ -7139,7 +7427,7 @@
         <v>3775.64</v>
       </c>
       <c r="K112" s="6">
-        <f t="shared" ref="K112" si="153">(B112-H112)</f>
+        <f t="shared" si="15"/>
         <v>0.17337824821096137</v>
       </c>
     </row>
@@ -7148,7 +7436,7 @@
         <v>44102</v>
       </c>
       <c r="B113" s="2">
-        <f t="shared" ref="B113" si="154">E113/F113</f>
+        <f t="shared" si="13"/>
         <v>1.3783601534710554</v>
       </c>
       <c r="C113" s="3">
@@ -7161,15 +7449,15 @@
         <v>347809.67</v>
       </c>
       <c r="F113" s="3">
-        <f t="shared" ref="F113" si="155">F112+G113</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G113" s="3">
-        <f t="shared" ref="G113" si="156">C113/((E113-C113)/F112)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H113" s="4">
-        <f t="shared" ref="H113" si="157">I113/J113</f>
+        <f t="shared" si="14"/>
         <v>1.2135452532550772</v>
       </c>
       <c r="I113" s="5">
@@ -7179,7 +7467,7 @@
         <v>3775.64</v>
       </c>
       <c r="K113" s="6">
-        <f t="shared" ref="K113" si="158">(B113-H113)</f>
+        <f t="shared" si="15"/>
         <v>0.16481490021597822</v>
       </c>
     </row>
@@ -7188,7 +7476,7 @@
         <v>44103</v>
       </c>
       <c r="B114" s="2">
-        <f t="shared" ref="B114" si="159">E114/F114</f>
+        <f t="shared" si="13"/>
         <v>1.3892470729727748</v>
       </c>
       <c r="C114" s="3">
@@ -7201,15 +7489,15 @@
         <v>350556.83</v>
       </c>
       <c r="F114" s="3">
-        <f t="shared" ref="F114" si="160">F113+G114</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G114" s="3">
-        <f t="shared" ref="G114" si="161">C114/((E114-C114)/F113)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H114" s="4">
-        <f t="shared" ref="H114" si="162">I114/J114</f>
+        <f t="shared" si="14"/>
         <v>1.21616467671706</v>
       </c>
       <c r="I114" s="5">
@@ -7219,7 +7507,7 @@
         <v>3775.64</v>
       </c>
       <c r="K114" s="6">
-        <f t="shared" ref="K114" si="163">(B114-H114)</f>
+        <f t="shared" si="15"/>
         <v>0.17308239625571487</v>
       </c>
     </row>
@@ -7228,7 +7516,7 @@
         <v>44104</v>
       </c>
       <c r="B115" s="2">
-        <f t="shared" ref="B115" si="164">E115/F115</f>
+        <f t="shared" si="13"/>
         <v>1.3985555405322938</v>
       </c>
       <c r="C115" s="3">
@@ -7241,15 +7529,15 @@
         <v>352905.69</v>
       </c>
       <c r="F115" s="3">
-        <f t="shared" ref="F115" si="165">F114+G115</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G115" s="3">
-        <f t="shared" ref="G115" si="166">C115/((E115-C115)/F114)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H115" s="4">
-        <f t="shared" ref="H115" si="167">I115/J115</f>
+        <f t="shared" si="14"/>
         <v>1.214999311375025</v>
       </c>
       <c r="I115" s="5">
@@ -7259,7 +7547,7 @@
         <v>3775.64</v>
       </c>
       <c r="K115" s="6">
-        <f t="shared" ref="K115" si="168">(B115-H115)</f>
+        <f t="shared" si="15"/>
         <v>0.18355622915726877</v>
       </c>
     </row>
@@ -7268,7 +7556,7 @@
         <v>44113</v>
       </c>
       <c r="B116" s="2">
-        <f t="shared" ref="B116" si="169">E116/F116</f>
+        <f t="shared" si="13"/>
         <v>1.4263370873095156</v>
       </c>
       <c r="C116" s="3">
@@ -7281,15 +7569,15 @@
         <v>359915.97</v>
       </c>
       <c r="F116" s="3">
-        <f t="shared" ref="F116" si="170">F115+G116</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G116" s="3">
-        <f t="shared" ref="G116" si="171">C116/((E116-C116)/F115)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H116" s="4">
-        <f t="shared" ref="H116" si="172">I116/J116</f>
+        <f t="shared" si="14"/>
         <v>1.239826890275556</v>
       </c>
       <c r="I116" s="5">
@@ -7299,7 +7587,7 @@
         <v>3775.64</v>
       </c>
       <c r="K116" s="6">
-        <f t="shared" ref="K116" si="173">(B116-H116)</f>
+        <f t="shared" si="15"/>
         <v>0.18651019703395955</v>
       </c>
     </row>
@@ -7308,7 +7596,7 @@
         <v>44116</v>
       </c>
       <c r="B117" s="2">
-        <f t="shared" ref="B117" si="174">E117/F117</f>
+        <f t="shared" si="13"/>
         <v>1.4627350081308512</v>
       </c>
       <c r="C117" s="3">
@@ -7321,15 +7609,15 @@
         <v>369100.47</v>
       </c>
       <c r="F117" s="3">
-        <f t="shared" ref="F117" si="175">F116+G117</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G117" s="3">
-        <f t="shared" ref="G117" si="176">C117/((E117-C117)/F116)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H117" s="4">
-        <f t="shared" ref="H117" si="177">I117/J117</f>
+        <f t="shared" si="14"/>
         <v>1.2774417052473224</v>
       </c>
       <c r="I117" s="5">
@@ -7339,7 +7627,7 @@
         <v>3775.64</v>
       </c>
       <c r="K117" s="6">
-        <f t="shared" ref="K117" si="178">(B117-H117)</f>
+        <f t="shared" si="15"/>
         <v>0.18529330288352885</v>
       </c>
     </row>
@@ -7348,7 +7636,7 @@
         <v>44117</v>
       </c>
       <c r="B118" s="2">
-        <f t="shared" ref="B118" si="179">E118/F118</f>
+        <f t="shared" si="13"/>
         <v>1.4727005365289765</v>
       </c>
       <c r="C118" s="3">
@@ -7361,15 +7649,15 @@
         <v>371615.13</v>
       </c>
       <c r="F118" s="3">
-        <f t="shared" ref="F118" si="180">F117+G118</f>
+        <f t="shared" si="11"/>
         <v>252335.84206865547</v>
       </c>
       <c r="G118" s="3">
-        <f t="shared" ref="G118" si="181">C118/((E118-C118)/F117)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H118" s="4">
-        <f t="shared" ref="H118" si="182">I118/J118</f>
+        <f t="shared" si="14"/>
         <v>1.281689991630558</v>
       </c>
       <c r="I118" s="5">
@@ -7379,7 +7667,7 @@
         <v>3775.64</v>
       </c>
       <c r="K118" s="6">
-        <f t="shared" ref="K118" si="183">(B118-H118)</f>
+        <f t="shared" si="15"/>
         <v>0.19101054489841851</v>
       </c>
     </row>
@@ -7388,7 +7676,7 @@
         <v>44118</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" ref="B119" si="184">E119/F119</f>
+        <f t="shared" si="13"/>
         <v>1.4784175206409977</v>
       </c>
       <c r="C119" s="3">
@@ -7401,15 +7689,15 @@
         <v>379457.73</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" ref="F119" si="185">F118+G119</f>
+        <f t="shared" si="11"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G119" s="3">
-        <f t="shared" ref="G119" si="186">C119/((E119-C119)/F118)</f>
+        <f t="shared" si="12"/>
         <v>4328.9530262230328</v>
       </c>
       <c r="H119" s="4">
-        <f t="shared" ref="H119" si="187">I119/J119</f>
+        <f t="shared" si="14"/>
         <v>1.2731881217488956</v>
       </c>
       <c r="I119" s="5">
@@ -7419,7 +7707,7 @@
         <v>3775.64</v>
       </c>
       <c r="K119" s="6">
-        <f t="shared" ref="K119" si="188">(B119-H119)</f>
+        <f t="shared" si="15"/>
         <v>0.20522939889210212</v>
       </c>
     </row>
@@ -7428,7 +7716,7 @@
         <v>44119</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" ref="B120" si="189">E120/F120</f>
+        <f t="shared" si="13"/>
         <v>1.4719790840825711</v>
       </c>
       <c r="C120" s="3">
@@ -7441,15 +7729,15 @@
         <v>377805.21</v>
       </c>
       <c r="F120" s="3">
-        <f t="shared" ref="F120" si="190">F119+G120</f>
+        <f t="shared" si="11"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G120" s="3">
-        <f t="shared" ref="G120" si="191">C120/((E120-C120)/F119)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" ref="H120" si="192">I120/J120</f>
+        <f t="shared" si="14"/>
         <v>1.2709739275990295</v>
       </c>
       <c r="I120" s="5">
@@ -7459,7 +7747,7 @@
         <v>3775.64</v>
       </c>
       <c r="K120" s="6">
-        <f t="shared" ref="K120" si="193">(B120-H120)</f>
+        <f t="shared" si="15"/>
         <v>0.20100515648354156</v>
       </c>
     </row>
@@ -7468,7 +7756,7 @@
         <v>44120</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" ref="B121" si="194">E121/F121</f>
+        <f t="shared" si="13"/>
         <v>1.4810386826112294</v>
       </c>
       <c r="C121" s="3">
@@ -7481,15 +7769,15 @@
         <v>380130.49</v>
       </c>
       <c r="F121" s="3">
-        <f t="shared" ref="F121" si="195">F120+G121</f>
+        <f t="shared" si="11"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G121" s="3">
-        <f t="shared" ref="G121" si="196">C121/((E121-C121)/F120)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" ref="H121" si="197">I121/J121</f>
+        <f t="shared" si="14"/>
         <v>1.269104045936583</v>
       </c>
       <c r="I121" s="5">
@@ -7499,7 +7787,7 @@
         <v>3775.64</v>
       </c>
       <c r="K121" s="6">
-        <f t="shared" ref="K121" si="198">(B121-H121)</f>
+        <f t="shared" si="15"/>
         <v>0.2119346366746464</v>
       </c>
     </row>
@@ -7508,7 +7796,7 @@
         <v>44123</v>
       </c>
       <c r="B122" s="2">
-        <f t="shared" ref="B122" si="199">E122/F122</f>
+        <f t="shared" si="13"/>
         <v>1.4528926332189491</v>
       </c>
       <c r="C122" s="3">
@@ -7521,15 +7809,15 @@
         <v>372906.39</v>
       </c>
       <c r="F122" s="3">
-        <f t="shared" ref="F122" si="200">F121+G122</f>
+        <f t="shared" si="11"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G122" s="3">
-        <f t="shared" ref="G122" si="201">C122/((E122-C122)/F121)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" ref="H122" si="202">I122/J122</f>
+        <f t="shared" si="14"/>
         <v>1.2595189159983473</v>
       </c>
       <c r="I122" s="5">
@@ -7539,7 +7827,7 @@
         <v>3775.64</v>
       </c>
       <c r="K122" s="6">
-        <f t="shared" ref="K122" si="203">(B122-H122)</f>
+        <f t="shared" si="15"/>
         <v>0.19337371722060182</v>
       </c>
     </row>
@@ -7548,7 +7836,7 @@
         <v>44124</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123" si="204">E123/F123</f>
+        <f t="shared" si="13"/>
         <v>1.4734421207248232</v>
       </c>
       <c r="C123" s="3">
@@ -7561,15 +7849,15 @@
         <v>378180.72</v>
       </c>
       <c r="F123" s="3">
-        <f t="shared" ref="F123" si="205">F122+G123</f>
+        <f t="shared" si="11"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G123" s="3">
-        <f t="shared" ref="G123" si="206">C123/((E123-C123)/F122)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" ref="H123" si="207">I123/J123</f>
+        <f t="shared" si="14"/>
         <v>1.2695781377461834</v>
       </c>
       <c r="I123" s="5">
@@ -7579,7 +7867,7 @@
         <v>3775.64</v>
       </c>
       <c r="K123" s="6">
-        <f t="shared" ref="K123" si="208">(B123-H123)</f>
+        <f t="shared" si="15"/>
         <v>0.20386398297863972</v>
       </c>
     </row>
@@ -7588,7 +7876,7 @@
         <v>44125</v>
       </c>
       <c r="B124" s="2">
-        <f t="shared" ref="B124" si="209">E124/F124</f>
+        <f t="shared" si="13"/>
         <v>1.4720912537316626</v>
       </c>
       <c r="C124" s="3">
@@ -7601,15 +7889,15 @@
         <v>377834</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" ref="F124" si="210">F123+G124</f>
+        <f t="shared" si="11"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G124" s="3">
-        <f t="shared" ref="G124" si="211">C124/((E124-C124)/F123)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" ref="H124" si="212">I124/J124</f>
+        <f t="shared" si="14"/>
         <v>1.2694086300600693</v>
       </c>
       <c r="I124" s="5">
@@ -7619,7 +7907,7 @@
         <v>3775.64</v>
       </c>
       <c r="K124" s="6">
-        <f t="shared" ref="K124" si="213">(B124-H124)</f>
+        <f t="shared" si="15"/>
         <v>0.20268262367159329</v>
       </c>
     </row>
@@ -7628,7 +7916,7 @@
         <v>44126</v>
       </c>
       <c r="B125" s="2">
-        <f t="shared" ref="B125" si="214">E125/F125</f>
+        <f t="shared" si="13"/>
         <v>1.4702321752404983</v>
       </c>
       <c r="C125" s="3">
@@ -7641,15 +7929,15 @@
         <v>377356.84</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" ref="F125" si="215">F124+G125</f>
+        <f t="shared" ref="F125:F156" si="16">F124+G125</f>
         <v>256664.7950948785</v>
       </c>
       <c r="G125" s="3">
-        <f t="shared" ref="G125" si="216">C125/((E125-C125)/F124)</f>
+        <f t="shared" ref="G125:G156" si="17">C125/((E125-C125)/F124)</f>
         <v>0</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" ref="H125" si="217">I125/J125</f>
+        <f t="shared" si="14"/>
         <v>1.2654755220307019</v>
       </c>
       <c r="I125" s="5">
@@ -7659,7 +7947,7 @@
         <v>3775.64</v>
       </c>
       <c r="K125" s="6">
-        <f t="shared" ref="K125" si="218">(B125-H125)</f>
+        <f t="shared" si="15"/>
         <v>0.20475665320979641</v>
       </c>
     </row>
@@ -7668,7 +7956,7 @@
         <v>44127</v>
       </c>
       <c r="B126" s="2">
-        <f t="shared" ref="B126" si="219">E126/F126</f>
+        <f t="shared" si="13"/>
         <v>1.4336520123999759</v>
       </c>
       <c r="C126" s="3">
@@ -7681,15 +7969,15 @@
         <v>367968</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" ref="F126" si="220">F125+G126</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G126" s="3">
-        <f t="shared" ref="G126" si="221">C126/((E126-C126)/F125)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H126" s="4">
-        <f t="shared" ref="H126" si="222">I126/J126</f>
+        <f t="shared" si="14"/>
         <v>1.2497192528948735</v>
       </c>
       <c r="I126" s="5">
@@ -7699,7 +7987,7 @@
         <v>3775.64</v>
       </c>
       <c r="K126" s="6">
-        <f t="shared" ref="K126" si="223">(B126-H126)</f>
+        <f t="shared" si="15"/>
         <v>0.18393275950510235</v>
       </c>
     </row>
@@ -7708,7 +7996,7 @@
         <v>44130</v>
       </c>
       <c r="B127" s="2">
-        <f t="shared" ref="B127" si="224">E127/F127</f>
+        <f t="shared" si="13"/>
         <v>1.4240768776445782</v>
       </c>
       <c r="C127" s="3">
@@ -7721,15 +8009,15 @@
         <v>365510.40000000002</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" ref="F127" si="225">F126+G127</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G127" s="3">
-        <f t="shared" ref="G127" si="226">C127/((E127-C127)/F126)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" ref="H127" si="227">I127/J127</f>
+        <f t="shared" si="14"/>
         <v>1.2425019334470446</v>
       </c>
       <c r="I127" s="5">
@@ -7739,7 +8027,7 @@
         <v>3775.64</v>
       </c>
       <c r="K127" s="6">
-        <f t="shared" ref="K127" si="228">(B127-H127)</f>
+        <f t="shared" si="15"/>
         <v>0.18157494419753362</v>
       </c>
     </row>
@@ -7748,7 +8036,7 @@
         <v>44131</v>
       </c>
       <c r="B128" s="2">
-        <f t="shared" ref="B128" si="229">E128/F128</f>
+        <f t="shared" si="13"/>
         <v>1.4440781403736653</v>
       </c>
       <c r="C128" s="3">
@@ -7761,15 +8049,15 @@
         <v>370644.02</v>
       </c>
       <c r="F128" s="3">
-        <f t="shared" ref="F128" si="230">F127+G128</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G128" s="3">
-        <f t="shared" ref="G128" si="231">C128/((E128-C128)/F127)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" ref="H128" si="232">I128/J128</f>
+        <f t="shared" si="14"/>
         <v>1.2446313737538537</v>
       </c>
       <c r="I128" s="5">
@@ -7779,7 +8067,7 @@
         <v>3775.64</v>
       </c>
       <c r="K128" s="6">
-        <f t="shared" ref="K128" si="233">(B128-H128)</f>
+        <f t="shared" si="15"/>
         <v>0.19944676661981164</v>
       </c>
     </row>
@@ -7788,7 +8076,7 @@
         <v>44132</v>
       </c>
       <c r="B129" s="2">
-        <f t="shared" ref="B129" si="234">E129/F129</f>
+        <f t="shared" si="13"/>
         <v>1.4564591137706024</v>
       </c>
       <c r="C129" s="3">
@@ -7801,15 +8089,15 @@
         <v>373821.78</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" ref="F129" si="235">F128+G129</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" ref="G129" si="236">C129/((E129-C129)/F128)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" ref="H129" si="237">I129/J129</f>
+        <f t="shared" si="14"/>
         <v>1.2546932440592855</v>
       </c>
       <c r="I129" s="5">
@@ -7819,7 +8107,7 @@
         <v>3775.64</v>
       </c>
       <c r="K129" s="6">
-        <f t="shared" ref="K129" si="238">(B129-H129)</f>
+        <f t="shared" si="15"/>
         <v>0.20176586971131694</v>
       </c>
     </row>
@@ -7828,7 +8116,7 @@
         <v>44133</v>
       </c>
       <c r="B130" s="2">
-        <f t="shared" ref="B130" si="239">E130/F130</f>
+        <f t="shared" ref="B130:B161" si="18">E130/F130</f>
         <v>1.4777779315616333</v>
       </c>
       <c r="C130" s="3">
@@ -7841,15 +8129,15 @@
         <v>379293.57</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" ref="F130" si="240">F129+G130</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G130" s="3">
-        <f t="shared" ref="G130" si="241">C130/((E130-C130)/F129)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" ref="H130" si="242">I130/J130</f>
+        <f t="shared" ref="H130:H161" si="19">I130/J130</f>
         <v>1.2641353518873621</v>
       </c>
       <c r="I130" s="5">
@@ -7859,7 +8147,7 @@
         <v>3775.64</v>
       </c>
       <c r="K130" s="6">
-        <f t="shared" ref="K130" si="243">(B130-H130)</f>
+        <f t="shared" ref="K130:K161" si="20">(B130-H130)</f>
         <v>0.21364257967427114</v>
       </c>
     </row>
@@ -7868,7 +8156,7 @@
         <v>44134</v>
       </c>
       <c r="B131" s="2">
-        <f t="shared" ref="B131" si="244">E131/F131</f>
+        <f t="shared" si="18"/>
         <v>1.4469671614399393</v>
       </c>
       <c r="C131" s="3">
@@ -7881,15 +8169,15 @@
         <v>371385.53</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131" si="245">F130+G131</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" ref="G131" si="246">C131/((E131-C131)/F130)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" ref="H131" si="247">I131/J131</f>
+        <f t="shared" si="19"/>
         <v>1.243585193503618</v>
       </c>
       <c r="I131" s="5">
@@ -7899,7 +8187,7 @@
         <v>3775.64</v>
       </c>
       <c r="K131" s="6">
-        <f t="shared" ref="K131" si="248">(B131-H131)</f>
+        <f t="shared" si="20"/>
         <v>0.20338196793632135</v>
       </c>
     </row>
@@ -7908,7 +8196,7 @@
         <v>44137</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132" si="249">E132/F132</f>
+        <f t="shared" si="18"/>
         <v>1.4367138269340238</v>
       </c>
       <c r="C132" s="3">
@@ -7921,15 +8209,15 @@
         <v>368753.86</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" ref="F132" si="250">F131+G132</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G132" s="3">
-        <f t="shared" ref="G132" si="251">C132/((E132-C132)/F131)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" ref="H132" si="252">I132/J132</f>
+        <f t="shared" si="19"/>
         <v>1.2503390153722282</v>
       </c>
       <c r="I132" s="5">
@@ -7939,7 +8227,7 @@
         <v>3775.64</v>
       </c>
       <c r="K132" s="6">
-        <f t="shared" ref="K132" si="253">(B132-H132)</f>
+        <f t="shared" si="20"/>
         <v>0.18637481156179558</v>
       </c>
     </row>
@@ -7948,7 +8236,7 @@
         <v>44138</v>
       </c>
       <c r="B133" s="2">
-        <f t="shared" ref="B133:B136" si="254">E133/F133</f>
+        <f t="shared" si="18"/>
         <v>1.4534614685356353</v>
       </c>
       <c r="C133" s="3">
@@ -7961,15 +8249,15 @@
         <v>373052.39</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" ref="F133:F136" si="255">F132+G133</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G133" s="3">
-        <f t="shared" ref="G133:G136" si="256">C133/((E133-C133)/F132)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H133" s="4">
-        <f t="shared" ref="H133:H136" si="257">I133/J133</f>
+        <f t="shared" si="19"/>
         <v>1.2653642826116898</v>
       </c>
       <c r="I133" s="5">
@@ -7979,7 +8267,7 @@
         <v>3775.64</v>
       </c>
       <c r="K133" s="6">
-        <f t="shared" ref="K133:K136" si="258">(B133-H133)</f>
+        <f t="shared" si="20"/>
         <v>0.18809718592394553</v>
       </c>
     </row>
@@ -7988,7 +8276,7 @@
         <v>44139</v>
       </c>
       <c r="B134" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="18"/>
         <v>1.4768183920972944</v>
       </c>
       <c r="C134" s="3">
@@ -8001,15 +8289,15 @@
         <v>379047.29</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G134" s="3">
-        <f t="shared" si="256"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H134" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="19"/>
         <v>1.2749255755315656</v>
       </c>
       <c r="I134" s="5">
@@ -8019,7 +8307,7 @@
         <v>3775.64</v>
       </c>
       <c r="K134" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="20"/>
         <v>0.20189281656572877</v>
       </c>
     </row>
@@ -8028,7 +8316,7 @@
         <v>44140</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="18"/>
         <v>1.5023697732190244</v>
       </c>
       <c r="C135" s="3">
@@ -8041,15 +8329,15 @@
         <v>385605.43</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G135" s="3">
-        <f t="shared" si="256"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H135" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="19"/>
         <v>1.2938495195516522</v>
       </c>
       <c r="I135" s="5">
@@ -8059,7 +8347,7 @@
         <v>3775.64</v>
       </c>
       <c r="K135" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="20"/>
         <v>0.20852025366737226</v>
       </c>
     </row>
@@ -8068,7 +8356,7 @@
         <v>44141</v>
       </c>
       <c r="B136" s="2">
-        <f t="shared" si="254"/>
+        <f t="shared" si="18"/>
         <v>1.4981162097351957</v>
       </c>
       <c r="C136" s="3">
@@ -8081,15 +8369,15 @@
         <v>384513.69</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="255"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G136" s="3">
-        <f t="shared" si="256"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H136" s="4">
-        <f t="shared" si="257"/>
+        <f t="shared" si="19"/>
         <v>1.2940110815649799</v>
       </c>
       <c r="I136" s="5">
@@ -8099,7 +8387,7 @@
         <v>3775.64</v>
       </c>
       <c r="K136" s="6">
-        <f t="shared" si="258"/>
+        <f t="shared" si="20"/>
         <v>0.20410512817021575</v>
       </c>
     </row>
@@ -8108,7 +8396,7 @@
         <v>44144</v>
       </c>
       <c r="B137" s="2">
-        <f t="shared" ref="B137" si="259">E137/F137</f>
+        <f t="shared" si="18"/>
         <v>1.518835802377553</v>
       </c>
       <c r="C137" s="3">
@@ -8121,15 +8409,15 @@
         <v>389831.67999999999</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" ref="F137" si="260">F136+G137</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G137" s="3">
-        <f t="shared" ref="G137" si="261">C137/((E137-C137)/F136)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H137" s="4">
-        <f t="shared" ref="H137" si="262">I137/J137</f>
+        <f t="shared" si="19"/>
         <v>1.3193392378510664</v>
       </c>
       <c r="I137" s="5">
@@ -8139,7 +8427,7 @@
         <v>3775.64</v>
       </c>
       <c r="K137" s="6">
-        <f t="shared" ref="K137" si="263">(B137-H137)</f>
+        <f t="shared" si="20"/>
         <v>0.19949656452648656</v>
       </c>
     </row>
@@ -8148,7 +8436,7 @@
         <v>44145</v>
       </c>
       <c r="B138" s="2">
-        <f t="shared" ref="B138" si="264">E138/F138</f>
+        <f t="shared" si="18"/>
         <v>1.5082896735288365</v>
       </c>
       <c r="C138" s="3">
@@ -8161,15 +8449,15 @@
         <v>387124.86</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" ref="F138" si="265">F137+G138</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G138" s="3">
-        <f t="shared" ref="G138" si="266">C138/((E138-C138)/F137)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H138" s="4">
-        <f t="shared" ref="H138" si="267">I138/J138</f>
+        <f t="shared" si="19"/>
         <v>1.312063650136136</v>
       </c>
       <c r="I138" s="5">
@@ -8179,7 +8467,7 @@
         <v>3775.64</v>
       </c>
       <c r="K138" s="6">
-        <f t="shared" ref="K138" si="268">(B138-H138)</f>
+        <f t="shared" si="20"/>
         <v>0.19622602339270045</v>
       </c>
     </row>
@@ -8188,7 +8476,7 @@
         <v>44146</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" ref="B139:B141" si="269">E139/F139</f>
+        <f t="shared" si="18"/>
         <v>1.5015240397793459</v>
       </c>
       <c r="C139" s="3">
@@ -8201,15 +8489,15 @@
         <v>385388.36</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" ref="F139:F141" si="270">F138+G139</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G139" s="3">
-        <f t="shared" ref="G139:G141" si="271">C139/((E139-C139)/F138)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H139" s="4">
-        <f t="shared" ref="H139:H141" si="272">I139/J139</f>
+        <f t="shared" si="19"/>
         <v>1.2990910150332129</v>
       </c>
       <c r="I139" s="5">
@@ -8219,7 +8507,7 @@
         <v>3775.64</v>
       </c>
       <c r="K139" s="6">
-        <f t="shared" ref="K139:K141" si="273">(B139-H139)</f>
+        <f t="shared" si="20"/>
         <v>0.20243302474613301</v>
       </c>
     </row>
@@ -8228,7 +8516,7 @@
         <v>44147</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="269"/>
+        <f t="shared" si="18"/>
         <v>1.4990365151472125</v>
       </c>
       <c r="C140" s="3">
@@ -8241,15 +8529,15 @@
         <v>384749.9</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="270"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G140" s="3">
-        <f t="shared" si="271"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H140" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="19"/>
         <v>1.3000339015372229</v>
       </c>
       <c r="I140" s="5">
@@ -8259,7 +8547,7 @@
         <v>3775.64</v>
       </c>
       <c r="K140" s="6">
-        <f t="shared" si="273"/>
+        <f t="shared" si="20"/>
         <v>0.19900261360998961</v>
       </c>
     </row>
@@ -8268,7 +8556,7 @@
         <v>44148</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="269"/>
+        <f t="shared" si="18"/>
         <v>1.477041562555786</v>
       </c>
       <c r="C141" s="3">
@@ -8281,15 +8569,15 @@
         <v>379104.57</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="270"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G141" s="3">
-        <f t="shared" si="271"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" si="272"/>
+        <f t="shared" si="19"/>
         <v>1.2863646957866748</v>
       </c>
       <c r="I141" s="5">
@@ -8299,7 +8587,7 @@
         <v>3775.64</v>
       </c>
       <c r="K141" s="6">
-        <f t="shared" si="273"/>
+        <f t="shared" si="20"/>
         <v>0.19067686676911122</v>
       </c>
     </row>
@@ -8308,7 +8596,7 @@
         <v>44151</v>
       </c>
       <c r="B142" s="2">
-        <f t="shared" ref="B142" si="274">E142/F142</f>
+        <f t="shared" si="18"/>
         <v>1.4994386349625217</v>
       </c>
       <c r="C142" s="3">
@@ -8321,15 +8609,15 @@
         <v>384853.11</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" ref="F142" si="275">F141+G142</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G142" s="3">
-        <f t="shared" ref="G142" si="276">C142/((E142-C142)/F141)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H142" s="4">
-        <f t="shared" ref="H142" si="277">I142/J142</f>
+        <f t="shared" si="19"/>
         <v>1.2988976703287389</v>
       </c>
       <c r="I142" s="5">
@@ -8339,7 +8627,7 @@
         <v>3775.64</v>
       </c>
       <c r="K142" s="6">
-        <f t="shared" ref="K142" si="278">(B142-H142)</f>
+        <f t="shared" si="20"/>
         <v>0.20054096463378279</v>
       </c>
     </row>
@@ -8348,7 +8636,7 @@
         <v>44152</v>
       </c>
       <c r="B143" s="2">
-        <f t="shared" ref="B143:B146" si="279">E143/F143</f>
+        <f t="shared" si="18"/>
         <v>1.5003697326610266</v>
       </c>
       <c r="C143" s="3">
@@ -8361,15 +8649,15 @@
         <v>385092.09</v>
       </c>
       <c r="F143" s="3">
-        <f t="shared" ref="F143:F146" si="280">F142+G143</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G143" s="3">
-        <f t="shared" ref="G143:G146" si="281">C143/((E143-C143)/F142)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H143" s="4">
-        <f t="shared" ref="H143:H146" si="282">I143/J143</f>
+        <f t="shared" si="19"/>
         <v>1.2964133233041286</v>
       </c>
       <c r="I143" s="5">
@@ -8379,7 +8667,7 @@
         <v>3775.64</v>
       </c>
       <c r="K143" s="6">
-        <f t="shared" ref="K143:K146" si="283">(B143-H143)</f>
+        <f t="shared" si="20"/>
         <v>0.20395640935689796</v>
       </c>
     </row>
@@ -8388,7 +8676,7 @@
         <v>44153</v>
       </c>
       <c r="B144" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="18"/>
         <v>1.5129008629970395</v>
       </c>
       <c r="C144" s="3">
@@ -8401,15 +8689,15 @@
         <v>388308.39</v>
       </c>
       <c r="F144" s="3">
-        <f t="shared" si="280"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G144" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H144" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="19"/>
         <v>1.2955869733343222</v>
       </c>
       <c r="I144" s="5">
@@ -8419,7 +8707,7 @@
         <v>3775.64</v>
       </c>
       <c r="K144" s="6">
-        <f t="shared" si="283"/>
+        <f t="shared" si="20"/>
         <v>0.21731388966271736</v>
       </c>
     </row>
@@ -8428,7 +8716,7 @@
         <v>44154</v>
       </c>
       <c r="B145" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="18"/>
         <v>1.516244056206232</v>
       </c>
       <c r="C145" s="3">
@@ -8441,15 +8729,15 @@
         <v>389166.47</v>
       </c>
       <c r="F145" s="3">
-        <f t="shared" si="280"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G145" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H145" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="19"/>
         <v>1.3052065345212998</v>
       </c>
       <c r="I145" s="5">
@@ -8459,7 +8747,7 @@
         <v>3775.64</v>
       </c>
       <c r="K145" s="6">
-        <f t="shared" si="283"/>
+        <f t="shared" si="20"/>
         <v>0.21103752168493228</v>
       </c>
     </row>
@@ -8468,7 +8756,7 @@
         <v>44155</v>
       </c>
       <c r="B146" s="2">
-        <f t="shared" si="279"/>
+        <f t="shared" si="18"/>
         <v>1.5198759528193044</v>
       </c>
       <c r="C146" s="3">
@@ -8481,15 +8769,15 @@
         <v>390098.65</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="280"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G146" s="3">
-        <f t="shared" si="281"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H146" s="4">
-        <f t="shared" si="282"/>
+        <f t="shared" si="19"/>
         <v>1.3092588276424659</v>
       </c>
       <c r="I146" s="5">
@@ -8499,7 +8787,7 @@
         <v>3775.64</v>
       </c>
       <c r="K146" s="6">
-        <f t="shared" si="283"/>
+        <f t="shared" si="20"/>
         <v>0.2106171251768385</v>
       </c>
     </row>
@@ -8508,7 +8796,7 @@
         <v>44158</v>
       </c>
       <c r="B147" s="2">
-        <f t="shared" ref="B147" si="284">E147/F147</f>
+        <f t="shared" si="18"/>
         <v>1.5207065303043126</v>
       </c>
       <c r="C147" s="3">
@@ -8521,15 +8809,15 @@
         <v>390311.83</v>
       </c>
       <c r="F147" s="3">
-        <f t="shared" ref="F147" si="285">F146+G147</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G147" s="3">
-        <f t="shared" ref="G147" si="286">C147/((E147-C147)/F146)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H147" s="4">
-        <f t="shared" ref="H147" si="287">I147/J147</f>
+        <f t="shared" si="19"/>
         <v>1.3256110222372897</v>
       </c>
       <c r="I147" s="5">
@@ -8539,7 +8827,7 @@
         <v>3775.64</v>
       </c>
       <c r="K147" s="6">
-        <f t="shared" ref="K147" si="288">(B147-H147)</f>
+        <f t="shared" si="20"/>
         <v>0.19509550806702292</v>
       </c>
     </row>
@@ -8548,7 +8836,7 @@
         <v>44159</v>
       </c>
       <c r="B148" s="2">
-        <f t="shared" ref="B148:B151" si="289">E148/F148</f>
+        <f t="shared" si="18"/>
         <v>1.512916642332879</v>
       </c>
       <c r="C148" s="3">
@@ -8561,15 +8849,15 @@
         <v>388312.44</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" ref="F148:F151" si="290">F147+G148</f>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G148" s="3">
-        <f t="shared" ref="G148:G151" si="291">C148/((E148-C148)/F147)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H148" s="4">
-        <f t="shared" ref="H148:H151" si="292">I148/J148</f>
+        <f t="shared" si="19"/>
         <v>1.3174693561886197</v>
       </c>
       <c r="I148" s="5">
@@ -8579,7 +8867,7 @@
         <v>3775.64</v>
       </c>
       <c r="K148" s="6">
-        <f t="shared" ref="K148:K151" si="293">(B148-H148)</f>
+        <f t="shared" si="20"/>
         <v>0.19544728614425932</v>
       </c>
     </row>
@@ -8588,7 +8876,7 @@
         <v>44160</v>
       </c>
       <c r="B149" s="2">
-        <f t="shared" si="289"/>
+        <f t="shared" si="18"/>
         <v>1.4804031065481402</v>
       </c>
       <c r="C149" s="3">
@@ -8601,15 +8889,15 @@
         <v>379967.36</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="290"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G149" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H149" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="19"/>
         <v>1.3006271784386223</v>
       </c>
       <c r="I149" s="5">
@@ -8619,7 +8907,7 @@
         <v>3775.64</v>
       </c>
       <c r="K149" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="20"/>
         <v>0.17977592810951792</v>
       </c>
     </row>
@@ -8628,7 +8916,7 @@
         <v>44161</v>
       </c>
       <c r="B150" s="2">
-        <f t="shared" si="289"/>
+        <f t="shared" si="18"/>
         <v>1.4826793828866385</v>
       </c>
       <c r="C150" s="3">
@@ -8641,15 +8929,15 @@
         <v>380551.6</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="290"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G150" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H150" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="19"/>
         <v>1.3029817461410516</v>
       </c>
       <c r="I150" s="5">
@@ -8659,7 +8947,7 @@
         <v>3775.64</v>
       </c>
       <c r="K150" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="20"/>
         <v>0.17969763674558692</v>
       </c>
     </row>
@@ -8668,7 +8956,7 @@
         <v>44162</v>
       </c>
       <c r="B151" s="2">
-        <f t="shared" si="289"/>
+        <f t="shared" si="18"/>
         <v>1.4918720343335494</v>
       </c>
       <c r="C151" s="3">
@@ -8681,15 +8969,15 @@
         <v>382911.03</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="290"/>
+        <f t="shared" si="16"/>
         <v>256664.7950948785</v>
       </c>
       <c r="G151" s="3">
-        <f t="shared" si="291"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H151" s="4">
-        <f t="shared" si="292"/>
+        <f t="shared" si="19"/>
         <v>1.3191856215105255</v>
       </c>
       <c r="I151" s="5">
@@ -8699,15 +8987,975 @@
         <v>3775.64</v>
       </c>
       <c r="K151" s="6">
-        <f t="shared" si="293"/>
+        <f t="shared" si="20"/>
         <v>0.17268641282302388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="18"/>
+        <v>1.470463722383448</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>377416.27</v>
+      </c>
+      <c r="F152" s="3">
+        <f t="shared" si="16"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3137507813244906</v>
+      </c>
+      <c r="I152" s="5">
+        <v>4960.25</v>
+      </c>
+      <c r="J152" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K152" s="6">
+        <f t="shared" si="20"/>
+        <v>0.15671294105895739</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5025323198588338</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>385647.15</v>
+      </c>
+      <c r="F153" s="3">
+        <f t="shared" si="16"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3420506192327659</v>
+      </c>
+      <c r="I153" s="5">
+        <v>5067.1000000000004</v>
+      </c>
+      <c r="J153" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K153" s="6">
+        <f t="shared" si="20"/>
+        <v>0.16048170062606792</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5083451934141978</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0</v>
+      </c>
+      <c r="E154" s="3">
+        <v>387139.11</v>
+      </c>
+      <c r="F154" s="3">
+        <f t="shared" si="16"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G154" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="4">
+        <f t="shared" si="19"/>
+        <v>1.342061213463148</v>
+      </c>
+      <c r="I154" s="5">
+        <v>5067.1400000000003</v>
+      </c>
+      <c r="J154" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K154" s="6">
+        <f t="shared" si="20"/>
+        <v>0.16628397995104982</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5230712098848356</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>390918.76</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" si="16"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G155" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3393914674068503</v>
+      </c>
+      <c r="I155" s="5">
+        <v>5057.0600000000004</v>
+      </c>
+      <c r="J155" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K155" s="6">
+        <f t="shared" si="20"/>
+        <v>0.18367974247798524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5509163999404414</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0</v>
+      </c>
+      <c r="E156" s="3">
+        <v>398065.64</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" si="16"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G156" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H156" s="4">
+        <f t="shared" si="19"/>
+        <v>1.341738089436493</v>
+      </c>
+      <c r="I156" s="5">
+        <v>5065.92</v>
+      </c>
+      <c r="J156" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K156" s="6">
+        <f t="shared" si="20"/>
+        <v>0.20917831050394842</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5421294137892385</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>395810.33</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" ref="F157:F188" si="21">F156+G157</f>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" ref="G157:G174" si="22">C157/((E157-C157)/F156)</f>
+        <v>0</v>
+      </c>
+      <c r="H157" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3301691898592027</v>
+      </c>
+      <c r="I157" s="5">
+        <v>5022.24</v>
+      </c>
+      <c r="J157" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K157" s="6">
+        <f t="shared" si="20"/>
+        <v>0.21196022393003577</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5376999009704675</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0</v>
+      </c>
+      <c r="E158" s="3">
+        <v>394673.43</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" si="21"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H158" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3268955726711233</v>
+      </c>
+      <c r="I158" s="5">
+        <v>5009.88</v>
+      </c>
+      <c r="J158" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K158" s="6">
+        <f t="shared" si="20"/>
+        <v>0.21080432829934415</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="18"/>
+        <v>1.516511642573013</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>389235.15</v>
+      </c>
+      <c r="F159" s="3">
+        <f t="shared" si="21"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3091025627443293</v>
+      </c>
+      <c r="I159" s="5">
+        <v>4942.7</v>
+      </c>
+      <c r="J159" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K159" s="6">
+        <f t="shared" si="20"/>
+        <v>0.20740907982868362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5203021896935884</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0</v>
+      </c>
+      <c r="E160" s="3">
+        <v>390208.05</v>
+      </c>
+      <c r="F160" s="3">
+        <f t="shared" si="21"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G160" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="4">
+        <f t="shared" si="19"/>
+        <v>1.3085251771885034</v>
+      </c>
+      <c r="I160" s="5">
+        <v>4940.5200000000004</v>
+      </c>
+      <c r="J160" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K160" s="6">
+        <f t="shared" si="20"/>
+        <v>0.21177701250508507</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="18"/>
+        <v>1.5161494191525176</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="3">
+        <v>389142.18</v>
+      </c>
+      <c r="F161" s="3">
+        <f t="shared" si="21"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G161" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H161" s="4">
+        <f t="shared" si="19"/>
+        <v>1.2950466675848333</v>
+      </c>
+      <c r="I161" s="5">
+        <v>4889.63</v>
+      </c>
+      <c r="J161" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K161" s="6">
+        <f t="shared" si="20"/>
+        <v>0.22110275156768422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" ref="B162:B174" si="23">E162/F162</f>
+        <v>1.5442448967474653</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>396353.3</v>
+      </c>
+      <c r="F162" s="3">
+        <f t="shared" si="21"/>
+        <v>256664.7950948785</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H162" s="4">
+        <f t="shared" ref="H162:H193" si="24">I162/J162</f>
+        <v>1.3070207964742402</v>
+      </c>
+      <c r="I162" s="5">
+        <v>4934.84</v>
+      </c>
+      <c r="J162" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K162" s="6">
+        <f t="shared" ref="K162:K174" si="25">(B162-H162)</f>
+        <v>0.23722410027322516</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5353774554641422</v>
+      </c>
+      <c r="C163" s="3">
+        <v>730</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>394807.34</v>
+      </c>
+      <c r="F163" s="3">
+        <f t="shared" si="21"/>
+        <v>257140.24821385069</v>
+      </c>
+      <c r="G163" s="3">
+        <f t="shared" si="22"/>
+        <v>475.45311897218266</v>
+      </c>
+      <c r="H163" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3097382165672575</v>
+      </c>
+      <c r="I163" s="5">
+        <v>4945.1000000000004</v>
+      </c>
+      <c r="J163" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K163" s="6">
+        <f t="shared" si="25"/>
+        <v>0.22563923889688464</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5384282419724744</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0</v>
+      </c>
+      <c r="E164" s="3">
+        <v>395591.82</v>
+      </c>
+      <c r="F164" s="3">
+        <f t="shared" si="21"/>
+        <v>257140.24821385069</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H164" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3120610015785403</v>
+      </c>
+      <c r="I164" s="5">
+        <v>4953.87</v>
+      </c>
+      <c r="J164" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K164" s="6">
+        <f t="shared" si="25"/>
+        <v>0.22636724039393408</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5610725383844368</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="3">
+        <v>401414.58</v>
+      </c>
+      <c r="F165" s="3">
+        <f t="shared" si="21"/>
+        <v>257140.24821385069</v>
+      </c>
+      <c r="G165" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3289084764437287</v>
+      </c>
+      <c r="I165" s="5">
+        <v>5017.4799999999996</v>
+      </c>
+      <c r="J165" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K165" s="6">
+        <f t="shared" si="25"/>
+        <v>0.23216406194070816</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5438021187171633</v>
+      </c>
+      <c r="C166" s="3">
+        <v>400</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0</v>
+      </c>
+      <c r="E166" s="3">
+        <v>397373.66</v>
+      </c>
+      <c r="F166" s="3">
+        <f t="shared" si="21"/>
+        <v>257399.34877806832</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="22"/>
+        <v>259.1005642176367</v>
+      </c>
+      <c r="H166" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3242708520939497</v>
+      </c>
+      <c r="I166" s="5">
+        <v>4999.97</v>
+      </c>
+      <c r="J166" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K166" s="6">
+        <f t="shared" si="25"/>
+        <v>0.21953126662321365</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5406986143618018</v>
+      </c>
+      <c r="C167" s="3">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0</v>
+      </c>
+      <c r="E167" s="3">
+        <v>396574.82</v>
+      </c>
+      <c r="F167" s="3">
+        <f t="shared" si="21"/>
+        <v>257399.34877806832</v>
+      </c>
+      <c r="G167" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H167" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3366846415442151</v>
+      </c>
+      <c r="I167" s="5">
+        <v>5046.84</v>
+      </c>
+      <c r="J167" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K167" s="6">
+        <f t="shared" si="25"/>
+        <v>0.20401397281758671</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5233479488640012</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>392108.77</v>
+      </c>
+      <c r="F168" s="3">
+        <f t="shared" si="21"/>
+        <v>257399.34877806832</v>
+      </c>
+      <c r="G168" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H168" s="4">
+        <f t="shared" si="24"/>
+        <v>1.314947929357672</v>
+      </c>
+      <c r="I168" s="5">
+        <v>4964.7700000000004</v>
+      </c>
+      <c r="J168" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K168" s="6">
+        <f t="shared" si="25"/>
+        <v>0.20840001950632914</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5252158634577344</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>393589.57</v>
+      </c>
+      <c r="F169" s="3">
+        <f t="shared" si="21"/>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G169" s="3">
+        <f t="shared" si="22"/>
+        <v>655.64489850830296</v>
+      </c>
+      <c r="H169" s="4">
+        <f t="shared" si="24"/>
+        <v>1.326164570774756</v>
+      </c>
+      <c r="I169" s="5">
+        <v>5007.12</v>
+      </c>
+      <c r="J169" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K169" s="6">
+        <f t="shared" si="25"/>
+        <v>0.19905129268297839</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B170" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5043505822892238</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0</v>
+      </c>
+      <c r="E170" s="3">
+        <v>388205.18</v>
+      </c>
+      <c r="F170" s="3">
+        <f t="shared" si="21"/>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H170" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3242840948819274</v>
+      </c>
+      <c r="I170" s="5">
+        <v>5000.0200000000004</v>
+      </c>
+      <c r="J170" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K170" s="6">
+        <f t="shared" si="25"/>
+        <v>0.18006648740729636</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B171" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5110127281190957</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0</v>
+      </c>
+      <c r="E171" s="3">
+        <v>389924.38</v>
+      </c>
+      <c r="F171" s="3">
+        <f t="shared" si="21"/>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G171" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H171" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3354053882255725</v>
+      </c>
+      <c r="I171" s="5">
+        <v>5042.01</v>
+      </c>
+      <c r="J171" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K171" s="6">
+        <f t="shared" si="25"/>
+        <v>0.17560733989352317</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B172" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5161288469013372</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0</v>
+      </c>
+      <c r="E172" s="3">
+        <v>391244.62</v>
+      </c>
+      <c r="F172" s="3">
+        <f t="shared" si="21"/>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G172" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H172" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3413381572395673</v>
+      </c>
+      <c r="I172" s="5">
+        <v>5064.41</v>
+      </c>
+      <c r="J172" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K172" s="6">
+        <f t="shared" si="25"/>
+        <v>0.17479068966176992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5146702430795806</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0</v>
+      </c>
+      <c r="E173" s="3">
+        <v>390868.22</v>
+      </c>
+      <c r="F173" s="3">
+        <f t="shared" si="21"/>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G173" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H173" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3356517040819569</v>
+      </c>
+      <c r="I173" s="5">
+        <v>5042.9399999999996</v>
+      </c>
+      <c r="J173" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K173" s="6">
+        <f t="shared" si="25"/>
+        <v>0.17901853899762377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B174" s="2">
+        <f t="shared" si="23"/>
+        <v>1.5324974508946938</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>395468.62</v>
+      </c>
+      <c r="F174" s="3">
+        <f t="shared" si="21"/>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G174" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="4">
+        <f t="shared" si="24"/>
+        <v>1.3543955461855475</v>
+      </c>
+      <c r="I174" s="5">
+        <v>5113.71</v>
+      </c>
+      <c r="J174" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K174" s="6">
+        <f t="shared" si="25"/>
+        <v>0.17810190470914633</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B175" s="2">
+        <f t="shared" ref="B175" si="26">E175/F175</f>
+        <v>1.5478805285226169</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+      <c r="E175" s="3">
+        <v>399438.3</v>
+      </c>
+      <c r="F175" s="3">
+        <f t="shared" ref="F175" si="27">F174+G175</f>
+        <v>258054.99367657662</v>
+      </c>
+      <c r="G175" s="3">
+        <f t="shared" ref="G175" si="28">C175/((E175-C175)/F174)</f>
+        <v>0</v>
+      </c>
+      <c r="H175" s="4">
+        <f t="shared" ref="H175" si="29">I175/J175</f>
+        <v>1.380240171202763</v>
+      </c>
+      <c r="I175" s="5">
+        <v>5211.29</v>
+      </c>
+      <c r="J175" s="5">
+        <v>3775.64</v>
+      </c>
+      <c r="K175" s="6">
+        <f t="shared" ref="K175" si="30">(B175-H175)</f>
+        <v>0.16764035731985394</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8726,9 +9974,9 @@
     <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="16" customWidth="1"/>
     <col min="11" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8865,14 +10113,14 @@
       <c r="J4" s="5">
         <v>3775.64</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44018</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5" si="0">E5/F5</f>
+        <f>E5/F5</f>
         <v>1.3682084534476042</v>
       </c>
       <c r="C5" s="2">
@@ -8891,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ref="H5" si="1">I5/J5</f>
+        <f>I5/J5</f>
         <v>1.2368674749850361</v>
       </c>
       <c r="I5" s="5">

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -388,9 +388,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>按日净值!$A$2:$A$200</c:f>
+              <c:f>按日净值!$A$2:$A$221</c:f>
               <c:strCache>
-                <c:ptCount val="199"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>2020-4-17</c:v>
                 </c:pt>
@@ -974,18 +974,81 @@
                   <c:v>2021-1-29</c:v>
                 </c:pt>
                 <c:pt idx="194">
+                  <c:v>2021-2-1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2021-2-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2021-2-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2021-2-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2021-2-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2021-2-8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2021-2-9</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2021-2-10</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2021-2-18</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2021-2-19</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2021-2-22</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2021-2-23</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2021-2-24</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2021-2-25</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2021-2-26</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="210">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="211">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="212">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -993,10 +1056,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$B$2:$B$200</c:f>
+              <c:f>按日净值!$B$2:$B$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>1.01691156992598</c:v>
                 </c:pt>
@@ -1580,18 +1643,81 @@
                   <c:v>1.69627946028694</c:v>
                 </c:pt>
                 <c:pt idx="194">
+                  <c:v>1.72332116021937</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.7718198874984</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.74213174608343</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.73024148042743</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.74948442491643</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.78339657614497</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.82232725062888</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.85621402358427</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.82975727469182</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.84124657170143</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.77988291589754</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.78265289994351</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.73823967117163</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.7326932072101</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.68415239799323</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="210">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="211">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="212">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -1639,9 +1765,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>按日净值!$A$2:$A$200</c:f>
+              <c:f>按日净值!$A$2:$A$221</c:f>
               <c:strCache>
-                <c:ptCount val="199"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>2020-4-17</c:v>
                 </c:pt>
@@ -2225,18 +2351,81 @@
                   <c:v>2021-1-29</c:v>
                 </c:pt>
                 <c:pt idx="194">
+                  <c:v>2021-2-1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2021-2-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2021-2-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2021-2-4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2021-2-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2021-2-8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2021-2-9</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2021-2-10</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2021-2-18</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2021-2-19</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2021-2-22</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2021-2-23</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2021-2-24</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2021-2-25</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2021-2-26</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="210">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="211">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="212">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2244,10 +2433,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>按日净值!$H$2:$H$200</c:f>
+              <c:f>按日净值!$H$2:$H$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>1.01691104024748</c:v>
                 </c:pt>
@@ -2831,18 +3020,81 @@
                   <c:v>1.41749743089913</c:v>
                 </c:pt>
                 <c:pt idx="194">
+                  <c:v>1.43489580574419</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.45699537032132</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.45278681230202</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.44980718500705</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.45231272049242</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.47380576538017</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.50603606276022</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.53820809187317</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.52778866629234</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.53055905753727</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.48248508862074</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.47780773590703</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.44017173247449</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.44864446822261</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.41347162335392</c:v>
+                </c:pt>
+                <c:pt idx="209">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="210">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="211">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="212">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
                   <c:v/>
                 </c:pt>
               </c:numCache>
@@ -2858,11 +3110,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="41472589"/>
-        <c:axId val="11258415"/>
+        <c:axId val="66638952"/>
+        <c:axId val="10779085"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41472589"/>
+        <c:axId val="66638952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,14 +3146,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11258415"/>
+        <c:crossAx val="10779085"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11258415"/>
+        <c:axId val="10779085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.9"/>
@@ -2941,7 +3193,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41472589"/>
+        <c:crossAx val="66638952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2998,15 +3250,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>29160</xdr:colOff>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3014,8 +3266,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10410480" y="38160"/>
-        <a:ext cx="4043520" cy="2955240"/>
+        <a:off x="10413360" y="38160"/>
+        <a:ext cx="4037760" cy="2952000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3033,10 +3285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:Q211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J195" activeCellId="0" sqref="J195"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A192" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J210" activeCellId="0" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10584,7 +10836,7 @@
         <v>0.291644807886927</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>44222</v>
       </c>
@@ -10624,7 +10876,7 @@
         <v>0.283654405489399</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>44223</v>
       </c>
@@ -10664,7 +10916,7 @@
         <v>0.28260931266456</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>44224</v>
       </c>
@@ -10704,7 +10956,7 @@
         <v>0.27982408308663</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>44225</v>
       </c>
@@ -10744,6 +10996,607 @@
         <v>0.278782029387807</v>
       </c>
     </row>
+    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <f aca="false">E196/F196</f>
+        <v>1.72332116021937</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>427124.81</v>
+      </c>
+      <c r="F196" s="3" t="n">
+        <f aca="false">F195+G196</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G196" s="3" t="n">
+        <f aca="false">(C196-D196)/((E196-C196+D196)/F195)</f>
+        <v>0</v>
+      </c>
+      <c r="H196" s="4" t="n">
+        <f aca="false">I196/J196</f>
+        <v>1.43489580574419</v>
+      </c>
+      <c r="I196" s="5" t="n">
+        <v>5417.65</v>
+      </c>
+      <c r="J196" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K196" s="6" t="n">
+        <f aca="false">(B196-H196)</f>
+        <v>0.288425354475175</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>44229</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <f aca="false">E197/F197</f>
+        <v>1.7718198874984</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>439145.21</v>
+      </c>
+      <c r="F197" s="3" t="n">
+        <f aca="false">F196+G197</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G197" s="3" t="n">
+        <f aca="false">(C197-D197)/((E197-C197+D197)/F196)</f>
+        <v>0</v>
+      </c>
+      <c r="H197" s="4" t="n">
+        <f aca="false">I197/J197</f>
+        <v>1.45699537032132</v>
+      </c>
+      <c r="I197" s="5" t="n">
+        <v>5501.09</v>
+      </c>
+      <c r="J197" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K197" s="6" t="n">
+        <f aca="false">(B197-H197)</f>
+        <v>0.314824517177081</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <f aca="false">E198/F198</f>
+        <v>1.74213174608343</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>431787.01</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <f aca="false">F197+G198</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G198" s="3" t="n">
+        <f aca="false">(C198-D198)/((E198-C198+D198)/F197)</f>
+        <v>0</v>
+      </c>
+      <c r="H198" s="4" t="n">
+        <f aca="false">I198/J198</f>
+        <v>1.45278681230202</v>
+      </c>
+      <c r="I198" s="5" t="n">
+        <v>5485.2</v>
+      </c>
+      <c r="J198" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K198" s="6" t="n">
+        <f aca="false">(B198-H198)</f>
+        <v>0.289344933781405</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <f aca="false">E199/F199</f>
+        <v>1.73024148042743</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>428840.01</v>
+      </c>
+      <c r="F199" s="3" t="n">
+        <f aca="false">F198+G199</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G199" s="3" t="n">
+        <f aca="false">(C199-D199)/((E199-C199+D199)/F198)</f>
+        <v>0</v>
+      </c>
+      <c r="H199" s="4" t="n">
+        <f aca="false">I199/J199</f>
+        <v>1.44980718500705</v>
+      </c>
+      <c r="I199" s="5" t="n">
+        <v>5473.95</v>
+      </c>
+      <c r="J199" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K199" s="6" t="n">
+        <f aca="false">(B199-H199)</f>
+        <v>0.280434295420385</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <f aca="false">E200/F200</f>
+        <v>1.74948442491643</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>433609.37</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <f aca="false">F199+G200</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <f aca="false">(C200-D200)/((E200-C200+D200)/F199)</f>
+        <v>0</v>
+      </c>
+      <c r="H200" s="4" t="n">
+        <f aca="false">I200/J200</f>
+        <v>1.45231272049242</v>
+      </c>
+      <c r="I200" s="5" t="n">
+        <v>5483.41</v>
+      </c>
+      <c r="J200" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K200" s="6" t="n">
+        <f aca="false">(B200-H200)</f>
+        <v>0.297171704424008</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <f aca="false">E201/F201</f>
+        <v>1.78339657614497</v>
+      </c>
+      <c r="C201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>442014.49</v>
+      </c>
+      <c r="F201" s="3" t="n">
+        <f aca="false">F200+G201</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G201" s="3" t="n">
+        <f aca="false">(C201-D201)/((E201-C201+D201)/F200)</f>
+        <v>0</v>
+      </c>
+      <c r="H201" s="4" t="n">
+        <f aca="false">I201/J201</f>
+        <v>1.47380576538017</v>
+      </c>
+      <c r="I201" s="5" t="n">
+        <v>5564.56</v>
+      </c>
+      <c r="J201" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K201" s="6" t="n">
+        <f aca="false">(B201-H201)</f>
+        <v>0.309590810764797</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <v>44236</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <f aca="false">E202/F202</f>
+        <v>1.82232725062888</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>451663.45</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <f aca="false">F201+G202</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G202" s="3" t="n">
+        <f aca="false">(C202-D202)/((E202-C202+D202)/F201)</f>
+        <v>0</v>
+      </c>
+      <c r="H202" s="4" t="n">
+        <f aca="false">I202/J202</f>
+        <v>1.50603606276022</v>
+      </c>
+      <c r="I202" s="5" t="n">
+        <v>5686.25</v>
+      </c>
+      <c r="J202" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K202" s="6" t="n">
+        <f aca="false">(B202-H202)</f>
+        <v>0.316291187868657</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <v>44237</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <f aca="false">E203/F203</f>
+        <v>1.85621402358427</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>460062.28</v>
+      </c>
+      <c r="F203" s="3" t="n">
+        <f aca="false">F202+G203</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G203" s="3" t="n">
+        <f aca="false">(C203-D203)/((E203-C203+D203)/F202)</f>
+        <v>0</v>
+      </c>
+      <c r="H203" s="4" t="n">
+        <f aca="false">I203/J203</f>
+        <v>1.53820809187317</v>
+      </c>
+      <c r="I203" s="5" t="n">
+        <v>5807.72</v>
+      </c>
+      <c r="J203" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K203" s="6" t="n">
+        <f aca="false">(B203-H203)</f>
+        <v>0.318005931711104</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <v>44245</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <f aca="false">E204/F204</f>
+        <v>1.82975727469182</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>453504.98</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <f aca="false">F203+G204</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G204" s="3" t="n">
+        <f aca="false">(C204-D204)/((E204-C204+D204)/F203)</f>
+        <v>0</v>
+      </c>
+      <c r="H204" s="4" t="n">
+        <f aca="false">I204/J204</f>
+        <v>1.52778866629234</v>
+      </c>
+      <c r="I204" s="5" t="n">
+        <v>5768.38</v>
+      </c>
+      <c r="J204" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K204" s="6" t="n">
+        <f aca="false">(B204-H204)</f>
+        <v>0.301968608399481</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <v>44246</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <f aca="false">E205/F205</f>
+        <v>1.84124657170143</v>
+      </c>
+      <c r="C205" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>456352.6</v>
+      </c>
+      <c r="F205" s="3" t="n">
+        <f aca="false">F204+G205</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G205" s="3" t="n">
+        <f aca="false">(C205-D205)/((E205-C205+D205)/F204)</f>
+        <v>0</v>
+      </c>
+      <c r="H205" s="4" t="n">
+        <f aca="false">I205/J205</f>
+        <v>1.53055905753727</v>
+      </c>
+      <c r="I205" s="5" t="n">
+        <v>5778.84</v>
+      </c>
+      <c r="J205" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K205" s="6" t="n">
+        <f aca="false">(B205-H205)</f>
+        <v>0.310687514164164</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <f aca="false">E206/F206</f>
+        <v>1.77988291589754</v>
+      </c>
+      <c r="C206" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>441143.63</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <f aca="false">F205+G206</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G206" s="3" t="n">
+        <f aca="false">(C206-D206)/((E206-C206+D206)/F205)</f>
+        <v>0</v>
+      </c>
+      <c r="H206" s="4" t="n">
+        <f aca="false">I206/J206</f>
+        <v>1.48248508862074</v>
+      </c>
+      <c r="I206" s="5" t="n">
+        <v>5597.33</v>
+      </c>
+      <c r="J206" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K206" s="6" t="n">
+        <f aca="false">(B206-H206)</f>
+        <v>0.297397827276803</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <v>44250</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <f aca="false">E207/F207</f>
+        <v>1.78265289994351</v>
+      </c>
+      <c r="C207" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>441830.17</v>
+      </c>
+      <c r="F207" s="3" t="n">
+        <f aca="false">F206+G207</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G207" s="3" t="n">
+        <f aca="false">(C207-D207)/((E207-C207+D207)/F206)</f>
+        <v>0</v>
+      </c>
+      <c r="H207" s="4" t="n">
+        <f aca="false">I207/J207</f>
+        <v>1.47780773590703</v>
+      </c>
+      <c r="I207" s="5" t="n">
+        <v>5579.67</v>
+      </c>
+      <c r="J207" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K207" s="6" t="n">
+        <f aca="false">(B207-H207)</f>
+        <v>0.304845164036483</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <v>44251</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <f aca="false">E208/F208</f>
+        <v>1.73823967117163</v>
+      </c>
+      <c r="C208" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>430822.36</v>
+      </c>
+      <c r="F208" s="3" t="n">
+        <f aca="false">F207+G208</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G208" s="3" t="n">
+        <f aca="false">(C208-D208)/((E208-C208+D208)/F207)</f>
+        <v>0</v>
+      </c>
+      <c r="H208" s="4" t="n">
+        <f aca="false">I208/J208</f>
+        <v>1.44017173247449</v>
+      </c>
+      <c r="I208" s="5" t="n">
+        <v>5437.57</v>
+      </c>
+      <c r="J208" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K208" s="6" t="n">
+        <f aca="false">(B208-H208)</f>
+        <v>0.298067938697137</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <v>44252</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <f aca="false">E209/F209</f>
+        <v>1.7326932072101</v>
+      </c>
+      <c r="C209" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>429447.67</v>
+      </c>
+      <c r="F209" s="3" t="n">
+        <f aca="false">F208+G209</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G209" s="3" t="n">
+        <f aca="false">(C209-D209)/((E209-C209+D209)/F208)</f>
+        <v>0</v>
+      </c>
+      <c r="H209" s="4" t="n">
+        <f aca="false">I209/J209</f>
+        <v>1.44864446822261</v>
+      </c>
+      <c r="I209" s="5" t="n">
+        <v>5469.56</v>
+      </c>
+      <c r="J209" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K209" s="6" t="n">
+        <f aca="false">(B209-H209)</f>
+        <v>0.284048738987492</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <f aca="false">E210/F210</f>
+        <v>1.68415239799323</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>417416.84</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <f aca="false">F209+G210</f>
+        <v>247849.802961643</v>
+      </c>
+      <c r="G210" s="3" t="n">
+        <f aca="false">(C210-D210)/((E210-C210+D210)/F209)</f>
+        <v>0</v>
+      </c>
+      <c r="H210" s="4" t="n">
+        <f aca="false">I210/J210</f>
+        <v>1.41347162335392</v>
+      </c>
+      <c r="I210" s="5" t="n">
+        <v>5336.76</v>
+      </c>
+      <c r="J210" s="5" t="n">
+        <v>3775.64</v>
+      </c>
+      <c r="K210" s="6" t="n">
+        <f aca="false">(B210-H210)</f>
+        <v>0.270680774639306</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC11DC-0F4C-4809-9C1A-F67192533DBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A8760D-7D8D-4FCA-913E-B7203D5F85C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="7905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
     <sheet name="合并账户" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -62,10 +62,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000000%"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -124,45 +124,45 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1259,6 +1259,66 @@
                 <c:pt idx="293">
                   <c:v>44379</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44407</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2150,13 +2210,73 @@
                 <c:pt idx="293">
                   <c:v>1.7063483114145017</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.6902336864139107</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.6683069559159884</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.6753858096976453</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.628881940319344</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.6198583490052443</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.6357786682512787</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.6474897040220975</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.655040175937039</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.660238818954813</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.6461056891758479</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.6677241685419733</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.6514568995523484</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.6581005741947801</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.6314680247020648</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.5934843403321708</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.6114274572528522</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.5705490982553079</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.5843295645022153</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.5880164342345908</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.5767958912901487</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C2C-4E73-AFFC-48F61C8078BD}"/>
+              <c16:uniqueId val="{00000000-DF71-4FF2-9B35-DE21A1D5D795}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3113,6 +3233,66 @@
                 <c:pt idx="293">
                   <c:v>44379</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44407</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4004,13 +4184,73 @@
                 <c:pt idx="293">
                   <c:v>1.3454075580410101</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.3466441069310287</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.3459318335875277</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.3611278808676495</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.3472981274360278</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.3423148618878156</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.359067848669717</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.3615541857312321</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.3459265378749365</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.3640325792238603</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.3490218818844266</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.3539786688696831</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.3527871335366888</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.3620678698525674</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.3641093670564313</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.3475549694966955</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.3041486612438571</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.2580786095577023</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.260506693780715</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.2842817954583969</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.2739286773428233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C2C-4E73-AFFC-48F61C8078BD}"/>
+              <c16:uniqueId val="{00000001-DF71-4FF2-9B35-DE21A1D5D795}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5205,6 +5445,66 @@
                 <c:pt idx="293">
                   <c:v>44379</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44407</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6096,13 +6396,73 @@
                 <c:pt idx="293">
                   <c:v>1.7536415597820301</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.7474306952589151</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.7272842144059306</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.732247915620168</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.6973739638534495</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.6854194066862072</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.7036920782925613</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.7241494306877709</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.7365166592664836</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.7443140783632611</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.7297036203419183</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.7523195952860302</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.7410672378590968</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.7437013804814083</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.7183668288927394</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.680866082629207</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.6617644306755017</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.6259457658384777</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.6326762859057333</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.6360845316662354</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.6151168274271797</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F4AA-4B76-A964-E1DD2C125710}"/>
+              <c16:uniqueId val="{00000000-4C8F-48EC-86EF-329C738E2C60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7020,6 +7380,66 @@
                 <c:pt idx="293">
                   <c:v>44379</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>44383</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>44385</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44390</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44391</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>44392</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>44397</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>44398</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>44399</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>44404</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>44407</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -7911,13 +8331,73 @@
                 <c:pt idx="293">
                   <c:v>1.3454075580410101</c:v>
                 </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.3466441069310287</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.3459318335875277</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1.3611278808676495</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.3472981274360278</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.3423148618878156</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.359067848669717</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1.3615541857312321</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.3459265378749365</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1.3640325792238603</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1.3490218818844266</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1.3539786688696831</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1.3527871335366888</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1.3620678698525674</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1.3641093670564313</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.3475549694966955</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1.3041486612438571</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.2580786095577023</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1.260506693780715</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.2842817954583969</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1.2739286773428233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F4AA-4B76-A964-E1DD2C125710}"/>
+              <c16:uniqueId val="{00000001-4C8F-48EC-86EF-329C738E2C60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7958,7 +8438,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -8685,8 +9165,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>32400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>32130</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>155955</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9013,10 +9493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q295"/>
+  <dimension ref="A1:Q315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="L295" sqref="L295"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20747,7 +21227,7 @@
         <v>44379</v>
       </c>
       <c r="B295" s="2">
-        <f t="shared" ref="B295" si="215">E295/F295</f>
+        <f t="shared" ref="B295:B296" si="215">E295/F295</f>
         <v>1.7063483114145017</v>
       </c>
       <c r="C295" s="3">
@@ -20760,15 +21240,15 @@
         <v>446904.24</v>
       </c>
       <c r="F295" s="3">
-        <f t="shared" ref="F295" si="216">F294+G295</f>
+        <f t="shared" ref="F295:F296" si="216">F294+G295</f>
         <v>261906.80824686511</v>
       </c>
       <c r="G295" s="3">
-        <f t="shared" ref="G295" si="217">(C295-D295)/((E295-C295+D295)/F294)</f>
+        <f t="shared" ref="G295:G296" si="217">(C295-D295)/((E295-C295+D295)/F294)</f>
         <v>0</v>
       </c>
       <c r="H295" s="4">
-        <f t="shared" ref="H295" si="218">I295/J295</f>
+        <f t="shared" ref="H295:H296" si="218">I295/J295</f>
         <v>1.3454075580410101</v>
       </c>
       <c r="I295" s="5">
@@ -20778,8 +21258,808 @@
         <v>3776.64</v>
       </c>
       <c r="K295" s="6">
-        <f t="shared" ref="K295" si="219">(B295-H295)</f>
+        <f t="shared" ref="K295:K296" si="219">(B295-H295)</f>
         <v>0.36094075337349163</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B296" s="2">
+        <f t="shared" si="215"/>
+        <v>1.6902336864139107</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0</v>
+      </c>
+      <c r="E296" s="3">
+        <v>442683.71</v>
+      </c>
+      <c r="F296" s="3">
+        <f t="shared" si="216"/>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G296" s="3">
+        <f t="shared" si="217"/>
+        <v>0</v>
+      </c>
+      <c r="H296" s="4">
+        <f t="shared" si="218"/>
+        <v>1.3466441069310287</v>
+      </c>
+      <c r="I296" s="5">
+        <v>5085.79</v>
+      </c>
+      <c r="J296" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K296" s="6">
+        <f t="shared" si="219"/>
+        <v>0.34358957948288205</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B297" s="2">
+        <f t="shared" ref="B297:B299" si="220">E297/F297</f>
+        <v>1.6683069559159884</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3">
+        <v>436940.95</v>
+      </c>
+      <c r="F297" s="3">
+        <f t="shared" ref="F297:F299" si="221">F296+G297</f>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G297" s="3">
+        <f t="shared" ref="G297:G299" si="222">(C297-D297)/((E297-C297+D297)/F296)</f>
+        <v>0</v>
+      </c>
+      <c r="H297" s="4">
+        <f t="shared" ref="H297:H299" si="223">I297/J297</f>
+        <v>1.3459318335875277</v>
+      </c>
+      <c r="I297" s="5">
+        <v>5083.1000000000004</v>
+      </c>
+      <c r="J297" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K297" s="6">
+        <f t="shared" ref="K297:K299" si="224">(B297-H297)</f>
+        <v>0.32237512232846077</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B298" s="2">
+        <f t="shared" si="220"/>
+        <v>1.6753858096976453</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3">
+        <v>438794.95</v>
+      </c>
+      <c r="F298" s="3">
+        <f t="shared" si="221"/>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G298" s="3">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="H298" s="4">
+        <f t="shared" si="223"/>
+        <v>1.3611278808676495</v>
+      </c>
+      <c r="I298" s="5">
+        <v>5140.49</v>
+      </c>
+      <c r="J298" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K298" s="6">
+        <f t="shared" si="224"/>
+        <v>0.31425792882999581</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B299" s="2">
+        <f t="shared" si="220"/>
+        <v>1.628881940319344</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0</v>
+      </c>
+      <c r="E299" s="3">
+        <v>426615.27</v>
+      </c>
+      <c r="F299" s="3">
+        <f t="shared" si="221"/>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G299" s="3">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="H299" s="4">
+        <f t="shared" si="223"/>
+        <v>1.3472981274360278</v>
+      </c>
+      <c r="I299" s="5">
+        <v>5088.26</v>
+      </c>
+      <c r="J299" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K299" s="6">
+        <f t="shared" si="224"/>
+        <v>0.28158381288331613</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B300" s="2">
+        <f t="shared" ref="B300:B303" si="225">E300/F300</f>
+        <v>1.6198583490052443</v>
+      </c>
+      <c r="C300" s="3">
+        <v>0</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0</v>
+      </c>
+      <c r="E300" s="3">
+        <v>424251.93</v>
+      </c>
+      <c r="F300" s="3">
+        <f t="shared" ref="F300:F303" si="226">F299+G300</f>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G300" s="3">
+        <f t="shared" ref="G300:G303" si="227">(C300-D300)/((E300-C300+D300)/F299)</f>
+        <v>0</v>
+      </c>
+      <c r="H300" s="4">
+        <f t="shared" ref="H300:H303" si="228">I300/J300</f>
+        <v>1.3423148618878156</v>
+      </c>
+      <c r="I300" s="5">
+        <v>5069.4399999999996</v>
+      </c>
+      <c r="J300" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K300" s="6">
+        <f t="shared" ref="K300:K303" si="229">(B300-H300)</f>
+        <v>0.27754348711742871</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B301" s="2">
+        <f t="shared" si="225"/>
+        <v>1.6357786682512787</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0</v>
+      </c>
+      <c r="E301" s="3">
+        <v>428421.57</v>
+      </c>
+      <c r="F301" s="3">
+        <f t="shared" si="226"/>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G301" s="3">
+        <f t="shared" si="227"/>
+        <v>0</v>
+      </c>
+      <c r="H301" s="4">
+        <f t="shared" si="228"/>
+        <v>1.359067848669717</v>
+      </c>
+      <c r="I301" s="5">
+        <v>5132.71</v>
+      </c>
+      <c r="J301" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K301" s="6">
+        <f t="shared" si="229"/>
+        <v>0.27671081958156174</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B302" s="2">
+        <f t="shared" si="225"/>
+        <v>1.6474897040220975</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0</v>
+      </c>
+      <c r="E302" s="3">
+        <v>431488.77</v>
+      </c>
+      <c r="F302" s="3">
+        <f t="shared" si="226"/>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G302" s="3">
+        <f t="shared" si="227"/>
+        <v>0</v>
+      </c>
+      <c r="H302" s="4">
+        <f t="shared" si="228"/>
+        <v>1.3615541857312321</v>
+      </c>
+      <c r="I302" s="5">
+        <v>5142.1000000000004</v>
+      </c>
+      <c r="J302" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K302" s="6">
+        <f t="shared" si="229"/>
+        <v>0.28593551829086539</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B303" s="2">
+        <f t="shared" si="225"/>
+        <v>1.655040175937039</v>
+      </c>
+      <c r="C303" s="3">
+        <v>0</v>
+      </c>
+      <c r="D303" s="3">
+        <v>0</v>
+      </c>
+      <c r="E303" s="3">
+        <v>433466.29</v>
+      </c>
+      <c r="F303" s="3">
+        <f t="shared" si="226"/>
+        <v>261906.80824686511</v>
+      </c>
+      <c r="G303" s="3">
+        <f t="shared" si="227"/>
+        <v>0</v>
+      </c>
+      <c r="H303" s="4">
+        <f t="shared" si="228"/>
+        <v>1.3459265378749365</v>
+      </c>
+      <c r="I303" s="5">
+        <v>5083.08</v>
+      </c>
+      <c r="J303" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K303" s="6">
+        <f t="shared" si="229"/>
+        <v>0.30911363806210246</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B304" s="2">
+        <f t="shared" ref="B304:B307" si="230">E304/F304</f>
+        <v>1.660238818954813</v>
+      </c>
+      <c r="C304" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0</v>
+      </c>
+      <c r="E304" s="3">
+        <v>444827.85</v>
+      </c>
+      <c r="F304" s="3">
+        <f t="shared" ref="F304:F307" si="231">F303+G304</f>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G304" s="3">
+        <f t="shared" ref="G304:G307" si="232">(C304-D304)/((E304-C304+D304)/F303)</f>
+        <v>6023.2298424966366</v>
+      </c>
+      <c r="H304" s="4">
+        <f t="shared" ref="H304:H307" si="233">I304/J304</f>
+        <v>1.3640325792238603</v>
+      </c>
+      <c r="I304" s="5">
+        <v>5151.46</v>
+      </c>
+      <c r="J304" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K304" s="6">
+        <f t="shared" ref="K304:K307" si="234">(B304-H304)</f>
+        <v>0.29620623973095261</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B305" s="2">
+        <f t="shared" si="230"/>
+        <v>1.6461056891758479</v>
+      </c>
+      <c r="C305" s="3">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3">
+        <v>441041.16</v>
+      </c>
+      <c r="F305" s="3">
+        <f t="shared" si="231"/>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G305" s="3">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="H305" s="4">
+        <f t="shared" si="233"/>
+        <v>1.3490218818844266</v>
+      </c>
+      <c r="I305" s="5">
+        <v>5094.7700000000004</v>
+      </c>
+      <c r="J305" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K305" s="6">
+        <f t="shared" si="234"/>
+        <v>0.29708380729142125</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B306" s="2">
+        <f t="shared" si="230"/>
+        <v>1.6677241685419733</v>
+      </c>
+      <c r="C306" s="3">
+        <v>0</v>
+      </c>
+      <c r="D306" s="3">
+        <v>0</v>
+      </c>
+      <c r="E306" s="3">
+        <v>446833.4</v>
+      </c>
+      <c r="F306" s="3">
+        <f t="shared" si="231"/>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G306" s="3">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="H306" s="4">
+        <f t="shared" si="233"/>
+        <v>1.3539786688696831</v>
+      </c>
+      <c r="I306" s="5">
+        <v>5113.49</v>
+      </c>
+      <c r="J306" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K306" s="6">
+        <f t="shared" si="234"/>
+        <v>0.31374549967229015</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B307" s="2">
+        <f t="shared" si="230"/>
+        <v>1.6514568995523484</v>
+      </c>
+      <c r="C307" s="3">
+        <v>0</v>
+      </c>
+      <c r="D307" s="3">
+        <v>0</v>
+      </c>
+      <c r="E307" s="3">
+        <v>442474.91</v>
+      </c>
+      <c r="F307" s="3">
+        <f t="shared" si="231"/>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G307" s="3">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="H307" s="4">
+        <f t="shared" si="233"/>
+        <v>1.3527871335366888</v>
+      </c>
+      <c r="I307" s="5">
+        <v>5108.99</v>
+      </c>
+      <c r="J307" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K307" s="6">
+        <f t="shared" si="234"/>
+        <v>0.29866976601565964</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B308" s="2">
+        <f t="shared" ref="B308" si="235">E308/F308</f>
+        <v>1.6581005741947801</v>
+      </c>
+      <c r="C308" s="3">
+        <v>0</v>
+      </c>
+      <c r="D308" s="3">
+        <v>0</v>
+      </c>
+      <c r="E308" s="3">
+        <v>444254.95</v>
+      </c>
+      <c r="F308" s="3">
+        <f t="shared" ref="F308" si="236">F307+G308</f>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G308" s="3">
+        <f t="shared" ref="G308" si="237">(C308-D308)/((E308-C308+D308)/F307)</f>
+        <v>0</v>
+      </c>
+      <c r="H308" s="4">
+        <f t="shared" ref="H308" si="238">I308/J308</f>
+        <v>1.3620678698525674</v>
+      </c>
+      <c r="I308" s="5">
+        <v>5144.04</v>
+      </c>
+      <c r="J308" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K308" s="6">
+        <f t="shared" ref="K308" si="239">(B308-H308)</f>
+        <v>0.29603270434221263</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B309" s="2">
+        <f t="shared" ref="B309" si="240">E309/F309</f>
+        <v>1.6314680247020648</v>
+      </c>
+      <c r="C309" s="3">
+        <v>0</v>
+      </c>
+      <c r="D309" s="3">
+        <v>0</v>
+      </c>
+      <c r="E309" s="3">
+        <v>437119.29</v>
+      </c>
+      <c r="F309" s="3">
+        <f t="shared" ref="F309" si="241">F308+G309</f>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G309" s="3">
+        <f t="shared" ref="G309" si="242">(C309-D309)/((E309-C309+D309)/F308)</f>
+        <v>0</v>
+      </c>
+      <c r="H309" s="4">
+        <f t="shared" ref="H309" si="243">I309/J309</f>
+        <v>1.3641093670564313</v>
+      </c>
+      <c r="I309" s="5">
+        <v>5151.75</v>
+      </c>
+      <c r="J309" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K309" s="6">
+        <f t="shared" ref="K309" si="244">(B309-H309)</f>
+        <v>0.26735865764563349</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B310" s="2">
+        <f t="shared" ref="B310:B311" si="245">E310/F310</f>
+        <v>1.5934843403321708</v>
+      </c>
+      <c r="C310" s="3">
+        <v>0</v>
+      </c>
+      <c r="D310" s="3">
+        <v>0</v>
+      </c>
+      <c r="E310" s="3">
+        <v>426942.32</v>
+      </c>
+      <c r="F310" s="3">
+        <f t="shared" ref="F310:F311" si="246">F309+G310</f>
+        <v>267930.03808936174</v>
+      </c>
+      <c r="G310" s="3">
+        <f t="shared" ref="G310:G311" si="247">(C310-D310)/((E310-C310+D310)/F309)</f>
+        <v>0</v>
+      </c>
+      <c r="H310" s="4">
+        <f t="shared" ref="H310:H311" si="248">I310/J310</f>
+        <v>1.3475549694966955</v>
+      </c>
+      <c r="I310" s="5">
+        <v>5089.2299999999996</v>
+      </c>
+      <c r="J310" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K310" s="6">
+        <f t="shared" ref="K310:K311" si="249">(B310-H310)</f>
+        <v>0.24592937083547528</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B311" s="2">
+        <f t="shared" si="245"/>
+        <v>1.6114274572528522</v>
+      </c>
+      <c r="C311" s="3">
+        <v>0</v>
+      </c>
+      <c r="D311" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E311" s="3">
+        <v>413749.82</v>
+      </c>
+      <c r="F311" s="3">
+        <f t="shared" si="246"/>
+        <v>256759.81760007812</v>
+      </c>
+      <c r="G311" s="3">
+        <f t="shared" si="247"/>
+        <v>-11170.220489283611</v>
+      </c>
+      <c r="H311" s="4">
+        <f t="shared" si="248"/>
+        <v>1.3041486612438571</v>
+      </c>
+      <c r="I311" s="5">
+        <v>4925.3</v>
+      </c>
+      <c r="J311" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K311" s="6">
+        <f t="shared" si="249"/>
+        <v>0.3072787960089951</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B312" s="2">
+        <f t="shared" ref="B312" si="250">E312/F312</f>
+        <v>1.5705490982553079</v>
+      </c>
+      <c r="C312" s="3">
+        <v>0</v>
+      </c>
+      <c r="D312" s="3">
+        <v>0</v>
+      </c>
+      <c r="E312" s="3">
+        <v>403253.9</v>
+      </c>
+      <c r="F312" s="3">
+        <f t="shared" ref="F312" si="251">F311+G312</f>
+        <v>256759.81760007812</v>
+      </c>
+      <c r="G312" s="3">
+        <f t="shared" ref="G312" si="252">(C312-D312)/((E312-C312+D312)/F311)</f>
+        <v>0</v>
+      </c>
+      <c r="H312" s="4">
+        <f t="shared" ref="H312" si="253">I312/J312</f>
+        <v>1.2580786095577023</v>
+      </c>
+      <c r="I312" s="5">
+        <v>4751.3100000000004</v>
+      </c>
+      <c r="J312" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K312" s="6">
+        <f t="shared" ref="K312" si="254">(B312-H312)</f>
+        <v>0.31247048869760552</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B313" s="2">
+        <f t="shared" ref="B313:B314" si="255">E313/F313</f>
+        <v>1.5843295645022153</v>
+      </c>
+      <c r="C313" s="3">
+        <v>0</v>
+      </c>
+      <c r="D313" s="3">
+        <v>0</v>
+      </c>
+      <c r="E313" s="3">
+        <v>406792.17</v>
+      </c>
+      <c r="F313" s="3">
+        <f t="shared" ref="F313:F314" si="256">F312+G313</f>
+        <v>256759.81760007812</v>
+      </c>
+      <c r="G313" s="3">
+        <f t="shared" ref="G313:G314" si="257">(C313-D313)/((E313-C313+D313)/F312)</f>
+        <v>0</v>
+      </c>
+      <c r="H313" s="4">
+        <f t="shared" ref="H313:H314" si="258">I313/J313</f>
+        <v>1.260506693780715</v>
+      </c>
+      <c r="I313" s="5">
+        <v>4760.4799999999996</v>
+      </c>
+      <c r="J313" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K313" s="6">
+        <f t="shared" ref="K313:K314" si="259">(B313-H313)</f>
+        <v>0.32382287072150029</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B314" s="2">
+        <f t="shared" si="255"/>
+        <v>1.5880164342345908</v>
+      </c>
+      <c r="C314" s="3">
+        <v>0</v>
+      </c>
+      <c r="D314" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E314" s="3">
+        <v>401738.81</v>
+      </c>
+      <c r="F314" s="3">
+        <f t="shared" si="256"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G314" s="3">
+        <f t="shared" si="257"/>
+        <v>-3778.2984298219458</v>
+      </c>
+      <c r="H314" s="4">
+        <f t="shared" si="258"/>
+        <v>1.2842817954583969</v>
+      </c>
+      <c r="I314" s="5">
+        <v>4850.2700000000004</v>
+      </c>
+      <c r="J314" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K314" s="6">
+        <f t="shared" si="259"/>
+        <v>0.30373463877619389</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B315" s="2">
+        <f t="shared" ref="B315" si="260">E315/F315</f>
+        <v>1.5767958912901487</v>
+      </c>
+      <c r="C315" s="3">
+        <v>0</v>
+      </c>
+      <c r="D315" s="3">
+        <v>0</v>
+      </c>
+      <c r="E315" s="3">
+        <v>398900.22</v>
+      </c>
+      <c r="F315" s="3">
+        <f t="shared" ref="F315" si="261">F314+G315</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G315" s="3">
+        <f t="shared" ref="G315" si="262">(C315-D315)/((E315-C315+D315)/F314)</f>
+        <v>0</v>
+      </c>
+      <c r="H315" s="4">
+        <f t="shared" ref="H315" si="263">I315/J315</f>
+        <v>1.2739286773428233</v>
+      </c>
+      <c r="I315" s="5">
+        <v>4811.17</v>
+      </c>
+      <c r="J315" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K315" s="6">
+        <f t="shared" ref="K315" si="264">(B315-H315)</f>
+        <v>0.30286721394732541</v>
       </c>
     </row>
   </sheetData>
@@ -20792,10 +22072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K295"/>
+  <dimension ref="A1:K315"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="E296" sqref="E296"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="G322" sqref="G322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32522,7 +33802,7 @@
         <v>44379</v>
       </c>
       <c r="B295" s="2">
-        <f t="shared" ref="B295" si="170">E295/F295</f>
+        <f t="shared" ref="B295:B296" si="170">E295/F295</f>
         <v>1.7536415597820301</v>
       </c>
       <c r="C295" s="3">
@@ -32535,15 +33815,15 @@
         <v>801198.17</v>
       </c>
       <c r="F295" s="3">
-        <f t="shared" ref="F295" si="171">F294+G295</f>
+        <f t="shared" ref="F295:F296" si="171">F294+G295</f>
         <v>456876.81472352048</v>
       </c>
       <c r="G295" s="3">
-        <f t="shared" ref="G295" si="172">(C295-D295)/((E295-C295+D295)/F294)</f>
+        <f t="shared" ref="G295:G296" si="172">(C295-D295)/((E295-C295+D295)/F294)</f>
         <v>0</v>
       </c>
       <c r="H295" s="4">
-        <f t="shared" ref="H295" si="173">I295/J295</f>
+        <f t="shared" ref="H295:H296" si="173">I295/J295</f>
         <v>1.3454075580410101</v>
       </c>
       <c r="I295" s="5">
@@ -32553,8 +33833,808 @@
         <v>3776.64</v>
       </c>
       <c r="K295" s="6">
-        <f t="shared" ref="K295" si="174">(B295-H295)</f>
+        <f t="shared" ref="K295:K296" si="174">(B295-H295)</f>
         <v>0.40823400174101998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B296" s="2">
+        <f t="shared" si="170"/>
+        <v>1.7474306952589151</v>
+      </c>
+      <c r="C296" s="3">
+        <v>0</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0</v>
+      </c>
+      <c r="E296" s="3">
+        <v>798360.57</v>
+      </c>
+      <c r="F296" s="3">
+        <f t="shared" si="171"/>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G296" s="3">
+        <f t="shared" si="172"/>
+        <v>0</v>
+      </c>
+      <c r="H296" s="4">
+        <f t="shared" si="173"/>
+        <v>1.3466441069310287</v>
+      </c>
+      <c r="I296" s="5">
+        <v>5085.79</v>
+      </c>
+      <c r="J296" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K296" s="6">
+        <f t="shared" si="174"/>
+        <v>0.40078658832788649</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B297" s="2">
+        <f t="shared" ref="B297:B299" si="175">E297/F297</f>
+        <v>1.7272842144059306</v>
+      </c>
+      <c r="C297" s="3">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3">
+        <v>789156.11</v>
+      </c>
+      <c r="F297" s="3">
+        <f t="shared" ref="F297:F299" si="176">F296+G297</f>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G297" s="3">
+        <f t="shared" ref="G297:G299" si="177">(C297-D297)/((E297-C297+D297)/F296)</f>
+        <v>0</v>
+      </c>
+      <c r="H297" s="4">
+        <f t="shared" ref="H297:H299" si="178">I297/J297</f>
+        <v>1.3459318335875277</v>
+      </c>
+      <c r="I297" s="5">
+        <v>5083.1000000000004</v>
+      </c>
+      <c r="J297" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K297" s="6">
+        <f t="shared" ref="K297:K299" si="179">(B297-H297)</f>
+        <v>0.38135238081840295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B298" s="2">
+        <f t="shared" si="175"/>
+        <v>1.732247915620168</v>
+      </c>
+      <c r="C298" s="3">
+        <v>0</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3">
+        <v>791423.91</v>
+      </c>
+      <c r="F298" s="3">
+        <f t="shared" si="176"/>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G298" s="3">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="H298" s="4">
+        <f t="shared" si="178"/>
+        <v>1.3611278808676495</v>
+      </c>
+      <c r="I298" s="5">
+        <v>5140.49</v>
+      </c>
+      <c r="J298" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K298" s="6">
+        <f t="shared" si="179"/>
+        <v>0.37112003475251854</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B299" s="2">
+        <f t="shared" si="175"/>
+        <v>1.6973739638534495</v>
+      </c>
+      <c r="C299" s="3">
+        <v>0</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0</v>
+      </c>
+      <c r="E299" s="3">
+        <v>775490.81</v>
+      </c>
+      <c r="F299" s="3">
+        <f t="shared" si="176"/>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G299" s="3">
+        <f t="shared" si="177"/>
+        <v>0</v>
+      </c>
+      <c r="H299" s="4">
+        <f t="shared" si="178"/>
+        <v>1.3472981274360278</v>
+      </c>
+      <c r="I299" s="5">
+        <v>5088.26</v>
+      </c>
+      <c r="J299" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K299" s="6">
+        <f t="shared" si="179"/>
+        <v>0.35007583641742168</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B300" s="2">
+        <f t="shared" ref="B300:B303" si="180">E300/F300</f>
+        <v>1.6854194066862072</v>
+      </c>
+      <c r="C300" s="3">
+        <v>0</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0</v>
+      </c>
+      <c r="E300" s="3">
+        <v>770029.05</v>
+      </c>
+      <c r="F300" s="3">
+        <f t="shared" ref="F300:F303" si="181">F299+G300</f>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G300" s="3">
+        <f t="shared" ref="G300:G303" si="182">(C300-D300)/((E300-C300+D300)/F299)</f>
+        <v>0</v>
+      </c>
+      <c r="H300" s="4">
+        <f t="shared" ref="H300:H303" si="183">I300/J300</f>
+        <v>1.3423148618878156</v>
+      </c>
+      <c r="I300" s="5">
+        <v>5069.4399999999996</v>
+      </c>
+      <c r="J300" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K300" s="6">
+        <f t="shared" ref="K300:K303" si="184">(B300-H300)</f>
+        <v>0.34310454479839159</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B301" s="2">
+        <f t="shared" si="180"/>
+        <v>1.7036920782925613</v>
+      </c>
+      <c r="C301" s="3">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0</v>
+      </c>
+      <c r="E301" s="3">
+        <v>778377.41</v>
+      </c>
+      <c r="F301" s="3">
+        <f t="shared" si="181"/>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G301" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="H301" s="4">
+        <f t="shared" si="183"/>
+        <v>1.359067848669717</v>
+      </c>
+      <c r="I301" s="5">
+        <v>5132.71</v>
+      </c>
+      <c r="J301" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K301" s="6">
+        <f t="shared" si="184"/>
+        <v>0.34462422962284434</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B302" s="2">
+        <f t="shared" si="180"/>
+        <v>1.7241494306877709</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0</v>
+      </c>
+      <c r="E302" s="3">
+        <v>787723.9</v>
+      </c>
+      <c r="F302" s="3">
+        <f t="shared" si="181"/>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G302" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="H302" s="4">
+        <f t="shared" si="183"/>
+        <v>1.3615541857312321</v>
+      </c>
+      <c r="I302" s="5">
+        <v>5142.1000000000004</v>
+      </c>
+      <c r="J302" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K302" s="6">
+        <f t="shared" si="184"/>
+        <v>0.36259524495653883</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B303" s="2">
+        <f t="shared" si="180"/>
+        <v>1.7365166592664836</v>
+      </c>
+      <c r="C303" s="3">
+        <v>0</v>
+      </c>
+      <c r="D303" s="3">
+        <v>0</v>
+      </c>
+      <c r="E303" s="3">
+        <v>793374.2</v>
+      </c>
+      <c r="F303" s="3">
+        <f t="shared" si="181"/>
+        <v>456876.81472352048</v>
+      </c>
+      <c r="G303" s="3">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+      <c r="H303" s="4">
+        <f t="shared" si="183"/>
+        <v>1.3459265378749365</v>
+      </c>
+      <c r="I303" s="5">
+        <v>5083.08</v>
+      </c>
+      <c r="J303" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K303" s="6">
+        <f t="shared" si="184"/>
+        <v>0.39059012139154703</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B304" s="2">
+        <f t="shared" ref="B304:B307" si="185">E304/F304</f>
+        <v>1.7443140783632611</v>
+      </c>
+      <c r="C304" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0</v>
+      </c>
+      <c r="E304" s="3">
+        <v>806936.66</v>
+      </c>
+      <c r="F304" s="3">
+        <f t="shared" ref="F304:F307" si="186">F303+G304</f>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G304" s="3">
+        <f t="shared" ref="G304:G307" si="187">(C304-D304)/((E304-C304+D304)/F303)</f>
+        <v>5732.912509301811</v>
+      </c>
+      <c r="H304" s="4">
+        <f t="shared" ref="H304:H307" si="188">I304/J304</f>
+        <v>1.3640325792238603</v>
+      </c>
+      <c r="I304" s="5">
+        <v>5151.46</v>
+      </c>
+      <c r="J304" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K304" s="6">
+        <f t="shared" ref="K304:K307" si="189">(B304-H304)</f>
+        <v>0.38028149913940079</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B305" s="2">
+        <f t="shared" si="185"/>
+        <v>1.7297036203419183</v>
+      </c>
+      <c r="C305" s="3">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3">
+        <v>800177.72</v>
+      </c>
+      <c r="F305" s="3">
+        <f t="shared" si="186"/>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G305" s="3">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="H305" s="4">
+        <f t="shared" si="188"/>
+        <v>1.3490218818844266</v>
+      </c>
+      <c r="I305" s="5">
+        <v>5094.7700000000004</v>
+      </c>
+      <c r="J305" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K305" s="6">
+        <f t="shared" si="189"/>
+        <v>0.38068173845749165</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B306" s="2">
+        <f t="shared" si="185"/>
+        <v>1.7523195952860302</v>
+      </c>
+      <c r="C306" s="3">
+        <v>0</v>
+      </c>
+      <c r="D306" s="3">
+        <v>0</v>
+      </c>
+      <c r="E306" s="3">
+        <v>810640.09</v>
+      </c>
+      <c r="F306" s="3">
+        <f t="shared" si="186"/>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G306" s="3">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="H306" s="4">
+        <f t="shared" si="188"/>
+        <v>1.3539786688696831</v>
+      </c>
+      <c r="I306" s="5">
+        <v>5113.49</v>
+      </c>
+      <c r="J306" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K306" s="6">
+        <f t="shared" si="189"/>
+        <v>0.39834092641634711</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B307" s="2">
+        <f t="shared" si="185"/>
+        <v>1.7410672378590968</v>
+      </c>
+      <c r="C307" s="3">
+        <v>0</v>
+      </c>
+      <c r="D307" s="3">
+        <v>0</v>
+      </c>
+      <c r="E307" s="3">
+        <v>805434.64</v>
+      </c>
+      <c r="F307" s="3">
+        <f t="shared" si="186"/>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G307" s="3">
+        <f t="shared" si="187"/>
+        <v>0</v>
+      </c>
+      <c r="H307" s="4">
+        <f t="shared" si="188"/>
+        <v>1.3527871335366888</v>
+      </c>
+      <c r="I307" s="5">
+        <v>5108.99</v>
+      </c>
+      <c r="J307" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K307" s="6">
+        <f t="shared" si="189"/>
+        <v>0.388280104322408</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B308" s="2">
+        <f t="shared" ref="B308" si="190">E308/F308</f>
+        <v>1.7437013804814083</v>
+      </c>
+      <c r="C308" s="3">
+        <v>0</v>
+      </c>
+      <c r="D308" s="3">
+        <v>0</v>
+      </c>
+      <c r="E308" s="3">
+        <v>806653.22</v>
+      </c>
+      <c r="F308" s="3">
+        <f t="shared" ref="F308" si="191">F307+G308</f>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G308" s="3">
+        <f t="shared" ref="G308" si="192">(C308-D308)/((E308-C308+D308)/F307)</f>
+        <v>0</v>
+      </c>
+      <c r="H308" s="4">
+        <f t="shared" ref="H308" si="193">I308/J308</f>
+        <v>1.3620678698525674</v>
+      </c>
+      <c r="I308" s="5">
+        <v>5144.04</v>
+      </c>
+      <c r="J308" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K308" s="6">
+        <f t="shared" ref="K308" si="194">(B308-H308)</f>
+        <v>0.38163351062884088</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B309" s="2">
+        <f t="shared" ref="B309" si="195">E309/F309</f>
+        <v>1.7183668288927394</v>
+      </c>
+      <c r="C309" s="3">
+        <v>0</v>
+      </c>
+      <c r="D309" s="3">
+        <v>0</v>
+      </c>
+      <c r="E309" s="3">
+        <v>794933.21</v>
+      </c>
+      <c r="F309" s="3">
+        <f t="shared" ref="F309" si="196">F308+G309</f>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G309" s="3">
+        <f t="shared" ref="G309" si="197">(C309-D309)/((E309-C309+D309)/F308)</f>
+        <v>0</v>
+      </c>
+      <c r="H309" s="4">
+        <f t="shared" ref="H309" si="198">I309/J309</f>
+        <v>1.3641093670564313</v>
+      </c>
+      <c r="I309" s="5">
+        <v>5151.75</v>
+      </c>
+      <c r="J309" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K309" s="6">
+        <f t="shared" ref="K309" si="199">(B309-H309)</f>
+        <v>0.35425746183630813</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B310" s="2">
+        <f t="shared" ref="B310:B311" si="200">E310/F310</f>
+        <v>1.680866082629207</v>
+      </c>
+      <c r="C310" s="3">
+        <v>0</v>
+      </c>
+      <c r="D310" s="3">
+        <v>0</v>
+      </c>
+      <c r="E310" s="3">
+        <v>777585</v>
+      </c>
+      <c r="F310" s="3">
+        <f t="shared" ref="F310:F311" si="201">F309+G310</f>
+        <v>462609.72723282228</v>
+      </c>
+      <c r="G310" s="3">
+        <f t="shared" ref="G310:G311" si="202">(C310-D310)/((E310-C310+D310)/F309)</f>
+        <v>0</v>
+      </c>
+      <c r="H310" s="4">
+        <f t="shared" ref="H310:H311" si="203">I310/J310</f>
+        <v>1.3475549694966955</v>
+      </c>
+      <c r="I310" s="5">
+        <v>5089.2299999999996</v>
+      </c>
+      <c r="J310" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K310" s="6">
+        <f t="shared" ref="K310:K311" si="204">(B310-H310)</f>
+        <v>0.33331111313251149</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B311" s="2">
+        <f t="shared" si="200"/>
+        <v>1.6617644306755017</v>
+      </c>
+      <c r="C311" s="3">
+        <v>0</v>
+      </c>
+      <c r="D311" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E311" s="3">
+        <v>750748.39</v>
+      </c>
+      <c r="F311" s="3">
+        <f t="shared" si="201"/>
+        <v>451777.86703186523</v>
+      </c>
+      <c r="G311" s="3">
+        <f t="shared" si="202"/>
+        <v>-10831.860200957039</v>
+      </c>
+      <c r="H311" s="4">
+        <f t="shared" si="203"/>
+        <v>1.3041486612438571</v>
+      </c>
+      <c r="I311" s="5">
+        <v>4925.3</v>
+      </c>
+      <c r="J311" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K311" s="6">
+        <f t="shared" si="204"/>
+        <v>0.35761576943164464</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B312" s="2">
+        <f t="shared" ref="B312" si="205">E312/F312</f>
+        <v>1.6259457658384777</v>
+      </c>
+      <c r="C312" s="3">
+        <v>0</v>
+      </c>
+      <c r="D312" s="3">
+        <v>0</v>
+      </c>
+      <c r="E312" s="3">
+        <v>734566.31</v>
+      </c>
+      <c r="F312" s="3">
+        <f t="shared" ref="F312" si="206">F311+G312</f>
+        <v>451777.86703186523</v>
+      </c>
+      <c r="G312" s="3">
+        <f t="shared" ref="G312" si="207">(C312-D312)/((E312-C312+D312)/F311)</f>
+        <v>0</v>
+      </c>
+      <c r="H312" s="4">
+        <f t="shared" ref="H312" si="208">I312/J312</f>
+        <v>1.2580786095577023</v>
+      </c>
+      <c r="I312" s="5">
+        <v>4751.3100000000004</v>
+      </c>
+      <c r="J312" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K312" s="6">
+        <f t="shared" ref="K312" si="209">(B312-H312)</f>
+        <v>0.36786715628077538</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B313" s="2">
+        <f t="shared" ref="B313:B314" si="210">E313/F313</f>
+        <v>1.6326762859057333</v>
+      </c>
+      <c r="C313" s="3">
+        <v>0</v>
+      </c>
+      <c r="D313" s="3">
+        <v>0</v>
+      </c>
+      <c r="E313" s="3">
+        <v>737607.01</v>
+      </c>
+      <c r="F313" s="3">
+        <f t="shared" ref="F313:F314" si="211">F312+G313</f>
+        <v>451777.86703186523</v>
+      </c>
+      <c r="G313" s="3">
+        <f t="shared" ref="G313:G314" si="212">(C313-D313)/((E313-C313+D313)/F312)</f>
+        <v>0</v>
+      </c>
+      <c r="H313" s="4">
+        <f t="shared" ref="H313:H314" si="213">I313/J313</f>
+        <v>1.260506693780715</v>
+      </c>
+      <c r="I313" s="5">
+        <v>4760.4799999999996</v>
+      </c>
+      <c r="J313" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K313" s="6">
+        <f t="shared" ref="K313:K314" si="214">(B313-H313)</f>
+        <v>0.37216959212501832</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B314" s="2">
+        <f t="shared" si="210"/>
+        <v>1.6360845316662354</v>
+      </c>
+      <c r="C314" s="3">
+        <v>0</v>
+      </c>
+      <c r="D314" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E314" s="3">
+        <v>733146.78</v>
+      </c>
+      <c r="F314" s="3">
+        <f t="shared" si="211"/>
+        <v>448110.57485724305</v>
+      </c>
+      <c r="G314" s="3">
+        <f t="shared" si="212"/>
+        <v>-3667.2921746221923</v>
+      </c>
+      <c r="H314" s="4">
+        <f t="shared" si="213"/>
+        <v>1.2842817954583969</v>
+      </c>
+      <c r="I314" s="5">
+        <v>4850.2700000000004</v>
+      </c>
+      <c r="J314" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K314" s="6">
+        <f t="shared" si="214"/>
+        <v>0.35180273620783842</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B315" s="2">
+        <f t="shared" ref="B315" si="215">E315/F315</f>
+        <v>1.6151168274271797</v>
+      </c>
+      <c r="C315" s="3">
+        <v>0</v>
+      </c>
+      <c r="D315" s="3">
+        <v>0</v>
+      </c>
+      <c r="E315" s="3">
+        <v>723750.93</v>
+      </c>
+      <c r="F315" s="3">
+        <f t="shared" ref="F315" si="216">F314+G315</f>
+        <v>448110.57485724305</v>
+      </c>
+      <c r="G315" s="3">
+        <f t="shared" ref="G315" si="217">(C315-D315)/((E315-C315+D315)/F314)</f>
+        <v>0</v>
+      </c>
+      <c r="H315" s="4">
+        <f t="shared" ref="H315" si="218">I315/J315</f>
+        <v>1.2739286773428233</v>
+      </c>
+      <c r="I315" s="5">
+        <v>4811.17</v>
+      </c>
+      <c r="J315" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K315" s="6">
+        <f t="shared" ref="K315" si="219">(B315-H315)</f>
+        <v>0.34118815008435632</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B132B37B-D97E-4DA1-BE95-19267C65C79C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F79DB-0332-4E70-8B30-EB16FEBB5B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="720" windowWidth="18930" windowHeight="7980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
     <sheet name="合并账户" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -61,11 +61,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000000%"/>
-    <numFmt numFmtId="178" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="176" formatCode="0.000000%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,39 +130,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1445,6 +1445,54 @@
                 <c:pt idx="355">
                   <c:v>44469</c:v>
                 </c:pt>
+                <c:pt idx="356">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44498</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2522,13 +2570,61 @@
                 <c:pt idx="355">
                   <c:v>1.6006250232353285</c:v>
                 </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.6396290185957934</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.6354159440459377</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.6303250583392499</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.659382042517817</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.6517908160665775</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.6854580974867193</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.6716874473165959</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.7052556701174273</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.7072461317197276</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.7064737432834463</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.7108467899930577</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.7161743728316008</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.7088105938246991</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.6869270980730819</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.6975006767628349</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.722169988657511</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A284-4E80-A0EC-B0D748ADA330}"/>
+              <c16:uniqueId val="{00000000-1AA2-4ADD-B0FC-3C5182350C8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3671,6 +3767,54 @@
                 <c:pt idx="355">
                   <c:v>44469</c:v>
                 </c:pt>
+                <c:pt idx="356">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44498</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4748,13 +4892,61 @@
                 <c:pt idx="355">
                   <c:v>1.2885474919505169</c:v>
                 </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.305377266564989</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.3070321767497033</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.2931706490425352</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.3080701364175562</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.301053317234367</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.3059518513811219</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.290771691238773</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.303465514319607</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.3001451025249959</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.304868878156245</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.3132652304694119</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.3185053380782921</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.3141575580410101</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.2969623792577529</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.2879543721403153</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.2997717547873244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A284-4E80-A0EC-B0D748ADA330}"/>
+              <c16:uniqueId val="{00000001-1AA2-4ADD-B0FC-3C5182350C8C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6132,6 +6324,57 @@
                 <c:pt idx="354">
                   <c:v>44468</c:v>
                 </c:pt>
+                <c:pt idx="355">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44498</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -7204,7 +7447,58 @@
                   <c:v>1.6369286920928243</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.6215524151915235</c:v>
+                  <c:v>1.6233228924718359</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.6422948252661353</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.6876496583795981</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.6801317143579071</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.6782458815472305</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.7134137608190561</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.7084061752450004</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.7305957069415243</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.6999413003854853</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.7350706861271226</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.7378978470785711</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.7341297581789967</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.7417822169540045</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.7415491547614783</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.7342251541011147</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.7089457099686509</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.7221173634980755</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.7445739892973138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7212,7 +7506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD15-4336-A30A-088EE08844CA}"/>
+              <c16:uniqueId val="{00000000-0D93-48EC-AE65-22E61E47879C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8313,6 +8607,57 @@
                 <c:pt idx="354">
                   <c:v>44468</c:v>
                 </c:pt>
+                <c:pt idx="355">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>44488</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>44498</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -9387,13 +9732,64 @@
                 <c:pt idx="354">
                   <c:v>1.2799551982714796</c:v>
                 </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.2885474919505169</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.305377266564989</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.3070321767497033</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.2931706490425352</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.3080701364175562</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.301053317234367</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.3059518513811219</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.290771691238773</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.303465514319607</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.3001451025249959</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.304868878156245</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.3132652304694119</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.3185053380782921</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.3141575580410101</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.2969623792577529</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.2879543721403153</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.2997717547873244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD15-4336-A30A-088EE08844CA}"/>
+              <c16:uniqueId val="{00000001-0D93-48EC-AE65-22E61E47879C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10154,15 +10550,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10195,15 +10591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47628</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19047</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10489,10 +10885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q357"/>
+  <dimension ref="A1:Q373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E373" sqref="E373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -24703,7 +25100,7 @@
         <v>44469</v>
       </c>
       <c r="B357" s="2">
-        <f t="shared" ref="B357" si="325">E357/F357</f>
+        <f t="shared" ref="B357:B360" si="325">E357/F357</f>
         <v>1.6006250232353285</v>
       </c>
       <c r="C357" s="3">
@@ -24716,15 +25113,15 @@
         <v>404928.55</v>
       </c>
       <c r="F357" s="3">
-        <f t="shared" ref="F357" si="326">F356+G357</f>
+        <f t="shared" ref="F357:F360" si="326">F356+G357</f>
         <v>252981.51917025619</v>
       </c>
       <c r="G357" s="3">
-        <f t="shared" ref="G357" si="327">(C357-D357)/((E357-C357+D357)/F356)</f>
+        <f t="shared" ref="G357:G360" si="327">(C357-D357)/((E357-C357+D357)/F356)</f>
         <v>0</v>
       </c>
       <c r="H357" s="4">
-        <f t="shared" ref="H357" si="328">I357/J357</f>
+        <f t="shared" ref="H357:H360" si="328">I357/J357</f>
         <v>1.2885474919505169</v>
       </c>
       <c r="I357" s="5">
@@ -24734,24 +25131,665 @@
         <v>3776.64</v>
       </c>
       <c r="K357" s="6">
-        <f t="shared" ref="K357" si="329">(B357-H357)</f>
+        <f t="shared" ref="K357:K360" si="329">(B357-H357)</f>
         <v>0.31207753128481164</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B358" s="2">
+        <f t="shared" si="325"/>
+        <v>1.6396290185957934</v>
+      </c>
+      <c r="C358" s="3">
+        <v>0</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0</v>
+      </c>
+      <c r="E358" s="3">
+        <v>414795.84</v>
+      </c>
+      <c r="F358" s="3">
+        <f t="shared" si="326"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G358" s="3">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="H358" s="4">
+        <f t="shared" si="328"/>
+        <v>1.305377266564989</v>
+      </c>
+      <c r="I358" s="5">
+        <v>4929.9399999999996</v>
+      </c>
+      <c r="J358" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K358" s="6">
+        <f t="shared" si="329"/>
+        <v>0.33425175203080437</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B359" s="2">
+        <f t="shared" si="325"/>
+        <v>1.6354159440459377</v>
+      </c>
+      <c r="C359" s="3">
+        <v>0</v>
+      </c>
+      <c r="D359" s="3">
+        <v>0</v>
+      </c>
+      <c r="E359" s="3">
+        <v>413730.01</v>
+      </c>
+      <c r="F359" s="3">
+        <f t="shared" si="326"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G359" s="3">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="H359" s="4">
+        <f t="shared" si="328"/>
+        <v>1.3070321767497033</v>
+      </c>
+      <c r="I359" s="5">
+        <v>4936.1899999999996</v>
+      </c>
+      <c r="J359" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K359" s="6">
+        <f t="shared" si="329"/>
+        <v>0.32838376729623442</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B360" s="2">
+        <f t="shared" si="325"/>
+        <v>1.6303250583392499</v>
+      </c>
+      <c r="C360" s="3">
+        <v>0</v>
+      </c>
+      <c r="D360" s="3">
+        <v>0</v>
+      </c>
+      <c r="E360" s="3">
+        <v>412442.11</v>
+      </c>
+      <c r="F360" s="3">
+        <f t="shared" si="326"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G360" s="3">
+        <f t="shared" si="327"/>
+        <v>0</v>
+      </c>
+      <c r="H360" s="4">
+        <f t="shared" si="328"/>
+        <v>1.2931706490425352</v>
+      </c>
+      <c r="I360" s="5">
+        <v>4883.84</v>
+      </c>
+      <c r="J360" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K360" s="6">
+        <f t="shared" si="329"/>
+        <v>0.3371544092967147</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B361" s="2">
+        <f t="shared" ref="B361:B367" si="330">E361/F361</f>
+        <v>1.659382042517817</v>
+      </c>
+      <c r="C361" s="3">
+        <v>0</v>
+      </c>
+      <c r="D361" s="3">
+        <v>0</v>
+      </c>
+      <c r="E361" s="3">
+        <v>419792.99</v>
+      </c>
+      <c r="F361" s="3">
+        <f t="shared" ref="F361:F367" si="331">F360+G361</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G361" s="3">
+        <f t="shared" ref="G361:G367" si="332">(C361-D361)/((E361-C361+D361)/F360)</f>
+        <v>0</v>
+      </c>
+      <c r="H361" s="4">
+        <f t="shared" ref="H361:H367" si="333">I361/J361</f>
+        <v>1.3080701364175562</v>
+      </c>
+      <c r="I361" s="5">
+        <v>4940.1099999999997</v>
+      </c>
+      <c r="J361" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K361" s="6">
+        <f t="shared" ref="K361:K367" si="334">(B361-H361)</f>
+        <v>0.35131190610026075</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B362" s="2">
+        <f t="shared" si="330"/>
+        <v>1.6517908160665775</v>
+      </c>
+      <c r="C362" s="3">
+        <v>0</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0</v>
+      </c>
+      <c r="E362" s="3">
+        <v>417872.55</v>
+      </c>
+      <c r="F362" s="3">
+        <f t="shared" si="331"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G362" s="3">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="H362" s="4">
+        <f t="shared" si="333"/>
+        <v>1.301053317234367</v>
+      </c>
+      <c r="I362" s="5">
+        <v>4913.6099999999997</v>
+      </c>
+      <c r="J362" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K362" s="6">
+        <f t="shared" si="334"/>
+        <v>0.3507374988322105</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B363" s="2">
+        <f t="shared" si="330"/>
+        <v>1.6854580974867193</v>
+      </c>
+      <c r="C363" s="3">
+        <v>0</v>
+      </c>
+      <c r="D363" s="3">
+        <v>0</v>
+      </c>
+      <c r="E363" s="3">
+        <v>426389.75</v>
+      </c>
+      <c r="F363" s="3">
+        <f t="shared" si="331"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G363" s="3">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="H363" s="4">
+        <f t="shared" si="333"/>
+        <v>1.3059518513811219</v>
+      </c>
+      <c r="I363" s="5">
+        <v>4932.1099999999997</v>
+      </c>
+      <c r="J363" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K363" s="6">
+        <f t="shared" si="334"/>
+        <v>0.37950624610559736</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B364" s="2">
+        <f t="shared" si="330"/>
+        <v>1.6716874473165959</v>
+      </c>
+      <c r="C364" s="3">
+        <v>0</v>
+      </c>
+      <c r="D364" s="3">
+        <v>0</v>
+      </c>
+      <c r="E364" s="3">
+        <v>422906.03</v>
+      </c>
+      <c r="F364" s="3">
+        <f t="shared" si="331"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G364" s="3">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="H364" s="4">
+        <f t="shared" si="333"/>
+        <v>1.290771691238773</v>
+      </c>
+      <c r="I364" s="5">
+        <v>4874.78</v>
+      </c>
+      <c r="J364" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K364" s="6">
+        <f t="shared" si="334"/>
+        <v>0.38091575607782291</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B365" s="2">
+        <f t="shared" si="330"/>
+        <v>1.7052556701174273</v>
+      </c>
+      <c r="C365" s="3">
+        <v>0</v>
+      </c>
+      <c r="D365" s="3">
+        <v>0</v>
+      </c>
+      <c r="E365" s="3">
+        <v>431398.17</v>
+      </c>
+      <c r="F365" s="3">
+        <f t="shared" si="331"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G365" s="3">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="H365" s="4">
+        <f t="shared" si="333"/>
+        <v>1.303465514319607</v>
+      </c>
+      <c r="I365" s="5">
+        <v>4922.72</v>
+      </c>
+      <c r="J365" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K365" s="6">
+        <f t="shared" si="334"/>
+        <v>0.40179015579782029</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B366" s="2">
+        <f t="shared" si="330"/>
+        <v>1.7072461317197276</v>
+      </c>
+      <c r="C366" s="3">
+        <v>0</v>
+      </c>
+      <c r="D366" s="3">
+        <v>0</v>
+      </c>
+      <c r="E366" s="3">
+        <v>431901.72</v>
+      </c>
+      <c r="F366" s="3">
+        <f t="shared" si="331"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G366" s="3">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="H366" s="4">
+        <f t="shared" si="333"/>
+        <v>1.3001451025249959</v>
+      </c>
+      <c r="I366" s="5">
+        <v>4910.18</v>
+      </c>
+      <c r="J366" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K366" s="6">
+        <f t="shared" si="334"/>
+        <v>0.40710102919473168</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B367" s="2">
+        <f t="shared" si="330"/>
+        <v>1.7064737432834463</v>
+      </c>
+      <c r="C367" s="3">
+        <v>0</v>
+      </c>
+      <c r="D367" s="3">
+        <v>0</v>
+      </c>
+      <c r="E367" s="3">
+        <v>431706.32</v>
+      </c>
+      <c r="F367" s="3">
+        <f t="shared" si="331"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G367" s="3">
+        <f t="shared" si="332"/>
+        <v>0</v>
+      </c>
+      <c r="H367" s="4">
+        <f t="shared" si="333"/>
+        <v>1.304868878156245</v>
+      </c>
+      <c r="I367" s="5">
+        <v>4928.0200000000004</v>
+      </c>
+      <c r="J367" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K367" s="6">
+        <f t="shared" si="334"/>
+        <v>0.40160486512720128</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B368" s="2">
+        <f t="shared" ref="B368:B372" si="335">E368/F368</f>
+        <v>1.7108467899930577</v>
+      </c>
+      <c r="C368" s="3">
+        <v>0</v>
+      </c>
+      <c r="D368" s="3">
+        <v>0</v>
+      </c>
+      <c r="E368" s="3">
+        <v>432812.62</v>
+      </c>
+      <c r="F368" s="3">
+        <f t="shared" ref="F368:F370" si="336">F367+G368</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G368" s="3">
+        <f t="shared" ref="G368:G370" si="337">(C368-D368)/((E368-C368+D368)/F367)</f>
+        <v>0</v>
+      </c>
+      <c r="H368" s="4">
+        <f t="shared" ref="H368:H370" si="338">I368/J368</f>
+        <v>1.3132652304694119</v>
+      </c>
+      <c r="I368" s="5">
+        <v>4959.7299999999996</v>
+      </c>
+      <c r="J368" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K368" s="6">
+        <f t="shared" ref="K368:K370" si="339">(B368-H368)</f>
+        <v>0.39758155952364582</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B369" s="2">
+        <f t="shared" si="335"/>
+        <v>1.7161743728316008</v>
+      </c>
+      <c r="C369" s="3">
+        <v>0</v>
+      </c>
+      <c r="D369" s="3">
+        <v>0</v>
+      </c>
+      <c r="E369" s="3">
+        <v>434160.4</v>
+      </c>
+      <c r="F369" s="3">
+        <f t="shared" si="336"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G369" s="3">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
+      <c r="H369" s="4">
+        <f t="shared" si="338"/>
+        <v>1.3185053380782921</v>
+      </c>
+      <c r="I369" s="5">
+        <v>4979.5200000000004</v>
+      </c>
+      <c r="J369" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K369" s="6">
+        <f t="shared" si="339"/>
+        <v>0.39766903475330873</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B370" s="2">
+        <f t="shared" si="335"/>
+        <v>1.7088105938246991</v>
+      </c>
+      <c r="C370" s="3">
+        <v>0</v>
+      </c>
+      <c r="D370" s="3">
+        <v>0</v>
+      </c>
+      <c r="E370" s="3">
+        <v>432297.5</v>
+      </c>
+      <c r="F370" s="3">
+        <f t="shared" si="336"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G370" s="3">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
+      <c r="H370" s="4">
+        <f t="shared" si="338"/>
+        <v>1.3141575580410101</v>
+      </c>
+      <c r="I370" s="5">
+        <v>4963.1000000000004</v>
+      </c>
+      <c r="J370" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K370" s="6">
+        <f t="shared" si="339"/>
+        <v>0.39465303578368904</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B371" s="2">
+        <f t="shared" si="335"/>
+        <v>1.6869270980730819</v>
+      </c>
+      <c r="C371" s="3">
+        <v>0</v>
+      </c>
+      <c r="D371" s="3">
+        <v>0</v>
+      </c>
+      <c r="E371" s="3">
+        <v>426761.38</v>
+      </c>
+      <c r="F371" s="3">
+        <f t="shared" ref="F371:F372" si="340">F370+G371</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G371" s="3">
+        <f t="shared" ref="G371:G372" si="341">(C371-D371)/((E371-C371+D371)/F370)</f>
+        <v>0</v>
+      </c>
+      <c r="H371" s="4">
+        <f t="shared" ref="H371:H372" si="342">I371/J371</f>
+        <v>1.2969623792577529</v>
+      </c>
+      <c r="I371" s="5">
+        <v>4898.16</v>
+      </c>
+      <c r="J371" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K371" s="6">
+        <f t="shared" ref="K371:K372" si="343">(B371-H371)</f>
+        <v>0.38996471881532901</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B372" s="2">
+        <f t="shared" si="335"/>
+        <v>1.6975006767628349</v>
+      </c>
+      <c r="C372" s="3">
+        <v>0</v>
+      </c>
+      <c r="D372" s="3">
+        <v>0</v>
+      </c>
+      <c r="E372" s="3">
+        <v>429436.3</v>
+      </c>
+      <c r="F372" s="3">
+        <f t="shared" si="340"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G372" s="3">
+        <f t="shared" si="341"/>
+        <v>0</v>
+      </c>
+      <c r="H372" s="4">
+        <f t="shared" si="342"/>
+        <v>1.2879543721403153</v>
+      </c>
+      <c r="I372" s="5">
+        <v>4864.1400000000003</v>
+      </c>
+      <c r="J372" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K372" s="6">
+        <f t="shared" si="343"/>
+        <v>0.40954630462251962</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B373" s="2">
+        <f t="shared" ref="B373" si="344">E373/F373</f>
+        <v>1.722169988657511</v>
+      </c>
+      <c r="C373" s="3">
+        <v>0</v>
+      </c>
+      <c r="D373" s="3">
+        <v>0</v>
+      </c>
+      <c r="E373" s="3">
+        <v>435677.18</v>
+      </c>
+      <c r="F373" s="3">
+        <f t="shared" ref="F373" si="345">F372+G373</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G373" s="3">
+        <f t="shared" ref="G373" si="346">(C373-D373)/((E373-C373+D373)/F372)</f>
+        <v>0</v>
+      </c>
+      <c r="H373" s="4">
+        <f t="shared" ref="H373" si="347">I373/J373</f>
+        <v>1.2997717547873244</v>
+      </c>
+      <c r="I373" s="5">
+        <v>4908.7700000000004</v>
+      </c>
+      <c r="J373" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K373" s="6">
+        <f t="shared" ref="K373" si="348">(B373-H373)</f>
+        <v>0.4223982338701866</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L356"/>
+  <dimension ref="A1:L373"/>
   <sheetViews>
-    <sheetView topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="E357" sqref="E357"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E374" sqref="E374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38919,8 +39957,8 @@
         <v>44468</v>
       </c>
       <c r="B356" s="2">
-        <f t="shared" ref="B356" si="270">E356/F356</f>
-        <v>1.6215524151915235</v>
+        <f t="shared" ref="B356:B360" si="270">E356/F356</f>
+        <v>1.6233228924718359</v>
       </c>
       <c r="C356" s="3">
         <v>0</v>
@@ -38929,18 +39967,18 @@
         <v>0</v>
       </c>
       <c r="E356" s="3">
-        <v>648308.73</v>
+        <v>649016.57999999996</v>
       </c>
       <c r="F356" s="3">
-        <f t="shared" ref="F356" si="271">F355+G356</f>
+        <f t="shared" ref="F356:F360" si="271">F355+G356</f>
         <v>399807.44620174827</v>
       </c>
       <c r="G356" s="3">
-        <f t="shared" ref="G356" si="272">(C356-D356)/((E356-C356+D356)/F355)</f>
+        <f t="shared" ref="G356:G360" si="272">(C356-D356)/((E356-C356+D356)/F355)</f>
         <v>0</v>
       </c>
       <c r="H356" s="4">
-        <f t="shared" ref="H356" si="273">I356/J356</f>
+        <f t="shared" ref="H356:H360" si="273">I356/J356</f>
         <v>1.2799551982714796</v>
       </c>
       <c r="I356" s="5">
@@ -38950,8 +39988,688 @@
         <v>3776.64</v>
       </c>
       <c r="K356" s="6">
-        <f t="shared" ref="K356" si="274">(B356-H356)</f>
-        <v>0.34159721692004386</v>
+        <f t="shared" ref="K356:K360" si="274">(B356-H356)</f>
+        <v>0.34336769420035629</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B357" s="2">
+        <f t="shared" si="270"/>
+        <v>1.6422948252661353</v>
+      </c>
+      <c r="C357" s="3">
+        <v>0</v>
+      </c>
+      <c r="D357" s="3">
+        <v>0</v>
+      </c>
+      <c r="E357" s="3">
+        <v>656601.69999999995</v>
+      </c>
+      <c r="F357" s="3">
+        <f t="shared" si="271"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G357" s="3">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="H357" s="4">
+        <f t="shared" si="273"/>
+        <v>1.2885474919505169</v>
+      </c>
+      <c r="I357" s="5">
+        <v>4866.38</v>
+      </c>
+      <c r="J357" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K357" s="6">
+        <f t="shared" si="274"/>
+        <v>0.35374733331561847</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B358" s="2">
+        <f t="shared" si="270"/>
+        <v>1.6876496583795981</v>
+      </c>
+      <c r="C358" s="3">
+        <v>0</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0</v>
+      </c>
+      <c r="E358" s="3">
+        <v>674734.9</v>
+      </c>
+      <c r="F358" s="3">
+        <f t="shared" si="271"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G358" s="3">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="H358" s="4">
+        <f t="shared" si="273"/>
+        <v>1.305377266564989</v>
+      </c>
+      <c r="I358" s="5">
+        <v>4929.9399999999996</v>
+      </c>
+      <c r="J358" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K358" s="6">
+        <f t="shared" si="274"/>
+        <v>0.38227239181460915</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B359" s="2">
+        <f t="shared" si="270"/>
+        <v>1.6801317143579071</v>
+      </c>
+      <c r="C359" s="3">
+        <v>0</v>
+      </c>
+      <c r="D359" s="3">
+        <v>0</v>
+      </c>
+      <c r="E359" s="3">
+        <v>671729.17</v>
+      </c>
+      <c r="F359" s="3">
+        <f t="shared" si="271"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G359" s="3">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="H359" s="4">
+        <f t="shared" si="273"/>
+        <v>1.3070321767497033</v>
+      </c>
+      <c r="I359" s="5">
+        <v>4936.1899999999996</v>
+      </c>
+      <c r="J359" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K359" s="6">
+        <f t="shared" si="274"/>
+        <v>0.3730995376082038</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B360" s="2">
+        <f t="shared" si="270"/>
+        <v>1.6782458815472305</v>
+      </c>
+      <c r="C360" s="3">
+        <v>0</v>
+      </c>
+      <c r="D360" s="3">
+        <v>0</v>
+      </c>
+      <c r="E360" s="3">
+        <v>670975.19999999995</v>
+      </c>
+      <c r="F360" s="3">
+        <f t="shared" si="271"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G360" s="3">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="H360" s="4">
+        <f t="shared" si="273"/>
+        <v>1.2931706490425352</v>
+      </c>
+      <c r="I360" s="5">
+        <v>4883.84</v>
+      </c>
+      <c r="J360" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K360" s="6">
+        <f t="shared" si="274"/>
+        <v>0.38507523250469533</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B361" s="2">
+        <f t="shared" ref="B361:B367" si="275">E361/F361</f>
+        <v>1.7134137608190561</v>
+      </c>
+      <c r="C361" s="3">
+        <v>0</v>
+      </c>
+      <c r="D361" s="3">
+        <v>0</v>
+      </c>
+      <c r="E361" s="3">
+        <v>685035.58</v>
+      </c>
+      <c r="F361" s="3">
+        <f t="shared" ref="F361:F367" si="276">F360+G361</f>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G361" s="3">
+        <f t="shared" ref="G361:G367" si="277">(C361-D361)/((E361-C361+D361)/F360)</f>
+        <v>0</v>
+      </c>
+      <c r="H361" s="4">
+        <f t="shared" ref="H361:H367" si="278">I361/J361</f>
+        <v>1.3080701364175562</v>
+      </c>
+      <c r="I361" s="5">
+        <v>4940.1099999999997</v>
+      </c>
+      <c r="J361" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K361" s="6">
+        <f t="shared" ref="K361:K367" si="279">(B361-H361)</f>
+        <v>0.40534362440149985</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B362" s="2">
+        <f t="shared" si="275"/>
+        <v>1.7084061752450004</v>
+      </c>
+      <c r="C362" s="3">
+        <v>0</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0</v>
+      </c>
+      <c r="E362" s="3">
+        <v>683033.51</v>
+      </c>
+      <c r="F362" s="3">
+        <f t="shared" si="276"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G362" s="3">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="H362" s="4">
+        <f t="shared" si="278"/>
+        <v>1.301053317234367</v>
+      </c>
+      <c r="I362" s="5">
+        <v>4913.6099999999997</v>
+      </c>
+      <c r="J362" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K362" s="6">
+        <f t="shared" si="279"/>
+        <v>0.40735285801063337</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B363" s="2">
+        <f t="shared" si="275"/>
+        <v>1.7305957069415243</v>
+      </c>
+      <c r="C363" s="3">
+        <v>0</v>
+      </c>
+      <c r="D363" s="3">
+        <v>0</v>
+      </c>
+      <c r="E363" s="3">
+        <v>691905.05</v>
+      </c>
+      <c r="F363" s="3">
+        <f t="shared" si="276"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G363" s="3">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="H363" s="4">
+        <f t="shared" si="278"/>
+        <v>1.3059518513811219</v>
+      </c>
+      <c r="I363" s="5">
+        <v>4932.1099999999997</v>
+      </c>
+      <c r="J363" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K363" s="6">
+        <f t="shared" si="279"/>
+        <v>0.42464385556040241</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B364" s="2">
+        <f t="shared" si="275"/>
+        <v>1.6999413003854853</v>
+      </c>
+      <c r="C364" s="3">
+        <v>0</v>
+      </c>
+      <c r="D364" s="3">
+        <v>0</v>
+      </c>
+      <c r="E364" s="3">
+        <v>679649.19</v>
+      </c>
+      <c r="F364" s="3">
+        <f t="shared" si="276"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G364" s="3">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="H364" s="4">
+        <f t="shared" si="278"/>
+        <v>1.290771691238773</v>
+      </c>
+      <c r="I364" s="5">
+        <v>4874.78</v>
+      </c>
+      <c r="J364" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K364" s="6">
+        <f t="shared" si="279"/>
+        <v>0.4091696091467123</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B365" s="2">
+        <f t="shared" si="275"/>
+        <v>1.7350706861271226</v>
+      </c>
+      <c r="C365" s="3">
+        <v>0</v>
+      </c>
+      <c r="D365" s="3">
+        <v>0</v>
+      </c>
+      <c r="E365" s="3">
+        <v>693694.18</v>
+      </c>
+      <c r="F365" s="3">
+        <f t="shared" si="276"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G365" s="3">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="H365" s="4">
+        <f t="shared" si="278"/>
+        <v>1.303465514319607</v>
+      </c>
+      <c r="I365" s="5">
+        <v>4922.72</v>
+      </c>
+      <c r="J365" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K365" s="6">
+        <f t="shared" si="279"/>
+        <v>0.43160517180751556</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B366" s="2">
+        <f t="shared" si="275"/>
+        <v>1.7378978470785711</v>
+      </c>
+      <c r="C366" s="3">
+        <v>0</v>
+      </c>
+      <c r="D366" s="3">
+        <v>0</v>
+      </c>
+      <c r="E366" s="3">
+        <v>694824.5</v>
+      </c>
+      <c r="F366" s="3">
+        <f t="shared" si="276"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G366" s="3">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="H366" s="4">
+        <f t="shared" si="278"/>
+        <v>1.3001451025249959</v>
+      </c>
+      <c r="I366" s="5">
+        <v>4910.18</v>
+      </c>
+      <c r="J366" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K366" s="6">
+        <f t="shared" si="279"/>
+        <v>0.43775274455357516</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B367" s="2">
+        <f t="shared" si="275"/>
+        <v>1.7341297581789967</v>
+      </c>
+      <c r="C367" s="3">
+        <v>0</v>
+      </c>
+      <c r="D367" s="3">
+        <v>0</v>
+      </c>
+      <c r="E367" s="3">
+        <v>693317.99</v>
+      </c>
+      <c r="F367" s="3">
+        <f t="shared" si="276"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G367" s="3">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="H367" s="4">
+        <f t="shared" si="278"/>
+        <v>1.304868878156245</v>
+      </c>
+      <c r="I367" s="5">
+        <v>4928.0200000000004</v>
+      </c>
+      <c r="J367" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K367" s="6">
+        <f t="shared" si="279"/>
+        <v>0.42926088002275176</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B368" s="2">
+        <f t="shared" ref="B368:B370" si="280">E368/F368</f>
+        <v>1.7417822169540045</v>
+      </c>
+      <c r="C368" s="3">
+        <v>0</v>
+      </c>
+      <c r="D368" s="3">
+        <v>0</v>
+      </c>
+      <c r="E368" s="3">
+        <v>696377.5</v>
+      </c>
+      <c r="F368" s="3">
+        <f t="shared" ref="F368:F370" si="281">F367+G368</f>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G368" s="3">
+        <f t="shared" ref="G368:G370" si="282">(C368-D368)/((E368-C368+D368)/F367)</f>
+        <v>0</v>
+      </c>
+      <c r="H368" s="4">
+        <f t="shared" ref="H368:H370" si="283">I368/J368</f>
+        <v>1.3132652304694119</v>
+      </c>
+      <c r="I368" s="5">
+        <v>4959.7299999999996</v>
+      </c>
+      <c r="J368" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K368" s="6">
+        <f t="shared" ref="K368:K370" si="284">(B368-H368)</f>
+        <v>0.42851698648459258</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B369" s="2">
+        <f t="shared" si="280"/>
+        <v>1.7415491547614783</v>
+      </c>
+      <c r="C369" s="3">
+        <v>0</v>
+      </c>
+      <c r="D369" s="3">
+        <v>0</v>
+      </c>
+      <c r="E369" s="3">
+        <v>696284.32</v>
+      </c>
+      <c r="F369" s="3">
+        <f t="shared" si="281"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G369" s="3">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="H369" s="4">
+        <f t="shared" si="283"/>
+        <v>1.3185053380782921</v>
+      </c>
+      <c r="I369" s="5">
+        <v>4979.5200000000004</v>
+      </c>
+      <c r="J369" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K369" s="6">
+        <f t="shared" si="284"/>
+        <v>0.42304381668318625</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B370" s="2">
+        <f t="shared" si="280"/>
+        <v>1.7342251541011147</v>
+      </c>
+      <c r="C370" s="3">
+        <v>0</v>
+      </c>
+      <c r="D370" s="3">
+        <v>0</v>
+      </c>
+      <c r="E370" s="3">
+        <v>693356.13</v>
+      </c>
+      <c r="F370" s="3">
+        <f t="shared" si="281"/>
+        <v>399807.44620174827</v>
+      </c>
+      <c r="G370" s="3">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="H370" s="4">
+        <f t="shared" si="283"/>
+        <v>1.3141575580410101</v>
+      </c>
+      <c r="I370" s="5">
+        <v>4963.1000000000004</v>
+      </c>
+      <c r="J370" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K370" s="6">
+        <f t="shared" si="284"/>
+        <v>0.42006759606010458</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B371" s="2">
+        <f t="shared" ref="B371:B372" si="285">E371/F371</f>
+        <v>1.7089457099686509</v>
+      </c>
+      <c r="C371" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D371" s="3">
+        <v>0</v>
+      </c>
+      <c r="E371" s="3">
+        <v>689249.22</v>
+      </c>
+      <c r="F371" s="3">
+        <f t="shared" ref="F371:F372" si="286">F370+G371</f>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G371" s="3">
+        <f t="shared" ref="G371:G372" si="287">(C371-D371)/((E371-C371+D371)/F370)</f>
+        <v>3510.936576276647</v>
+      </c>
+      <c r="H371" s="4">
+        <f t="shared" ref="H371:H372" si="288">I371/J371</f>
+        <v>1.2969623792577529</v>
+      </c>
+      <c r="I371" s="5">
+        <v>4898.16</v>
+      </c>
+      <c r="J371" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K371" s="6">
+        <f t="shared" ref="K371:K372" si="289">(B371-H371)</f>
+        <v>0.41198333071089799</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B372" s="2">
+        <f t="shared" si="285"/>
+        <v>1.7221173634980755</v>
+      </c>
+      <c r="C372" s="3">
+        <v>0</v>
+      </c>
+      <c r="D372" s="3">
+        <v>0</v>
+      </c>
+      <c r="E372" s="3">
+        <v>694561.59</v>
+      </c>
+      <c r="F372" s="3">
+        <f t="shared" si="286"/>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G372" s="3">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="H372" s="4">
+        <f t="shared" si="288"/>
+        <v>1.2879543721403153</v>
+      </c>
+      <c r="I372" s="5">
+        <v>4864.1400000000003</v>
+      </c>
+      <c r="J372" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K372" s="6">
+        <f t="shared" si="289"/>
+        <v>0.43416299135776026</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B373" s="2">
+        <f t="shared" ref="B373" si="290">E373/F373</f>
+        <v>1.7445739892973138</v>
+      </c>
+      <c r="C373" s="3">
+        <v>0</v>
+      </c>
+      <c r="D373" s="3">
+        <v>0</v>
+      </c>
+      <c r="E373" s="3">
+        <v>703618.76</v>
+      </c>
+      <c r="F373" s="3">
+        <f t="shared" ref="F373" si="291">F372+G373</f>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G373" s="3">
+        <f t="shared" ref="G373" si="292">(C373-D373)/((E373-C373+D373)/F372)</f>
+        <v>0</v>
+      </c>
+      <c r="H373" s="4">
+        <f t="shared" ref="H373" si="293">I373/J373</f>
+        <v>1.2997717547873244</v>
+      </c>
+      <c r="I373" s="5">
+        <v>4908.7700000000004</v>
+      </c>
+      <c r="J373" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K373" s="6">
+        <f t="shared" ref="K373" si="294">(B373-H373)</f>
+        <v>0.44480223450998935</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2F79DB-0332-4E70-8B30-EB16FEBB5B27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852354B-7D08-4F49-9F51-D4ADAC83B413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="720" windowWidth="18930" windowHeight="7980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="20730" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
     <sheet name="合并账户" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -61,11 +61,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.000000%"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000000%"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
-    <numFmt numFmtId="180" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -133,14 +133,14 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -149,13 +149,13 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -321,9 +321,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28440" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -373,10 +373,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>个人账户!$A$2:$A$400</c:f>
+              <c:f>个人账户!$A$2:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1492,16 +1492,82 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44502</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44509</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44516</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44525</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>个人账户!$B$2:$B$400</c:f>
+              <c:f>个人账户!$B$2:$B$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -2617,6 +2683,72 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>1.722169988657511</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.7093407115994672</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.7175036398907242</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.7250794106675222</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.7425991489256245</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.7420796643386436</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.7385494855219097</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.7321945153830909</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.7280011260656438</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.7362627176904197</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.7317945652194116</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.7529395485270653</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.7540672198326046</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.7751552029291471</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7561495458528127</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7559082238771986</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.753569120206935</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.7467487405773907</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.7422305053966194</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.7509768755158963</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.7350777694737149</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7420170510692949</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.7330239830876417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,7 +2756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1AA2-4ADD-B0FC-3C5182350C8C}"/>
+              <c16:uniqueId val="{00000000-5ACE-43A3-9071-62A767A67C01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2695,10 +2827,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>个人账户!$A$2:$A$400</c:f>
+              <c:f>个人账户!$A$2:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -3814,16 +3946,82 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44502</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44509</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44516</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44525</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>个人账户!$H$2:$H$400</c:f>
+              <c:f>个人账户!$H$2:$H$430</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -4939,6 +5137,72 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>1.2997717547873244</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.2949844306049823</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.281522729198441</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.276560646500593</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.2891723860362649</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.2821846932723269</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.2837283934926285</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.2833471021860701</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.2765818293509574</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.2970921242162345</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.2943701279444162</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.2927840620233859</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.2930329605151669</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.2936763895949839</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.2809322572445347</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.2948176156583631</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.3007329266226062</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.300984472970683</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.3018609134045078</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.2965069479749194</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.2868925817658026</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.2845862989323844</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.2794521055753263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4946,7 +5210,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1AA2-4ADD-B0FC-3C5182350C8C}"/>
+              <c16:uniqueId val="{00000001-5ACE-43A3-9071-62A767A67C01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5255,10 +5519,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>合并账户!$A$2:$A$400</c:f>
+              <c:f>合并账户!$A$2:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -6374,16 +6638,82 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44502</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44509</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44516</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44525</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合并账户!$B$2:$B$400</c:f>
+              <c:f>合并账户!$B$2:$B$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -7499,6 +7829,72 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>1.7445739892973138</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.7224312594309312</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.7245858847520348</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.729612112384004</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.7502498525798953</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.745836416257605</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.7414197070867254</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.7363812933075862</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.7317561218931885</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.7404429026194943</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.7306091868182891</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.7560901562966083</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.7645451117470212</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.7760457265251055</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7560511774575946</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.7586571164309197</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.7554221585264866</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.744124628976226</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.7441588455868935</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.7475692677947423</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.7329382260244242</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.7320210684672295</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.7304150069574731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7506,7 +7902,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D93-48EC-AE65-22E61E47879C}"/>
+              <c16:uniqueId val="{00000000-5AA0-4C30-B409-03A263A331A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7538,10 +7934,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>合并账户!$A$2:$A$400</c:f>
+              <c:f>合并账户!$A$2:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -8657,16 +9053,82 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>44502</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>44509</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>44516</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>44525</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>44526</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>44530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合并账户!$H$2:$H$400</c:f>
+              <c:f>合并账户!$H$2:$H$430</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="399"/>
+                <c:ptCount val="429"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -9782,6 +10244,72 @@
                 </c:pt>
                 <c:pt idx="371">
                   <c:v>1.2997717547873244</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.2949844306049823</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.281522729198441</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1.276560646500593</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>1.2891723860362649</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>1.2821846932723269</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1.2837283934926285</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1.2833471021860701</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1.2765818293509574</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1.2970921242162345</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.2943701279444162</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1.2927840620233859</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.2930329605151669</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1.2936763895949839</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.2809322572445347</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1.2948176156583631</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1.3007329266226062</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1.300984472970683</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>1.3018609134045078</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>1.2965069479749194</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>1.2868925817658026</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>1.2845862989323844</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>1.2794521055753263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9789,7 +10317,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D93-48EC-AE65-22E61E47879C}"/>
+              <c16:uniqueId val="{00000001-5AA0-4C30-B409-03A263A331A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10557,8 +11085,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10885,11 +11413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q373"/>
+  <dimension ref="A1:Q395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E373" sqref="E373"/>
+      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25740,7 +26268,7 @@
         <v>44498</v>
       </c>
       <c r="B373" s="2">
-        <f t="shared" ref="B373" si="344">E373/F373</f>
+        <f t="shared" ref="B373:B385" si="344">E373/F373</f>
         <v>1.722169988657511</v>
       </c>
       <c r="C373" s="3">
@@ -25753,15 +26281,15 @@
         <v>435677.18</v>
       </c>
       <c r="F373" s="3">
-        <f t="shared" ref="F373" si="345">F372+G373</f>
+        <f t="shared" ref="F373:F385" si="345">F372+G373</f>
         <v>252981.51917025619</v>
       </c>
       <c r="G373" s="3">
-        <f t="shared" ref="G373" si="346">(C373-D373)/((E373-C373+D373)/F372)</f>
+        <f t="shared" ref="G373:G385" si="346">(C373-D373)/((E373-C373+D373)/F372)</f>
         <v>0</v>
       </c>
       <c r="H373" s="4">
-        <f t="shared" ref="H373" si="347">I373/J373</f>
+        <f t="shared" ref="H373:H385" si="347">I373/J373</f>
         <v>1.2997717547873244</v>
       </c>
       <c r="I373" s="5">
@@ -25771,8 +26299,888 @@
         <v>3776.64</v>
       </c>
       <c r="K373" s="6">
-        <f t="shared" ref="K373" si="348">(B373-H373)</f>
+        <f t="shared" ref="K373:K385" si="348">(B373-H373)</f>
         <v>0.4223982338701866</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B374" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7093407115994672</v>
+      </c>
+      <c r="C374" s="3">
+        <v>0</v>
+      </c>
+      <c r="D374" s="3">
+        <v>0</v>
+      </c>
+      <c r="E374" s="3">
+        <v>432431.61</v>
+      </c>
+      <c r="F374" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G374" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H374" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2949844306049823</v>
+      </c>
+      <c r="I374" s="5">
+        <v>4890.6899999999996</v>
+      </c>
+      <c r="J374" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K374" s="6">
+        <f t="shared" si="348"/>
+        <v>0.41435628099448496</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B375" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7175036398907242</v>
+      </c>
+      <c r="C375" s="3">
+        <v>0</v>
+      </c>
+      <c r="D375" s="3">
+        <v>0</v>
+      </c>
+      <c r="E375" s="3">
+        <v>434496.68</v>
+      </c>
+      <c r="F375" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G375" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H375" s="4">
+        <f t="shared" si="347"/>
+        <v>1.281522729198441</v>
+      </c>
+      <c r="I375" s="5">
+        <v>4839.8500000000004</v>
+      </c>
+      <c r="J375" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K375" s="6">
+        <f t="shared" si="348"/>
+        <v>0.43598091069228317</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B376" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7250794106675222</v>
+      </c>
+      <c r="C376" s="3">
+        <v>0</v>
+      </c>
+      <c r="D376" s="3">
+        <v>0</v>
+      </c>
+      <c r="E376" s="3">
+        <v>436413.21</v>
+      </c>
+      <c r="F376" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G376" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H376" s="4">
+        <f t="shared" si="347"/>
+        <v>1.276560646500593</v>
+      </c>
+      <c r="I376" s="5">
+        <v>4821.1099999999997</v>
+      </c>
+      <c r="J376" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K376" s="6">
+        <f t="shared" si="348"/>
+        <v>0.44851876416692926</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B377" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7425991489256245</v>
+      </c>
+      <c r="C377" s="3">
+        <v>0</v>
+      </c>
+      <c r="D377" s="3">
+        <v>0</v>
+      </c>
+      <c r="E377" s="3">
+        <v>440845.38</v>
+      </c>
+      <c r="F377" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G377" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H377" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2891723860362649</v>
+      </c>
+      <c r="I377" s="5">
+        <v>4868.74</v>
+      </c>
+      <c r="J377" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K377" s="6">
+        <f t="shared" si="348"/>
+        <v>0.45342676288935957</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B378" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7420796643386436</v>
+      </c>
+      <c r="C378" s="3">
+        <v>0</v>
+      </c>
+      <c r="D378" s="3">
+        <v>0</v>
+      </c>
+      <c r="E378" s="3">
+        <v>440713.96</v>
+      </c>
+      <c r="F378" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G378" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H378" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2821846932723269</v>
+      </c>
+      <c r="I378" s="5">
+        <v>4842.3500000000004</v>
+      </c>
+      <c r="J378" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K378" s="6">
+        <f t="shared" si="348"/>
+        <v>0.45989497106631672</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B379" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7385494855219097</v>
+      </c>
+      <c r="C379" s="3">
+        <v>0</v>
+      </c>
+      <c r="D379" s="3">
+        <v>0</v>
+      </c>
+      <c r="E379" s="3">
+        <v>439820.89</v>
+      </c>
+      <c r="F379" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G379" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H379" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2837283934926285</v>
+      </c>
+      <c r="I379" s="5">
+        <v>4848.18</v>
+      </c>
+      <c r="J379" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K379" s="6">
+        <f t="shared" si="348"/>
+        <v>0.45482109202928123</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B380" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7321945153830909</v>
+      </c>
+      <c r="C380" s="3">
+        <v>0</v>
+      </c>
+      <c r="D380" s="3">
+        <v>0</v>
+      </c>
+      <c r="E380" s="3">
+        <v>438213.2</v>
+      </c>
+      <c r="F380" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G380" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H380" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2833471021860701</v>
+      </c>
+      <c r="I380" s="5">
+        <v>4846.74</v>
+      </c>
+      <c r="J380" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K380" s="6">
+        <f t="shared" si="348"/>
+        <v>0.44884741319702082</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B381" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7280011260656438</v>
+      </c>
+      <c r="C381" s="3">
+        <v>0</v>
+      </c>
+      <c r="D381" s="3">
+        <v>0</v>
+      </c>
+      <c r="E381" s="3">
+        <v>437152.35</v>
+      </c>
+      <c r="F381" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G381" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H381" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2765818293509574</v>
+      </c>
+      <c r="I381" s="5">
+        <v>4821.1899999999996</v>
+      </c>
+      <c r="J381" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K381" s="6">
+        <f t="shared" si="348"/>
+        <v>0.45141929671468639</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B382" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7362627176904197</v>
+      </c>
+      <c r="C382" s="3">
+        <v>0</v>
+      </c>
+      <c r="D382" s="3">
+        <v>0</v>
+      </c>
+      <c r="E382" s="3">
+        <v>439242.38</v>
+      </c>
+      <c r="F382" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G382" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H382" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2970921242162345</v>
+      </c>
+      <c r="I382" s="5">
+        <v>4898.6499999999996</v>
+      </c>
+      <c r="J382" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K382" s="6">
+        <f t="shared" si="348"/>
+        <v>0.43917059347418519</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B383" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7317945652194116</v>
+      </c>
+      <c r="C383" s="3">
+        <v>0</v>
+      </c>
+      <c r="D383" s="3">
+        <v>0</v>
+      </c>
+      <c r="E383" s="3">
+        <v>438112.02</v>
+      </c>
+      <c r="F383" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G383" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H383" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2943701279444162</v>
+      </c>
+      <c r="I383" s="5">
+        <v>4888.37</v>
+      </c>
+      <c r="J383" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K383" s="6">
+        <f t="shared" si="348"/>
+        <v>0.43742443727499536</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B384" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7529395485270653</v>
+      </c>
+      <c r="C384" s="3">
+        <v>0</v>
+      </c>
+      <c r="D384" s="3">
+        <v>0</v>
+      </c>
+      <c r="E384" s="3">
+        <v>443461.31</v>
+      </c>
+      <c r="F384" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G384" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H384" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2927840620233859</v>
+      </c>
+      <c r="I384" s="5">
+        <v>4882.38</v>
+      </c>
+      <c r="J384" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K384" s="6">
+        <f t="shared" si="348"/>
+        <v>0.46015548650367943</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B385" s="2">
+        <f t="shared" si="344"/>
+        <v>1.7540672198326046</v>
+      </c>
+      <c r="C385" s="3">
+        <v>0</v>
+      </c>
+      <c r="D385" s="3">
+        <v>0</v>
+      </c>
+      <c r="E385" s="3">
+        <v>443746.59</v>
+      </c>
+      <c r="F385" s="3">
+        <f t="shared" si="345"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G385" s="3">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="H385" s="4">
+        <f t="shared" si="347"/>
+        <v>1.2930329605151669</v>
+      </c>
+      <c r="I385" s="5">
+        <v>4883.32</v>
+      </c>
+      <c r="J385" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K385" s="6">
+        <f t="shared" si="348"/>
+        <v>0.46103425931743769</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B386" s="2">
+        <f t="shared" ref="B386:B387" si="349">E386/F386</f>
+        <v>1.7751552029291471</v>
+      </c>
+      <c r="C386" s="3">
+        <v>0</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3">
+        <v>449081.46</v>
+      </c>
+      <c r="F386" s="3">
+        <f t="shared" ref="F386:F387" si="350">F385+G386</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G386" s="3">
+        <f t="shared" ref="G386:G387" si="351">(C386-D386)/((E386-C386+D386)/F385)</f>
+        <v>0</v>
+      </c>
+      <c r="H386" s="4">
+        <f t="shared" ref="H386:H387" si="352">I386/J386</f>
+        <v>1.2936763895949839</v>
+      </c>
+      <c r="I386" s="5">
+        <v>4885.75</v>
+      </c>
+      <c r="J386" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K386" s="6">
+        <f t="shared" ref="K386:K387" si="353">(B386-H386)</f>
+        <v>0.4814788133341632</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B387" s="2">
+        <f t="shared" si="349"/>
+        <v>1.7561495458528127</v>
+      </c>
+      <c r="C387" s="3">
+        <v>0</v>
+      </c>
+      <c r="D387" s="3">
+        <v>0</v>
+      </c>
+      <c r="E387" s="3">
+        <v>444273.38</v>
+      </c>
+      <c r="F387" s="3">
+        <f t="shared" si="350"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G387" s="3">
+        <f t="shared" si="351"/>
+        <v>0</v>
+      </c>
+      <c r="H387" s="4">
+        <f t="shared" si="352"/>
+        <v>1.2809322572445347</v>
+      </c>
+      <c r="I387" s="5">
+        <v>4837.62</v>
+      </c>
+      <c r="J387" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K387" s="6">
+        <f t="shared" si="353"/>
+        <v>0.47521728860827794</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B388" s="2">
+        <f t="shared" ref="B388:B393" si="354">E388/F388</f>
+        <v>1.7559082238771986</v>
+      </c>
+      <c r="C388" s="3">
+        <v>0</v>
+      </c>
+      <c r="D388" s="3">
+        <v>0</v>
+      </c>
+      <c r="E388" s="3">
+        <v>444212.33</v>
+      </c>
+      <c r="F388" s="3">
+        <f t="shared" ref="F388:F393" si="355">F387+G388</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G388" s="3">
+        <f t="shared" ref="G388:G393" si="356">(C388-D388)/((E388-C388+D388)/F387)</f>
+        <v>0</v>
+      </c>
+      <c r="H388" s="4">
+        <f t="shared" ref="H388:H393" si="357">I388/J388</f>
+        <v>1.2948176156583631</v>
+      </c>
+      <c r="I388" s="5">
+        <v>4890.0600000000004</v>
+      </c>
+      <c r="J388" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K388" s="6">
+        <f t="shared" ref="K388:K393" si="358">(B388-H388)</f>
+        <v>0.46109060821883552</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B389" s="2">
+        <f t="shared" si="354"/>
+        <v>1.753569120206935</v>
+      </c>
+      <c r="C389" s="3">
+        <v>0</v>
+      </c>
+      <c r="D389" s="3">
+        <v>0</v>
+      </c>
+      <c r="E389" s="3">
+        <v>443620.58</v>
+      </c>
+      <c r="F389" s="3">
+        <f t="shared" si="355"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G389" s="3">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="H389" s="4">
+        <f t="shared" si="357"/>
+        <v>1.3007329266226062</v>
+      </c>
+      <c r="I389" s="5">
+        <v>4912.3999999999996</v>
+      </c>
+      <c r="J389" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K389" s="6">
+        <f t="shared" si="358"/>
+        <v>0.45283619358432881</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B390" s="2">
+        <f t="shared" si="354"/>
+        <v>1.7467487405773907</v>
+      </c>
+      <c r="C390" s="3">
+        <v>0</v>
+      </c>
+      <c r="D390" s="3">
+        <v>0</v>
+      </c>
+      <c r="E390" s="3">
+        <v>441895.15</v>
+      </c>
+      <c r="F390" s="3">
+        <f t="shared" si="355"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G390" s="3">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="H390" s="4">
+        <f t="shared" si="357"/>
+        <v>1.300984472970683</v>
+      </c>
+      <c r="I390" s="5">
+        <v>4913.3500000000004</v>
+      </c>
+      <c r="J390" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K390" s="6">
+        <f t="shared" si="358"/>
+        <v>0.44576426760670773</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B391" s="2">
+        <f t="shared" si="354"/>
+        <v>1.7422305053966194</v>
+      </c>
+      <c r="C391" s="3">
+        <v>0</v>
+      </c>
+      <c r="D391" s="3">
+        <v>0</v>
+      </c>
+      <c r="E391" s="3">
+        <v>440752.12</v>
+      </c>
+      <c r="F391" s="3">
+        <f t="shared" si="355"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G391" s="3">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="H391" s="4">
+        <f t="shared" si="357"/>
+        <v>1.3018609134045078</v>
+      </c>
+      <c r="I391" s="5">
+        <v>4916.66</v>
+      </c>
+      <c r="J391" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K391" s="6">
+        <f t="shared" si="358"/>
+        <v>0.44036959199211156</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B392" s="2">
+        <f t="shared" si="354"/>
+        <v>1.7509768755158963</v>
+      </c>
+      <c r="C392" s="3">
+        <v>0</v>
+      </c>
+      <c r="D392" s="3">
+        <v>0</v>
+      </c>
+      <c r="E392" s="3">
+        <v>442964.79</v>
+      </c>
+      <c r="F392" s="3">
+        <f t="shared" si="355"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G392" s="3">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="H392" s="4">
+        <f t="shared" si="357"/>
+        <v>1.2965069479749194</v>
+      </c>
+      <c r="I392" s="5">
+        <v>4896.4399999999996</v>
+      </c>
+      <c r="J392" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K392" s="6">
+        <f t="shared" si="358"/>
+        <v>0.45446992754097693</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B393" s="2">
+        <f t="shared" si="354"/>
+        <v>1.7350777694737149</v>
+      </c>
+      <c r="C393" s="3">
+        <v>0</v>
+      </c>
+      <c r="D393" s="3">
+        <v>0</v>
+      </c>
+      <c r="E393" s="3">
+        <v>438942.61</v>
+      </c>
+      <c r="F393" s="3">
+        <f t="shared" si="355"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G393" s="3">
+        <f t="shared" si="356"/>
+        <v>0</v>
+      </c>
+      <c r="H393" s="4">
+        <f t="shared" si="357"/>
+        <v>1.2868925817658026</v>
+      </c>
+      <c r="I393" s="5">
+        <v>4860.13</v>
+      </c>
+      <c r="J393" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K393" s="6">
+        <f t="shared" si="358"/>
+        <v>0.44818518770791238</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B394" s="2">
+        <f t="shared" ref="B394:B395" si="359">E394/F394</f>
+        <v>1.7420170510692949</v>
+      </c>
+      <c r="C394" s="3">
+        <v>0</v>
+      </c>
+      <c r="D394" s="3">
+        <v>0</v>
+      </c>
+      <c r="E394" s="3">
+        <v>440698.12</v>
+      </c>
+      <c r="F394" s="3">
+        <f t="shared" ref="F394:F395" si="360">F393+G394</f>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G394" s="3">
+        <f t="shared" ref="G394:G395" si="361">(C394-D394)/((E394-C394+D394)/F393)</f>
+        <v>0</v>
+      </c>
+      <c r="H394" s="4">
+        <f t="shared" ref="H394:H395" si="362">I394/J394</f>
+        <v>1.2845862989323844</v>
+      </c>
+      <c r="I394" s="5">
+        <v>4851.42</v>
+      </c>
+      <c r="J394" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K394" s="6">
+        <f t="shared" ref="K394:K395" si="363">(B394-H394)</f>
+        <v>0.45743075213691053</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B395" s="2">
+        <f t="shared" si="359"/>
+        <v>1.7330239830876417</v>
+      </c>
+      <c r="C395" s="3">
+        <v>0</v>
+      </c>
+      <c r="D395" s="3">
+        <v>0</v>
+      </c>
+      <c r="E395" s="3">
+        <v>438423.03999999998</v>
+      </c>
+      <c r="F395" s="3">
+        <f t="shared" si="360"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G395" s="3">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="H395" s="4">
+        <f t="shared" si="362"/>
+        <v>1.2794521055753263</v>
+      </c>
+      <c r="I395" s="5">
+        <v>4832.03</v>
+      </c>
+      <c r="J395" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K395" s="6">
+        <f t="shared" si="363"/>
+        <v>0.45357187751231542</v>
       </c>
     </row>
   </sheetData>
@@ -25785,11 +27193,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L373"/>
+  <dimension ref="A1:L395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E374" sqref="E374"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G396" sqref="G396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40637,7 +42045,7 @@
         <v>44498</v>
       </c>
       <c r="B373" s="2">
-        <f t="shared" ref="B373" si="290">E373/F373</f>
+        <f t="shared" ref="B373:B385" si="290">E373/F373</f>
         <v>1.7445739892973138</v>
       </c>
       <c r="C373" s="3">
@@ -40650,15 +42058,15 @@
         <v>703618.76</v>
       </c>
       <c r="F373" s="3">
-        <f t="shared" ref="F373" si="291">F372+G373</f>
+        <f t="shared" ref="F373:F385" si="291">F372+G373</f>
         <v>403318.38277802494</v>
       </c>
       <c r="G373" s="3">
-        <f t="shared" ref="G373" si="292">(C373-D373)/((E373-C373+D373)/F372)</f>
+        <f t="shared" ref="G373:G385" si="292">(C373-D373)/((E373-C373+D373)/F372)</f>
         <v>0</v>
       </c>
       <c r="H373" s="4">
-        <f t="shared" ref="H373" si="293">I373/J373</f>
+        <f t="shared" ref="H373:H385" si="293">I373/J373</f>
         <v>1.2997717547873244</v>
       </c>
       <c r="I373" s="5">
@@ -40668,8 +42076,888 @@
         <v>3776.64</v>
       </c>
       <c r="K373" s="6">
-        <f t="shared" ref="K373" si="294">(B373-H373)</f>
+        <f t="shared" ref="K373:K385" si="294">(B373-H373)</f>
         <v>0.44480223450998935</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B374" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7224312594309312</v>
+      </c>
+      <c r="C374" s="3">
+        <v>0</v>
+      </c>
+      <c r="D374" s="3">
+        <v>0</v>
+      </c>
+      <c r="E374" s="3">
+        <v>694688.19</v>
+      </c>
+      <c r="F374" s="3">
+        <f t="shared" si="291"/>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G374" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H374" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2949844306049823</v>
+      </c>
+      <c r="I374" s="5">
+        <v>4890.6899999999996</v>
+      </c>
+      <c r="J374" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K374" s="6">
+        <f t="shared" si="294"/>
+        <v>0.42744682882594898</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B375" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7245858847520348</v>
+      </c>
+      <c r="C375" s="3">
+        <v>0</v>
+      </c>
+      <c r="D375" s="3">
+        <v>0</v>
+      </c>
+      <c r="E375" s="3">
+        <v>695557.19</v>
+      </c>
+      <c r="F375" s="3">
+        <f t="shared" si="291"/>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G375" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H375" s="4">
+        <f t="shared" si="293"/>
+        <v>1.281522729198441</v>
+      </c>
+      <c r="I375" s="5">
+        <v>4839.8500000000004</v>
+      </c>
+      <c r="J375" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K375" s="6">
+        <f t="shared" si="294"/>
+        <v>0.44306315555359377</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B376" s="2">
+        <f t="shared" si="290"/>
+        <v>1.729612112384004</v>
+      </c>
+      <c r="C376" s="3">
+        <v>0</v>
+      </c>
+      <c r="D376" s="3">
+        <v>0</v>
+      </c>
+      <c r="E376" s="3">
+        <v>697584.36</v>
+      </c>
+      <c r="F376" s="3">
+        <f t="shared" si="291"/>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G376" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H376" s="4">
+        <f t="shared" si="293"/>
+        <v>1.276560646500593</v>
+      </c>
+      <c r="I376" s="5">
+        <v>4821.1099999999997</v>
+      </c>
+      <c r="J376" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K376" s="6">
+        <f t="shared" si="294"/>
+        <v>0.45305146588341105</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B377" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7502498525798953</v>
+      </c>
+      <c r="C377" s="3">
+        <v>0</v>
+      </c>
+      <c r="D377" s="3">
+        <v>0</v>
+      </c>
+      <c r="E377" s="3">
+        <v>705907.94</v>
+      </c>
+      <c r="F377" s="3">
+        <f t="shared" si="291"/>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G377" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H377" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2891723860362649</v>
+      </c>
+      <c r="I377" s="5">
+        <v>4868.74</v>
+      </c>
+      <c r="J377" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K377" s="6">
+        <f t="shared" si="294"/>
+        <v>0.46107746654363035</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B378" s="2">
+        <f t="shared" si="290"/>
+        <v>1.745836416257605</v>
+      </c>
+      <c r="C378" s="3">
+        <v>0</v>
+      </c>
+      <c r="D378" s="3">
+        <v>0</v>
+      </c>
+      <c r="E378" s="3">
+        <v>704127.92</v>
+      </c>
+      <c r="F378" s="3">
+        <f t="shared" si="291"/>
+        <v>403318.38277802494</v>
+      </c>
+      <c r="G378" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H378" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2821846932723269</v>
+      </c>
+      <c r="I378" s="5">
+        <v>4842.3500000000004</v>
+      </c>
+      <c r="J378" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K378" s="6">
+        <f t="shared" si="294"/>
+        <v>0.46365172298527813</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B379" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7414197070867254</v>
+      </c>
+      <c r="C379" s="3">
+        <v>29000</v>
+      </c>
+      <c r="D379" s="3">
+        <v>0</v>
+      </c>
+      <c r="E379" s="3">
+        <v>731346.58</v>
+      </c>
+      <c r="F379" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G379" s="3">
+        <f t="shared" si="292"/>
+        <v>16653.07902625898</v>
+      </c>
+      <c r="H379" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2837283934926285</v>
+      </c>
+      <c r="I379" s="5">
+        <v>4848.18</v>
+      </c>
+      <c r="J379" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K379" s="6">
+        <f t="shared" si="294"/>
+        <v>0.45769131359409698</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B380" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7363812933075862</v>
+      </c>
+      <c r="C380" s="3">
+        <v>0</v>
+      </c>
+      <c r="D380" s="3">
+        <v>0</v>
+      </c>
+      <c r="E380" s="3">
+        <v>729230.59</v>
+      </c>
+      <c r="F380" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G380" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H380" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2833471021860701</v>
+      </c>
+      <c r="I380" s="5">
+        <v>4846.74</v>
+      </c>
+      <c r="J380" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K380" s="6">
+        <f t="shared" si="294"/>
+        <v>0.45303419112151611</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B381" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7317561218931885</v>
+      </c>
+      <c r="C381" s="3">
+        <v>0</v>
+      </c>
+      <c r="D381" s="3">
+        <v>0</v>
+      </c>
+      <c r="E381" s="3">
+        <v>727288.15</v>
+      </c>
+      <c r="F381" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G381" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H381" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2765818293509574</v>
+      </c>
+      <c r="I381" s="5">
+        <v>4821.1899999999996</v>
+      </c>
+      <c r="J381" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K381" s="6">
+        <f t="shared" si="294"/>
+        <v>0.45517429254223107</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B382" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7404429026194943</v>
+      </c>
+      <c r="C382" s="3">
+        <v>0</v>
+      </c>
+      <c r="D382" s="3">
+        <v>0</v>
+      </c>
+      <c r="E382" s="3">
+        <v>730936.35</v>
+      </c>
+      <c r="F382" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G382" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H382" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2970921242162345</v>
+      </c>
+      <c r="I382" s="5">
+        <v>4898.6499999999996</v>
+      </c>
+      <c r="J382" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K382" s="6">
+        <f t="shared" si="294"/>
+        <v>0.44335077840325976</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B383" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7306091868182891</v>
+      </c>
+      <c r="C383" s="3">
+        <v>0</v>
+      </c>
+      <c r="D383" s="3">
+        <v>0</v>
+      </c>
+      <c r="E383" s="3">
+        <v>726806.47</v>
+      </c>
+      <c r="F383" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G383" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H383" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2943701279444162</v>
+      </c>
+      <c r="I383" s="5">
+        <v>4888.37</v>
+      </c>
+      <c r="J383" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K383" s="6">
+        <f t="shared" si="294"/>
+        <v>0.43623905887387293</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B384" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7560901562966083</v>
+      </c>
+      <c r="C384" s="3">
+        <v>0</v>
+      </c>
+      <c r="D384" s="3">
+        <v>0</v>
+      </c>
+      <c r="E384" s="3">
+        <v>737507.75</v>
+      </c>
+      <c r="F384" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G384" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H384" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2927840620233859</v>
+      </c>
+      <c r="I384" s="5">
+        <v>4882.38</v>
+      </c>
+      <c r="J384" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K384" s="6">
+        <f t="shared" si="294"/>
+        <v>0.46330609427322234</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B385" s="2">
+        <f t="shared" si="290"/>
+        <v>1.7645451117470212</v>
+      </c>
+      <c r="C385" s="3">
+        <v>0</v>
+      </c>
+      <c r="D385" s="3">
+        <v>0</v>
+      </c>
+      <c r="E385" s="3">
+        <v>741058.59</v>
+      </c>
+      <c r="F385" s="3">
+        <f t="shared" si="291"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G385" s="3">
+        <f t="shared" si="292"/>
+        <v>0</v>
+      </c>
+      <c r="H385" s="4">
+        <f t="shared" si="293"/>
+        <v>1.2930329605151669</v>
+      </c>
+      <c r="I385" s="5">
+        <v>4883.32</v>
+      </c>
+      <c r="J385" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K385" s="6">
+        <f t="shared" si="294"/>
+        <v>0.4715121512318543</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B386" s="2">
+        <f t="shared" ref="B386:B387" si="295">E386/F386</f>
+        <v>1.7760457265251055</v>
+      </c>
+      <c r="C386" s="3">
+        <v>0</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3">
+        <v>745888.52</v>
+      </c>
+      <c r="F386" s="3">
+        <f t="shared" ref="F386:F387" si="296">F385+G386</f>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G386" s="3">
+        <f t="shared" ref="G386:G387" si="297">(C386-D386)/((E386-C386+D386)/F385)</f>
+        <v>0</v>
+      </c>
+      <c r="H386" s="4">
+        <f t="shared" ref="H386:H387" si="298">I386/J386</f>
+        <v>1.2936763895949839</v>
+      </c>
+      <c r="I386" s="5">
+        <v>4885.75</v>
+      </c>
+      <c r="J386" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K386" s="6">
+        <f t="shared" ref="K386:K387" si="299">(B386-H386)</f>
+        <v>0.48236933693012163</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B387" s="2">
+        <f t="shared" si="295"/>
+        <v>1.7560511774575946</v>
+      </c>
+      <c r="C387" s="3">
+        <v>0</v>
+      </c>
+      <c r="D387" s="3">
+        <v>0</v>
+      </c>
+      <c r="E387" s="3">
+        <v>737491.38</v>
+      </c>
+      <c r="F387" s="3">
+        <f t="shared" si="296"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G387" s="3">
+        <f t="shared" si="297"/>
+        <v>0</v>
+      </c>
+      <c r="H387" s="4">
+        <f t="shared" si="298"/>
+        <v>1.2809322572445347</v>
+      </c>
+      <c r="I387" s="5">
+        <v>4837.62</v>
+      </c>
+      <c r="J387" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K387" s="6">
+        <f t="shared" si="299"/>
+        <v>0.4751189202130599</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B388" s="2">
+        <f t="shared" ref="B388:B393" si="300">E388/F388</f>
+        <v>1.7586571164309197</v>
+      </c>
+      <c r="C388" s="3">
+        <v>0</v>
+      </c>
+      <c r="D388" s="3">
+        <v>0</v>
+      </c>
+      <c r="E388" s="3">
+        <v>738585.8</v>
+      </c>
+      <c r="F388" s="3">
+        <f t="shared" ref="F388:F393" si="301">F387+G388</f>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G388" s="3">
+        <f t="shared" ref="G388:G393" si="302">(C388-D388)/((E388-C388+D388)/F387)</f>
+        <v>0</v>
+      </c>
+      <c r="H388" s="4">
+        <f t="shared" ref="H388:H393" si="303">I388/J388</f>
+        <v>1.2948176156583631</v>
+      </c>
+      <c r="I388" s="5">
+        <v>4890.0600000000004</v>
+      </c>
+      <c r="J388" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K388" s="6">
+        <f t="shared" ref="K388:K393" si="304">(B388-H388)</f>
+        <v>0.46383950077255665</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B389" s="2">
+        <f t="shared" si="300"/>
+        <v>1.7554221585264866</v>
+      </c>
+      <c r="C389" s="3">
+        <v>0</v>
+      </c>
+      <c r="D389" s="3">
+        <v>0</v>
+      </c>
+      <c r="E389" s="3">
+        <v>737227.21</v>
+      </c>
+      <c r="F389" s="3">
+        <f t="shared" si="301"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G389" s="3">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="H389" s="4">
+        <f t="shared" si="303"/>
+        <v>1.3007329266226062</v>
+      </c>
+      <c r="I389" s="5">
+        <v>4912.3999999999996</v>
+      </c>
+      <c r="J389" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K389" s="6">
+        <f t="shared" si="304"/>
+        <v>0.45468923190388044</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B390" s="2">
+        <f t="shared" si="300"/>
+        <v>1.744124628976226</v>
+      </c>
+      <c r="C390" s="3">
+        <v>0</v>
+      </c>
+      <c r="D390" s="3">
+        <v>0</v>
+      </c>
+      <c r="E390" s="3">
+        <v>732482.57</v>
+      </c>
+      <c r="F390" s="3">
+        <f t="shared" si="301"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G390" s="3">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="H390" s="4">
+        <f t="shared" si="303"/>
+        <v>1.300984472970683</v>
+      </c>
+      <c r="I390" s="5">
+        <v>4913.3500000000004</v>
+      </c>
+      <c r="J390" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K390" s="6">
+        <f t="shared" si="304"/>
+        <v>0.44314015600554302</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B391" s="2">
+        <f t="shared" si="300"/>
+        <v>1.7441588455868935</v>
+      </c>
+      <c r="C391" s="3">
+        <v>0</v>
+      </c>
+      <c r="D391" s="3">
+        <v>0</v>
+      </c>
+      <c r="E391" s="3">
+        <v>732496.94</v>
+      </c>
+      <c r="F391" s="3">
+        <f t="shared" si="301"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G391" s="3">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="H391" s="4">
+        <f t="shared" si="303"/>
+        <v>1.3018609134045078</v>
+      </c>
+      <c r="I391" s="5">
+        <v>4916.66</v>
+      </c>
+      <c r="J391" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K391" s="6">
+        <f t="shared" si="304"/>
+        <v>0.44229793218238567</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B392" s="2">
+        <f t="shared" si="300"/>
+        <v>1.7475692677947423</v>
+      </c>
+      <c r="C392" s="3">
+        <v>0</v>
+      </c>
+      <c r="D392" s="3">
+        <v>0</v>
+      </c>
+      <c r="E392" s="3">
+        <v>733929.22</v>
+      </c>
+      <c r="F392" s="3">
+        <f t="shared" si="301"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G392" s="3">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="H392" s="4">
+        <f t="shared" si="303"/>
+        <v>1.2965069479749194</v>
+      </c>
+      <c r="I392" s="5">
+        <v>4896.4399999999996</v>
+      </c>
+      <c r="J392" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K392" s="6">
+        <f t="shared" si="304"/>
+        <v>0.45106231981982292</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B393" s="2">
+        <f t="shared" si="300"/>
+        <v>1.7329382260244242</v>
+      </c>
+      <c r="C393" s="3">
+        <v>0</v>
+      </c>
+      <c r="D393" s="3">
+        <v>0</v>
+      </c>
+      <c r="E393" s="3">
+        <v>727784.6</v>
+      </c>
+      <c r="F393" s="3">
+        <f t="shared" si="301"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G393" s="3">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="H393" s="4">
+        <f t="shared" si="303"/>
+        <v>1.2868925817658026</v>
+      </c>
+      <c r="I393" s="5">
+        <v>4860.13</v>
+      </c>
+      <c r="J393" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K393" s="6">
+        <f t="shared" si="304"/>
+        <v>0.44604564425862159</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B394" s="2">
+        <f t="shared" ref="B394:B395" si="305">E394/F394</f>
+        <v>1.7320210684672295</v>
+      </c>
+      <c r="C394" s="3">
+        <v>0</v>
+      </c>
+      <c r="D394" s="3">
+        <v>0</v>
+      </c>
+      <c r="E394" s="3">
+        <v>727399.42</v>
+      </c>
+      <c r="F394" s="3">
+        <f t="shared" ref="F394:F395" si="306">F393+G394</f>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G394" s="3">
+        <f t="shared" ref="G394:G395" si="307">(C394-D394)/((E394-C394+D394)/F393)</f>
+        <v>0</v>
+      </c>
+      <c r="H394" s="4">
+        <f t="shared" ref="H394:H395" si="308">I394/J394</f>
+        <v>1.2845862989323844</v>
+      </c>
+      <c r="I394" s="5">
+        <v>4851.42</v>
+      </c>
+      <c r="J394" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K394" s="6">
+        <f t="shared" ref="K394:K395" si="309">(B394-H394)</f>
+        <v>0.44743476953484507</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B395" s="2">
+        <f t="shared" si="305"/>
+        <v>1.7304150069574731</v>
+      </c>
+      <c r="C395" s="3">
+        <v>0</v>
+      </c>
+      <c r="D395" s="3">
+        <v>0</v>
+      </c>
+      <c r="E395" s="3">
+        <v>726724.92</v>
+      </c>
+      <c r="F395" s="3">
+        <f t="shared" si="306"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G395" s="3">
+        <f t="shared" si="307"/>
+        <v>0</v>
+      </c>
+      <c r="H395" s="4">
+        <f t="shared" si="308"/>
+        <v>1.2794521055753263</v>
+      </c>
+      <c r="I395" s="5">
+        <v>4832.03</v>
+      </c>
+      <c r="J395" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K395" s="6">
+        <f t="shared" si="309"/>
+        <v>0.45096290138214679</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852354B-7D08-4F49-9F51-D4ADAC83B413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB5A31-432A-4A4D-9218-53EA1C263F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="20730" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
-    <sheet name="合并账户" sheetId="2" r:id="rId2"/>
+    <sheet name="family" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1559,6 +1570,75 @@
                 <c:pt idx="393">
                   <c:v>44530</c:v>
                 </c:pt>
+                <c:pt idx="394">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44532</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44537</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44539</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44551</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44553</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44554</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44558</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44561</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2750,13 +2830,82 @@
                 <c:pt idx="393">
                   <c:v>1.7330239830876417</c:v>
                 </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.7373895193672177</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.733087386928573</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.7475542024419539</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.7421658036560539</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.7709507622009768</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.7976493038540426</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.8138265923562573</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.8030722826935008</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.8201320367637519</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.814467954481686</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.7907115011841215</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.7889502237895569</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.7649693263707844</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.7838447724859161</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.7913511234326414</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.8179757203170921</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.8135606086738567</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.83373239325778</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.8523890803298702</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.8380441145443374</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.8142955390712387</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.8358364877957993</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.8654023571466305</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ACE-43A3-9071-62A767A67C01}"/>
+              <c16:uniqueId val="{00000000-1E5E-4283-A7DC-BF80A9EDFA93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4013,6 +4162,75 @@
                 <c:pt idx="393">
                   <c:v>44530</c:v>
                 </c:pt>
+                <c:pt idx="394">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44532</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44533</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44537</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44539</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44551</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>44552</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44553</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44554</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44558</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44559</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44560</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44561</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5204,13 +5422,82 @@
                 <c:pt idx="393">
                   <c:v>1.2794521055753263</c:v>
                 </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.2825818717166584</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.2858413828164719</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.2977196661582784</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.2955034104389087</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.3033013472292834</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.3228504702592783</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.3447641289611929</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.3385231316725978</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.3461171835282157</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.3370879935604134</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.3254903829859346</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.3331241526859854</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.3119492458905271</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.2922650821894595</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.3010215429588206</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.3012757371631927</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.3103552364006101</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.3031001101508219</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.3025652431791221</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.3122669886459923</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.2930753262158956</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.3031451237078462</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.3081389806812405</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5ACE-43A3-9071-62A767A67C01}"/>
+              <c16:uniqueId val="{00000001-1E5E-4283-A7DC-BF80A9EDFA93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5496,7 +5783,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>合并账户!$B$1</c:f>
+              <c:f>family!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5519,7 +5806,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>合并账户!$A$2:$A$430</c:f>
+              <c:f>family!$A$2:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="429"/>
@@ -6705,12 +6992,57 @@
                 <c:pt idx="393">
                   <c:v>44530</c:v>
                 </c:pt>
+                <c:pt idx="394">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44532</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44537</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44539</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44551</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合并账户!$B$2:$B$430</c:f>
+              <c:f>family!$B$2:$B$430</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="429"/>
@@ -7895,6 +8227,51 @@
                 </c:pt>
                 <c:pt idx="393">
                   <c:v>1.7304150069574731</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.7321510058676555</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.7281480910201141</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.7457476242340828</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.7434300804528422</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.7673448612506772</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.7978256800952765</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.8207629526479523</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.8132426407618556</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.8312314132734453</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.8252084353628806</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.7975170556178734</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.7909246835645043</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.7628058865123006</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.7790074997756709</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.7862228159852744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7902,7 +8279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5AA0-4C30-B409-03A263A331A8}"/>
+              <c16:uniqueId val="{00000000-A5C8-4155-BCBD-203829CED5C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7911,7 +8288,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>合并账户!$H$1</c:f>
+              <c:f>family!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7934,7 +8311,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>合并账户!$A$2:$A$430</c:f>
+              <c:f>family!$A$2:$A$430</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="429"/>
@@ -9120,12 +9497,57 @@
                 <c:pt idx="393">
                   <c:v>44530</c:v>
                 </c:pt>
+                <c:pt idx="394">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>44532</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>44537</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>44538</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>44539</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>44540</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>44544</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>44545</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>44546</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>44547</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>44551</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>合并账户!$H$2:$H$430</c:f>
+              <c:f>family!$H$2:$H$430</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
                 <c:ptCount val="429"/>
@@ -10310,6 +10732,51 @@
                 </c:pt>
                 <c:pt idx="393">
                   <c:v>1.2794521055753263</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>1.2825818717166584</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.2858413828164719</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>1.2977196661582784</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>1.295495466870022</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>1.3033013472292834</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>1.3228504702592783</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>1.3447641289611929</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>1.3385231316725978</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1.3461171835282157</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>1.3370879935604134</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1.3370879935604134</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>1.3331241526859854</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>1.3331241526859854</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>1.2922650821894595</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>1.3010215429588206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10317,7 +10784,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5AA0-4C30-B409-03A263A331A8}"/>
+              <c16:uniqueId val="{00000001-A5C8-4155-BCBD-203829CED5C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11078,15 +11545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>131445</xdr:colOff>
+      <xdr:colOff>131444</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11413,11 +11880,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q395"/>
+  <dimension ref="A1:Q418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E395" sqref="E395"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27108,7 +27575,7 @@
         <v>44529</v>
       </c>
       <c r="B394" s="2">
-        <f t="shared" ref="B394:B395" si="359">E394/F394</f>
+        <f t="shared" ref="B394:B397" si="359">E394/F394</f>
         <v>1.7420170510692949</v>
       </c>
       <c r="C394" s="3">
@@ -27121,15 +27588,15 @@
         <v>440698.12</v>
       </c>
       <c r="F394" s="3">
-        <f t="shared" ref="F394:F395" si="360">F393+G394</f>
+        <f t="shared" ref="F394:F397" si="360">F393+G394</f>
         <v>252981.51917025619</v>
       </c>
       <c r="G394" s="3">
-        <f t="shared" ref="G394:G395" si="361">(C394-D394)/((E394-C394+D394)/F393)</f>
+        <f t="shared" ref="G394:G397" si="361">(C394-D394)/((E394-C394+D394)/F393)</f>
         <v>0</v>
       </c>
       <c r="H394" s="4">
-        <f t="shared" ref="H394:H395" si="362">I394/J394</f>
+        <f t="shared" ref="H394:H397" si="362">I394/J394</f>
         <v>1.2845862989323844</v>
       </c>
       <c r="I394" s="5">
@@ -27139,7 +27606,7 @@
         <v>3776.64</v>
       </c>
       <c r="K394" s="6">
-        <f t="shared" ref="K394:K395" si="363">(B394-H394)</f>
+        <f t="shared" ref="K394:K397" si="363">(B394-H394)</f>
         <v>0.45743075213691053</v>
       </c>
     </row>
@@ -27183,21 +27650,941 @@
         <v>0.45357187751231542</v>
       </c>
     </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B396" s="2">
+        <f t="shared" si="359"/>
+        <v>1.7373895193672177</v>
+      </c>
+      <c r="C396" s="3">
+        <v>0</v>
+      </c>
+      <c r="D396" s="3">
+        <v>0</v>
+      </c>
+      <c r="E396" s="3">
+        <v>439527.44</v>
+      </c>
+      <c r="F396" s="3">
+        <f t="shared" si="360"/>
+        <v>252981.51917025619</v>
+      </c>
+      <c r="G396" s="3">
+        <f t="shared" si="361"/>
+        <v>0</v>
+      </c>
+      <c r="H396" s="4">
+        <f t="shared" si="362"/>
+        <v>1.2825818717166584</v>
+      </c>
+      <c r="I396" s="5">
+        <v>4843.8500000000004</v>
+      </c>
+      <c r="J396" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K396" s="6">
+        <f t="shared" si="363"/>
+        <v>0.45480764765055937</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B397" s="2">
+        <f t="shared" si="359"/>
+        <v>1.733087386928573</v>
+      </c>
+      <c r="C397" s="3">
+        <v>0</v>
+      </c>
+      <c r="D397" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E397" s="3">
+        <v>398439.08</v>
+      </c>
+      <c r="F397" s="3">
+        <f t="shared" si="360"/>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G397" s="3">
+        <f t="shared" si="361"/>
+        <v>-23080.197975988471</v>
+      </c>
+      <c r="H397" s="4">
+        <f t="shared" si="362"/>
+        <v>1.2858413828164719</v>
+      </c>
+      <c r="I397" s="5">
+        <v>4856.16</v>
+      </c>
+      <c r="J397" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K397" s="6">
+        <f t="shared" si="363"/>
+        <v>0.44724600411210114</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B398" s="2">
+        <f t="shared" ref="B398" si="364">E398/F398</f>
+        <v>1.7475542024419539</v>
+      </c>
+      <c r="C398" s="3">
+        <v>0</v>
+      </c>
+      <c r="D398" s="3">
+        <v>0</v>
+      </c>
+      <c r="E398" s="3">
+        <v>401765.02</v>
+      </c>
+      <c r="F398" s="3">
+        <f t="shared" ref="F398" si="365">F397+G398</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G398" s="3">
+        <f t="shared" ref="G398" si="366">(C398-D398)/((E398-C398+D398)/F397)</f>
+        <v>0</v>
+      </c>
+      <c r="H398" s="4">
+        <f t="shared" ref="H398" si="367">I398/J398</f>
+        <v>1.2977196661582784</v>
+      </c>
+      <c r="I398" s="5">
+        <v>4901.0200000000004</v>
+      </c>
+      <c r="J398" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K398" s="6">
+        <f t="shared" ref="K398" si="368">(B398-H398)</f>
+        <v>0.44983453628367553</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B399" s="2">
+        <f t="shared" ref="B399" si="369">E399/F399</f>
+        <v>1.7421658036560539</v>
+      </c>
+      <c r="C399" s="3">
+        <v>0</v>
+      </c>
+      <c r="D399" s="3">
+        <v>0</v>
+      </c>
+      <c r="E399" s="3">
+        <v>400526.22</v>
+      </c>
+      <c r="F399" s="3">
+        <f t="shared" ref="F399" si="370">F398+G399</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G399" s="3">
+        <f t="shared" ref="G399" si="371">(C399-D399)/((E399-C399+D399)/F398)</f>
+        <v>0</v>
+      </c>
+      <c r="H399" s="4">
+        <f t="shared" ref="H399" si="372">I399/J399</f>
+        <v>1.2955034104389087</v>
+      </c>
+      <c r="I399" s="5">
+        <v>4892.6499999999996</v>
+      </c>
+      <c r="J399" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K399" s="6">
+        <f t="shared" ref="K399" si="373">(B399-H399)</f>
+        <v>0.44666239321714518</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B400" s="2">
+        <f t="shared" ref="B400" si="374">E400/F400</f>
+        <v>1.7709507622009768</v>
+      </c>
+      <c r="C400" s="3">
+        <v>0</v>
+      </c>
+      <c r="D400" s="3">
+        <v>0</v>
+      </c>
+      <c r="E400" s="3">
+        <v>407143.92</v>
+      </c>
+      <c r="F400" s="3">
+        <f t="shared" ref="F400" si="375">F399+G400</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G400" s="3">
+        <f t="shared" ref="G400" si="376">(C400-D400)/((E400-C400+D400)/F399)</f>
+        <v>0</v>
+      </c>
+      <c r="H400" s="4">
+        <f t="shared" ref="H400" si="377">I400/J400</f>
+        <v>1.3033013472292834</v>
+      </c>
+      <c r="I400" s="5">
+        <v>4922.1000000000004</v>
+      </c>
+      <c r="J400" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K400" s="6">
+        <f t="shared" ref="K400" si="378">(B400-H400)</f>
+        <v>0.46764941497169343</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B401" s="2">
+        <f t="shared" ref="B401" si="379">E401/F401</f>
+        <v>1.7976493038540426</v>
+      </c>
+      <c r="C401" s="3">
+        <v>0</v>
+      </c>
+      <c r="D401" s="3">
+        <v>0</v>
+      </c>
+      <c r="E401" s="3">
+        <v>413281.95</v>
+      </c>
+      <c r="F401" s="3">
+        <f t="shared" ref="F401" si="380">F400+G401</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G401" s="3">
+        <f t="shared" ref="G401" si="381">(C401-D401)/((E401-C401+D401)/F400)</f>
+        <v>0</v>
+      </c>
+      <c r="H401" s="4">
+        <f t="shared" ref="H401" si="382">I401/J401</f>
+        <v>1.3228504702592783</v>
+      </c>
+      <c r="I401" s="5">
+        <v>4995.93</v>
+      </c>
+      <c r="J401" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K401" s="6">
+        <f t="shared" ref="K401" si="383">(B401-H401)</f>
+        <v>0.47479883359476438</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B402" s="2">
+        <f t="shared" ref="B402" si="384">E402/F402</f>
+        <v>1.8138265923562573</v>
+      </c>
+      <c r="C402" s="3">
+        <v>0</v>
+      </c>
+      <c r="D402" s="3">
+        <v>0</v>
+      </c>
+      <c r="E402" s="3">
+        <v>417001.13</v>
+      </c>
+      <c r="F402" s="3">
+        <f t="shared" ref="F402" si="385">F401+G402</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G402" s="3">
+        <f t="shared" ref="G402" si="386">(C402-D402)/((E402-C402+D402)/F401)</f>
+        <v>0</v>
+      </c>
+      <c r="H402" s="4">
+        <f t="shared" ref="H402" si="387">I402/J402</f>
+        <v>1.3447641289611929</v>
+      </c>
+      <c r="I402" s="5">
+        <v>5078.6899999999996</v>
+      </c>
+      <c r="J402" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K402" s="6">
+        <f t="shared" ref="K402" si="388">(B402-H402)</f>
+        <v>0.46906246339506441</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B403" s="2">
+        <f t="shared" ref="B403" si="389">E403/F403</f>
+        <v>1.8030722826935008</v>
+      </c>
+      <c r="C403" s="3">
+        <v>0</v>
+      </c>
+      <c r="D403" s="3">
+        <v>0</v>
+      </c>
+      <c r="E403" s="3">
+        <v>414528.7</v>
+      </c>
+      <c r="F403" s="3">
+        <f t="shared" ref="F403" si="390">F402+G403</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G403" s="3">
+        <f t="shared" ref="G403" si="391">(C403-D403)/((E403-C403+D403)/F402)</f>
+        <v>0</v>
+      </c>
+      <c r="H403" s="4">
+        <f t="shared" ref="H403" si="392">I403/J403</f>
+        <v>1.3385231316725978</v>
+      </c>
+      <c r="I403" s="5">
+        <v>5055.12</v>
+      </c>
+      <c r="J403" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K403" s="6">
+        <f t="shared" ref="K403" si="393">(B403-H403)</f>
+        <v>0.464549151020903</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B404" s="2">
+        <f t="shared" ref="B404" si="394">E404/F404</f>
+        <v>1.8201320367637519</v>
+      </c>
+      <c r="C404" s="3">
+        <v>0</v>
+      </c>
+      <c r="D404" s="3">
+        <v>0</v>
+      </c>
+      <c r="E404" s="3">
+        <v>418450.76</v>
+      </c>
+      <c r="F404" s="3">
+        <f t="shared" ref="F404" si="395">F403+G404</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G404" s="3">
+        <f t="shared" ref="G404" si="396">(C404-D404)/((E404-C404+D404)/F403)</f>
+        <v>0</v>
+      </c>
+      <c r="H404" s="4">
+        <f t="shared" ref="H404" si="397">I404/J404</f>
+        <v>1.3461171835282157</v>
+      </c>
+      <c r="I404" s="5">
+        <v>5083.8</v>
+      </c>
+      <c r="J404" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K404" s="6">
+        <f t="shared" ref="K404" si="398">(B404-H404)</f>
+        <v>0.47401485323553616</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B405" s="2">
+        <f t="shared" ref="B405" si="399">E405/F405</f>
+        <v>1.814467954481686</v>
+      </c>
+      <c r="C405" s="3">
+        <v>0</v>
+      </c>
+      <c r="D405" s="3">
+        <v>0</v>
+      </c>
+      <c r="E405" s="3">
+        <v>417148.58</v>
+      </c>
+      <c r="F405" s="3">
+        <f t="shared" ref="F405" si="400">F404+G405</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G405" s="3">
+        <f t="shared" ref="G405" si="401">(C405-D405)/((E405-C405+D405)/F404)</f>
+        <v>0</v>
+      </c>
+      <c r="H405" s="4">
+        <f t="shared" ref="H405" si="402">I405/J405</f>
+        <v>1.3370879935604134</v>
+      </c>
+      <c r="I405" s="5">
+        <v>5049.7</v>
+      </c>
+      <c r="J405" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K405" s="6">
+        <f t="shared" ref="K405" si="403">(B405-H405)</f>
+        <v>0.47737996092127255</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B406" s="2">
+        <f t="shared" ref="B406:B407" si="404">E406/F406</f>
+        <v>1.7907115011841215</v>
+      </c>
+      <c r="C406" s="3">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <v>0</v>
+      </c>
+      <c r="E406" s="3">
+        <v>411686.94</v>
+      </c>
+      <c r="F406" s="3">
+        <f t="shared" ref="F406:F407" si="405">F405+G406</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G406" s="3">
+        <f t="shared" ref="G406:G407" si="406">(C406-D406)/((E406-C406+D406)/F405)</f>
+        <v>0</v>
+      </c>
+      <c r="H406" s="4">
+        <f t="shared" ref="H406:H407" si="407">I406/J406</f>
+        <v>1.3254903829859346</v>
+      </c>
+      <c r="I406" s="5">
+        <v>5005.8999999999996</v>
+      </c>
+      <c r="J406" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K406" s="6">
+        <f t="shared" ref="K406:K407" si="408">(B406-H406)</f>
+        <v>0.4652211181981869</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B407" s="2">
+        <f t="shared" si="404"/>
+        <v>1.7889502237895569</v>
+      </c>
+      <c r="C407" s="3">
+        <v>0</v>
+      </c>
+      <c r="D407" s="3">
+        <v>0</v>
+      </c>
+      <c r="E407" s="3">
+        <v>411282.02</v>
+      </c>
+      <c r="F407" s="3">
+        <f t="shared" si="405"/>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G407" s="3">
+        <f t="shared" si="406"/>
+        <v>0</v>
+      </c>
+      <c r="H407" s="4">
+        <f t="shared" si="407"/>
+        <v>1.3331241526859854</v>
+      </c>
+      <c r="I407" s="5">
+        <v>5034.7299999999996</v>
+      </c>
+      <c r="J407" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K407" s="6">
+        <f t="shared" si="408"/>
+        <v>0.45582607110357154</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B408" s="2">
+        <f t="shared" ref="B408" si="409">E408/F408</f>
+        <v>1.7649693263707844</v>
+      </c>
+      <c r="C408" s="3">
+        <v>0</v>
+      </c>
+      <c r="D408" s="3">
+        <v>0</v>
+      </c>
+      <c r="E408" s="3">
+        <v>405768.78</v>
+      </c>
+      <c r="F408" s="3">
+        <f t="shared" ref="F408" si="410">F407+G408</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G408" s="3">
+        <f t="shared" ref="G408" si="411">(C408-D408)/((E408-C408+D408)/F407)</f>
+        <v>0</v>
+      </c>
+      <c r="H408" s="4">
+        <f t="shared" ref="H408" si="412">I408/J408</f>
+        <v>1.3119492458905271</v>
+      </c>
+      <c r="I408" s="5">
+        <v>4954.76</v>
+      </c>
+      <c r="J408" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K408" s="6">
+        <f t="shared" ref="K408" si="413">(B408-H408)</f>
+        <v>0.45302008048025733</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B409" s="2">
+        <f t="shared" ref="B409" si="414">E409/F409</f>
+        <v>1.7838447724859161</v>
+      </c>
+      <c r="C409" s="3">
+        <v>0</v>
+      </c>
+      <c r="D409" s="3">
+        <v>0</v>
+      </c>
+      <c r="E409" s="3">
+        <v>410108.27</v>
+      </c>
+      <c r="F409" s="3">
+        <f t="shared" ref="F409" si="415">F408+G409</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G409" s="3">
+        <f t="shared" ref="G409" si="416">(C409-D409)/((E409-C409+D409)/F408)</f>
+        <v>0</v>
+      </c>
+      <c r="H409" s="4">
+        <f t="shared" ref="H409" si="417">I409/J409</f>
+        <v>1.2922650821894595</v>
+      </c>
+      <c r="I409" s="5">
+        <v>4880.42</v>
+      </c>
+      <c r="J409" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K409" s="6">
+        <f t="shared" ref="K409" si="418">(B409-H409)</f>
+        <v>0.49157969029645665</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B410" s="2">
+        <f t="shared" ref="B410" si="419">E410/F410</f>
+        <v>1.7913511234326414</v>
+      </c>
+      <c r="C410" s="3">
+        <v>0</v>
+      </c>
+      <c r="D410" s="3">
+        <v>0</v>
+      </c>
+      <c r="E410" s="3">
+        <v>411833.99</v>
+      </c>
+      <c r="F410" s="3">
+        <f t="shared" ref="F410" si="420">F409+G410</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G410" s="3">
+        <f t="shared" ref="G410" si="421">(C410-D410)/((E410-C410+D410)/F409)</f>
+        <v>0</v>
+      </c>
+      <c r="H410" s="4">
+        <f t="shared" ref="H410" si="422">I410/J410</f>
+        <v>1.3010215429588206</v>
+      </c>
+      <c r="I410" s="5">
+        <v>4913.49</v>
+      </c>
+      <c r="J410" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K410" s="6">
+        <f t="shared" ref="K410" si="423">(B410-H410)</f>
+        <v>0.4903295804738208</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B411" s="2">
+        <f t="shared" ref="B411:B412" si="424">E411/F411</f>
+        <v>1.8179757203170921</v>
+      </c>
+      <c r="C411" s="3">
+        <v>0</v>
+      </c>
+      <c r="D411" s="3">
+        <v>0</v>
+      </c>
+      <c r="E411" s="3">
+        <v>417955.02</v>
+      </c>
+      <c r="F411" s="3">
+        <f t="shared" ref="F411:F412" si="425">F410+G411</f>
+        <v>229901.32119426772</v>
+      </c>
+      <c r="G411" s="3">
+        <f t="shared" ref="G411:G412" si="426">(C411-D411)/((E411-C411+D411)/F410)</f>
+        <v>0</v>
+      </c>
+      <c r="H411" s="4">
+        <f t="shared" ref="H411:H412" si="427">I411/J411</f>
+        <v>1.3012757371631927</v>
+      </c>
+      <c r="I411" s="5">
+        <v>4914.45</v>
+      </c>
+      <c r="J411" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K411" s="6">
+        <f t="shared" ref="K411:K412" si="428">(B411-H411)</f>
+        <v>0.51669998315389942</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B412" s="2">
+        <f t="shared" si="424"/>
+        <v>1.8135606086738567</v>
+      </c>
+      <c r="C412" s="3">
+        <v>40000</v>
+      </c>
+      <c r="D412" s="3">
+        <v>0</v>
+      </c>
+      <c r="E412" s="3">
+        <v>456939.98</v>
+      </c>
+      <c r="F412" s="3">
+        <f t="shared" si="425"/>
+        <v>251957.38031282648</v>
+      </c>
+      <c r="G412" s="3">
+        <f t="shared" si="426"/>
+        <v>22056.059118558765</v>
+      </c>
+      <c r="H412" s="4">
+        <f t="shared" si="427"/>
+        <v>1.3103552364006101</v>
+      </c>
+      <c r="I412" s="5">
+        <v>4948.74</v>
+      </c>
+      <c r="J412" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K412" s="6">
+        <f t="shared" si="428"/>
+        <v>0.50320537227324658</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B413" s="2">
+        <f t="shared" ref="B413" si="429">E413/F413</f>
+        <v>1.83373239325778</v>
+      </c>
+      <c r="C413" s="3">
+        <v>0</v>
+      </c>
+      <c r="D413" s="3">
+        <v>0</v>
+      </c>
+      <c r="E413" s="3">
+        <v>462022.41</v>
+      </c>
+      <c r="F413" s="3">
+        <f t="shared" ref="F413" si="430">F412+G413</f>
+        <v>251957.38031282648</v>
+      </c>
+      <c r="G413" s="3">
+        <f t="shared" ref="G413" si="431">(C413-D413)/((E413-C413+D413)/F412)</f>
+        <v>0</v>
+      </c>
+      <c r="H413" s="4">
+        <f t="shared" ref="H413" si="432">I413/J413</f>
+        <v>1.3031001101508219</v>
+      </c>
+      <c r="I413" s="5">
+        <v>4921.34</v>
+      </c>
+      <c r="J413" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K413" s="6">
+        <f t="shared" ref="K413" si="433">(B413-H413)</f>
+        <v>0.53063228310695809</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B414" s="2">
+        <f t="shared" ref="B414:B415" si="434">E414/F414</f>
+        <v>1.8523890803298702</v>
+      </c>
+      <c r="C414" s="3">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3">
+        <v>0</v>
+      </c>
+      <c r="E414" s="3">
+        <v>466723.1</v>
+      </c>
+      <c r="F414" s="3">
+        <f t="shared" ref="F414:F415" si="435">F413+G414</f>
+        <v>251957.38031282648</v>
+      </c>
+      <c r="G414" s="3">
+        <f t="shared" ref="G414:G415" si="436">(C414-D414)/((E414-C414+D414)/F413)</f>
+        <v>0</v>
+      </c>
+      <c r="H414" s="4">
+        <f t="shared" ref="H414:H415" si="437">I414/J414</f>
+        <v>1.3025652431791221</v>
+      </c>
+      <c r="I414" s="5">
+        <v>4919.32</v>
+      </c>
+      <c r="J414" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K414" s="6">
+        <f t="shared" ref="K414:K415" si="438">(B414-H414)</f>
+        <v>0.54982383715074801</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B415" s="2">
+        <f t="shared" si="434"/>
+        <v>1.8380441145443374</v>
+      </c>
+      <c r="C415" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D415" s="3">
+        <v>0</v>
+      </c>
+      <c r="E415" s="3">
+        <v>465108.78</v>
+      </c>
+      <c r="F415" s="3">
+        <f t="shared" si="435"/>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G415" s="3">
+        <f t="shared" si="436"/>
+        <v>1088.113165605828</v>
+      </c>
+      <c r="H415" s="4">
+        <f t="shared" si="437"/>
+        <v>1.3122669886459923</v>
+      </c>
+      <c r="I415" s="5">
+        <v>4955.96</v>
+      </c>
+      <c r="J415" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K415" s="6">
+        <f t="shared" si="438"/>
+        <v>0.52577712589834502</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B416" s="2">
+        <f t="shared" ref="B416" si="439">E416/F416</f>
+        <v>1.8142955390712387</v>
+      </c>
+      <c r="C416" s="3">
+        <v>0</v>
+      </c>
+      <c r="D416" s="3">
+        <v>0</v>
+      </c>
+      <c r="E416" s="3">
+        <v>459099.31</v>
+      </c>
+      <c r="F416" s="3">
+        <f t="shared" ref="F416" si="440">F415+G416</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G416" s="3">
+        <f t="shared" ref="G416" si="441">(C416-D416)/((E416-C416+D416)/F415)</f>
+        <v>0</v>
+      </c>
+      <c r="H416" s="4">
+        <f t="shared" ref="H416" si="442">I416/J416</f>
+        <v>1.2930753262158956</v>
+      </c>
+      <c r="I416" s="5">
+        <v>4883.4799999999996</v>
+      </c>
+      <c r="J416" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K416" s="6">
+        <f t="shared" ref="K416" si="443">(B416-H416)</f>
+        <v>0.52122021285534315</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B417" s="2">
+        <f t="shared" ref="B417" si="444">E417/F417</f>
+        <v>1.8358364877957993</v>
+      </c>
+      <c r="C417" s="3">
+        <v>0</v>
+      </c>
+      <c r="D417" s="3">
+        <v>0</v>
+      </c>
+      <c r="E417" s="3">
+        <v>464550.15</v>
+      </c>
+      <c r="F417" s="3">
+        <f t="shared" ref="F417" si="445">F416+G417</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G417" s="3">
+        <f t="shared" ref="G417" si="446">(C417-D417)/((E417-C417+D417)/F416)</f>
+        <v>0</v>
+      </c>
+      <c r="H417" s="4">
+        <f t="shared" ref="H417" si="447">I417/J417</f>
+        <v>1.3031451237078462</v>
+      </c>
+      <c r="I417" s="5">
+        <v>4921.51</v>
+      </c>
+      <c r="J417" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K417" s="6">
+        <f t="shared" ref="K417" si="448">(B417-H417)</f>
+        <v>0.53269136408795315</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B418" s="2">
+        <f t="shared" ref="B418" si="449">E418/F418</f>
+        <v>1.8654023571466305</v>
+      </c>
+      <c r="C418" s="3">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <v>0</v>
+      </c>
+      <c r="E418" s="3">
+        <v>472031.66</v>
+      </c>
+      <c r="F418" s="3">
+        <f t="shared" ref="F418" si="450">F417+G418</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G418" s="3">
+        <f t="shared" ref="G418" si="451">(C418-D418)/((E418-C418+D418)/F417)</f>
+        <v>0</v>
+      </c>
+      <c r="H418" s="4">
+        <f t="shared" ref="H418" si="452">I418/J418</f>
+        <v>1.3081389806812405</v>
+      </c>
+      <c r="I418" s="5">
+        <v>4940.37</v>
+      </c>
+      <c r="J418" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K418" s="6">
+        <f t="shared" ref="K418" si="453">(B418-H418)</f>
+        <v>0.55726337646539004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L395"/>
+  <dimension ref="A1:L412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G396" sqref="G396"/>
+      <selection pane="bottomLeft" activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42885,7 +44272,7 @@
         <v>44529</v>
       </c>
       <c r="B394" s="2">
-        <f t="shared" ref="B394:B395" si="305">E394/F394</f>
+        <f t="shared" ref="B394:B397" si="305">E394/F394</f>
         <v>1.7320210684672295</v>
       </c>
       <c r="C394" s="3">
@@ -42898,15 +44285,15 @@
         <v>727399.42</v>
       </c>
       <c r="F394" s="3">
-        <f t="shared" ref="F394:F395" si="306">F393+G394</f>
+        <f t="shared" ref="F394:F397" si="306">F393+G394</f>
         <v>419971.4618042839</v>
       </c>
       <c r="G394" s="3">
-        <f t="shared" ref="G394:G395" si="307">(C394-D394)/((E394-C394+D394)/F393)</f>
+        <f t="shared" ref="G394:G397" si="307">(C394-D394)/((E394-C394+D394)/F393)</f>
         <v>0</v>
       </c>
       <c r="H394" s="4">
-        <f t="shared" ref="H394:H395" si="308">I394/J394</f>
+        <f t="shared" ref="H394:H397" si="308">I394/J394</f>
         <v>1.2845862989323844</v>
       </c>
       <c r="I394" s="5">
@@ -42916,7 +44303,7 @@
         <v>3776.64</v>
       </c>
       <c r="K394" s="6">
-        <f t="shared" ref="K394:K395" si="309">(B394-H394)</f>
+        <f t="shared" ref="K394:K397" si="309">(B394-H394)</f>
         <v>0.44743476953484507</v>
       </c>
     </row>
@@ -42959,6 +44346,612 @@
         <f t="shared" si="309"/>
         <v>0.45096290138214679</v>
       </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B396" s="2">
+        <f t="shared" si="305"/>
+        <v>1.7321510058676555</v>
+      </c>
+      <c r="C396" s="3">
+        <v>0</v>
+      </c>
+      <c r="D396" s="3">
+        <v>0</v>
+      </c>
+      <c r="E396" s="3">
+        <v>727453.99</v>
+      </c>
+      <c r="F396" s="3">
+        <f t="shared" si="306"/>
+        <v>419971.4618042839</v>
+      </c>
+      <c r="G396" s="3">
+        <f t="shared" si="307"/>
+        <v>0</v>
+      </c>
+      <c r="H396" s="4">
+        <f t="shared" si="308"/>
+        <v>1.2825818717166584</v>
+      </c>
+      <c r="I396" s="5">
+        <v>4843.8500000000004</v>
+      </c>
+      <c r="J396" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K396" s="6">
+        <f t="shared" si="309"/>
+        <v>0.44956913415099709</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B397" s="2">
+        <f t="shared" si="305"/>
+        <v>1.7281480910201141</v>
+      </c>
+      <c r="C397" s="3">
+        <v>0</v>
+      </c>
+      <c r="D397" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E397" s="3">
+        <v>685772.88</v>
+      </c>
+      <c r="F397" s="3">
+        <f t="shared" si="306"/>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G397" s="3">
+        <f t="shared" si="307"/>
+        <v>-23146.164502828153</v>
+      </c>
+      <c r="H397" s="4">
+        <f t="shared" si="308"/>
+        <v>1.2858413828164719</v>
+      </c>
+      <c r="I397" s="5">
+        <v>4856.16</v>
+      </c>
+      <c r="J397" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K397" s="6">
+        <f t="shared" si="309"/>
+        <v>0.44230670820364226</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B398" s="2">
+        <f t="shared" ref="B398" si="310">E398/F398</f>
+        <v>1.7457476242340828</v>
+      </c>
+      <c r="C398" s="3">
+        <v>0</v>
+      </c>
+      <c r="D398" s="3">
+        <v>0</v>
+      </c>
+      <c r="E398" s="3">
+        <v>692756.82</v>
+      </c>
+      <c r="F398" s="3">
+        <f t="shared" ref="F398" si="311">F397+G398</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G398" s="3">
+        <f t="shared" ref="G398" si="312">(C398-D398)/((E398-C398+D398)/F397)</f>
+        <v>0</v>
+      </c>
+      <c r="H398" s="4">
+        <f t="shared" ref="H398" si="313">I398/J398</f>
+        <v>1.2977196661582784</v>
+      </c>
+      <c r="I398" s="5">
+        <v>4901.0200000000004</v>
+      </c>
+      <c r="J398" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K398" s="6">
+        <f t="shared" ref="K398" si="314">(B398-H398)</f>
+        <v>0.44802795807580442</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B399" s="2">
+        <f t="shared" ref="B399" si="315">E399/F399</f>
+        <v>1.7434300804528422</v>
+      </c>
+      <c r="C399" s="3">
+        <v>0</v>
+      </c>
+      <c r="D399" s="3">
+        <v>0</v>
+      </c>
+      <c r="E399" s="3">
+        <v>691837.16</v>
+      </c>
+      <c r="F399" s="3">
+        <f t="shared" ref="F399" si="316">F398+G399</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G399" s="3">
+        <f t="shared" ref="G399" si="317">(C399-D399)/((E399-C399+D399)/F398)</f>
+        <v>0</v>
+      </c>
+      <c r="H399" s="4">
+        <f t="shared" ref="H399" si="318">I399/J399</f>
+        <v>1.295495466870022</v>
+      </c>
+      <c r="I399" s="5">
+        <v>4892.62</v>
+      </c>
+      <c r="J399" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K399" s="6">
+        <f t="shared" ref="K399" si="319">(B399-H399)</f>
+        <v>0.44793461358282016</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B400" s="2">
+        <f t="shared" ref="B400" si="320">E400/F400</f>
+        <v>1.7673448612506772</v>
+      </c>
+      <c r="C400" s="3">
+        <v>0</v>
+      </c>
+      <c r="D400" s="3">
+        <v>0</v>
+      </c>
+      <c r="E400" s="3">
+        <v>701327.15</v>
+      </c>
+      <c r="F400" s="3">
+        <f t="shared" ref="F400" si="321">F399+G400</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G400" s="3">
+        <f t="shared" ref="G400" si="322">(C400-D400)/((E400-C400+D400)/F399)</f>
+        <v>0</v>
+      </c>
+      <c r="H400" s="4">
+        <f t="shared" ref="H400" si="323">I400/J400</f>
+        <v>1.3033013472292834</v>
+      </c>
+      <c r="I400" s="5">
+        <v>4922.1000000000004</v>
+      </c>
+      <c r="J400" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K400" s="6">
+        <f t="shared" ref="K400" si="324">(B400-H400)</f>
+        <v>0.46404351402139388</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B401" s="2">
+        <f t="shared" ref="B401" si="325">E401/F401</f>
+        <v>1.7978256800952765</v>
+      </c>
+      <c r="C401" s="3">
+        <v>0</v>
+      </c>
+      <c r="D401" s="3">
+        <v>0</v>
+      </c>
+      <c r="E401" s="3">
+        <v>713422.71</v>
+      </c>
+      <c r="F401" s="3">
+        <f t="shared" ref="F401" si="326">F400+G401</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G401" s="3">
+        <f t="shared" ref="G401" si="327">(C401-D401)/((E401-C401+D401)/F400)</f>
+        <v>0</v>
+      </c>
+      <c r="H401" s="4">
+        <f t="shared" ref="H401" si="328">I401/J401</f>
+        <v>1.3228504702592783</v>
+      </c>
+      <c r="I401" s="5">
+        <v>4995.93</v>
+      </c>
+      <c r="J401" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K401" s="6">
+        <f t="shared" ref="K401" si="329">(B401-H401)</f>
+        <v>0.47497520983599828</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B402" s="2">
+        <f t="shared" ref="B402" si="330">E402/F402</f>
+        <v>1.8207629526479523</v>
+      </c>
+      <c r="C402" s="3">
+        <v>0</v>
+      </c>
+      <c r="D402" s="3">
+        <v>0</v>
+      </c>
+      <c r="E402" s="3">
+        <v>722524.8</v>
+      </c>
+      <c r="F402" s="3">
+        <f t="shared" ref="F402" si="331">F401+G402</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G402" s="3">
+        <f t="shared" ref="G402" si="332">(C402-D402)/((E402-C402+D402)/F401)</f>
+        <v>0</v>
+      </c>
+      <c r="H402" s="4">
+        <f t="shared" ref="H402" si="333">I402/J402</f>
+        <v>1.3447641289611929</v>
+      </c>
+      <c r="I402" s="5">
+        <v>5078.6899999999996</v>
+      </c>
+      <c r="J402" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K402" s="6">
+        <f t="shared" ref="K402" si="334">(B402-H402)</f>
+        <v>0.47599882368675939</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B403" s="2">
+        <f t="shared" ref="B403" si="335">E403/F403</f>
+        <v>1.8132426407618556</v>
+      </c>
+      <c r="C403" s="3">
+        <v>0</v>
+      </c>
+      <c r="D403" s="3">
+        <v>0</v>
+      </c>
+      <c r="E403" s="3">
+        <v>719540.55</v>
+      </c>
+      <c r="F403" s="3">
+        <f t="shared" ref="F403" si="336">F402+G403</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G403" s="3">
+        <f t="shared" ref="G403" si="337">(C403-D403)/((E403-C403+D403)/F402)</f>
+        <v>0</v>
+      </c>
+      <c r="H403" s="4">
+        <f t="shared" ref="H403" si="338">I403/J403</f>
+        <v>1.3385231316725978</v>
+      </c>
+      <c r="I403" s="5">
+        <v>5055.12</v>
+      </c>
+      <c r="J403" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K403" s="6">
+        <f t="shared" ref="K403" si="339">(B403-H403)</f>
+        <v>0.47471950908925775</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B404" s="2">
+        <f t="shared" ref="B404" si="340">E404/F404</f>
+        <v>1.8312314132734453</v>
+      </c>
+      <c r="C404" s="3">
+        <v>0</v>
+      </c>
+      <c r="D404" s="3">
+        <v>0</v>
+      </c>
+      <c r="E404" s="3">
+        <v>726678.95</v>
+      </c>
+      <c r="F404" s="3">
+        <f t="shared" ref="F404" si="341">F403+G404</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G404" s="3">
+        <f t="shared" ref="G404" si="342">(C404-D404)/((E404-C404+D404)/F403)</f>
+        <v>0</v>
+      </c>
+      <c r="H404" s="4">
+        <f t="shared" ref="H404" si="343">I404/J404</f>
+        <v>1.3461171835282157</v>
+      </c>
+      <c r="I404" s="5">
+        <v>5083.8</v>
+      </c>
+      <c r="J404" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K404" s="6">
+        <f t="shared" ref="K404" si="344">(B404-H404)</f>
+        <v>0.48511422974522955</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B405" s="2">
+        <f t="shared" ref="B405" si="345">E405/F405</f>
+        <v>1.8252084353628806</v>
+      </c>
+      <c r="C405" s="3">
+        <v>0</v>
+      </c>
+      <c r="D405" s="3">
+        <v>0</v>
+      </c>
+      <c r="E405" s="3">
+        <v>724288.88</v>
+      </c>
+      <c r="F405" s="3">
+        <f t="shared" ref="F405" si="346">F404+G405</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G405" s="3">
+        <f t="shared" ref="G405" si="347">(C405-D405)/((E405-C405+D405)/F404)</f>
+        <v>0</v>
+      </c>
+      <c r="H405" s="4">
+        <f t="shared" ref="H405" si="348">I405/J405</f>
+        <v>1.3370879935604134</v>
+      </c>
+      <c r="I405" s="5">
+        <v>5049.7</v>
+      </c>
+      <c r="J405" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K405" s="6">
+        <f t="shared" ref="K405" si="349">(B405-H405)</f>
+        <v>0.48812044180246716</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B406" s="2">
+        <f t="shared" ref="B406:B407" si="350">E406/F406</f>
+        <v>1.7975170556178734</v>
+      </c>
+      <c r="C406" s="3">
+        <v>0</v>
+      </c>
+      <c r="D406" s="3">
+        <v>0</v>
+      </c>
+      <c r="E406" s="3">
+        <v>713300.24</v>
+      </c>
+      <c r="F406" s="3">
+        <f t="shared" ref="F406:F407" si="351">F405+G406</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G406" s="3">
+        <f t="shared" ref="G406:G407" si="352">(C406-D406)/((E406-C406+D406)/F405)</f>
+        <v>0</v>
+      </c>
+      <c r="H406" s="4">
+        <f t="shared" ref="H406:H407" si="353">I406/J406</f>
+        <v>1.3370879935604134</v>
+      </c>
+      <c r="I406" s="5">
+        <v>5049.7</v>
+      </c>
+      <c r="J406" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K406" s="6">
+        <f t="shared" ref="K406:K407" si="354">(B406-H406)</f>
+        <v>0.46042906205746004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B407" s="2">
+        <f t="shared" si="350"/>
+        <v>1.7909246835645043</v>
+      </c>
+      <c r="C407" s="3">
+        <v>0</v>
+      </c>
+      <c r="D407" s="3">
+        <v>0</v>
+      </c>
+      <c r="E407" s="3">
+        <v>710684.22</v>
+      </c>
+      <c r="F407" s="3">
+        <f t="shared" si="351"/>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G407" s="3">
+        <f t="shared" si="352"/>
+        <v>0</v>
+      </c>
+      <c r="H407" s="4">
+        <f t="shared" si="353"/>
+        <v>1.3331241526859854</v>
+      </c>
+      <c r="I407" s="5">
+        <v>5034.7299999999996</v>
+      </c>
+      <c r="J407" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K407" s="6">
+        <f t="shared" si="354"/>
+        <v>0.45780053087851891</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B408" s="2">
+        <f t="shared" ref="B408" si="355">E408/F408</f>
+        <v>1.7628058865123006</v>
+      </c>
+      <c r="C408" s="3">
+        <v>0</v>
+      </c>
+      <c r="D408" s="3">
+        <v>0</v>
+      </c>
+      <c r="E408" s="3">
+        <v>699525.97</v>
+      </c>
+      <c r="F408" s="3">
+        <f t="shared" ref="F408" si="356">F407+G408</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G408" s="3">
+        <f t="shared" ref="G408" si="357">(C408-D408)/((E408-C408+D408)/F407)</f>
+        <v>0</v>
+      </c>
+      <c r="H408" s="4">
+        <f t="shared" ref="H408" si="358">I408/J408</f>
+        <v>1.3331241526859854</v>
+      </c>
+      <c r="I408" s="5">
+        <v>5034.7299999999996</v>
+      </c>
+      <c r="J408" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K408" s="6">
+        <f t="shared" ref="K408" si="359">(B408-H408)</f>
+        <v>0.42968173382631525</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B409" s="2">
+        <f t="shared" ref="B409" si="360">E409/F409</f>
+        <v>1.7790074997756709</v>
+      </c>
+      <c r="C409" s="3">
+        <v>0</v>
+      </c>
+      <c r="D409" s="3">
+        <v>0</v>
+      </c>
+      <c r="E409" s="3">
+        <v>705955.18</v>
+      </c>
+      <c r="F409" s="3">
+        <f t="shared" ref="F409" si="361">F408+G409</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G409" s="3">
+        <f t="shared" ref="G409" si="362">(C409-D409)/((E409-C409+D409)/F408)</f>
+        <v>0</v>
+      </c>
+      <c r="H409" s="4">
+        <f t="shared" ref="H409" si="363">I409/J409</f>
+        <v>1.2922650821894595</v>
+      </c>
+      <c r="I409" s="5">
+        <v>4880.42</v>
+      </c>
+      <c r="J409" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K409" s="6">
+        <f t="shared" ref="K409" si="364">(B409-H409)</f>
+        <v>0.4867424175862114</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B410" s="2">
+        <f t="shared" ref="B410" si="365">E410/F410</f>
+        <v>1.7862228159852744</v>
+      </c>
+      <c r="C410" s="3">
+        <v>0</v>
+      </c>
+      <c r="D410" s="3">
+        <v>0</v>
+      </c>
+      <c r="E410" s="3">
+        <v>708818.4</v>
+      </c>
+      <c r="F410" s="3">
+        <f t="shared" ref="F410" si="366">F409+G410</f>
+        <v>396825.29730145575</v>
+      </c>
+      <c r="G410" s="3">
+        <f t="shared" ref="G410" si="367">(C410-D410)/((E410-C410+D410)/F409)</f>
+        <v>0</v>
+      </c>
+      <c r="H410" s="4">
+        <f t="shared" ref="H410" si="368">I410/J410</f>
+        <v>1.3010215429588206</v>
+      </c>
+      <c r="I410" s="5">
+        <v>4913.49</v>
+      </c>
+      <c r="J410" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K410" s="6">
+        <f t="shared" ref="K410" si="369">(B410-H410)</f>
+        <v>0.48520127302645388</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F412" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB5A31-432A-4A4D-9218-53EA1C263F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8830FDDD-B913-4227-9D8C-B9B84132CA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1639,6 +1639,42 @@
                 <c:pt idx="416">
                   <c:v>44561</c:v>
                 </c:pt>
+                <c:pt idx="417">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44572</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44580</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2898,6 +2934,42 @@
                 </c:pt>
                 <c:pt idx="416">
                   <c:v>1.8654023571466305</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.8735320415433827</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.8595217149761476</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.8594675349952612</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.8424089423261611</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.8522697778846204</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.8503345527467669</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.85484955115395</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.7976122939283656</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.7992482843358979</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.8033465987762947</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.7971662871710485</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.7736263698300281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,6 +4303,42 @@
                 <c:pt idx="416">
                   <c:v>44561</c:v>
                 </c:pt>
+                <c:pt idx="417">
+                  <c:v>44565</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44566</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44572</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44580</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5490,6 +5598,42 @@
                 </c:pt>
                 <c:pt idx="416">
                   <c:v>1.3081389806812405</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.3021548254533131</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.2890082189459413</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.2757980638874766</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.2768942763938316</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.2826348288425691</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.2703805499067957</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.2830399508557873</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.2619471276054905</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.2515701787832569</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.2623072360616845</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.2745059100152518</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.2657759278088461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7037,6 +7181,57 @@
                 <c:pt idx="408">
                   <c:v>44551</c:v>
                 </c:pt>
+                <c:pt idx="409">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44572</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -8272,6 +8467,57 @@
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>1.7862228159852744</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.8459934718584359</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.8279682743940502</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.8329639179574426</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.8339679212963822</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.8353669386031923</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.7817826255448228</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.7775306940998115</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.7806324820920048</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.7758315273067322</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.7530428389385762</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.7554173249686769</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.7452315164165222</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.7435686310780916</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.7083669162334736</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.7192449457819841</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.6867089511224502</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.6779409758940866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9542,6 +9788,57 @@
                 <c:pt idx="408">
                   <c:v>44551</c:v>
                 </c:pt>
+                <c:pt idx="409">
+                  <c:v>44567</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>44568</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>44572</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>44574</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>44575</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>44579</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>44589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -10777,6 +11074,57 @@
                 </c:pt>
                 <c:pt idx="408">
                   <c:v>1.3010215429588206</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>1.2757980638874766</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>1.2768942763938316</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>1.2826348288425691</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>1.2703805499067957</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>1.2830399508557873</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>1.2619471276054905</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1.2515701787832569</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1.2623072360616845</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1.2745059100152518</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>1.2657759278088461</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>1.2771961320115235</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>1.2654926071852231</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>1.2674599644128113</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>1.2387863285883749</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>1.2477519700050841</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.2232778342653787</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>1.2084207125910864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11880,11 +12228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q418"/>
+  <dimension ref="A1:Q437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I426" sqref="I426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28570,6 +28918,766 @@
         <v>0.55726337646539004</v>
       </c>
     </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B419" s="2">
+        <f t="shared" ref="B419" si="454">E419/F419</f>
+        <v>1.8735320415433827</v>
+      </c>
+      <c r="C419" s="3">
+        <v>0</v>
+      </c>
+      <c r="D419" s="3">
+        <v>0</v>
+      </c>
+      <c r="E419" s="3">
+        <v>474088.84</v>
+      </c>
+      <c r="F419" s="3">
+        <f t="shared" ref="F419" si="455">F418+G419</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G419" s="3">
+        <f t="shared" ref="G419" si="456">(C419-D419)/((E419-C419+D419)/F418)</f>
+        <v>0</v>
+      </c>
+      <c r="H419" s="4">
+        <f t="shared" ref="H419" si="457">I419/J419</f>
+        <v>1.3021548254533131</v>
+      </c>
+      <c r="I419" s="5">
+        <v>4917.7700000000004</v>
+      </c>
+      <c r="J419" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K419" s="6">
+        <f t="shared" ref="K419" si="458">(B419-H419)</f>
+        <v>0.57137721609006964</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B420" s="2">
+        <f t="shared" ref="B420" si="459">E420/F420</f>
+        <v>1.8595217149761476</v>
+      </c>
+      <c r="C420" s="3">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3">
+        <v>0</v>
+      </c>
+      <c r="E420" s="3">
+        <v>470543.59</v>
+      </c>
+      <c r="F420" s="3">
+        <f t="shared" ref="F420" si="460">F419+G420</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G420" s="3">
+        <f t="shared" ref="G420" si="461">(C420-D420)/((E420-C420+D420)/F419)</f>
+        <v>0</v>
+      </c>
+      <c r="H420" s="4">
+        <f t="shared" ref="H420" si="462">I420/J420</f>
+        <v>1.2890082189459413</v>
+      </c>
+      <c r="I420" s="5">
+        <v>4868.12</v>
+      </c>
+      <c r="J420" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K420" s="6">
+        <f t="shared" ref="K420" si="463">(B420-H420)</f>
+        <v>0.57051349603020629</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B421" s="2">
+        <f t="shared" ref="B421" si="464">E421/F421</f>
+        <v>1.8594675349952612</v>
+      </c>
+      <c r="C421" s="3">
+        <v>0</v>
+      </c>
+      <c r="D421" s="3">
+        <v>0</v>
+      </c>
+      <c r="E421" s="3">
+        <v>470529.88</v>
+      </c>
+      <c r="F421" s="3">
+        <f t="shared" ref="F421" si="465">F420+G421</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G421" s="3">
+        <f t="shared" ref="G421" si="466">(C421-D421)/((E421-C421+D421)/F420)</f>
+        <v>0</v>
+      </c>
+      <c r="H421" s="4">
+        <f t="shared" ref="H421" si="467">I421/J421</f>
+        <v>1.2757980638874766</v>
+      </c>
+      <c r="I421" s="5">
+        <v>4818.2299999999996</v>
+      </c>
+      <c r="J421" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K421" s="6">
+        <f t="shared" ref="K421" si="468">(B421-H421)</f>
+        <v>0.58366947110778455</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B422" s="2">
+        <f t="shared" ref="B422" si="469">E422/F422</f>
+        <v>1.8424089423261611</v>
+      </c>
+      <c r="C422" s="3">
+        <v>0</v>
+      </c>
+      <c r="D422" s="3">
+        <v>0</v>
+      </c>
+      <c r="E422" s="3">
+        <v>466213.28</v>
+      </c>
+      <c r="F422" s="3">
+        <f t="shared" ref="F422" si="470">F421+G422</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G422" s="3">
+        <f t="shared" ref="G422" si="471">(C422-D422)/((E422-C422+D422)/F421)</f>
+        <v>0</v>
+      </c>
+      <c r="H422" s="4">
+        <f t="shared" ref="H422" si="472">I422/J422</f>
+        <v>1.2768942763938316</v>
+      </c>
+      <c r="I422" s="5">
+        <v>4822.37</v>
+      </c>
+      <c r="J422" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K422" s="6">
+        <f t="shared" ref="K422" si="473">(B422-H422)</f>
+        <v>0.56551466593232957</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B423" s="2">
+        <f t="shared" ref="B423" si="474">E423/F423</f>
+        <v>1.8522697778846204</v>
+      </c>
+      <c r="C423" s="3">
+        <v>0</v>
+      </c>
+      <c r="D423" s="3">
+        <v>0</v>
+      </c>
+      <c r="E423" s="3">
+        <v>468708.52</v>
+      </c>
+      <c r="F423" s="3">
+        <f t="shared" ref="F423" si="475">F422+G423</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G423" s="3">
+        <f t="shared" ref="G423" si="476">(C423-D423)/((E423-C423+D423)/F422)</f>
+        <v>0</v>
+      </c>
+      <c r="H423" s="4">
+        <f t="shared" ref="H423" si="477">I423/J423</f>
+        <v>1.2826348288425691</v>
+      </c>
+      <c r="I423" s="5">
+        <v>4844.05</v>
+      </c>
+      <c r="J423" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K423" s="6">
+        <f t="shared" ref="K423" si="478">(B423-H423)</f>
+        <v>0.56963494904205136</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B424" s="2">
+        <f t="shared" ref="B424" si="479">E424/F424</f>
+        <v>1.8503345527467669</v>
+      </c>
+      <c r="C424" s="3">
+        <v>0</v>
+      </c>
+      <c r="D424" s="3">
+        <v>0</v>
+      </c>
+      <c r="E424" s="3">
+        <v>468218.82</v>
+      </c>
+      <c r="F424" s="3">
+        <f t="shared" ref="F424" si="480">F423+G424</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G424" s="3">
+        <f t="shared" ref="G424" si="481">(C424-D424)/((E424-C424+D424)/F423)</f>
+        <v>0</v>
+      </c>
+      <c r="H424" s="4">
+        <f t="shared" ref="H424" si="482">I424/J424</f>
+        <v>1.2703805499067957</v>
+      </c>
+      <c r="I424" s="5">
+        <v>4797.7700000000004</v>
+      </c>
+      <c r="J424" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K424" s="6">
+        <f t="shared" ref="K424" si="483">(B424-H424)</f>
+        <v>0.57995400283997123</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B425" s="2">
+        <f t="shared" ref="B425" si="484">E425/F425</f>
+        <v>1.85484955115395</v>
+      </c>
+      <c r="C425" s="3">
+        <v>0</v>
+      </c>
+      <c r="D425" s="3">
+        <v>0</v>
+      </c>
+      <c r="E425" s="3">
+        <v>469361.32</v>
+      </c>
+      <c r="F425" s="3">
+        <f t="shared" ref="F425" si="485">F424+G425</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G425" s="3">
+        <f t="shared" ref="G425" si="486">(C425-D425)/((E425-C425+D425)/F424)</f>
+        <v>0</v>
+      </c>
+      <c r="H425" s="4">
+        <f t="shared" ref="H425" si="487">I425/J425</f>
+        <v>1.2830399508557873</v>
+      </c>
+      <c r="I425" s="5">
+        <v>4845.58</v>
+      </c>
+      <c r="J425" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K425" s="6">
+        <f t="shared" ref="K425" si="488">(B425-H425)</f>
+        <v>0.57180960029816275</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B426" s="2">
+        <f t="shared" ref="B426" si="489">E426/F426</f>
+        <v>1.7976122939283656</v>
+      </c>
+      <c r="C426" s="3">
+        <v>0</v>
+      </c>
+      <c r="D426" s="3">
+        <v>0</v>
+      </c>
+      <c r="E426" s="3">
+        <v>454877.69</v>
+      </c>
+      <c r="F426" s="3">
+        <f t="shared" ref="F426" si="490">F425+G426</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G426" s="3">
+        <f t="shared" ref="G426" si="491">(C426-D426)/((E426-C426+D426)/F425)</f>
+        <v>0</v>
+      </c>
+      <c r="H426" s="4">
+        <f t="shared" ref="H426" si="492">I426/J426</f>
+        <v>1.2619471276054905</v>
+      </c>
+      <c r="I426" s="5">
+        <v>4765.92</v>
+      </c>
+      <c r="J426" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K426" s="6">
+        <f t="shared" ref="K426" si="493">(B426-H426)</f>
+        <v>0.53566516632287509</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B427" s="2">
+        <f t="shared" ref="B427" si="494">E427/F427</f>
+        <v>1.7992482843358979</v>
+      </c>
+      <c r="C427" s="3">
+        <v>0</v>
+      </c>
+      <c r="D427" s="3">
+        <v>0</v>
+      </c>
+      <c r="E427" s="3">
+        <v>455291.67</v>
+      </c>
+      <c r="F427" s="3">
+        <f t="shared" ref="F427" si="495">F426+G427</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G427" s="3">
+        <f t="shared" ref="G427" si="496">(C427-D427)/((E427-C427+D427)/F426)</f>
+        <v>0</v>
+      </c>
+      <c r="H427" s="4">
+        <f t="shared" ref="H427" si="497">I427/J427</f>
+        <v>1.2515701787832569</v>
+      </c>
+      <c r="I427" s="5">
+        <v>4726.7299999999996</v>
+      </c>
+      <c r="J427" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K427" s="6">
+        <f t="shared" ref="K427" si="498">(B427-H427)</f>
+        <v>0.54767810555264096</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B428" s="2">
+        <f t="shared" ref="B428" si="499">E428/F428</f>
+        <v>1.8033465987762947</v>
+      </c>
+      <c r="C428" s="3">
+        <v>0</v>
+      </c>
+      <c r="D428" s="3">
+        <v>0</v>
+      </c>
+      <c r="E428" s="3">
+        <v>456328.73</v>
+      </c>
+      <c r="F428" s="3">
+        <f t="shared" ref="F428" si="500">F427+G428</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G428" s="3">
+        <f t="shared" ref="G428" si="501">(C428-D428)/((E428-C428+D428)/F427)</f>
+        <v>0</v>
+      </c>
+      <c r="H428" s="4">
+        <f t="shared" ref="H428" si="502">I428/J428</f>
+        <v>1.2623072360616845</v>
+      </c>
+      <c r="I428" s="5">
+        <v>4767.28</v>
+      </c>
+      <c r="J428" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K428" s="6">
+        <f t="shared" ref="K428" si="503">(B428-H428)</f>
+        <v>0.54103936271461017</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B429" s="2">
+        <f t="shared" ref="B429" si="504">E429/F429</f>
+        <v>1.7971662871710485</v>
+      </c>
+      <c r="C429" s="3">
+        <v>0</v>
+      </c>
+      <c r="D429" s="3">
+        <v>0</v>
+      </c>
+      <c r="E429" s="3">
+        <v>454764.83</v>
+      </c>
+      <c r="F429" s="3">
+        <f t="shared" ref="F429" si="505">F428+G429</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G429" s="3">
+        <f t="shared" ref="G429" si="506">(C429-D429)/((E429-C429+D429)/F428)</f>
+        <v>0</v>
+      </c>
+      <c r="H429" s="4">
+        <f t="shared" ref="H429" si="507">I429/J429</f>
+        <v>1.2745059100152518</v>
+      </c>
+      <c r="I429" s="5">
+        <v>4813.3500000000004</v>
+      </c>
+      <c r="J429" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K429" s="6">
+        <f t="shared" ref="K429" si="508">(B429-H429)</f>
+        <v>0.52266037715579672</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B430" s="2">
+        <f t="shared" ref="B430" si="509">E430/F430</f>
+        <v>1.7736263698300281</v>
+      </c>
+      <c r="C430" s="3">
+        <v>0</v>
+      </c>
+      <c r="D430" s="3">
+        <v>0</v>
+      </c>
+      <c r="E430" s="3">
+        <v>448808.16</v>
+      </c>
+      <c r="F430" s="3">
+        <f t="shared" ref="F430" si="510">F429+G430</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G430" s="3">
+        <f t="shared" ref="G430" si="511">(C430-D430)/((E430-C430+D430)/F429)</f>
+        <v>0</v>
+      </c>
+      <c r="H430" s="4">
+        <f t="shared" ref="H430" si="512">I430/J430</f>
+        <v>1.2657759278088461</v>
+      </c>
+      <c r="I430" s="5">
+        <v>4780.38</v>
+      </c>
+      <c r="J430" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K430" s="6">
+        <f t="shared" ref="K430" si="513">(B430-H430)</f>
+        <v>0.50785044202118201</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B431" s="2">
+        <f t="shared" ref="B431" si="514">E431/F431</f>
+        <v>1.7754334757132988</v>
+      </c>
+      <c r="C431" s="3">
+        <v>0</v>
+      </c>
+      <c r="D431" s="3">
+        <v>0</v>
+      </c>
+      <c r="E431" s="3">
+        <v>449265.44</v>
+      </c>
+      <c r="F431" s="3">
+        <f t="shared" ref="F431" si="515">F430+G431</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G431" s="3">
+        <f t="shared" ref="G431" si="516">(C431-D431)/((E431-C431+D431)/F430)</f>
+        <v>0</v>
+      </c>
+      <c r="H431" s="4">
+        <f t="shared" ref="H431" si="517">I431/J431</f>
+        <v>1.2771961320115235</v>
+      </c>
+      <c r="I431" s="5">
+        <v>4823.51</v>
+      </c>
+      <c r="J431" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K431" s="6">
+        <f t="shared" ref="K431" si="518">(B431-H431)</f>
+        <v>0.4982373437017753</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B432" s="2">
+        <f t="shared" ref="B432" si="519">E432/F432</f>
+        <v>1.7603864976080574</v>
+      </c>
+      <c r="C432" s="3">
+        <v>0</v>
+      </c>
+      <c r="D432" s="3">
+        <v>0</v>
+      </c>
+      <c r="E432" s="3">
+        <v>445457.87</v>
+      </c>
+      <c r="F432" s="3">
+        <f t="shared" ref="F432" si="520">F431+G432</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G432" s="3">
+        <f t="shared" ref="G432" si="521">(C432-D432)/((E432-C432+D432)/F431)</f>
+        <v>0</v>
+      </c>
+      <c r="H432" s="4">
+        <f t="shared" ref="H432" si="522">I432/J432</f>
+        <v>1.2654926071852231</v>
+      </c>
+      <c r="I432" s="5">
+        <v>4779.3100000000004</v>
+      </c>
+      <c r="J432" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K432" s="6">
+        <f t="shared" ref="K432" si="523">(B432-H432)</f>
+        <v>0.49489389042283438</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B433" s="2">
+        <f t="shared" ref="B433" si="524">E433/F433</f>
+        <v>1.7599644786322122</v>
+      </c>
+      <c r="C433" s="3">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3">
+        <v>0</v>
+      </c>
+      <c r="E433" s="3">
+        <v>445351.08</v>
+      </c>
+      <c r="F433" s="3">
+        <f t="shared" ref="F433" si="525">F432+G433</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G433" s="3">
+        <f t="shared" ref="G433" si="526">(C433-D433)/((E433-C433+D433)/F432)</f>
+        <v>0</v>
+      </c>
+      <c r="H433" s="4">
+        <f t="shared" ref="H433" si="527">I433/J433</f>
+        <v>1.2674599644128113</v>
+      </c>
+      <c r="I433" s="5">
+        <v>4786.74</v>
+      </c>
+      <c r="J433" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K433" s="6">
+        <f t="shared" ref="K433" si="528">(B433-H433)</f>
+        <v>0.49250451421940089</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B434" s="2">
+        <f t="shared" ref="B434" si="529">E434/F434</f>
+        <v>1.7225635359404323</v>
+      </c>
+      <c r="C434" s="3">
+        <v>0</v>
+      </c>
+      <c r="D434" s="3">
+        <v>0</v>
+      </c>
+      <c r="E434" s="3">
+        <v>435886.94</v>
+      </c>
+      <c r="F434" s="3">
+        <f t="shared" ref="F434" si="530">F433+G434</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G434" s="3">
+        <f t="shared" ref="G434" si="531">(C434-D434)/((E434-C434+D434)/F433)</f>
+        <v>0</v>
+      </c>
+      <c r="H434" s="4">
+        <f t="shared" ref="H434" si="532">I434/J434</f>
+        <v>1.2387863285883749</v>
+      </c>
+      <c r="I434" s="5">
+        <v>4678.45</v>
+      </c>
+      <c r="J434" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K434" s="6">
+        <f t="shared" ref="K434" si="533">(B434-H434)</f>
+        <v>0.48377720735205743</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B435" s="2">
+        <f t="shared" ref="B435" si="534">E435/F435</f>
+        <v>1.7279124555413869</v>
+      </c>
+      <c r="C435" s="3">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3">
+        <v>0</v>
+      </c>
+      <c r="E435" s="3">
+        <v>437240.46</v>
+      </c>
+      <c r="F435" s="3">
+        <f t="shared" ref="F435" si="535">F434+G435</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G435" s="3">
+        <f t="shared" ref="G435" si="536">(C435-D435)/((E435-C435+D435)/F434)</f>
+        <v>0</v>
+      </c>
+      <c r="H435" s="4">
+        <f t="shared" ref="H435" si="537">I435/J435</f>
+        <v>1.2477519700050841</v>
+      </c>
+      <c r="I435" s="5">
+        <v>4712.3100000000004</v>
+      </c>
+      <c r="J435" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K435" s="6">
+        <f t="shared" ref="K435" si="538">(B435-H435)</f>
+        <v>0.48016048553630286</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B436" s="2">
+        <f t="shared" ref="B436" si="539">E436/F436</f>
+        <v>1.6907993662272693</v>
+      </c>
+      <c r="C436" s="3">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <v>0</v>
+      </c>
+      <c r="E436" s="3">
+        <v>427849.16</v>
+      </c>
+      <c r="F436" s="3">
+        <f t="shared" ref="F436" si="540">F435+G436</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G436" s="3">
+        <f t="shared" ref="G436" si="541">(C436-D436)/((E436-C436+D436)/F435)</f>
+        <v>0</v>
+      </c>
+      <c r="H436" s="4">
+        <f t="shared" ref="H436" si="542">I436/J436</f>
+        <v>1.2232778342653787</v>
+      </c>
+      <c r="I436" s="5">
+        <v>4619.88</v>
+      </c>
+      <c r="J436" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K436" s="6">
+        <f t="shared" ref="K436" si="543">(B436-H436)</f>
+        <v>0.46752153196189061</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B437" s="2">
+        <f t="shared" ref="B437" si="544">E437/F437</f>
+        <v>1.6825965329285331</v>
+      </c>
+      <c r="C437" s="3">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0</v>
+      </c>
+      <c r="E437" s="3">
+        <v>425773.47</v>
+      </c>
+      <c r="F437" s="3">
+        <f t="shared" ref="F437" si="545">F436+G437</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G437" s="3">
+        <f t="shared" ref="G437" si="546">(C437-D437)/((E437-C437+D437)/F436)</f>
+        <v>0</v>
+      </c>
+      <c r="H437" s="4">
+        <f t="shared" ref="H437" si="547">I437/J437</f>
+        <v>1.2084207125910864</v>
+      </c>
+      <c r="I437" s="5">
+        <v>4563.7700000000004</v>
+      </c>
+      <c r="J437" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K437" s="6">
+        <f t="shared" ref="K437" si="548">(B437-H437)</f>
+        <v>0.47417582033744665</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -28580,11 +29688,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L412"/>
+  <dimension ref="A1:L427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D421" sqref="D421"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E428" sqref="E428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44916,21 +46024,21 @@
         <v>1.7862228159852744</v>
       </c>
       <c r="C410" s="3">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="D410" s="3">
         <v>0</v>
       </c>
       <c r="E410" s="3">
-        <v>708818.4</v>
+        <v>753818.4</v>
       </c>
       <c r="F410" s="3">
         <f t="shared" ref="F410" si="366">F409+G410</f>
-        <v>396825.29730145575</v>
+        <v>422018.12296535715</v>
       </c>
       <c r="G410" s="3">
         <f t="shared" ref="G410" si="367">(C410-D410)/((E410-C410+D410)/F409)</f>
-        <v>0</v>
+        <v>25192.825663901371</v>
       </c>
       <c r="H410" s="4">
         <f t="shared" ref="H410" si="368">I410/J410</f>
@@ -44948,10 +46056,684 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F411" s="3"/>
+      <c r="A411" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B411" s="2">
+        <f t="shared" ref="B411" si="370">E411/F411</f>
+        <v>1.8459934718584359</v>
+      </c>
+      <c r="C411" s="3">
+        <v>0</v>
+      </c>
+      <c r="D411" s="3">
+        <v>0</v>
+      </c>
+      <c r="E411" s="3">
+        <v>779042.7</v>
+      </c>
+      <c r="F411" s="3">
+        <f t="shared" ref="F411" si="371">F410+G411</f>
+        <v>422018.12296535715</v>
+      </c>
+      <c r="G411" s="3">
+        <f t="shared" ref="G411" si="372">(C411-D411)/((E411-C411+D411)/F410)</f>
+        <v>0</v>
+      </c>
+      <c r="H411" s="4">
+        <f t="shared" ref="H411" si="373">I411/J411</f>
+        <v>1.2757980638874766</v>
+      </c>
+      <c r="I411" s="5">
+        <v>4818.2299999999996</v>
+      </c>
+      <c r="J411" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K411" s="6">
+        <f t="shared" ref="K411" si="374">(B411-H411)</f>
+        <v>0.57019540797095924</v>
+      </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F412" s="3"/>
+      <c r="A412" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B412" s="2">
+        <f t="shared" ref="B412" si="375">E412/F412</f>
+        <v>1.8279682743940502</v>
+      </c>
+      <c r="C412" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D412" s="3">
+        <v>0</v>
+      </c>
+      <c r="E412" s="3">
+        <v>791435.74</v>
+      </c>
+      <c r="F412" s="3">
+        <f t="shared" ref="F412" si="376">F411+G412</f>
+        <v>432959.23188948754</v>
+      </c>
+      <c r="G412" s="3">
+        <f t="shared" ref="G412" si="377">(C412-D412)/((E412-C412+D412)/F411)</f>
+        <v>10941.108924130405</v>
+      </c>
+      <c r="H412" s="4">
+        <f t="shared" ref="H412" si="378">I412/J412</f>
+        <v>1.2768942763938316</v>
+      </c>
+      <c r="I412" s="5">
+        <v>4822.37</v>
+      </c>
+      <c r="J412" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K412" s="6">
+        <f t="shared" ref="K412" si="379">(B412-H412)</f>
+        <v>0.55107399800021861</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B413" s="2">
+        <f t="shared" ref="B413" si="380">E413/F413</f>
+        <v>1.8329639179574426</v>
+      </c>
+      <c r="C413" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D413" s="3">
+        <v>0</v>
+      </c>
+      <c r="E413" s="3">
+        <v>803598.65</v>
+      </c>
+      <c r="F413" s="3">
+        <f t="shared" ref="F413" si="381">F412+G413</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G413" s="3">
+        <f t="shared" ref="G413" si="382">(C413-D413)/((E413-C413+D413)/F412)</f>
+        <v>5455.6447631241253</v>
+      </c>
+      <c r="H413" s="4">
+        <f t="shared" ref="H413" si="383">I413/J413</f>
+        <v>1.2826348288425691</v>
+      </c>
+      <c r="I413" s="5">
+        <v>4844.05</v>
+      </c>
+      <c r="J413" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K413" s="6">
+        <f t="shared" ref="K413" si="384">(B413-H413)</f>
+        <v>0.55032908911487355</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B414" s="2">
+        <f t="shared" ref="B414" si="385">E414/F414</f>
+        <v>1.8339679212963822</v>
+      </c>
+      <c r="C414" s="3">
+        <v>0</v>
+      </c>
+      <c r="D414" s="3">
+        <v>0</v>
+      </c>
+      <c r="E414" s="3">
+        <v>804038.82</v>
+      </c>
+      <c r="F414" s="3">
+        <f t="shared" ref="F414" si="386">F413+G414</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G414" s="3">
+        <f t="shared" ref="G414" si="387">(C414-D414)/((E414-C414+D414)/F413)</f>
+        <v>0</v>
+      </c>
+      <c r="H414" s="4">
+        <f t="shared" ref="H414" si="388">I414/J414</f>
+        <v>1.2703805499067957</v>
+      </c>
+      <c r="I414" s="5">
+        <v>4797.7700000000004</v>
+      </c>
+      <c r="J414" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K414" s="6">
+        <f t="shared" ref="K414" si="389">(B414-H414)</f>
+        <v>0.56358737138958648</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B415" s="2">
+        <f t="shared" ref="B415" si="390">E415/F415</f>
+        <v>1.8353669386031923</v>
+      </c>
+      <c r="C415" s="3">
+        <v>0</v>
+      </c>
+      <c r="D415" s="3">
+        <v>0</v>
+      </c>
+      <c r="E415" s="3">
+        <v>804652.17</v>
+      </c>
+      <c r="F415" s="3">
+        <f t="shared" ref="F415" si="391">F414+G415</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G415" s="3">
+        <f t="shared" ref="G415" si="392">(C415-D415)/((E415-C415+D415)/F414)</f>
+        <v>0</v>
+      </c>
+      <c r="H415" s="4">
+        <f t="shared" ref="H415" si="393">I415/J415</f>
+        <v>1.2830399508557873</v>
+      </c>
+      <c r="I415" s="5">
+        <v>4845.58</v>
+      </c>
+      <c r="J415" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K415" s="6">
+        <f t="shared" ref="K415" si="394">(B415-H415)</f>
+        <v>0.55232698774740507</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B416" s="2">
+        <f t="shared" ref="B416" si="395">E416/F416</f>
+        <v>1.7817826255448228</v>
+      </c>
+      <c r="C416" s="3">
+        <v>0</v>
+      </c>
+      <c r="D416" s="3">
+        <v>0</v>
+      </c>
+      <c r="E416" s="3">
+        <v>781160.01</v>
+      </c>
+      <c r="F416" s="3">
+        <f t="shared" ref="F416" si="396">F415+G416</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G416" s="3">
+        <f t="shared" ref="G416" si="397">(C416-D416)/((E416-C416+D416)/F415)</f>
+        <v>0</v>
+      </c>
+      <c r="H416" s="4">
+        <f t="shared" ref="H416" si="398">I416/J416</f>
+        <v>1.2619471276054905</v>
+      </c>
+      <c r="I416" s="5">
+        <v>4765.92</v>
+      </c>
+      <c r="J416" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K416" s="6">
+        <f t="shared" ref="K416" si="399">(B416-H416)</f>
+        <v>0.51983549793933226</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B417" s="2">
+        <f t="shared" ref="B417" si="400">E417/F417</f>
+        <v>1.7775306940998115</v>
+      </c>
+      <c r="C417" s="3">
+        <v>0</v>
+      </c>
+      <c r="D417" s="3">
+        <v>0</v>
+      </c>
+      <c r="E417" s="3">
+        <v>779295.9</v>
+      </c>
+      <c r="F417" s="3">
+        <f t="shared" ref="F417" si="401">F416+G417</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G417" s="3">
+        <f t="shared" ref="G417" si="402">(C417-D417)/((E417-C417+D417)/F416)</f>
+        <v>0</v>
+      </c>
+      <c r="H417" s="4">
+        <f t="shared" ref="H417" si="403">I417/J417</f>
+        <v>1.2515701787832569</v>
+      </c>
+      <c r="I417" s="5">
+        <v>4726.7299999999996</v>
+      </c>
+      <c r="J417" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K417" s="6">
+        <f t="shared" ref="K417" si="404">(B417-H417)</f>
+        <v>0.52596051531655452</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B418" s="2">
+        <f t="shared" ref="B418" si="405">E418/F418</f>
+        <v>1.7806324820920048</v>
+      </c>
+      <c r="C418" s="3">
+        <v>0</v>
+      </c>
+      <c r="D418" s="3">
+        <v>0</v>
+      </c>
+      <c r="E418" s="3">
+        <v>780655.77</v>
+      </c>
+      <c r="F418" s="3">
+        <f t="shared" ref="F418" si="406">F417+G418</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G418" s="3">
+        <f t="shared" ref="G418" si="407">(C418-D418)/((E418-C418+D418)/F417)</f>
+        <v>0</v>
+      </c>
+      <c r="H418" s="4">
+        <f t="shared" ref="H418" si="408">I418/J418</f>
+        <v>1.2623072360616845</v>
+      </c>
+      <c r="I418" s="5">
+        <v>4767.28</v>
+      </c>
+      <c r="J418" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K418" s="6">
+        <f t="shared" ref="K418" si="409">(B418-H418)</f>
+        <v>0.51832524603032026</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B419" s="2">
+        <f t="shared" ref="B419" si="410">E419/F419</f>
+        <v>1.7758315273067322</v>
+      </c>
+      <c r="C419" s="3">
+        <v>0</v>
+      </c>
+      <c r="D419" s="3">
+        <v>0</v>
+      </c>
+      <c r="E419" s="3">
+        <v>778550.96</v>
+      </c>
+      <c r="F419" s="3">
+        <f t="shared" ref="F419" si="411">F418+G419</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G419" s="3">
+        <f t="shared" ref="G419" si="412">(C419-D419)/((E419-C419+D419)/F418)</f>
+        <v>0</v>
+      </c>
+      <c r="H419" s="4">
+        <f t="shared" ref="H419" si="413">I419/J419</f>
+        <v>1.2745059100152518</v>
+      </c>
+      <c r="I419" s="5">
+        <v>4813.3500000000004</v>
+      </c>
+      <c r="J419" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K419" s="6">
+        <f t="shared" ref="K419" si="414">(B419-H419)</f>
+        <v>0.5013256172914804</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B420" s="2">
+        <f t="shared" ref="B420" si="415">E420/F420</f>
+        <v>1.7530428389385762</v>
+      </c>
+      <c r="C420" s="3">
+        <v>0</v>
+      </c>
+      <c r="D420" s="3">
+        <v>0</v>
+      </c>
+      <c r="E420" s="3">
+        <v>768560.06</v>
+      </c>
+      <c r="F420" s="3">
+        <f t="shared" ref="F420" si="416">F419+G420</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G420" s="3">
+        <f t="shared" ref="G420" si="417">(C420-D420)/((E420-C420+D420)/F419)</f>
+        <v>0</v>
+      </c>
+      <c r="H420" s="4">
+        <f t="shared" ref="H420" si="418">I420/J420</f>
+        <v>1.2657759278088461</v>
+      </c>
+      <c r="I420" s="5">
+        <v>4780.38</v>
+      </c>
+      <c r="J420" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K420" s="6">
+        <f t="shared" ref="K420" si="419">(B420-H420)</f>
+        <v>0.48726691112973008</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B421" s="2">
+        <f t="shared" ref="B421" si="420">E421/F421</f>
+        <v>1.7554173249686769</v>
+      </c>
+      <c r="C421" s="3">
+        <v>0</v>
+      </c>
+      <c r="D421" s="3">
+        <v>0</v>
+      </c>
+      <c r="E421" s="3">
+        <v>769601.07</v>
+      </c>
+      <c r="F421" s="3">
+        <f t="shared" ref="F421" si="421">F420+G421</f>
+        <v>438414.87665261165</v>
+      </c>
+      <c r="G421" s="3">
+        <f t="shared" ref="G421" si="422">(C421-D421)/((E421-C421+D421)/F420)</f>
+        <v>0</v>
+      </c>
+      <c r="H421" s="4">
+        <f t="shared" ref="H421" si="423">I421/J421</f>
+        <v>1.2771961320115235</v>
+      </c>
+      <c r="I421" s="5">
+        <v>4823.51</v>
+      </c>
+      <c r="J421" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K421" s="6">
+        <f t="shared" ref="K421" si="424">(B421-H421)</f>
+        <v>0.47822119295715337</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B422" s="2">
+        <f t="shared" ref="B422" si="425">E422/F422</f>
+        <v>1.7452315164165222</v>
+      </c>
+      <c r="C422" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D422" s="3">
+        <v>0</v>
+      </c>
+      <c r="E422" s="3">
+        <v>785135.46</v>
+      </c>
+      <c r="F422" s="3">
+        <f t="shared" ref="F422" si="426">F421+G422</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G422" s="3">
+        <f t="shared" ref="G422" si="427">(C422-D422)/((E422-C422+D422)/F421)</f>
+        <v>11459.797632503183</v>
+      </c>
+      <c r="H422" s="4">
+        <f t="shared" ref="H422" si="428">I422/J422</f>
+        <v>1.2654926071852231</v>
+      </c>
+      <c r="I422" s="5">
+        <v>4779.3100000000004</v>
+      </c>
+      <c r="J422" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K422" s="6">
+        <f t="shared" ref="K422" si="429">(B422-H422)</f>
+        <v>0.47973890923129914</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B423" s="2">
+        <f t="shared" ref="B423" si="430">E423/F423</f>
+        <v>1.7435686310780916</v>
+      </c>
+      <c r="C423" s="3">
+        <v>0</v>
+      </c>
+      <c r="D423" s="3">
+        <v>0</v>
+      </c>
+      <c r="E423" s="3">
+        <v>784387.37</v>
+      </c>
+      <c r="F423" s="3">
+        <f t="shared" ref="F423" si="431">F422+G423</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G423" s="3">
+        <f t="shared" ref="G423" si="432">(C423-D423)/((E423-C423+D423)/F422)</f>
+        <v>0</v>
+      </c>
+      <c r="H423" s="4">
+        <f t="shared" ref="H423" si="433">I423/J423</f>
+        <v>1.2674599644128113</v>
+      </c>
+      <c r="I423" s="5">
+        <v>4786.74</v>
+      </c>
+      <c r="J423" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K423" s="6">
+        <f t="shared" ref="K423" si="434">(B423-H423)</f>
+        <v>0.47610866666528029</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B424" s="2">
+        <f t="shared" ref="B424" si="435">E424/F424</f>
+        <v>1.7083669162334736</v>
+      </c>
+      <c r="C424" s="3">
+        <v>0</v>
+      </c>
+      <c r="D424" s="3">
+        <v>0</v>
+      </c>
+      <c r="E424" s="3">
+        <v>768551.01</v>
+      </c>
+      <c r="F424" s="3">
+        <f t="shared" ref="F424" si="436">F423+G424</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G424" s="3">
+        <f t="shared" ref="G424" si="437">(C424-D424)/((E424-C424+D424)/F423)</f>
+        <v>0</v>
+      </c>
+      <c r="H424" s="4">
+        <f t="shared" ref="H424" si="438">I424/J424</f>
+        <v>1.2387863285883749</v>
+      </c>
+      <c r="I424" s="5">
+        <v>4678.45</v>
+      </c>
+      <c r="J424" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K424" s="6">
+        <f t="shared" ref="K424" si="439">(B424-H424)</f>
+        <v>0.46958058764509869</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B425" s="2">
+        <f t="shared" ref="B425" si="440">E425/F425</f>
+        <v>1.7192449457819841</v>
+      </c>
+      <c r="C425" s="3">
+        <v>0</v>
+      </c>
+      <c r="D425" s="3">
+        <v>0</v>
+      </c>
+      <c r="E425" s="3">
+        <v>773444.76</v>
+      </c>
+      <c r="F425" s="3">
+        <f t="shared" ref="F425" si="441">F424+G425</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G425" s="3">
+        <f t="shared" ref="G425" si="442">(C425-D425)/((E425-C425+D425)/F424)</f>
+        <v>0</v>
+      </c>
+      <c r="H425" s="4">
+        <f t="shared" ref="H425" si="443">I425/J425</f>
+        <v>1.2477519700050841</v>
+      </c>
+      <c r="I425" s="5">
+        <v>4712.3100000000004</v>
+      </c>
+      <c r="J425" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K425" s="6">
+        <f t="shared" ref="K425" si="444">(B425-H425)</f>
+        <v>0.47149297577689997</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B426" s="2">
+        <f t="shared" ref="B426" si="445">E426/F426</f>
+        <v>1.6867089511224502</v>
+      </c>
+      <c r="C426" s="3">
+        <v>0</v>
+      </c>
+      <c r="D426" s="3">
+        <v>0</v>
+      </c>
+      <c r="E426" s="3">
+        <v>758807.64</v>
+      </c>
+      <c r="F426" s="3">
+        <f t="shared" ref="F426" si="446">F425+G426</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G426" s="3">
+        <f t="shared" ref="G426" si="447">(C426-D426)/((E426-C426+D426)/F425)</f>
+        <v>0</v>
+      </c>
+      <c r="H426" s="4">
+        <f t="shared" ref="H426" si="448">I426/J426</f>
+        <v>1.2232778342653787</v>
+      </c>
+      <c r="I426" s="5">
+        <v>4619.88</v>
+      </c>
+      <c r="J426" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K426" s="6">
+        <f t="shared" ref="K426" si="449">(B426-H426)</f>
+        <v>0.4634311168570715</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B427" s="2">
+        <f t="shared" ref="B427" si="450">E427/F427</f>
+        <v>1.6779409758940866</v>
+      </c>
+      <c r="C427" s="3">
+        <v>0</v>
+      </c>
+      <c r="D427" s="3">
+        <v>0</v>
+      </c>
+      <c r="E427" s="3">
+        <v>754863.15</v>
+      </c>
+      <c r="F427" s="3">
+        <f t="shared" ref="F427" si="451">F426+G427</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G427" s="3">
+        <f t="shared" ref="G427" si="452">(C427-D427)/((E427-C427+D427)/F426)</f>
+        <v>0</v>
+      </c>
+      <c r="H427" s="4">
+        <f t="shared" ref="H427" si="453">I427/J427</f>
+        <v>1.2084207125910864</v>
+      </c>
+      <c r="I427" s="5">
+        <v>4563.7700000000004</v>
+      </c>
+      <c r="J427" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K427" s="6">
+        <f t="shared" ref="K427" si="454">(B427-H427)</f>
+        <v>0.46952026330300023</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8830FDDD-B913-4227-9D8C-B9B84132CA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39FD2F1-83F3-44EC-8A33-31FC5079EE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,10 +384,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>个人账户!$A$2:$A$430</c:f>
+              <c:f>个人账户!$A$2:$A$500</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1674,16 +1674,88 @@
                 </c:pt>
                 <c:pt idx="428">
                   <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>个人账户!$B$2:$B$430</c:f>
+              <c:f>个人账户!$B$2:$B$500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -2970,6 +3042,78 @@
                 </c:pt>
                 <c:pt idx="428">
                   <c:v>1.7736263698300281</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.7754334757132988</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.7603864976080574</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.7599644786322122</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.7225635359404323</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.7279124555413869</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.6907993662272693</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.6825965329285331</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.7009669055287322</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.6938274778504676</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.7321316573351979</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.7282897394783092</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.7044533932265469</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.7036267434525296</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.7177506859534248</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.7207514507153736</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.7099027690721496</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.7136050561920819</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.7137103293446272</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.685481463993552</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.6980102379344211</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.6621875676767157</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.6830634440827164</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.6653590664014808</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.6774735919467458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,10 +3192,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>个人账户!$A$2:$A$430</c:f>
+              <c:f>个人账户!$A$2:$A$500</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -4338,16 +4482,88 @@
                 </c:pt>
                 <c:pt idx="428">
                   <c:v>44580</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44581</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44582</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44586</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44587</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44588</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>个人账户!$H$2:$H$430</c:f>
+              <c:f>个人账户!$H$2:$H$500</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -5634,6 +5850,78 @@
                 </c:pt>
                 <c:pt idx="428">
                   <c:v>1.2657759278088461</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.2771961320115235</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.2654926071852231</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.2674599644128113</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.2387863285883749</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.2477519700050841</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.2232778342653787</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.2084207125910864</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.2270404380613456</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.2203360659210305</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.2317986358244366</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.2285682511438738</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.2183845958312149</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.2052221021860701</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.2180403745127946</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.2227773894255212</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.2257350449076427</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.2315815116082021</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.2270986908998476</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.2111691874258599</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.224117204711066</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.19929884765294</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.2109758939162854</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.2131550796475172</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.2232275249957634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5950,10 +6238,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>family!$A$2:$A$430</c:f>
+              <c:f>family!$A$2:$A$500</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -7231,16 +7519,67 @@
                 </c:pt>
                 <c:pt idx="425">
                   <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>family!$B$2:$B$430</c:f>
+              <c:f>family!$B$2:$B$500</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -8518,6 +8857,57 @@
                 </c:pt>
                 <c:pt idx="425">
                   <c:v>1.6779409758940866</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.6962240899926304</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.6873427720870402</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.728842018582005</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.7304108110487548</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.7114419726415684</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.7149160957459275</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.7293532053927883</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.7308303056564471</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.7193267463413475</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.7227335664487107</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.7201262461331153</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.6909117352672283</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.7041103487137577</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.6690935444489554</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.6897893756167217</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.6753485230479843</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.6905547509625123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8557,10 +8947,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>family!$A$2:$A$430</c:f>
+              <c:f>family!$A$2:$A$500</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -9838,16 +10228,67 @@
                 </c:pt>
                 <c:pt idx="425">
                   <c:v>44589</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>44600</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>44601</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>44602</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>44603</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>44607</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>44608</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>44609</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>44610</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>44614</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>44615</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>44616</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>44617</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>44621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>family!$H$2:$H$430</c:f>
+              <c:f>family!$H$2:$H$500</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="429"/>
+                <c:ptCount val="499"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -11125,6 +11566,57 @@
                 </c:pt>
                 <c:pt idx="425">
                   <c:v>1.2084207125910864</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>1.2270404380613456</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>1.2203360659210305</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>1.2317986358244366</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>1.2285682511438738</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>1.2183845958312149</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>1.2052221021860701</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>1.2180403745127946</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>1.2227773894255212</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>1.2257350449076427</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>1.2315815116082021</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>1.2270986908998476</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>1.2111691874258599</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>1.224117204711066</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>1.19929884765294</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>1.2109758939162854</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>1.2131550796475172</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.2131550796475172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11939,10 +12431,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19047</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12228,11 +12720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q437"/>
+  <dimension ref="A1:Q454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I426" sqref="I426"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F455" sqref="F455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29678,6 +30170,686 @@
         <v>0.47417582033744665</v>
       </c>
     </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B438" s="2">
+        <f t="shared" ref="B438" si="549">E438/F438</f>
+        <v>1.7009669055287322</v>
+      </c>
+      <c r="C438" s="3">
+        <v>0</v>
+      </c>
+      <c r="D438" s="3">
+        <v>0</v>
+      </c>
+      <c r="E438" s="3">
+        <v>430422.01</v>
+      </c>
+      <c r="F438" s="3">
+        <f t="shared" ref="F438" si="550">F437+G438</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G438" s="3">
+        <f t="shared" ref="G438" si="551">(C438-D438)/((E438-C438+D438)/F437)</f>
+        <v>0</v>
+      </c>
+      <c r="H438" s="4">
+        <f t="shared" ref="H438" si="552">I438/J438</f>
+        <v>1.2270404380613456</v>
+      </c>
+      <c r="I438" s="5">
+        <v>4634.09</v>
+      </c>
+      <c r="J438" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K438" s="6">
+        <f t="shared" ref="K438" si="553">(B438-H438)</f>
+        <v>0.47392646746738665</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B439" s="2">
+        <f t="shared" ref="B439" si="554">E439/F439</f>
+        <v>1.6938274778504676</v>
+      </c>
+      <c r="C439" s="3">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3">
+        <v>0</v>
+      </c>
+      <c r="E439" s="3">
+        <v>428615.41</v>
+      </c>
+      <c r="F439" s="3">
+        <f t="shared" ref="F439" si="555">F438+G439</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G439" s="3">
+        <f t="shared" ref="G439" si="556">(C439-D439)/((E439-C439+D439)/F438)</f>
+        <v>0</v>
+      </c>
+      <c r="H439" s="4">
+        <f t="shared" ref="H439" si="557">I439/J439</f>
+        <v>1.2203360659210305</v>
+      </c>
+      <c r="I439" s="5">
+        <v>4608.7700000000004</v>
+      </c>
+      <c r="J439" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K439" s="6">
+        <f t="shared" ref="K439" si="558">(B439-H439)</f>
+        <v>0.47349141192943711</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B440" s="2">
+        <f t="shared" ref="B440" si="559">E440/F440</f>
+        <v>1.7321316573351979</v>
+      </c>
+      <c r="C440" s="3">
+        <v>0</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0</v>
+      </c>
+      <c r="E440" s="3">
+        <v>438308.11</v>
+      </c>
+      <c r="F440" s="3">
+        <f t="shared" ref="F440" si="560">F439+G440</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G440" s="3">
+        <f t="shared" ref="G440" si="561">(C440-D440)/((E440-C440+D440)/F439)</f>
+        <v>0</v>
+      </c>
+      <c r="H440" s="4">
+        <f t="shared" ref="H440" si="562">I440/J440</f>
+        <v>1.2317986358244366</v>
+      </c>
+      <c r="I440" s="5">
+        <v>4652.0600000000004</v>
+      </c>
+      <c r="J440" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K440" s="6">
+        <f t="shared" ref="K440" si="563">(B440-H440)</f>
+        <v>0.50033302151076131</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B441" s="2">
+        <f t="shared" ref="B441" si="564">E441/F441</f>
+        <v>1.7282897394783092</v>
+      </c>
+      <c r="C441" s="3">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3">
+        <v>0</v>
+      </c>
+      <c r="E441" s="3">
+        <v>437335.93</v>
+      </c>
+      <c r="F441" s="3">
+        <f t="shared" ref="F441" si="565">F440+G441</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G441" s="3">
+        <f t="shared" ref="G441" si="566">(C441-D441)/((E441-C441+D441)/F440)</f>
+        <v>0</v>
+      </c>
+      <c r="H441" s="4">
+        <f t="shared" ref="H441" si="567">I441/J441</f>
+        <v>1.2285682511438738</v>
+      </c>
+      <c r="I441" s="5">
+        <v>4639.8599999999997</v>
+      </c>
+      <c r="J441" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K441" s="6">
+        <f t="shared" ref="K441" si="568">(B441-H441)</f>
+        <v>0.49972148833443542</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B442" s="2">
+        <f t="shared" ref="B442" si="569">E442/F442</f>
+        <v>1.7044533932265469</v>
+      </c>
+      <c r="C442" s="3">
+        <v>0</v>
+      </c>
+      <c r="D442" s="3">
+        <v>0</v>
+      </c>
+      <c r="E442" s="3">
+        <v>431304.25</v>
+      </c>
+      <c r="F442" s="3">
+        <f t="shared" ref="F442" si="570">F441+G442</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G442" s="3">
+        <f t="shared" ref="G442" si="571">(C442-D442)/((E442-C442+D442)/F441)</f>
+        <v>0</v>
+      </c>
+      <c r="H442" s="4">
+        <f t="shared" ref="H442" si="572">I442/J442</f>
+        <v>1.2183845958312149</v>
+      </c>
+      <c r="I442" s="5">
+        <v>4601.3999999999996</v>
+      </c>
+      <c r="J442" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K442" s="6">
+        <f t="shared" ref="K442" si="573">(B442-H442)</f>
+        <v>0.48606879739533193</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B443" s="2">
+        <f t="shared" ref="B443" si="574">E443/F443</f>
+        <v>1.7036267434525296</v>
+      </c>
+      <c r="C443" s="3">
+        <v>0</v>
+      </c>
+      <c r="D443" s="3">
+        <v>0</v>
+      </c>
+      <c r="E443" s="3">
+        <v>431095.07</v>
+      </c>
+      <c r="F443" s="3">
+        <f t="shared" ref="F443" si="575">F442+G443</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G443" s="3">
+        <f t="shared" ref="G443" si="576">(C443-D443)/((E443-C443+D443)/F442)</f>
+        <v>0</v>
+      </c>
+      <c r="H443" s="4">
+        <f t="shared" ref="H443" si="577">I443/J443</f>
+        <v>1.2052221021860701</v>
+      </c>
+      <c r="I443" s="5">
+        <v>4551.6899999999996</v>
+      </c>
+      <c r="J443" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K443" s="6">
+        <f t="shared" ref="K443" si="578">(B443-H443)</f>
+        <v>0.49840464126645956</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B444" s="2">
+        <f t="shared" ref="B444" si="579">E444/F444</f>
+        <v>1.7177506859534248</v>
+      </c>
+      <c r="C444" s="3">
+        <v>0</v>
+      </c>
+      <c r="D444" s="3">
+        <v>0</v>
+      </c>
+      <c r="E444" s="3">
+        <v>434669.07</v>
+      </c>
+      <c r="F444" s="3">
+        <f t="shared" ref="F444" si="580">F443+G444</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G444" s="3">
+        <f t="shared" ref="G444" si="581">(C444-D444)/((E444-C444+D444)/F443)</f>
+        <v>0</v>
+      </c>
+      <c r="H444" s="4">
+        <f t="shared" ref="H444" si="582">I444/J444</f>
+        <v>1.2180403745127946</v>
+      </c>
+      <c r="I444" s="5">
+        <v>4600.1000000000004</v>
+      </c>
+      <c r="J444" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K444" s="6">
+        <f t="shared" ref="K444" si="583">(B444-H444)</f>
+        <v>0.49971031144063027</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B445" s="2">
+        <f t="shared" ref="B445" si="584">E445/F445</f>
+        <v>1.7207514507153736</v>
+      </c>
+      <c r="C445" s="3">
+        <v>0</v>
+      </c>
+      <c r="D445" s="3">
+        <v>0</v>
+      </c>
+      <c r="E445" s="3">
+        <v>435428.4</v>
+      </c>
+      <c r="F445" s="3">
+        <f t="shared" ref="F445:F450" si="585">F444+G445</f>
+        <v>253045.49347843233</v>
+      </c>
+      <c r="G445" s="3">
+        <f t="shared" ref="G445:G450" si="586">(C445-D445)/((E445-C445+D445)/F444)</f>
+        <v>0</v>
+      </c>
+      <c r="H445" s="4">
+        <f t="shared" ref="H445" si="587">I445/J445</f>
+        <v>1.2227773894255212</v>
+      </c>
+      <c r="I445" s="5">
+        <v>4617.99</v>
+      </c>
+      <c r="J445" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K445" s="6">
+        <f t="shared" ref="K445" si="588">(B445-H445)</f>
+        <v>0.49797406128985244</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B446" s="2">
+        <f t="shared" ref="B446" si="589">E446/F446</f>
+        <v>1.7099027690721496</v>
+      </c>
+      <c r="C446" s="3">
+        <v>39000</v>
+      </c>
+      <c r="D446" s="3">
+        <v>0</v>
+      </c>
+      <c r="E446" s="3">
+        <v>471683.19</v>
+      </c>
+      <c r="F446" s="3">
+        <f t="shared" si="585"/>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G446" s="3">
+        <f t="shared" si="586"/>
+        <v>22808.314428991016</v>
+      </c>
+      <c r="H446" s="4">
+        <f t="shared" ref="H446" si="590">I446/J446</f>
+        <v>1.2257350449076427</v>
+      </c>
+      <c r="I446" s="5">
+        <v>4629.16</v>
+      </c>
+      <c r="J446" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K446" s="6">
+        <f t="shared" ref="K446" si="591">(B446-H446)</f>
+        <v>0.48416772416450682</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B447" s="2">
+        <f t="shared" ref="B447" si="592">E447/F447</f>
+        <v>1.7136050561920819</v>
+      </c>
+      <c r="C447" s="3">
+        <v>0</v>
+      </c>
+      <c r="D447" s="3">
+        <v>0</v>
+      </c>
+      <c r="E447" s="3">
+        <v>472704.48</v>
+      </c>
+      <c r="F447" s="3">
+        <f t="shared" si="585"/>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G447" s="3">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="H447" s="4">
+        <f t="shared" ref="H447" si="593">I447/J447</f>
+        <v>1.2315815116082021</v>
+      </c>
+      <c r="I447" s="5">
+        <v>4651.24</v>
+      </c>
+      <c r="J447" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K447" s="6">
+        <f t="shared" ref="K447" si="594">(B447-H447)</f>
+        <v>0.48202354458387986</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B448" s="2">
+        <f t="shared" ref="B448" si="595">E448/F448</f>
+        <v>1.7137103293446272</v>
+      </c>
+      <c r="C448" s="3">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
+        <v>0</v>
+      </c>
+      <c r="E448" s="3">
+        <v>472733.52</v>
+      </c>
+      <c r="F448" s="3">
+        <f t="shared" si="585"/>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G448" s="3">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="H448" s="4">
+        <f t="shared" ref="H448" si="596">I448/J448</f>
+        <v>1.2270986908998476</v>
+      </c>
+      <c r="I448" s="5">
+        <v>4634.3100000000004</v>
+      </c>
+      <c r="J448" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K448" s="6">
+        <f t="shared" ref="K448" si="597">(B448-H448)</f>
+        <v>0.48661163844477962</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B449" s="2">
+        <f t="shared" ref="B449" si="598">E449/F449</f>
+        <v>1.685481463993552</v>
+      </c>
+      <c r="C449" s="3">
+        <v>0</v>
+      </c>
+      <c r="D449" s="3">
+        <v>0</v>
+      </c>
+      <c r="E449" s="3">
+        <v>464946.48</v>
+      </c>
+      <c r="F449" s="3">
+        <f t="shared" si="585"/>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G449" s="3">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="H449" s="4">
+        <f t="shared" ref="H449" si="599">I449/J449</f>
+        <v>1.2111691874258599</v>
+      </c>
+      <c r="I449" s="5">
+        <v>4574.1499999999996</v>
+      </c>
+      <c r="J449" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K449" s="6">
+        <f t="shared" ref="K449" si="600">(B449-H449)</f>
+        <v>0.47431227656769215</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B450" s="2">
+        <f t="shared" ref="B450" si="601">E450/F450</f>
+        <v>1.6980102379344211</v>
+      </c>
+      <c r="C450" s="3">
+        <v>0</v>
+      </c>
+      <c r="D450" s="3">
+        <v>0</v>
+      </c>
+      <c r="E450" s="3">
+        <v>468402.59</v>
+      </c>
+      <c r="F450" s="3">
+        <f t="shared" si="585"/>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G450" s="3">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="H450" s="4">
+        <f t="shared" ref="H450" si="602">I450/J450</f>
+        <v>1.224117204711066</v>
+      </c>
+      <c r="I450" s="5">
+        <v>4623.05</v>
+      </c>
+      <c r="J450" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K450" s="6">
+        <f t="shared" ref="K450" si="603">(B450-H450)</f>
+        <v>0.47389303322335508</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B451" s="2">
+        <f t="shared" ref="B451" si="604">E451/F451</f>
+        <v>1.6621875676767157</v>
+      </c>
+      <c r="C451" s="3">
+        <v>0</v>
+      </c>
+      <c r="D451" s="3">
+        <v>0</v>
+      </c>
+      <c r="E451" s="3">
+        <v>458520.77</v>
+      </c>
+      <c r="F451" s="3">
+        <f t="shared" ref="F451" si="605">F450+G451</f>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G451" s="3">
+        <f t="shared" ref="G451" si="606">(C451-D451)/((E451-C451+D451)/F450)</f>
+        <v>0</v>
+      </c>
+      <c r="H451" s="4">
+        <f t="shared" ref="H451" si="607">I451/J451</f>
+        <v>1.19929884765294</v>
+      </c>
+      <c r="I451" s="5">
+        <v>4529.32</v>
+      </c>
+      <c r="J451" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K451" s="6">
+        <f t="shared" ref="K451" si="608">(B451-H451)</f>
+        <v>0.46288872002377568</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B452" s="2">
+        <f t="shared" ref="B452" si="609">E452/F452</f>
+        <v>1.6830634440827164</v>
+      </c>
+      <c r="C452" s="3">
+        <v>0</v>
+      </c>
+      <c r="D452" s="3">
+        <v>0</v>
+      </c>
+      <c r="E452" s="3">
+        <v>464279.46</v>
+      </c>
+      <c r="F452" s="3">
+        <f t="shared" ref="F452" si="610">F451+G452</f>
+        <v>275853.80790742335</v>
+      </c>
+      <c r="G452" s="3">
+        <f t="shared" ref="G452" si="611">(C452-D452)/((E452-C452+D452)/F451)</f>
+        <v>0</v>
+      </c>
+      <c r="H452" s="4">
+        <f t="shared" ref="H452" si="612">I452/J452</f>
+        <v>1.2109758939162854</v>
+      </c>
+      <c r="I452" s="5">
+        <v>4573.42</v>
+      </c>
+      <c r="J452" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K452" s="6">
+        <f t="shared" ref="K452" si="613">(B452-H452)</f>
+        <v>0.472087550166431</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B453" s="2">
+        <f t="shared" ref="B453" si="614">E453/F453</f>
+        <v>1.6653590664014808</v>
+      </c>
+      <c r="C453" s="3">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3">
+        <v>35951.72</v>
+      </c>
+      <c r="E453" s="3">
+        <v>423443.92</v>
+      </c>
+      <c r="F453" s="3">
+        <f t="shared" ref="F453" si="615">F452+G453</f>
+        <v>254265.8388469824</v>
+      </c>
+      <c r="G453" s="3">
+        <f t="shared" ref="G453" si="616">(C453-D453)/((E453-C453+D453)/F452)</f>
+        <v>-21587.969060440952</v>
+      </c>
+      <c r="H453" s="4">
+        <f t="shared" ref="H453" si="617">I453/J453</f>
+        <v>1.2131550796475172</v>
+      </c>
+      <c r="I453" s="5">
+        <v>4581.6499999999996</v>
+      </c>
+      <c r="J453" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K453" s="6">
+        <f t="shared" ref="K453" si="618">(B453-H453)</f>
+        <v>0.45220398675396356</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B454" s="2">
+        <f t="shared" ref="B454" si="619">E454/F454</f>
+        <v>1.6774735919467458</v>
+      </c>
+      <c r="C454" s="3">
+        <v>0</v>
+      </c>
+      <c r="D454" s="3">
+        <v>0</v>
+      </c>
+      <c r="E454" s="3">
+        <v>426524.23</v>
+      </c>
+      <c r="F454" s="3">
+        <f t="shared" ref="F454" si="620">F453+G454</f>
+        <v>254265.8388469824</v>
+      </c>
+      <c r="G454" s="3">
+        <f t="shared" ref="G454" si="621">(C454-D454)/((E454-C454+D454)/F453)</f>
+        <v>0</v>
+      </c>
+      <c r="H454" s="4">
+        <f t="shared" ref="H454" si="622">I454/J454</f>
+        <v>1.2232275249957634</v>
+      </c>
+      <c r="I454" s="5">
+        <v>4619.6899999999996</v>
+      </c>
+      <c r="J454" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K454" s="6">
+        <f t="shared" ref="K454" si="623">(B454-H454)</f>
+        <v>0.45424606695098246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -29688,11 +30860,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L427"/>
+  <dimension ref="A1:L444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E428" sqref="E428"/>
+      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E445" sqref="E445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46735,6 +47907,686 @@
         <v>0.46952026330300023</v>
       </c>
     </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B428" s="2">
+        <f t="shared" ref="B428" si="455">E428/F428</f>
+        <v>1.6962240899926304</v>
+      </c>
+      <c r="C428" s="3">
+        <v>0</v>
+      </c>
+      <c r="D428" s="3">
+        <v>0</v>
+      </c>
+      <c r="E428" s="3">
+        <v>763088.26</v>
+      </c>
+      <c r="F428" s="3">
+        <f t="shared" ref="F428" si="456">F427+G428</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G428" s="3">
+        <f t="shared" ref="G428" si="457">(C428-D428)/((E428-C428+D428)/F427)</f>
+        <v>0</v>
+      </c>
+      <c r="H428" s="4">
+        <f t="shared" ref="H428" si="458">I428/J428</f>
+        <v>1.2270404380613456</v>
+      </c>
+      <c r="I428" s="5">
+        <v>4634.09</v>
+      </c>
+      <c r="J428" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K428" s="6">
+        <f t="shared" ref="K428" si="459">(B428-H428)</f>
+        <v>0.46918365193128486</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B429" s="2">
+        <f t="shared" ref="B429" si="460">E429/F429</f>
+        <v>1.6873427720870402</v>
+      </c>
+      <c r="C429" s="3">
+        <v>0</v>
+      </c>
+      <c r="D429" s="3">
+        <v>0</v>
+      </c>
+      <c r="E429" s="3">
+        <v>759092.78</v>
+      </c>
+      <c r="F429" s="3">
+        <f t="shared" ref="F429" si="461">F428+G429</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G429" s="3">
+        <f t="shared" ref="G429" si="462">(C429-D429)/((E429-C429+D429)/F428)</f>
+        <v>0</v>
+      </c>
+      <c r="H429" s="4">
+        <f t="shared" ref="H429" si="463">I429/J429</f>
+        <v>1.2203360659210305</v>
+      </c>
+      <c r="I429" s="5">
+        <v>4608.7700000000004</v>
+      </c>
+      <c r="J429" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K429" s="6">
+        <f t="shared" ref="K429" si="464">(B429-H429)</f>
+        <v>0.4670067061660097</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B430" s="2">
+        <f t="shared" ref="B430" si="465">E430/F430</f>
+        <v>1.728842018582005</v>
+      </c>
+      <c r="C430" s="3">
+        <v>0</v>
+      </c>
+      <c r="D430" s="3">
+        <v>0</v>
+      </c>
+      <c r="E430" s="3">
+        <v>777762.24</v>
+      </c>
+      <c r="F430" s="3">
+        <f t="shared" ref="F430" si="466">F429+G430</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G430" s="3">
+        <f t="shared" ref="G430" si="467">(C430-D430)/((E430-C430+D430)/F429)</f>
+        <v>0</v>
+      </c>
+      <c r="H430" s="4">
+        <f t="shared" ref="H430" si="468">I430/J430</f>
+        <v>1.2317986358244366</v>
+      </c>
+      <c r="I430" s="5">
+        <v>4652.0600000000004</v>
+      </c>
+      <c r="J430" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K430" s="6">
+        <f t="shared" ref="K430" si="469">(B430-H430)</f>
+        <v>0.49704338275756843</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B431" s="2">
+        <f t="shared" ref="B431" si="470">E431/F431</f>
+        <v>1.7304108110487548</v>
+      </c>
+      <c r="C431" s="3">
+        <v>0</v>
+      </c>
+      <c r="D431" s="3">
+        <v>0</v>
+      </c>
+      <c r="E431" s="3">
+        <v>778468</v>
+      </c>
+      <c r="F431" s="3">
+        <f t="shared" ref="F431" si="471">F430+G431</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G431" s="3">
+        <f t="shared" ref="G431" si="472">(C431-D431)/((E431-C431+D431)/F430)</f>
+        <v>0</v>
+      </c>
+      <c r="H431" s="4">
+        <f t="shared" ref="H431" si="473">I431/J431</f>
+        <v>1.2285682511438738</v>
+      </c>
+      <c r="I431" s="5">
+        <v>4639.8599999999997</v>
+      </c>
+      <c r="J431" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K431" s="6">
+        <f t="shared" ref="K431" si="474">(B431-H431)</f>
+        <v>0.50184255990488102</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B432" s="2">
+        <f t="shared" ref="B432" si="475">E432/F432</f>
+        <v>1.7114419726415684</v>
+      </c>
+      <c r="C432" s="3">
+        <v>0</v>
+      </c>
+      <c r="D432" s="3">
+        <v>0</v>
+      </c>
+      <c r="E432" s="3">
+        <v>769934.4</v>
+      </c>
+      <c r="F432" s="3">
+        <f t="shared" ref="F432" si="476">F431+G432</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G432" s="3">
+        <f t="shared" ref="G432" si="477">(C432-D432)/((E432-C432+D432)/F431)</f>
+        <v>0</v>
+      </c>
+      <c r="H432" s="4">
+        <f t="shared" ref="H432" si="478">I432/J432</f>
+        <v>1.2183845958312149</v>
+      </c>
+      <c r="I432" s="5">
+        <v>4601.3999999999996</v>
+      </c>
+      <c r="J432" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K432" s="6">
+        <f t="shared" ref="K432" si="479">(B432-H432)</f>
+        <v>0.49305737681035344</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B433" s="2">
+        <f t="shared" ref="B433" si="480">E433/F433</f>
+        <v>1.7149160957459275</v>
+      </c>
+      <c r="C433" s="3">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3">
+        <v>0</v>
+      </c>
+      <c r="E433" s="3">
+        <v>771497.32</v>
+      </c>
+      <c r="F433" s="3">
+        <f t="shared" ref="F433" si="481">F432+G433</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G433" s="3">
+        <f t="shared" ref="G433" si="482">(C433-D433)/((E433-C433+D433)/F432)</f>
+        <v>0</v>
+      </c>
+      <c r="H433" s="4">
+        <f t="shared" ref="H433" si="483">I433/J433</f>
+        <v>1.2052221021860701</v>
+      </c>
+      <c r="I433" s="5">
+        <v>4551.6899999999996</v>
+      </c>
+      <c r="J433" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K433" s="6">
+        <f t="shared" ref="K433" si="484">(B433-H433)</f>
+        <v>0.50969399355985745</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B434" s="2">
+        <f t="shared" ref="B434" si="485">E434/F434</f>
+        <v>1.7293532053927883</v>
+      </c>
+      <c r="C434" s="3">
+        <v>0</v>
+      </c>
+      <c r="D434" s="3">
+        <v>0</v>
+      </c>
+      <c r="E434" s="3">
+        <v>777992.21</v>
+      </c>
+      <c r="F434" s="3">
+        <f t="shared" ref="F434" si="486">F433+G434</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G434" s="3">
+        <f t="shared" ref="G434" si="487">(C434-D434)/((E434-C434+D434)/F433)</f>
+        <v>0</v>
+      </c>
+      <c r="H434" s="4">
+        <f t="shared" ref="H434" si="488">I434/J434</f>
+        <v>1.2180403745127946</v>
+      </c>
+      <c r="I434" s="5">
+        <v>4600.1000000000004</v>
+      </c>
+      <c r="J434" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K434" s="6">
+        <f t="shared" ref="K434" si="489">(B434-H434)</f>
+        <v>0.51131283087999368</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B435" s="2">
+        <f t="shared" ref="B435" si="490">E435/F435</f>
+        <v>1.7308303056564471</v>
+      </c>
+      <c r="C435" s="3">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3">
+        <v>0</v>
+      </c>
+      <c r="E435" s="3">
+        <v>778656.72</v>
+      </c>
+      <c r="F435" s="3">
+        <f t="shared" ref="F435" si="491">F434+G435</f>
+        <v>449874.67428511486</v>
+      </c>
+      <c r="G435" s="3">
+        <f t="shared" ref="G435" si="492">(C435-D435)/((E435-C435+D435)/F434)</f>
+        <v>0</v>
+      </c>
+      <c r="H435" s="4">
+        <f t="shared" ref="H435" si="493">I435/J435</f>
+        <v>1.2227773894255212</v>
+      </c>
+      <c r="I435" s="5">
+        <v>4617.99</v>
+      </c>
+      <c r="J435" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K435" s="6">
+        <f t="shared" ref="K435" si="494">(B435-H435)</f>
+        <v>0.50805291623092597</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B436" s="2">
+        <f t="shared" ref="B436" si="495">E436/F436</f>
+        <v>1.7193267463413475</v>
+      </c>
+      <c r="C436" s="3">
+        <v>39000</v>
+      </c>
+      <c r="D436" s="3">
+        <v>0</v>
+      </c>
+      <c r="E436" s="3">
+        <v>812481.56</v>
+      </c>
+      <c r="F436" s="3">
+        <f t="shared" ref="F436" si="496">F435+G436</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G436" s="3">
+        <f t="shared" ref="G436" si="497">(C436-D436)/((E436-C436+D436)/F435)</f>
+        <v>22683.297449417514</v>
+      </c>
+      <c r="H436" s="4">
+        <f t="shared" ref="H436" si="498">I436/J436</f>
+        <v>1.2257350449076427</v>
+      </c>
+      <c r="I436" s="5">
+        <v>4629.16</v>
+      </c>
+      <c r="J436" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K436" s="6">
+        <f t="shared" ref="K436" si="499">(B436-H436)</f>
+        <v>0.49359170143370479</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B437" s="2">
+        <f t="shared" ref="B437" si="500">E437/F437</f>
+        <v>1.7227335664487107</v>
+      </c>
+      <c r="C437" s="3">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0</v>
+      </c>
+      <c r="E437" s="3">
+        <v>814091.48</v>
+      </c>
+      <c r="F437" s="3">
+        <f t="shared" ref="F437" si="501">F436+G437</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G437" s="3">
+        <f t="shared" ref="G437" si="502">(C437-D437)/((E437-C437+D437)/F436)</f>
+        <v>0</v>
+      </c>
+      <c r="H437" s="4">
+        <f t="shared" ref="H437" si="503">I437/J437</f>
+        <v>1.2315815116082021</v>
+      </c>
+      <c r="I437" s="5">
+        <v>4651.24</v>
+      </c>
+      <c r="J437" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K437" s="6">
+        <f t="shared" ref="K437" si="504">(B437-H437)</f>
+        <v>0.49115205484050861</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B438" s="2">
+        <f t="shared" ref="B438" si="505">E438/F438</f>
+        <v>1.7201262461331153</v>
+      </c>
+      <c r="C438" s="3">
+        <v>0</v>
+      </c>
+      <c r="D438" s="3">
+        <v>0</v>
+      </c>
+      <c r="E438" s="3">
+        <v>812859.37</v>
+      </c>
+      <c r="F438" s="3">
+        <f t="shared" ref="F438" si="506">F437+G438</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G438" s="3">
+        <f t="shared" ref="G438" si="507">(C438-D438)/((E438-C438+D438)/F437)</f>
+        <v>0</v>
+      </c>
+      <c r="H438" s="4">
+        <f t="shared" ref="H438" si="508">I438/J438</f>
+        <v>1.2270986908998476</v>
+      </c>
+      <c r="I438" s="5">
+        <v>4634.3100000000004</v>
+      </c>
+      <c r="J438" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K438" s="6">
+        <f t="shared" ref="K438" si="509">(B438-H438)</f>
+        <v>0.49302755523326769</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B439" s="2">
+        <f t="shared" ref="B439" si="510">E439/F439</f>
+        <v>1.6909117352672283</v>
+      </c>
+      <c r="C439" s="3">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3">
+        <v>0</v>
+      </c>
+      <c r="E439" s="3">
+        <v>799053.82</v>
+      </c>
+      <c r="F439" s="3">
+        <f t="shared" ref="F439" si="511">F438+G439</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G439" s="3">
+        <f t="shared" ref="G439" si="512">(C439-D439)/((E439-C439+D439)/F438)</f>
+        <v>0</v>
+      </c>
+      <c r="H439" s="4">
+        <f t="shared" ref="H439" si="513">I439/J439</f>
+        <v>1.2111691874258599</v>
+      </c>
+      <c r="I439" s="5">
+        <v>4574.1499999999996</v>
+      </c>
+      <c r="J439" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K439" s="6">
+        <f t="shared" ref="K439" si="514">(B439-H439)</f>
+        <v>0.47974254784136838</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B440" s="2">
+        <f t="shared" ref="B440" si="515">E440/F440</f>
+        <v>1.7041103487137577</v>
+      </c>
+      <c r="C440" s="3">
+        <v>0</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0</v>
+      </c>
+      <c r="E440" s="3">
+        <v>805290.93</v>
+      </c>
+      <c r="F440" s="3">
+        <f t="shared" ref="F440" si="516">F439+G440</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G440" s="3">
+        <f t="shared" ref="G440" si="517">(C440-D440)/((E440-C440+D440)/F439)</f>
+        <v>0</v>
+      </c>
+      <c r="H440" s="4">
+        <f t="shared" ref="H440" si="518">I440/J440</f>
+        <v>1.224117204711066</v>
+      </c>
+      <c r="I440" s="5">
+        <v>4623.05</v>
+      </c>
+      <c r="J440" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K440" s="6">
+        <f t="shared" ref="K440" si="519">(B440-H440)</f>
+        <v>0.47999314400269166</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B441" s="2">
+        <f t="shared" ref="B441" si="520">E441/F441</f>
+        <v>1.6690935444489554</v>
+      </c>
+      <c r="C441" s="3">
+        <v>0</v>
+      </c>
+      <c r="D441" s="3">
+        <v>0</v>
+      </c>
+      <c r="E441" s="3">
+        <v>788743.46</v>
+      </c>
+      <c r="F441" s="3">
+        <f t="shared" ref="F441" si="521">F440+G441</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G441" s="3">
+        <f t="shared" ref="G441" si="522">(C441-D441)/((E441-C441+D441)/F440)</f>
+        <v>0</v>
+      </c>
+      <c r="H441" s="4">
+        <f t="shared" ref="H441" si="523">I441/J441</f>
+        <v>1.19929884765294</v>
+      </c>
+      <c r="I441" s="5">
+        <v>4529.32</v>
+      </c>
+      <c r="J441" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K441" s="6">
+        <f t="shared" ref="K441" si="524">(B441-H441)</f>
+        <v>0.46979469679601538</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B442" s="2">
+        <f t="shared" ref="B442" si="525">E442/F442</f>
+        <v>1.6897893756167217</v>
+      </c>
+      <c r="C442" s="3">
+        <v>0</v>
+      </c>
+      <c r="D442" s="3">
+        <v>0</v>
+      </c>
+      <c r="E442" s="3">
+        <v>798523.44</v>
+      </c>
+      <c r="F442" s="3">
+        <f t="shared" ref="F442" si="526">F441+G442</f>
+        <v>472557.97173453239</v>
+      </c>
+      <c r="G442" s="3">
+        <f t="shared" ref="G442" si="527">(C442-D442)/((E442-C442+D442)/F441)</f>
+        <v>0</v>
+      </c>
+      <c r="H442" s="4">
+        <f t="shared" ref="H442" si="528">I442/J442</f>
+        <v>1.2109758939162854</v>
+      </c>
+      <c r="I442" s="5">
+        <v>4573.42</v>
+      </c>
+      <c r="J442" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K442" s="6">
+        <f t="shared" ref="K442" si="529">(B442-H442)</f>
+        <v>0.47881348170043636</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B443" s="2">
+        <f t="shared" ref="B443" si="530">E443/F443</f>
+        <v>1.6753485230479843</v>
+      </c>
+      <c r="C443" s="3">
+        <v>0</v>
+      </c>
+      <c r="D443" s="3">
+        <v>35951.72</v>
+      </c>
+      <c r="E443" s="3">
+        <v>755747.58</v>
+      </c>
+      <c r="F443" s="3">
+        <f t="shared" ref="F443" si="531">F442+G443</f>
+        <v>451098.72340177797</v>
+      </c>
+      <c r="G443" s="3">
+        <f t="shared" ref="G443" si="532">(C443-D443)/((E443-C443+D443)/F442)</f>
+        <v>-21459.2483327544</v>
+      </c>
+      <c r="H443" s="4">
+        <f t="shared" ref="H443" si="533">I443/J443</f>
+        <v>1.2131550796475172</v>
+      </c>
+      <c r="I443" s="5">
+        <v>4581.6499999999996</v>
+      </c>
+      <c r="J443" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K443" s="6">
+        <f t="shared" ref="K443" si="534">(B443-H443)</f>
+        <v>0.46219344340046709</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B444" s="2">
+        <f t="shared" ref="B444" si="535">E444/F444</f>
+        <v>1.6905547509625123</v>
+      </c>
+      <c r="C444" s="3">
+        <v>0</v>
+      </c>
+      <c r="D444" s="3">
+        <v>0</v>
+      </c>
+      <c r="E444" s="3">
+        <v>762607.09</v>
+      </c>
+      <c r="F444" s="3">
+        <f t="shared" ref="F444" si="536">F443+G444</f>
+        <v>451098.72340177797</v>
+      </c>
+      <c r="G444" s="3">
+        <f t="shared" ref="G444" si="537">(C444-D444)/((E444-C444+D444)/F443)</f>
+        <v>0</v>
+      </c>
+      <c r="H444" s="4">
+        <f t="shared" ref="H444" si="538">I444/J444</f>
+        <v>1.2131550796475172</v>
+      </c>
+      <c r="I444" s="5">
+        <v>4581.6499999999996</v>
+      </c>
+      <c r="J444" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K444" s="6">
+        <f t="shared" ref="K444" si="539">(B444-H444)</f>
+        <v>0.47739967131499506</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39FD2F1-83F3-44EC-8A33-31FC5079EE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636DC7B-5F91-4E11-9A37-766388856B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
@@ -1747,6 +1747,75 @@
                 <c:pt idx="452">
                   <c:v>44621</c:v>
                 </c:pt>
+                <c:pt idx="453">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3115,13 +3184,82 @@
                 <c:pt idx="452">
                   <c:v>1.6774735919467458</c:v>
                 </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.6697372793971714</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.6476169309619921</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.6416356545995054</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.5799541393799807</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.5351688644606638</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.5102865036277675</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.5480320438303008</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.5643341506737818</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.5200908755229456</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.4219843381404589</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.4662939933900345</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.4955138787999342</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.5123416643616752</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.5264387073001566</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.5159429021359159</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.5253068013711804</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.512264562341459</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.4899390358850804</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.4819749945822229</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.4835635710113553</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.5228150568577075</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.5070175988644934</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.5110833972859239</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E5E-4283-A7DC-BF80A9EDFA93}"/>
+              <c16:uniqueId val="{00000000-8D83-49A1-BA79-DCEE4118BCEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4555,6 +4693,75 @@
                 <c:pt idx="452">
                   <c:v>44621</c:v>
                 </c:pt>
+                <c:pt idx="453">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -5923,13 +6130,82 @@
                 <c:pt idx="452">
                   <c:v>1.2232275249957634</c:v>
                 </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.2123474834773769</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.2052062150482969</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.190590048296899</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.1525535926114219</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.1294139764446705</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.1190767454668702</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.1366823419759364</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.1403046093882394</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.1054164548381631</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.054855638874767</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.1004702592780884</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.1220820623623116</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.129549017115743</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.1276557998644299</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.1187987205558381</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.13236104050161</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.1256857947805459</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.1053661455685477</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.0984552406371801</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.0946608625656669</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.1264245466870024</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.1180837993560415</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.1322657176749704</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E5E-4283-A7DC-BF80A9EDFA93}"/>
+              <c16:uniqueId val="{00000001-8D83-49A1-BA79-DCEE4118BCEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7571,6 +7847,75 @@
                 <c:pt idx="442">
                   <c:v>44621</c:v>
                 </c:pt>
+                <c:pt idx="443">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -8909,13 +9254,82 @@
                 <c:pt idx="442">
                   <c:v>1.6905547509625123</c:v>
                 </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.682399498314215</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.6566463583331819</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.6546603920904379</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.594738002814484</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.5544268194394673</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.5325190124989991</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.5696643245502373</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.5815215787589465</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.5320685825775713</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.4397463017578143</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.4829794260309197</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.5128907127989153</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.5269088611760946</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.5361851675558928</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.5253967186607902</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.5345103991096352</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.5225155476763361</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.4981246448046794</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.4851595521233327</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.4843733839335123</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.5241005533079237</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.5102856932135922</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.5186896022308676</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A5C8-4155-BCBD-203829CED5C7}"/>
+              <c16:uniqueId val="{00000000-3BF2-424F-87F4-C6980BF00F4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10280,6 +10694,75 @@
                 <c:pt idx="442">
                   <c:v>44621</c:v>
                 </c:pt>
+                <c:pt idx="443">
+                  <c:v>44622</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>44623</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>44624</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>44628</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>44629</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>44630</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>44631</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>44636</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>44637</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>44638</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>44642</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>44643</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>44644</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>44645</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>44650</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>44651</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>44652</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -11618,13 +12101,82 @@
                 <c:pt idx="442">
                   <c:v>1.2131550796475172</c:v>
                 </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.2123474834773769</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.2052062150482969</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>1.190590048296899</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>1.1525535926114219</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>1.1294139764446705</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>1.1190767454668702</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>1.1366823419759364</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>1.1403046093882394</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.1054164548381631</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.054855638874767</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.1004702592780884</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.1220820623623116</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>1.129549017115743</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.1276557998644299</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.1187987205558381</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.13236104050161</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>1.1256857947805459</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>1.1053661455685477</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>1.0984552406371801</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>1.0946608625656669</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>1.1264245466870024</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>1.1180837993560415</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>1.1322657176749704</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A5C8-4155-BCBD-203829CED5C7}"/>
+              <c16:uniqueId val="{00000001-3BF2-424F-87F4-C6980BF00F4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12385,26 +12937,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>131444</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>478156</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 3">
+        <xdr:cNvPr id="3" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8075BC39-28BE-4CB4-8C5C-BAC484F6EA25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12426,26 +12980,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBDF8FD-D6D3-4445-863F-14327B9C76CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12720,11 +13276,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q454"/>
+  <dimension ref="A1:Q477"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F455" sqref="F455"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C481" sqref="C481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30850,6 +31406,926 @@
         <v>0.45424606695098246</v>
       </c>
     </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B455" s="2">
+        <f t="shared" ref="B455" si="624">E455/F455</f>
+        <v>1.6697372793971714</v>
+      </c>
+      <c r="C455" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D455" s="3">
+        <v>0</v>
+      </c>
+      <c r="E455" s="3">
+        <v>425558.15</v>
+      </c>
+      <c r="F455" s="3">
+        <f t="shared" ref="F455" si="625">F454+G455</f>
+        <v>254865.33435585754</v>
+      </c>
+      <c r="G455" s="3">
+        <f t="shared" ref="G455" si="626">(C455-D455)/((E455-C455+D455)/F454)</f>
+        <v>599.49550887514056</v>
+      </c>
+      <c r="H455" s="4">
+        <f t="shared" ref="H455" si="627">I455/J455</f>
+        <v>1.2123474834773769</v>
+      </c>
+      <c r="I455" s="5">
+        <v>4578.6000000000004</v>
+      </c>
+      <c r="J455" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K455" s="6">
+        <f t="shared" ref="K455" si="628">(B455-H455)</f>
+        <v>0.45738979591979456</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B456" s="2">
+        <f t="shared" ref="B456" si="629">E456/F456</f>
+        <v>1.6476169309619921</v>
+      </c>
+      <c r="C456" s="3">
+        <v>0</v>
+      </c>
+      <c r="D456" s="3">
+        <v>0</v>
+      </c>
+      <c r="E456" s="3">
+        <v>419920.44</v>
+      </c>
+      <c r="F456" s="3">
+        <f t="shared" ref="F456" si="630">F455+G456</f>
+        <v>254865.33435585754</v>
+      </c>
+      <c r="G456" s="3">
+        <f t="shared" ref="G456" si="631">(C456-D456)/((E456-C456+D456)/F455)</f>
+        <v>0</v>
+      </c>
+      <c r="H456" s="4">
+        <f t="shared" ref="H456" si="632">I456/J456</f>
+        <v>1.2052062150482969</v>
+      </c>
+      <c r="I456" s="5">
+        <v>4551.63</v>
+      </c>
+      <c r="J456" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K456" s="6">
+        <f t="shared" ref="K456" si="633">(B456-H456)</f>
+        <v>0.44241071591369519</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B457" s="2">
+        <f t="shared" ref="B457" si="634">E457/F457</f>
+        <v>1.6416356545995054</v>
+      </c>
+      <c r="C457" s="3">
+        <v>0</v>
+      </c>
+      <c r="D457" s="3">
+        <v>0</v>
+      </c>
+      <c r="E457" s="3">
+        <v>418396.02</v>
+      </c>
+      <c r="F457" s="3">
+        <f t="shared" ref="F457" si="635">F456+G457</f>
+        <v>254865.33435585754</v>
+      </c>
+      <c r="G457" s="3">
+        <f t="shared" ref="G457" si="636">(C457-D457)/((E457-C457+D457)/F456)</f>
+        <v>0</v>
+      </c>
+      <c r="H457" s="4">
+        <f t="shared" ref="H457" si="637">I457/J457</f>
+        <v>1.190590048296899</v>
+      </c>
+      <c r="I457" s="5">
+        <v>4496.43</v>
+      </c>
+      <c r="J457" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K457" s="6">
+        <f t="shared" ref="K457" si="638">(B457-H457)</f>
+        <v>0.45104560630260648</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B458" s="2">
+        <f t="shared" ref="B458" si="639">E458/F458</f>
+        <v>1.5799541393799807</v>
+      </c>
+      <c r="C458" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D458" s="3">
+        <v>0</v>
+      </c>
+      <c r="E458" s="3">
+        <v>403675.54</v>
+      </c>
+      <c r="F458" s="3">
+        <f t="shared" ref="F458" si="640">F457+G458</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G458" s="3">
+        <f t="shared" ref="G458" si="641">(C458-D458)/((E458-C458+D458)/F457)</f>
+        <v>632.92976364011963</v>
+      </c>
+      <c r="H458" s="4">
+        <f t="shared" ref="H458" si="642">I458/J458</f>
+        <v>1.1525535926114219</v>
+      </c>
+      <c r="I458" s="5">
+        <v>4352.78</v>
+      </c>
+      <c r="J458" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K458" s="6">
+        <f t="shared" ref="K458" si="643">(B458-H458)</f>
+        <v>0.42740054676855888</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B459" s="2">
+        <f t="shared" ref="B459" si="644">E459/F459</f>
+        <v>1.5351688644606638</v>
+      </c>
+      <c r="C459" s="3">
+        <v>0</v>
+      </c>
+      <c r="D459" s="3">
+        <v>0</v>
+      </c>
+      <c r="E459" s="3">
+        <v>392232.98</v>
+      </c>
+      <c r="F459" s="3">
+        <f t="shared" ref="F459" si="645">F458+G459</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G459" s="3">
+        <f t="shared" ref="G459" si="646">(C459-D459)/((E459-C459+D459)/F458)</f>
+        <v>0</v>
+      </c>
+      <c r="H459" s="4">
+        <f t="shared" ref="H459" si="647">I459/J459</f>
+        <v>1.1294139764446705</v>
+      </c>
+      <c r="I459" s="5">
+        <v>4265.3900000000003</v>
+      </c>
+      <c r="J459" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K459" s="6">
+        <f t="shared" ref="K459" si="648">(B459-H459)</f>
+        <v>0.40575488801599335</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B460" s="2">
+        <f t="shared" ref="B460" si="649">E460/F460</f>
+        <v>1.5102865036277675</v>
+      </c>
+      <c r="C460" s="3">
+        <v>0</v>
+      </c>
+      <c r="D460" s="3">
+        <v>0</v>
+      </c>
+      <c r="E460" s="3">
+        <v>385875.58</v>
+      </c>
+      <c r="F460" s="3">
+        <f t="shared" ref="F460" si="650">F459+G460</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G460" s="3">
+        <f t="shared" ref="G460" si="651">(C460-D460)/((E460-C460+D460)/F459)</f>
+        <v>0</v>
+      </c>
+      <c r="H460" s="4">
+        <f t="shared" ref="H460" si="652">I460/J460</f>
+        <v>1.1190767454668702</v>
+      </c>
+      <c r="I460" s="5">
+        <v>4226.3500000000004</v>
+      </c>
+      <c r="J460" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K460" s="6">
+        <f t="shared" ref="K460" si="653">(B460-H460)</f>
+        <v>0.39120975816089731</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B461" s="2">
+        <f t="shared" ref="B461" si="654">E461/F461</f>
+        <v>1.5480320438303008</v>
+      </c>
+      <c r="C461" s="3">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3">
+        <v>0</v>
+      </c>
+      <c r="E461" s="3">
+        <v>395519.5</v>
+      </c>
+      <c r="F461" s="3">
+        <f t="shared" ref="F461" si="655">F460+G461</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G461" s="3">
+        <f t="shared" ref="G461" si="656">(C461-D461)/((E461-C461+D461)/F460)</f>
+        <v>0</v>
+      </c>
+      <c r="H461" s="4">
+        <f t="shared" ref="H461" si="657">I461/J461</f>
+        <v>1.1366823419759364</v>
+      </c>
+      <c r="I461" s="5">
+        <v>4292.84</v>
+      </c>
+      <c r="J461" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K461" s="6">
+        <f t="shared" ref="K461" si="658">(B461-H461)</f>
+        <v>0.41134970185436437</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B462" s="2">
+        <f t="shared" ref="B462" si="659">E462/F462</f>
+        <v>1.5643341506737818</v>
+      </c>
+      <c r="C462" s="3">
+        <v>0</v>
+      </c>
+      <c r="D462" s="3">
+        <v>0</v>
+      </c>
+      <c r="E462" s="3">
+        <v>399684.66</v>
+      </c>
+      <c r="F462" s="3">
+        <f t="shared" ref="F462" si="660">F461+G462</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G462" s="3">
+        <f t="shared" ref="G462" si="661">(C462-D462)/((E462-C462+D462)/F461)</f>
+        <v>0</v>
+      </c>
+      <c r="H462" s="4">
+        <f t="shared" ref="H462" si="662">I462/J462</f>
+        <v>1.1403046093882394</v>
+      </c>
+      <c r="I462" s="5">
+        <v>4306.5200000000004</v>
+      </c>
+      <c r="J462" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K462" s="6">
+        <f t="shared" ref="K462" si="663">(B462-H462)</f>
+        <v>0.42402954128554238</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B463" s="2">
+        <f t="shared" ref="B463" si="664">E463/F463</f>
+        <v>1.5200908755229456</v>
+      </c>
+      <c r="C463" s="3">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <v>0</v>
+      </c>
+      <c r="E463" s="3">
+        <v>388380.58</v>
+      </c>
+      <c r="F463" s="3">
+        <f t="shared" ref="F463" si="665">F462+G463</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G463" s="3">
+        <f t="shared" ref="G463" si="666">(C463-D463)/((E463-C463+D463)/F462)</f>
+        <v>0</v>
+      </c>
+      <c r="H463" s="4">
+        <f t="shared" ref="H463" si="667">I463/J463</f>
+        <v>1.1054164548381631</v>
+      </c>
+      <c r="I463" s="5">
+        <v>4174.76</v>
+      </c>
+      <c r="J463" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K463" s="6">
+        <f t="shared" ref="K463" si="668">(B463-H463)</f>
+        <v>0.41467442068478255</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B464" s="2">
+        <f t="shared" ref="B464" si="669">E464/F464</f>
+        <v>1.4219843381404589</v>
+      </c>
+      <c r="C464" s="3">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3">
+        <v>0</v>
+      </c>
+      <c r="E464" s="3">
+        <v>363314.53</v>
+      </c>
+      <c r="F464" s="3">
+        <f t="shared" ref="F464" si="670">F463+G464</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G464" s="3">
+        <f t="shared" ref="G464" si="671">(C464-D464)/((E464-C464+D464)/F463)</f>
+        <v>0</v>
+      </c>
+      <c r="H464" s="4">
+        <f t="shared" ref="H464" si="672">I464/J464</f>
+        <v>1.054855638874767</v>
+      </c>
+      <c r="I464" s="5">
+        <v>3983.81</v>
+      </c>
+      <c r="J464" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K464" s="6">
+        <f t="shared" ref="K464" si="673">(B464-H464)</f>
+        <v>0.36712869926569192</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B465" s="2">
+        <f t="shared" ref="B465" si="674">E465/F465</f>
+        <v>1.4662939933900345</v>
+      </c>
+      <c r="C465" s="3">
+        <v>0</v>
+      </c>
+      <c r="D465" s="3">
+        <v>0</v>
+      </c>
+      <c r="E465" s="3">
+        <v>374635.57</v>
+      </c>
+      <c r="F465" s="3">
+        <f t="shared" ref="F465" si="675">F464+G465</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G465" s="3">
+        <f t="shared" ref="G465" si="676">(C465-D465)/((E465-C465+D465)/F464)</f>
+        <v>0</v>
+      </c>
+      <c r="H465" s="4">
+        <f t="shared" ref="H465" si="677">I465/J465</f>
+        <v>1.1004702592780884</v>
+      </c>
+      <c r="I465" s="5">
+        <v>4156.08</v>
+      </c>
+      <c r="J465" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K465" s="6">
+        <f t="shared" ref="K465" si="678">(B465-H465)</f>
+        <v>0.36582373411194613</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B466" s="2">
+        <f t="shared" ref="B466" si="679">E466/F466</f>
+        <v>1.4955138787999342</v>
+      </c>
+      <c r="C466" s="3">
+        <v>0</v>
+      </c>
+      <c r="D466" s="3">
+        <v>0</v>
+      </c>
+      <c r="E466" s="3">
+        <v>382101.2</v>
+      </c>
+      <c r="F466" s="3">
+        <f t="shared" ref="F466" si="680">F465+G466</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G466" s="3">
+        <f t="shared" ref="G466" si="681">(C466-D466)/((E466-C466+D466)/F465)</f>
+        <v>0</v>
+      </c>
+      <c r="H466" s="4">
+        <f t="shared" ref="H466" si="682">I466/J466</f>
+        <v>1.1220820623623116</v>
+      </c>
+      <c r="I466" s="5">
+        <v>4237.7</v>
+      </c>
+      <c r="J466" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K466" s="6">
+        <f t="shared" ref="K466" si="683">(B466-H466)</f>
+        <v>0.37343181643762269</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B467" s="2">
+        <f t="shared" ref="B467" si="684">E467/F467</f>
+        <v>1.5123416643616752</v>
+      </c>
+      <c r="C467" s="3">
+        <v>0</v>
+      </c>
+      <c r="D467" s="3">
+        <v>0</v>
+      </c>
+      <c r="E467" s="3">
+        <v>386400.67</v>
+      </c>
+      <c r="F467" s="3">
+        <f t="shared" ref="F467" si="685">F466+G467</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G467" s="3">
+        <f t="shared" ref="G467" si="686">(C467-D467)/((E467-C467+D467)/F466)</f>
+        <v>0</v>
+      </c>
+      <c r="H467" s="4">
+        <f t="shared" ref="H467" si="687">I467/J467</f>
+        <v>1.129549017115743</v>
+      </c>
+      <c r="I467" s="5">
+        <v>4265.8999999999996</v>
+      </c>
+      <c r="J467" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K467" s="6">
+        <f t="shared" ref="K467" si="688">(B467-H467)</f>
+        <v>0.3827926472459322</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B468" s="2">
+        <f t="shared" ref="B468" si="689">E468/F468</f>
+        <v>1.5264387073001566</v>
+      </c>
+      <c r="C468" s="3">
+        <v>0</v>
+      </c>
+      <c r="D468" s="3">
+        <v>0</v>
+      </c>
+      <c r="E468" s="3">
+        <v>390002.44</v>
+      </c>
+      <c r="F468" s="3">
+        <f t="shared" ref="F468" si="690">F467+G468</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G468" s="3">
+        <f t="shared" ref="G468" si="691">(C468-D468)/((E468-C468+D468)/F467)</f>
+        <v>0</v>
+      </c>
+      <c r="H468" s="4">
+        <f t="shared" ref="H468" si="692">I468/J468</f>
+        <v>1.1276557998644299</v>
+      </c>
+      <c r="I468" s="5">
+        <v>4258.75</v>
+      </c>
+      <c r="J468" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K468" s="6">
+        <f t="shared" ref="K468" si="693">(B468-H468)</f>
+        <v>0.39878290743572675</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B469" s="2">
+        <f t="shared" ref="B469" si="694">E469/F469</f>
+        <v>1.5159429021359159</v>
+      </c>
+      <c r="C469" s="3">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <v>0</v>
+      </c>
+      <c r="E469" s="3">
+        <v>387320.78</v>
+      </c>
+      <c r="F469" s="3">
+        <f t="shared" ref="F469" si="695">F468+G469</f>
+        <v>255498.26411949767</v>
+      </c>
+      <c r="G469" s="3">
+        <f t="shared" ref="G469" si="696">(C469-D469)/((E469-C469+D469)/F468)</f>
+        <v>0</v>
+      </c>
+      <c r="H469" s="4">
+        <f t="shared" ref="H469" si="697">I469/J469</f>
+        <v>1.1187987205558381</v>
+      </c>
+      <c r="I469" s="5">
+        <v>4225.3</v>
+      </c>
+      <c r="J469" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K469" s="6">
+        <f t="shared" ref="K469" si="698">(B469-H469)</f>
+        <v>0.3971441815800778</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B470" s="2">
+        <f t="shared" ref="B470" si="699">E470/F470</f>
+        <v>1.5253068013711804</v>
+      </c>
+      <c r="C470" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D470" s="3">
+        <v>0</v>
+      </c>
+      <c r="E470" s="3">
+        <v>390713.24</v>
+      </c>
+      <c r="F470" s="3">
+        <f t="shared" ref="F470" si="700">F469+G470</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G470" s="3">
+        <f t="shared" ref="G470" si="701">(C470-D470)/((E470-C470+D470)/F469)</f>
+        <v>655.60580933687982</v>
+      </c>
+      <c r="H470" s="4">
+        <f t="shared" ref="H470" si="702">I470/J470</f>
+        <v>1.13236104050161</v>
+      </c>
+      <c r="I470" s="5">
+        <v>4276.5200000000004</v>
+      </c>
+      <c r="J470" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K470" s="6">
+        <f t="shared" ref="K470" si="703">(B470-H470)</f>
+        <v>0.39294576086957034</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B471" s="2">
+        <f t="shared" ref="B471" si="704">E471/F471</f>
+        <v>1.512264562341459</v>
+      </c>
+      <c r="C471" s="3">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <v>0</v>
+      </c>
+      <c r="E471" s="3">
+        <v>387372.42</v>
+      </c>
+      <c r="F471" s="3">
+        <f t="shared" ref="F471" si="705">F470+G471</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G471" s="3">
+        <f t="shared" ref="G471" si="706">(C471-D471)/((E471-C471+D471)/F470)</f>
+        <v>0</v>
+      </c>
+      <c r="H471" s="4">
+        <f t="shared" ref="H471" si="707">I471/J471</f>
+        <v>1.1256857947805459</v>
+      </c>
+      <c r="I471" s="5">
+        <v>4251.3100000000004</v>
+      </c>
+      <c r="J471" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K471" s="6">
+        <f t="shared" ref="K471" si="708">(B471-H471)</f>
+        <v>0.38657876756091314</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B472" s="2">
+        <f t="shared" ref="B472" si="709">E472/F472</f>
+        <v>1.4899390358850804</v>
+      </c>
+      <c r="C472" s="3">
+        <v>0</v>
+      </c>
+      <c r="D472" s="3">
+        <v>0</v>
+      </c>
+      <c r="E472" s="3">
+        <v>381653.65</v>
+      </c>
+      <c r="F472" s="3">
+        <f t="shared" ref="F472" si="710">F471+G472</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G472" s="3">
+        <f t="shared" ref="G472" si="711">(C472-D472)/((E472-C472+D472)/F471)</f>
+        <v>0</v>
+      </c>
+      <c r="H472" s="4">
+        <f t="shared" ref="H472" si="712">I472/J472</f>
+        <v>1.1053661455685477</v>
+      </c>
+      <c r="I472" s="5">
+        <v>4174.57</v>
+      </c>
+      <c r="J472" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K472" s="6">
+        <f t="shared" ref="K472" si="713">(B472-H472)</f>
+        <v>0.38457289031653263</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B473" s="2">
+        <f t="shared" ref="B473" si="714">E473/F473</f>
+        <v>1.4819749945822229</v>
+      </c>
+      <c r="C473" s="3">
+        <v>0</v>
+      </c>
+      <c r="D473" s="3">
+        <v>0</v>
+      </c>
+      <c r="E473" s="3">
+        <v>379613.63</v>
+      </c>
+      <c r="F473" s="3">
+        <f t="shared" ref="F473" si="715">F472+G473</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G473" s="3">
+        <f t="shared" ref="G473" si="716">(C473-D473)/((E473-C473+D473)/F472)</f>
+        <v>0</v>
+      </c>
+      <c r="H473" s="4">
+        <f t="shared" ref="H473" si="717">I473/J473</f>
+        <v>1.0984552406371801</v>
+      </c>
+      <c r="I473" s="5">
+        <v>4148.47</v>
+      </c>
+      <c r="J473" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K473" s="6">
+        <f t="shared" ref="K473" si="718">(B473-H473)</f>
+        <v>0.38351975394504279</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B474" s="2">
+        <f t="shared" ref="B474" si="719">E474/F474</f>
+        <v>1.4835635710113553</v>
+      </c>
+      <c r="C474" s="3">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3">
+        <v>0</v>
+      </c>
+      <c r="E474" s="3">
+        <v>380020.55</v>
+      </c>
+      <c r="F474" s="3">
+        <f t="shared" ref="F474" si="720">F473+G474</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G474" s="3">
+        <f t="shared" ref="G474" si="721">(C474-D474)/((E474-C474+D474)/F473)</f>
+        <v>0</v>
+      </c>
+      <c r="H474" s="4">
+        <f t="shared" ref="H474" si="722">I474/J474</f>
+        <v>1.0946608625656669</v>
+      </c>
+      <c r="I474" s="5">
+        <v>4134.1400000000003</v>
+      </c>
+      <c r="J474" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K474" s="6">
+        <f t="shared" ref="K474" si="723">(B474-H474)</f>
+        <v>0.38890270844568842</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B475" s="2">
+        <f t="shared" ref="B475" si="724">E475/F475</f>
+        <v>1.5228150568577075</v>
+      </c>
+      <c r="C475" s="3">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3">
+        <v>0</v>
+      </c>
+      <c r="E475" s="3">
+        <v>390074.97</v>
+      </c>
+      <c r="F475" s="3">
+        <f t="shared" ref="F475" si="725">F474+G475</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G475" s="3">
+        <f t="shared" ref="G475" si="726">(C475-D475)/((E475-C475+D475)/F474)</f>
+        <v>0</v>
+      </c>
+      <c r="H475" s="4">
+        <f t="shared" ref="H475" si="727">I475/J475</f>
+        <v>1.1264245466870024</v>
+      </c>
+      <c r="I475" s="5">
+        <v>4254.1000000000004</v>
+      </c>
+      <c r="J475" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K475" s="6">
+        <f t="shared" ref="K475" si="728">(B475-H475)</f>
+        <v>0.39639051017070503</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B476" s="2">
+        <f t="shared" ref="B476" si="729">E476/F476</f>
+        <v>1.5070175988644934</v>
+      </c>
+      <c r="C476" s="3">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <v>0</v>
+      </c>
+      <c r="E476" s="3">
+        <v>386028.39</v>
+      </c>
+      <c r="F476" s="3">
+        <f t="shared" ref="F476" si="730">F475+G476</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G476" s="3">
+        <f t="shared" ref="G476" si="731">(C476-D476)/((E476-C476+D476)/F475)</f>
+        <v>0</v>
+      </c>
+      <c r="H476" s="4">
+        <f t="shared" ref="H476" si="732">I476/J476</f>
+        <v>1.1180837993560415</v>
+      </c>
+      <c r="I476" s="5">
+        <v>4222.6000000000004</v>
+      </c>
+      <c r="J476" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K476" s="6">
+        <f t="shared" ref="K476" si="733">(B476-H476)</f>
+        <v>0.38893379950845186</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B477" s="2">
+        <f t="shared" ref="B477" si="734">E477/F477</f>
+        <v>1.5110833972859239</v>
+      </c>
+      <c r="C477" s="3">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <v>0</v>
+      </c>
+      <c r="E477" s="3">
+        <v>387069.86</v>
+      </c>
+      <c r="F477" s="3">
+        <f t="shared" ref="F477" si="735">F476+G477</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G477" s="3">
+        <f t="shared" ref="G477" si="736">(C477-D477)/((E477-C477+D477)/F476)</f>
+        <v>0</v>
+      </c>
+      <c r="H477" s="4">
+        <f t="shared" ref="H477" si="737">I477/J477</f>
+        <v>1.1322657176749704</v>
+      </c>
+      <c r="I477" s="5">
+        <v>4276.16</v>
+      </c>
+      <c r="J477" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K477" s="6">
+        <f t="shared" ref="K477" si="738">(B477-H477)</f>
+        <v>0.37881767961095347</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -30860,11 +32336,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L444"/>
+  <dimension ref="A1:L467"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E445" sqref="E445"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N476" sqref="N476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48559,18 +50035,18 @@
         <v>0</v>
       </c>
       <c r="D444" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E444" s="3">
-        <v>762607.09</v>
+        <v>756607.09</v>
       </c>
       <c r="F444" s="3">
         <f t="shared" ref="F444" si="536">F443+G444</f>
-        <v>451098.72340177797</v>
+        <v>447549.5925637593</v>
       </c>
       <c r="G444" s="3">
         <f t="shared" ref="G444" si="537">(C444-D444)/((E444-C444+D444)/F443)</f>
-        <v>0</v>
+        <v>-3549.1308380186551</v>
       </c>
       <c r="H444" s="4">
         <f t="shared" ref="H444" si="538">I444/J444</f>
@@ -48585,6 +50061,926 @@
       <c r="K444" s="6">
         <f t="shared" ref="K444" si="539">(B444-H444)</f>
         <v>0.47739967131499506</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B445" s="2">
+        <f t="shared" ref="B445" si="540">E445/F445</f>
+        <v>1.682399498314215</v>
+      </c>
+      <c r="C445" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D445" s="3">
+        <v>0</v>
+      </c>
+      <c r="E445" s="3">
+        <v>753958.21</v>
+      </c>
+      <c r="F445" s="3">
+        <f t="shared" ref="F445" si="541">F444+G445</f>
+        <v>448144.57609829021</v>
+      </c>
+      <c r="G445" s="3">
+        <f t="shared" ref="G445" si="542">(C445-D445)/((E445-C445+D445)/F444)</f>
+        <v>594.98353453089726</v>
+      </c>
+      <c r="H445" s="4">
+        <f t="shared" ref="H445" si="543">I445/J445</f>
+        <v>1.2123474834773769</v>
+      </c>
+      <c r="I445" s="5">
+        <v>4578.6000000000004</v>
+      </c>
+      <c r="J445" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K445" s="6">
+        <f t="shared" ref="K445" si="544">(B445-H445)</f>
+        <v>0.47005201483683812</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B446" s="2">
+        <f t="shared" ref="B446" si="545">E446/F446</f>
+        <v>1.6566463583331819</v>
+      </c>
+      <c r="C446" s="3">
+        <v>0</v>
+      </c>
+      <c r="D446" s="3">
+        <v>0</v>
+      </c>
+      <c r="E446" s="3">
+        <v>742417.08</v>
+      </c>
+      <c r="F446" s="3">
+        <f t="shared" ref="F446" si="546">F445+G446</f>
+        <v>448144.57609829021</v>
+      </c>
+      <c r="G446" s="3">
+        <f t="shared" ref="G446" si="547">(C446-D446)/((E446-C446+D446)/F445)</f>
+        <v>0</v>
+      </c>
+      <c r="H446" s="4">
+        <f t="shared" ref="H446" si="548">I446/J446</f>
+        <v>1.2052062150482969</v>
+      </c>
+      <c r="I446" s="5">
+        <v>4551.63</v>
+      </c>
+      <c r="J446" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K446" s="6">
+        <f t="shared" ref="K446" si="549">(B446-H446)</f>
+        <v>0.45144014328488491</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B447" s="2">
+        <f t="shared" ref="B447" si="550">E447/F447</f>
+        <v>1.6546603920904379</v>
+      </c>
+      <c r="C447" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D447" s="3">
+        <v>0</v>
+      </c>
+      <c r="E447" s="3">
+        <v>761527.08</v>
+      </c>
+      <c r="F447" s="3">
+        <f t="shared" ref="F447" si="551">F446+G447</f>
+        <v>460231.64852451341</v>
+      </c>
+      <c r="G447" s="3">
+        <f t="shared" ref="G447" si="552">(C447-D447)/((E447-C447+D447)/F446)</f>
+        <v>12087.0724262232</v>
+      </c>
+      <c r="H447" s="4">
+        <f t="shared" ref="H447" si="553">I447/J447</f>
+        <v>1.190590048296899</v>
+      </c>
+      <c r="I447" s="5">
+        <v>4496.43</v>
+      </c>
+      <c r="J447" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K447" s="6">
+        <f t="shared" ref="K447" si="554">(B447-H447)</f>
+        <v>0.46407034379353895</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B448" s="2">
+        <f t="shared" ref="B448" si="555">E448/F448</f>
+        <v>1.594738002814484</v>
+      </c>
+      <c r="C448" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D448" s="3">
+        <v>0</v>
+      </c>
+      <c r="E448" s="3">
+        <v>734948.9</v>
+      </c>
+      <c r="F448" s="3">
+        <f t="shared" ref="F448" si="556">F447+G448</f>
+        <v>460858.71077438461</v>
+      </c>
+      <c r="G448" s="3">
+        <f t="shared" ref="G448" si="557">(C448-D448)/((E448-C448+D448)/F447)</f>
+        <v>627.06224987122857</v>
+      </c>
+      <c r="H448" s="4">
+        <f t="shared" ref="H448" si="558">I448/J448</f>
+        <v>1.1525535926114219</v>
+      </c>
+      <c r="I448" s="5">
+        <v>4352.78</v>
+      </c>
+      <c r="J448" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K448" s="6">
+        <f t="shared" ref="K448" si="559">(B448-H448)</f>
+        <v>0.44218441020306209</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B449" s="2">
+        <f t="shared" ref="B449" si="560">E449/F449</f>
+        <v>1.5544268194394673</v>
+      </c>
+      <c r="C449" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D449" s="3">
+        <v>0</v>
+      </c>
+      <c r="E449" s="3">
+        <v>736371.14</v>
+      </c>
+      <c r="F449" s="3">
+        <f t="shared" ref="F449" si="561">F448+G449</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G449" s="3">
+        <f t="shared" ref="G449" si="562">(C449-D449)/((E449-C449+D449)/F448)</f>
+        <v>12866.478981115421</v>
+      </c>
+      <c r="H449" s="4">
+        <f t="shared" ref="H449" si="563">I449/J449</f>
+        <v>1.1294139764446705</v>
+      </c>
+      <c r="I449" s="5">
+        <v>4265.3900000000003</v>
+      </c>
+      <c r="J449" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K449" s="6">
+        <f t="shared" ref="K449" si="564">(B449-H449)</f>
+        <v>0.4250128429947968</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B450" s="2">
+        <f t="shared" ref="B450" si="565">E450/F450</f>
+        <v>1.5325190124989991</v>
+      </c>
+      <c r="C450" s="3">
+        <v>0</v>
+      </c>
+      <c r="D450" s="3">
+        <v>0</v>
+      </c>
+      <c r="E450" s="3">
+        <v>725992.86</v>
+      </c>
+      <c r="F450" s="3">
+        <f t="shared" ref="F450" si="566">F449+G450</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G450" s="3">
+        <f t="shared" ref="G450" si="567">(C450-D450)/((E450-C450+D450)/F449)</f>
+        <v>0</v>
+      </c>
+      <c r="H450" s="4">
+        <f t="shared" ref="H450" si="568">I450/J450</f>
+        <v>1.1190767454668702</v>
+      </c>
+      <c r="I450" s="5">
+        <v>4226.3500000000004</v>
+      </c>
+      <c r="J450" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K450" s="6">
+        <f t="shared" ref="K450" si="569">(B450-H450)</f>
+        <v>0.41344226703212894</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B451" s="2">
+        <f t="shared" ref="B451" si="570">E451/F451</f>
+        <v>1.5696643245502373</v>
+      </c>
+      <c r="C451" s="3">
+        <v>0</v>
+      </c>
+      <c r="D451" s="3">
+        <v>0</v>
+      </c>
+      <c r="E451" s="3">
+        <v>743589.53</v>
+      </c>
+      <c r="F451" s="3">
+        <f t="shared" ref="F451" si="571">F450+G451</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G451" s="3">
+        <f t="shared" ref="G451" si="572">(C451-D451)/((E451-C451+D451)/F450)</f>
+        <v>0</v>
+      </c>
+      <c r="H451" s="4">
+        <f t="shared" ref="H451" si="573">I451/J451</f>
+        <v>1.1366823419759364</v>
+      </c>
+      <c r="I451" s="5">
+        <v>4292.84</v>
+      </c>
+      <c r="J451" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K451" s="6">
+        <f t="shared" ref="K451" si="574">(B451-H451)</f>
+        <v>0.43298198257430087</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B452" s="2">
+        <f t="shared" ref="B452" si="575">E452/F452</f>
+        <v>1.5815215787589465</v>
+      </c>
+      <c r="C452" s="3">
+        <v>0</v>
+      </c>
+      <c r="D452" s="3">
+        <v>0</v>
+      </c>
+      <c r="E452" s="3">
+        <v>749206.61</v>
+      </c>
+      <c r="F452" s="3">
+        <f t="shared" ref="F452" si="576">F451+G452</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G452" s="3">
+        <f t="shared" ref="G452" si="577">(C452-D452)/((E452-C452+D452)/F451)</f>
+        <v>0</v>
+      </c>
+      <c r="H452" s="4">
+        <f t="shared" ref="H452" si="578">I452/J452</f>
+        <v>1.1403046093882394</v>
+      </c>
+      <c r="I452" s="5">
+        <v>4306.5200000000004</v>
+      </c>
+      <c r="J452" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K452" s="6">
+        <f t="shared" ref="K452" si="579">(B452-H452)</f>
+        <v>0.44121696937070709</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B453" s="2">
+        <f t="shared" ref="B453" si="580">E453/F453</f>
+        <v>1.5320685825775713</v>
+      </c>
+      <c r="C453" s="3">
+        <v>0</v>
+      </c>
+      <c r="D453" s="3">
+        <v>0</v>
+      </c>
+      <c r="E453" s="3">
+        <v>725779.48</v>
+      </c>
+      <c r="F453" s="3">
+        <f t="shared" ref="F453" si="581">F452+G453</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G453" s="3">
+        <f t="shared" ref="G453" si="582">(C453-D453)/((E453-C453+D453)/F452)</f>
+        <v>0</v>
+      </c>
+      <c r="H453" s="4">
+        <f t="shared" ref="H453" si="583">I453/J453</f>
+        <v>1.1054164548381631</v>
+      </c>
+      <c r="I453" s="5">
+        <v>4174.76</v>
+      </c>
+      <c r="J453" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K453" s="6">
+        <f t="shared" ref="K453" si="584">(B453-H453)</f>
+        <v>0.42665212773940819</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B454" s="2">
+        <f t="shared" ref="B454" si="585">E454/F454</f>
+        <v>1.4397463017578143</v>
+      </c>
+      <c r="C454" s="3">
+        <v>0</v>
+      </c>
+      <c r="D454" s="3">
+        <v>0</v>
+      </c>
+      <c r="E454" s="3">
+        <v>682044.09</v>
+      </c>
+      <c r="F454" s="3">
+        <f t="shared" ref="F454" si="586">F453+G454</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G454" s="3">
+        <f t="shared" ref="G454" si="587">(C454-D454)/((E454-C454+D454)/F453)</f>
+        <v>0</v>
+      </c>
+      <c r="H454" s="4">
+        <f t="shared" ref="H454" si="588">I454/J454</f>
+        <v>1.054855638874767</v>
+      </c>
+      <c r="I454" s="5">
+        <v>3983.81</v>
+      </c>
+      <c r="J454" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K454" s="6">
+        <f t="shared" ref="K454" si="589">(B454-H454)</f>
+        <v>0.3848906628830473</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B455" s="2">
+        <f t="shared" ref="B455" si="590">E455/F455</f>
+        <v>1.4829794260309197</v>
+      </c>
+      <c r="C455" s="3">
+        <v>0</v>
+      </c>
+      <c r="D455" s="3">
+        <v>0</v>
+      </c>
+      <c r="E455" s="3">
+        <v>702524.71</v>
+      </c>
+      <c r="F455" s="3">
+        <f t="shared" ref="F455" si="591">F454+G455</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G455" s="3">
+        <f t="shared" ref="G455" si="592">(C455-D455)/((E455-C455+D455)/F454)</f>
+        <v>0</v>
+      </c>
+      <c r="H455" s="4">
+        <f t="shared" ref="H455" si="593">I455/J455</f>
+        <v>1.1004702592780884</v>
+      </c>
+      <c r="I455" s="5">
+        <v>4156.08</v>
+      </c>
+      <c r="J455" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K455" s="6">
+        <f t="shared" ref="K455" si="594">(B455-H455)</f>
+        <v>0.38250916675283131</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B456" s="2">
+        <f t="shared" ref="B456" si="595">E456/F456</f>
+        <v>1.5128907127989153</v>
+      </c>
+      <c r="C456" s="3">
+        <v>0</v>
+      </c>
+      <c r="D456" s="3">
+        <v>0</v>
+      </c>
+      <c r="E456" s="3">
+        <v>716694.44</v>
+      </c>
+      <c r="F456" s="3">
+        <f t="shared" ref="F456" si="596">F455+G456</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G456" s="3">
+        <f t="shared" ref="G456" si="597">(C456-D456)/((E456-C456+D456)/F455)</f>
+        <v>0</v>
+      </c>
+      <c r="H456" s="4">
+        <f t="shared" ref="H456" si="598">I456/J456</f>
+        <v>1.1220820623623116</v>
+      </c>
+      <c r="I456" s="5">
+        <v>4237.7</v>
+      </c>
+      <c r="J456" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K456" s="6">
+        <f t="shared" ref="K456" si="599">(B456-H456)</f>
+        <v>0.39080865043660373</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B457" s="2">
+        <f t="shared" ref="B457" si="600">E457/F457</f>
+        <v>1.5269088611760946</v>
+      </c>
+      <c r="C457" s="3">
+        <v>0</v>
+      </c>
+      <c r="D457" s="3">
+        <v>0</v>
+      </c>
+      <c r="E457" s="3">
+        <v>723335.19</v>
+      </c>
+      <c r="F457" s="3">
+        <f t="shared" ref="F457" si="601">F456+G457</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G457" s="3">
+        <f t="shared" ref="G457" si="602">(C457-D457)/((E457-C457+D457)/F456)</f>
+        <v>0</v>
+      </c>
+      <c r="H457" s="4">
+        <f t="shared" ref="H457" si="603">I457/J457</f>
+        <v>1.129549017115743</v>
+      </c>
+      <c r="I457" s="5">
+        <v>4265.8999999999996</v>
+      </c>
+      <c r="J457" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K457" s="6">
+        <f t="shared" ref="K457" si="604">(B457-H457)</f>
+        <v>0.39735984406035163</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B458" s="2">
+        <f t="shared" ref="B458" si="605">E458/F458</f>
+        <v>1.5361851675558928</v>
+      </c>
+      <c r="C458" s="3">
+        <v>0</v>
+      </c>
+      <c r="D458" s="3">
+        <v>0</v>
+      </c>
+      <c r="E458" s="3">
+        <v>727729.61</v>
+      </c>
+      <c r="F458" s="3">
+        <f t="shared" ref="F458" si="606">F457+G458</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G458" s="3">
+        <f t="shared" ref="G458" si="607">(C458-D458)/((E458-C458+D458)/F457)</f>
+        <v>0</v>
+      </c>
+      <c r="H458" s="4">
+        <f t="shared" ref="H458" si="608">I458/J458</f>
+        <v>1.1276557998644299</v>
+      </c>
+      <c r="I458" s="5">
+        <v>4258.75</v>
+      </c>
+      <c r="J458" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K458" s="6">
+        <f t="shared" ref="K458" si="609">(B458-H458)</f>
+        <v>0.40852936769146297</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B459" s="2">
+        <f t="shared" ref="B459" si="610">E459/F459</f>
+        <v>1.5253967186607902</v>
+      </c>
+      <c r="C459" s="3">
+        <v>0</v>
+      </c>
+      <c r="D459" s="3">
+        <v>0</v>
+      </c>
+      <c r="E459" s="3">
+        <v>722618.85</v>
+      </c>
+      <c r="F459" s="3">
+        <f t="shared" ref="F459" si="611">F458+G459</f>
+        <v>473725.18975550006</v>
+      </c>
+      <c r="G459" s="3">
+        <f t="shared" ref="G459" si="612">(C459-D459)/((E459-C459+D459)/F458)</f>
+        <v>0</v>
+      </c>
+      <c r="H459" s="4">
+        <f t="shared" ref="H459" si="613">I459/J459</f>
+        <v>1.1187987205558381</v>
+      </c>
+      <c r="I459" s="5">
+        <v>4225.3</v>
+      </c>
+      <c r="J459" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K459" s="6">
+        <f t="shared" ref="K459" si="614">(B459-H459)</f>
+        <v>0.40659799810495212</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B460" s="2">
+        <f t="shared" ref="B460" si="615">E460/F460</f>
+        <v>1.5345103991096352</v>
+      </c>
+      <c r="C460" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D460" s="3">
+        <v>0</v>
+      </c>
+      <c r="E460" s="3">
+        <v>727936.23</v>
+      </c>
+      <c r="F460" s="3">
+        <f t="shared" ref="F460" si="616">F459+G460</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G460" s="3">
+        <f t="shared" ref="G460" si="617">(C460-D460)/((E460-C460+D460)/F459)</f>
+        <v>651.67365472415656</v>
+      </c>
+      <c r="H460" s="4">
+        <f t="shared" ref="H460" si="618">I460/J460</f>
+        <v>1.13236104050161</v>
+      </c>
+      <c r="I460" s="5">
+        <v>4276.5200000000004</v>
+      </c>
+      <c r="J460" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K460" s="6">
+        <f t="shared" ref="K460" si="619">(B460-H460)</f>
+        <v>0.40214935860802514</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B461" s="2">
+        <f t="shared" ref="B461" si="620">E461/F461</f>
+        <v>1.5225155476763361</v>
+      </c>
+      <c r="C461" s="3">
+        <v>0</v>
+      </c>
+      <c r="D461" s="3">
+        <v>0</v>
+      </c>
+      <c r="E461" s="3">
+        <v>722246.15</v>
+      </c>
+      <c r="F461" s="3">
+        <f t="shared" ref="F461" si="621">F460+G461</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G461" s="3">
+        <f t="shared" ref="G461" si="622">(C461-D461)/((E461-C461+D461)/F460)</f>
+        <v>0</v>
+      </c>
+      <c r="H461" s="4">
+        <f t="shared" ref="H461" si="623">I461/J461</f>
+        <v>1.1256857947805459</v>
+      </c>
+      <c r="I461" s="5">
+        <v>4251.3100000000004</v>
+      </c>
+      <c r="J461" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K461" s="6">
+        <f t="shared" ref="K461" si="624">(B461-H461)</f>
+        <v>0.39682975289579026</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B462" s="2">
+        <f t="shared" ref="B462" si="625">E462/F462</f>
+        <v>1.4981246448046794</v>
+      </c>
+      <c r="C462" s="3">
+        <v>0</v>
+      </c>
+      <c r="D462" s="3">
+        <v>0</v>
+      </c>
+      <c r="E462" s="3">
+        <v>710675.67</v>
+      </c>
+      <c r="F462" s="3">
+        <f t="shared" ref="F462" si="626">F461+G462</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G462" s="3">
+        <f t="shared" ref="G462" si="627">(C462-D462)/((E462-C462+D462)/F461)</f>
+        <v>0</v>
+      </c>
+      <c r="H462" s="4">
+        <f t="shared" ref="H462" si="628">I462/J462</f>
+        <v>1.1053661455685477</v>
+      </c>
+      <c r="I462" s="5">
+        <v>4174.57</v>
+      </c>
+      <c r="J462" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K462" s="6">
+        <f t="shared" ref="K462" si="629">(B462-H462)</f>
+        <v>0.39275849923613171</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B463" s="2">
+        <f t="shared" ref="B463" si="630">E463/F463</f>
+        <v>1.4851595521233327</v>
+      </c>
+      <c r="C463" s="3">
+        <v>0</v>
+      </c>
+      <c r="D463" s="3">
+        <v>0</v>
+      </c>
+      <c r="E463" s="3">
+        <v>704525.33</v>
+      </c>
+      <c r="F463" s="3">
+        <f t="shared" ref="F463" si="631">F462+G463</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G463" s="3">
+        <f t="shared" ref="G463" si="632">(C463-D463)/((E463-C463+D463)/F462)</f>
+        <v>0</v>
+      </c>
+      <c r="H463" s="4">
+        <f t="shared" ref="H463" si="633">I463/J463</f>
+        <v>1.0984552406371801</v>
+      </c>
+      <c r="I463" s="5">
+        <v>4148.47</v>
+      </c>
+      <c r="J463" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K463" s="6">
+        <f t="shared" ref="K463" si="634">(B463-H463)</f>
+        <v>0.38670431148615259</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B464" s="2">
+        <f t="shared" ref="B464" si="635">E464/F464</f>
+        <v>1.4843733839335123</v>
+      </c>
+      <c r="C464" s="3">
+        <v>0</v>
+      </c>
+      <c r="D464" s="3">
+        <v>0</v>
+      </c>
+      <c r="E464" s="3">
+        <v>704152.39</v>
+      </c>
+      <c r="F464" s="3">
+        <f t="shared" ref="F464" si="636">F463+G464</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G464" s="3">
+        <f t="shared" ref="G464" si="637">(C464-D464)/((E464-C464+D464)/F463)</f>
+        <v>0</v>
+      </c>
+      <c r="H464" s="4">
+        <f t="shared" ref="H464" si="638">I464/J464</f>
+        <v>1.0946608625656669</v>
+      </c>
+      <c r="I464" s="5">
+        <v>4134.1400000000003</v>
+      </c>
+      <c r="J464" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K464" s="6">
+        <f t="shared" ref="K464" si="639">(B464-H464)</f>
+        <v>0.3897125213678454</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B465" s="2">
+        <f t="shared" ref="B465" si="640">E465/F465</f>
+        <v>1.5241005533079237</v>
+      </c>
+      <c r="C465" s="3">
+        <v>0</v>
+      </c>
+      <c r="D465" s="3">
+        <v>0</v>
+      </c>
+      <c r="E465" s="3">
+        <v>722998.04</v>
+      </c>
+      <c r="F465" s="3">
+        <f t="shared" ref="F465" si="641">F464+G465</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G465" s="3">
+        <f t="shared" ref="G465" si="642">(C465-D465)/((E465-C465+D465)/F464)</f>
+        <v>0</v>
+      </c>
+      <c r="H465" s="4">
+        <f t="shared" ref="H465" si="643">I465/J465</f>
+        <v>1.1264245466870024</v>
+      </c>
+      <c r="I465" s="5">
+        <v>4254.1000000000004</v>
+      </c>
+      <c r="J465" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K465" s="6">
+        <f t="shared" ref="K465" si="644">(B465-H465)</f>
+        <v>0.39767600662092129</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B466" s="2">
+        <f t="shared" ref="B466" si="645">E466/F466</f>
+        <v>1.5102856932135922</v>
+      </c>
+      <c r="C466" s="3">
+        <v>0</v>
+      </c>
+      <c r="D466" s="3">
+        <v>0</v>
+      </c>
+      <c r="E466" s="3">
+        <v>716444.59</v>
+      </c>
+      <c r="F466" s="3">
+        <f t="shared" ref="F466" si="646">F465+G466</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G466" s="3">
+        <f t="shared" ref="G466" si="647">(C466-D466)/((E466-C466+D466)/F465)</f>
+        <v>0</v>
+      </c>
+      <c r="H466" s="4">
+        <f t="shared" ref="H466" si="648">I466/J466</f>
+        <v>1.1180837993560415</v>
+      </c>
+      <c r="I466" s="5">
+        <v>4222.6000000000004</v>
+      </c>
+      <c r="J466" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K466" s="6">
+        <f t="shared" ref="K466" si="649">(B466-H466)</f>
+        <v>0.39220189385755067</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B467" s="2">
+        <f t="shared" ref="B467" si="650">E467/F467</f>
+        <v>1.5186896022308676</v>
+      </c>
+      <c r="C467" s="3">
+        <v>0</v>
+      </c>
+      <c r="D467" s="3">
+        <v>0</v>
+      </c>
+      <c r="E467" s="3">
+        <v>720431.21</v>
+      </c>
+      <c r="F467" s="3">
+        <f t="shared" ref="F467" si="651">F466+G467</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G467" s="3">
+        <f t="shared" ref="G467" si="652">(C467-D467)/((E467-C467+D467)/F466)</f>
+        <v>0</v>
+      </c>
+      <c r="H467" s="4">
+        <f t="shared" ref="H467" si="653">I467/J467</f>
+        <v>1.1322657176749704</v>
+      </c>
+      <c r="I467" s="5">
+        <v>4276.16</v>
+      </c>
+      <c r="J467" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K467" s="6">
+        <f t="shared" ref="K467" si="654">(B467-H467)</f>
+        <v>0.38642388455589716</v>
       </c>
     </row>
   </sheetData>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2636DC7B-5F91-4E11-9A37-766388856B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE21911-9F26-4DD8-88D6-3A3D2A2DA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
@@ -72,11 +72,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.000000%"/>
+    <numFmt numFmtId="176" formatCode="0.000000%"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000000_);[Red]\(0.000000\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="180" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,7 +135,7 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -144,14 +144,14 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -160,13 +160,13 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1816,6 +1816,60 @@
                 <c:pt idx="475">
                   <c:v>44652</c:v>
                 </c:pt>
+                <c:pt idx="476">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44680</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3253,13 +3307,67 @@
                 <c:pt idx="475">
                   <c:v>1.5110833972859239</c:v>
                 </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.5074889561781015</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.4791387305812072</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.4672007887462875</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.436740829500661</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.4750349965058414</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.4587249121846109</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.4946576350174183</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.4964212155517156</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.4993862871995387</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.4944123260987556</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.4959948452883252</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.4635475917671021</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.458832989822832</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.3987594961126701</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.4122759717732647</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.4279785748804128</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.4395180502315641</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.4689744038032195</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8D83-49A1-BA79-DCEE4118BCEF}"/>
+              <c16:uniqueId val="{00000000-5BB1-4ADD-8FB6-B9D8D2B9CB0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4762,6 +4870,60 @@
                 <c:pt idx="475">
                   <c:v>44652</c:v>
                 </c:pt>
+                <c:pt idx="476">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44680</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6199,13 +6361,67 @@
                 <c:pt idx="475">
                   <c:v>1.1322657176749704</c:v>
                 </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.1290035587188614</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.1145091933570583</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.1202470979495003</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.0856396161667514</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.1065030018741862</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.0958534958333774</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.1095737020997236</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.1088272042862739</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.1026136387695045</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.0942825990303389</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.0770311458234119</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.0571985691759003</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.0618074737276566</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.0093315765522641</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.0011852980707157</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.0306642960705252</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.0374294906393202</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.0625985543596745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8D83-49A1-BA79-DCEE4118BCEF}"/>
+              <c16:uniqueId val="{00000001-5BB1-4ADD-8FB6-B9D8D2B9CB0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7916,6 +8132,60 @@
                 <c:pt idx="465">
                   <c:v>44652</c:v>
                 </c:pt>
+                <c:pt idx="466">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44680</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -9323,13 +9593,67 @@
                 <c:pt idx="465">
                   <c:v>1.5186896022308676</c:v>
                 </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.5086198657650967</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.4837361058044172</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.4726558225835751</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.4378113446939322</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.4834716188474515</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.4706428479467848</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.508802460619217</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.5068410481968049</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.510304515786826</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.501062025435923</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.5042658217849907</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.472239709034304</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.4681928002312818</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.4084862661080044</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.422148831205843</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.441312088889382</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.4491966776932683</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.4851651967095696</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BF2-424F-87F4-C6980BF00F4D}"/>
+              <c16:uniqueId val="{00000000-956E-49BF-AC85-F4829D2BFF06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10763,6 +11087,60 @@
                 <c:pt idx="465">
                   <c:v>44652</c:v>
                 </c:pt>
+                <c:pt idx="466">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>44658</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>44659</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>44663</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>44664</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>44665</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>44666</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>44670</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>44671</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>44672</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>44673</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>44677</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>44678</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>44679</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>44680</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -12170,13 +12548,67 @@
                 <c:pt idx="465">
                   <c:v>1.1322657176749704</c:v>
                 </c:pt>
+                <c:pt idx="466">
+                  <c:v>1.1290035587188614</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>1.1145091933570583</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>1.1202470979495003</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1.1202470979495003</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>1.1065030018741862</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>1.0958534958333774</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>1.1095737020997236</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>1.1088272042862739</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>1.1029055177306468</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>1.0945722726358256</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>1.0776013595789964</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>1.0577582829491428</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>1.0623696275981831</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>1.0098659480522232</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>1.0017153566777142</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>1.0312099617750765</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>1.0379787380480936</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1.0631611270528689</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3BF2-424F-87F4-C6980BF00F4D}"/>
+              <c16:uniqueId val="{00000001-956E-49BF-AC85-F4829D2BFF06}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12937,28 +13369,26 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>464</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>478156</xdr:colOff>
-      <xdr:row>488</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>544831</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8075BC39-28BE-4CB4-8C5C-BAC484F6EA25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -12980,28 +13410,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>445</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>469</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBDF8FD-D6D3-4445-863F-14327B9C76CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13276,11 +13704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q477"/>
+  <dimension ref="A1:Q495"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C481" sqref="C481"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E496" sqref="E496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32326,6 +32754,726 @@
         <v>0.37881767961095347</v>
       </c>
     </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B478" s="2">
+        <f t="shared" ref="B478" si="739">E478/F478</f>
+        <v>1.5074889561781015</v>
+      </c>
+      <c r="C478" s="3">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <v>0</v>
+      </c>
+      <c r="E478" s="3">
+        <v>386149.13</v>
+      </c>
+      <c r="F478" s="3">
+        <f t="shared" ref="F478" si="740">F477+G478</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G478" s="3">
+        <f t="shared" ref="G478" si="741">(C478-D478)/((E478-C478+D478)/F477)</f>
+        <v>0</v>
+      </c>
+      <c r="H478" s="4">
+        <f t="shared" ref="H478" si="742">I478/J478</f>
+        <v>1.1290035587188614</v>
+      </c>
+      <c r="I478" s="5">
+        <v>4263.84</v>
+      </c>
+      <c r="J478" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K478" s="6">
+        <f t="shared" ref="K478" si="743">(B478-H478)</f>
+        <v>0.37848539745924015</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B479" s="2">
+        <f t="shared" ref="B479" si="744">E479/F479</f>
+        <v>1.4791387305812072</v>
+      </c>
+      <c r="C479" s="3">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3">
+        <v>0</v>
+      </c>
+      <c r="E479" s="3">
+        <v>378887.11</v>
+      </c>
+      <c r="F479" s="3">
+        <f t="shared" ref="F479" si="745">F478+G479</f>
+        <v>256153.86992883455</v>
+      </c>
+      <c r="G479" s="3">
+        <f t="shared" ref="G479" si="746">(C479-D479)/((E479-C479+D479)/F478)</f>
+        <v>0</v>
+      </c>
+      <c r="H479" s="4">
+        <f t="shared" ref="H479" si="747">I479/J479</f>
+        <v>1.1145091933570583</v>
+      </c>
+      <c r="I479" s="5">
+        <v>4209.1000000000004</v>
+      </c>
+      <c r="J479" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K479" s="6">
+        <f t="shared" ref="K479" si="748">(B479-H479)</f>
+        <v>0.36462953722414881</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B480" s="2">
+        <f t="shared" ref="B480" si="749">E480/F480</f>
+        <v>1.4672007887462875</v>
+      </c>
+      <c r="C480" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D480" s="3">
+        <v>0</v>
+      </c>
+      <c r="E480" s="3">
+        <v>381829.16</v>
+      </c>
+      <c r="F480" s="3">
+        <f t="shared" ref="F480" si="750">F479+G480</f>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G480" s="3">
+        <f t="shared" ref="G480" si="751">(C480-D480)/((E480-C480+D480)/F479)</f>
+        <v>4089.4198299381756</v>
+      </c>
+      <c r="H480" s="4">
+        <f t="shared" ref="H480" si="752">I480/J480</f>
+        <v>1.1202470979495003</v>
+      </c>
+      <c r="I480" s="5">
+        <v>4230.7700000000004</v>
+      </c>
+      <c r="J480" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K480" s="6">
+        <f t="shared" ref="K480" si="753">(B480-H480)</f>
+        <v>0.34695369079678717</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B481" s="2">
+        <f t="shared" ref="B481:B490" si="754">E481/F481</f>
+        <v>1.436740829500661</v>
+      </c>
+      <c r="C481" s="3">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <v>0</v>
+      </c>
+      <c r="E481" s="3">
+        <v>373902.16</v>
+      </c>
+      <c r="F481" s="3">
+        <f t="shared" ref="F481:F490" si="755">F480+G481</f>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G481" s="3">
+        <f t="shared" ref="G481:G490" si="756">(C481-D481)/((E481-C481+D481)/F480)</f>
+        <v>0</v>
+      </c>
+      <c r="H481" s="4">
+        <f t="shared" ref="H481:H490" si="757">I481/J481</f>
+        <v>1.0856396161667514</v>
+      </c>
+      <c r="I481" s="5">
+        <v>4100.07</v>
+      </c>
+      <c r="J481" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K481" s="6">
+        <f t="shared" ref="K481:K490" si="758">(B481-H481)</f>
+        <v>0.35110121333390953</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B482" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4750349965058414</v>
+      </c>
+      <c r="C482" s="3">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <v>0</v>
+      </c>
+      <c r="E482" s="3">
+        <v>383867.96</v>
+      </c>
+      <c r="F482" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G482" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H482" s="4">
+        <f t="shared" si="757"/>
+        <v>1.1065030018741862</v>
+      </c>
+      <c r="I482" s="5">
+        <v>4179.97</v>
+      </c>
+      <c r="J482" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K482" s="6">
+        <f t="shared" si="758"/>
+        <v>0.3685319946316552</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B483" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4587249121846109</v>
+      </c>
+      <c r="C483" s="3">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <v>0</v>
+      </c>
+      <c r="E483" s="3">
+        <v>379623.37</v>
+      </c>
+      <c r="F483" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G483" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H483" s="4">
+        <f t="shared" si="757"/>
+        <v>1.0958534958333774</v>
+      </c>
+      <c r="I483" s="5">
+        <v>4139.74</v>
+      </c>
+      <c r="J483" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K483" s="6">
+        <f t="shared" si="758"/>
+        <v>0.36287141635123343</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B484" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4946576350174183</v>
+      </c>
+      <c r="C484" s="3">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <v>0</v>
+      </c>
+      <c r="E484" s="3">
+        <v>388974.62</v>
+      </c>
+      <c r="F484" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G484" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H484" s="4">
+        <f t="shared" si="757"/>
+        <v>1.1095737020997236</v>
+      </c>
+      <c r="I484" s="5">
+        <v>4191.57</v>
+      </c>
+      <c r="J484" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K484" s="6">
+        <f t="shared" si="758"/>
+        <v>0.38508393291769472</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B485" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4964212155517156</v>
+      </c>
+      <c r="C485" s="3">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <v>0</v>
+      </c>
+      <c r="E485" s="3">
+        <v>389433.58</v>
+      </c>
+      <c r="F485" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G485" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H485" s="4">
+        <f t="shared" si="757"/>
+        <v>1.1088272042862739</v>
+      </c>
+      <c r="I485" s="5">
+        <v>4188.75</v>
+      </c>
+      <c r="J485" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K485" s="6">
+        <f t="shared" si="758"/>
+        <v>0.38759401126544168</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B486" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4993862871995387</v>
+      </c>
+      <c r="C486" s="3">
+        <v>0</v>
+      </c>
+      <c r="D486" s="3">
+        <v>0</v>
+      </c>
+      <c r="E486" s="3">
+        <v>390205.22</v>
+      </c>
+      <c r="F486" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G486" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H486" s="4">
+        <f t="shared" si="757"/>
+        <v>1.1026136387695045</v>
+      </c>
+      <c r="I486" s="5">
+        <v>4166.38</v>
+      </c>
+      <c r="J486" s="5">
+        <v>3778.64</v>
+      </c>
+      <c r="K486" s="6">
+        <f t="shared" si="758"/>
+        <v>0.39677264843003424</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B487" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4944123260987556</v>
+      </c>
+      <c r="C487" s="3">
+        <v>0</v>
+      </c>
+      <c r="D487" s="3">
+        <v>0</v>
+      </c>
+      <c r="E487" s="3">
+        <v>388910.78</v>
+      </c>
+      <c r="F487" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G487" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H487" s="4">
+        <f t="shared" si="757"/>
+        <v>1.0942825990303389</v>
+      </c>
+      <c r="I487" s="5">
+        <v>4134.8999999999996</v>
+      </c>
+      <c r="J487" s="5">
+        <v>3778.64</v>
+      </c>
+      <c r="K487" s="6">
+        <f t="shared" si="758"/>
+        <v>0.40012972706841676</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B488" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4959948452883252</v>
+      </c>
+      <c r="C488" s="3">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <v>0</v>
+      </c>
+      <c r="E488" s="3">
+        <v>389322.62</v>
+      </c>
+      <c r="F488" s="3">
+        <f t="shared" si="755"/>
+        <v>260243.28975877273</v>
+      </c>
+      <c r="G488" s="3">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="H488" s="4">
+        <f t="shared" si="757"/>
+        <v>1.0770311458234119</v>
+      </c>
+      <c r="I488" s="5">
+        <v>4070.79</v>
+      </c>
+      <c r="J488" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K488" s="6">
+        <f t="shared" si="758"/>
+        <v>0.4189636994649133</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B489" s="2">
+        <f t="shared" si="754"/>
+        <v>1.4635475917671021</v>
+      </c>
+      <c r="C489" s="3">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E489" s="3">
+        <v>370878.44</v>
+      </c>
+      <c r="F489" s="3">
+        <f t="shared" si="755"/>
+        <v>253410.57720726228</v>
+      </c>
+      <c r="G489" s="3">
+        <f t="shared" si="756"/>
+        <v>-6832.7125515104699</v>
+      </c>
+      <c r="H489" s="4">
+        <f t="shared" si="757"/>
+        <v>1.0571985691759003</v>
+      </c>
+      <c r="I489" s="5">
+        <v>3995.83</v>
+      </c>
+      <c r="J489" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K489" s="6">
+        <f t="shared" si="758"/>
+        <v>0.40634902259120187</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B490" s="2">
+        <f t="shared" si="754"/>
+        <v>1.458832989822832</v>
+      </c>
+      <c r="C490" s="3">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E490" s="3">
+        <v>368183.71</v>
+      </c>
+      <c r="F490" s="3">
+        <f t="shared" si="755"/>
+        <v>252382.35806876983</v>
+      </c>
+      <c r="G490" s="3">
+        <f t="shared" si="756"/>
+        <v>-1028.2191384924517</v>
+      </c>
+      <c r="H490" s="4">
+        <f t="shared" si="757"/>
+        <v>1.0618074737276566</v>
+      </c>
+      <c r="I490" s="5">
+        <v>4013.25</v>
+      </c>
+      <c r="J490" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K490" s="6">
+        <f t="shared" si="758"/>
+        <v>0.39702551609517545</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B491" s="2">
+        <f t="shared" ref="B491" si="759">E491/F491</f>
+        <v>1.3987594961126701</v>
+      </c>
+      <c r="C491" s="3">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <v>0</v>
+      </c>
+      <c r="E491" s="3">
+        <v>353022.22</v>
+      </c>
+      <c r="F491" s="3">
+        <f t="shared" ref="F491" si="760">F490+G491</f>
+        <v>252382.35806876983</v>
+      </c>
+      <c r="G491" s="3">
+        <f t="shared" ref="G491" si="761">(C491-D491)/((E491-C491+D491)/F490)</f>
+        <v>0</v>
+      </c>
+      <c r="H491" s="4">
+        <f t="shared" ref="H491" si="762">I491/J491</f>
+        <v>1.0093315765522641</v>
+      </c>
+      <c r="I491" s="5">
+        <v>3814.91</v>
+      </c>
+      <c r="J491" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K491" s="6">
+        <f t="shared" ref="K491" si="763">(B491-H491)</f>
+        <v>0.38942791956040601</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B492" s="2">
+        <f t="shared" ref="B492" si="764">E492/F492</f>
+        <v>1.4122759717732647</v>
+      </c>
+      <c r="C492" s="3">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <v>0</v>
+      </c>
+      <c r="E492" s="3">
+        <v>356433.54</v>
+      </c>
+      <c r="F492" s="3">
+        <f t="shared" ref="F492" si="765">F491+G492</f>
+        <v>252382.35806876983</v>
+      </c>
+      <c r="G492" s="3">
+        <f t="shared" ref="G492" si="766">(C492-D492)/((E492-C492+D492)/F491)</f>
+        <v>0</v>
+      </c>
+      <c r="H492" s="4">
+        <f t="shared" ref="H492" si="767">I492/J492</f>
+        <v>1.0011852980707157</v>
+      </c>
+      <c r="I492" s="5">
+        <v>3784.12</v>
+      </c>
+      <c r="J492" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K492" s="6">
+        <f t="shared" ref="K492" si="768">(B492-H492)</f>
+        <v>0.41109067370254904</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B493" s="2">
+        <f t="shared" ref="B493" si="769">E493/F493</f>
+        <v>1.4279785748804128</v>
+      </c>
+      <c r="C493" s="3">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <v>0</v>
+      </c>
+      <c r="E493" s="3">
+        <v>360396.6</v>
+      </c>
+      <c r="F493" s="3">
+        <f t="shared" ref="F493" si="770">F492+G493</f>
+        <v>252382.35806876983</v>
+      </c>
+      <c r="G493" s="3">
+        <f t="shared" ref="G493" si="771">(C493-D493)/((E493-C493+D493)/F492)</f>
+        <v>0</v>
+      </c>
+      <c r="H493" s="4">
+        <f t="shared" ref="H493" si="772">I493/J493</f>
+        <v>1.0306642960705252</v>
+      </c>
+      <c r="I493" s="5">
+        <v>3895.54</v>
+      </c>
+      <c r="J493" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K493" s="6">
+        <f t="shared" ref="K493" si="773">(B493-H493)</f>
+        <v>0.39731427880988757</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B494" s="2">
+        <f t="shared" ref="B494" si="774">E494/F494</f>
+        <v>1.4395180502315641</v>
+      </c>
+      <c r="C494" s="3">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E494" s="3">
+        <v>361808.96</v>
+      </c>
+      <c r="F494" s="3">
+        <f t="shared" ref="F494" si="775">F493+G494</f>
+        <v>251340.34265273617</v>
+      </c>
+      <c r="G494" s="3">
+        <f t="shared" ref="G494" si="776">(C494-D494)/((E494-C494+D494)/F493)</f>
+        <v>-1042.0154160336556</v>
+      </c>
+      <c r="H494" s="4">
+        <f t="shared" ref="H494" si="777">I494/J494</f>
+        <v>1.0374294906393202</v>
+      </c>
+      <c r="I494" s="5">
+        <v>3921.11</v>
+      </c>
+      <c r="J494" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K494" s="6">
+        <f t="shared" ref="K494" si="778">(B494-H494)</f>
+        <v>0.40208855959224388</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B495" s="2">
+        <f t="shared" ref="B495" si="779">E495/F495</f>
+        <v>1.4689744038032195</v>
+      </c>
+      <c r="C495" s="3">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <v>0</v>
+      </c>
+      <c r="E495" s="3">
+        <v>369212.53</v>
+      </c>
+      <c r="F495" s="3">
+        <f t="shared" ref="F495" si="780">F494+G495</f>
+        <v>251340.34265273617</v>
+      </c>
+      <c r="G495" s="3">
+        <f t="shared" ref="G495" si="781">(C495-D495)/((E495-C495+D495)/F494)</f>
+        <v>0</v>
+      </c>
+      <c r="H495" s="4">
+        <f t="shared" ref="H495" si="782">I495/J495</f>
+        <v>1.0625985543596745</v>
+      </c>
+      <c r="I495" s="5">
+        <v>4016.24</v>
+      </c>
+      <c r="J495" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K495" s="6">
+        <f t="shared" ref="K495" si="783">(B495-H495)</f>
+        <v>0.40637584944354499</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -32336,11 +33484,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L467"/>
+  <dimension ref="A1:L485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N476" sqref="N476"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E486" sqref="E486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50983,6 +52131,726 @@
         <v>0.38642388455589716</v>
       </c>
     </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B468" s="2">
+        <f t="shared" ref="B468" si="655">E468/F468</f>
+        <v>1.5086198657650967</v>
+      </c>
+      <c r="C468" s="3">
+        <v>0</v>
+      </c>
+      <c r="D468" s="3">
+        <v>0</v>
+      </c>
+      <c r="E468" s="3">
+        <v>715654.36</v>
+      </c>
+      <c r="F468" s="3">
+        <f t="shared" ref="F468" si="656">F467+G468</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G468" s="3">
+        <f t="shared" ref="G468" si="657">(C468-D468)/((E468-C468+D468)/F467)</f>
+        <v>0</v>
+      </c>
+      <c r="H468" s="4">
+        <f t="shared" ref="H468" si="658">I468/J468</f>
+        <v>1.1290035587188614</v>
+      </c>
+      <c r="I468" s="5">
+        <v>4263.84</v>
+      </c>
+      <c r="J468" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K468" s="6">
+        <f t="shared" ref="K468" si="659">(B468-H468)</f>
+        <v>0.37961630704623528</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B469" s="2">
+        <f t="shared" ref="B469" si="660">E469/F469</f>
+        <v>1.4837361058044172</v>
+      </c>
+      <c r="C469" s="3">
+        <v>0</v>
+      </c>
+      <c r="D469" s="3">
+        <v>0</v>
+      </c>
+      <c r="E469" s="3">
+        <v>703850.08</v>
+      </c>
+      <c r="F469" s="3">
+        <f t="shared" ref="F469" si="661">F468+G469</f>
+        <v>474376.86341022421</v>
+      </c>
+      <c r="G469" s="3">
+        <f t="shared" ref="G469" si="662">(C469-D469)/((E469-C469+D469)/F468)</f>
+        <v>0</v>
+      </c>
+      <c r="H469" s="4">
+        <f t="shared" ref="H469" si="663">I469/J469</f>
+        <v>1.1145091933570583</v>
+      </c>
+      <c r="I469" s="5">
+        <v>4209.1000000000004</v>
+      </c>
+      <c r="J469" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K469" s="6">
+        <f t="shared" ref="K469" si="664">(B469-H469)</f>
+        <v>0.36922691244735883</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B470" s="2">
+        <f t="shared" ref="B470" si="665">E470/F470</f>
+        <v>1.4726558225835751</v>
+      </c>
+      <c r="C470" s="3">
+        <v>6000</v>
+      </c>
+      <c r="D470" s="3">
+        <v>0</v>
+      </c>
+      <c r="E470" s="3">
+        <v>704593.85</v>
+      </c>
+      <c r="F470" s="3">
+        <f t="shared" ref="F470" si="666">F469+G470</f>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G470" s="3">
+        <f t="shared" ref="G470" si="667">(C470-D470)/((E470-C470+D470)/F469)</f>
+        <v>4074.2717395255418</v>
+      </c>
+      <c r="H470" s="4">
+        <f t="shared" ref="H470" si="668">I470/J470</f>
+        <v>1.1202470979495003</v>
+      </c>
+      <c r="I470" s="5">
+        <v>4230.7700000000004</v>
+      </c>
+      <c r="J470" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K470" s="6">
+        <f t="shared" ref="K470" si="669">(B470-H470)</f>
+        <v>0.3524087246340748</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B471" s="2">
+        <f t="shared" ref="B471:B480" si="670">E471/F471</f>
+        <v>1.4378113446939322</v>
+      </c>
+      <c r="C471" s="3">
+        <v>0</v>
+      </c>
+      <c r="D471" s="3">
+        <v>0</v>
+      </c>
+      <c r="E471" s="3">
+        <v>687922.47</v>
+      </c>
+      <c r="F471" s="3">
+        <f t="shared" ref="F471:F480" si="671">F470+G471</f>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G471" s="3">
+        <f t="shared" ref="G471:G480" si="672">(C471-D471)/((E471-C471+D471)/F470)</f>
+        <v>0</v>
+      </c>
+      <c r="H471" s="4">
+        <f t="shared" ref="H471:H480" si="673">I471/J471</f>
+        <v>1.1202470979495003</v>
+      </c>
+      <c r="I471" s="5">
+        <v>4230.7700000000004</v>
+      </c>
+      <c r="J471" s="5">
+        <v>3776.64</v>
+      </c>
+      <c r="K471" s="6">
+        <f t="shared" ref="K471:K480" si="674">(B471-H471)</f>
+        <v>0.31756424674443195</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B472" s="2">
+        <f t="shared" si="670"/>
+        <v>1.4834716188474515</v>
+      </c>
+      <c r="C472" s="3">
+        <v>0</v>
+      </c>
+      <c r="D472" s="3">
+        <v>0</v>
+      </c>
+      <c r="E472" s="3">
+        <v>709768.68</v>
+      </c>
+      <c r="F472" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G472" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H472" s="4">
+        <f t="shared" si="673"/>
+        <v>1.1065030018741862</v>
+      </c>
+      <c r="I472" s="5">
+        <v>4179.97</v>
+      </c>
+      <c r="J472" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K472" s="6">
+        <f t="shared" si="674"/>
+        <v>0.37696861697326534</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B473" s="2">
+        <f t="shared" si="670"/>
+        <v>1.4706428479467848</v>
+      </c>
+      <c r="C473" s="3">
+        <v>0</v>
+      </c>
+      <c r="D473" s="3">
+        <v>0</v>
+      </c>
+      <c r="E473" s="3">
+        <v>703630.74</v>
+      </c>
+      <c r="F473" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G473" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H473" s="4">
+        <f t="shared" si="673"/>
+        <v>1.0958534958333774</v>
+      </c>
+      <c r="I473" s="5">
+        <v>4139.74</v>
+      </c>
+      <c r="J473" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K473" s="6">
+        <f t="shared" si="674"/>
+        <v>0.37478935211340736</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B474" s="2">
+        <f t="shared" si="670"/>
+        <v>1.508802460619217</v>
+      </c>
+      <c r="C474" s="3">
+        <v>0</v>
+      </c>
+      <c r="D474" s="3">
+        <v>0</v>
+      </c>
+      <c r="E474" s="3">
+        <v>721888.25</v>
+      </c>
+      <c r="F474" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G474" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H474" s="4">
+        <f t="shared" si="673"/>
+        <v>1.1095737020997236</v>
+      </c>
+      <c r="I474" s="5">
+        <v>4191.57</v>
+      </c>
+      <c r="J474" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K474" s="6">
+        <f t="shared" si="674"/>
+        <v>0.39922875851949335</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B475" s="2">
+        <f t="shared" si="670"/>
+        <v>1.5068410481968049</v>
+      </c>
+      <c r="C475" s="3">
+        <v>0</v>
+      </c>
+      <c r="D475" s="3">
+        <v>0</v>
+      </c>
+      <c r="E475" s="3">
+        <v>720949.81</v>
+      </c>
+      <c r="F475" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G475" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H475" s="4">
+        <f t="shared" si="673"/>
+        <v>1.1088272042862739</v>
+      </c>
+      <c r="I475" s="5">
+        <v>4188.75</v>
+      </c>
+      <c r="J475" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K475" s="6">
+        <f t="shared" si="674"/>
+        <v>0.39801384391053096</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B476" s="2">
+        <f t="shared" si="670"/>
+        <v>1.510304515786826</v>
+      </c>
+      <c r="C476" s="3">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <v>0</v>
+      </c>
+      <c r="E476" s="3">
+        <v>722606.91</v>
+      </c>
+      <c r="F476" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G476" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H476" s="4">
+        <f t="shared" si="673"/>
+        <v>1.1029055177306468</v>
+      </c>
+      <c r="I476" s="5">
+        <v>4166.38</v>
+      </c>
+      <c r="J476" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K476" s="6">
+        <f t="shared" si="674"/>
+        <v>0.40739899805617918</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B477" s="2">
+        <f t="shared" si="670"/>
+        <v>1.501062025435923</v>
+      </c>
+      <c r="C477" s="3">
+        <v>0</v>
+      </c>
+      <c r="D477" s="3">
+        <v>0</v>
+      </c>
+      <c r="E477" s="3">
+        <v>718184.83</v>
+      </c>
+      <c r="F477" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G477" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H477" s="4">
+        <f t="shared" si="673"/>
+        <v>1.0945722726358256</v>
+      </c>
+      <c r="I477" s="5">
+        <v>4134.8999999999996</v>
+      </c>
+      <c r="J477" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K477" s="6">
+        <f t="shared" si="674"/>
+        <v>0.40648975280009747</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B478" s="2">
+        <f t="shared" si="670"/>
+        <v>1.5042658217849907</v>
+      </c>
+      <c r="C478" s="3">
+        <v>0</v>
+      </c>
+      <c r="D478" s="3">
+        <v>0</v>
+      </c>
+      <c r="E478" s="3">
+        <v>719717.69</v>
+      </c>
+      <c r="F478" s="3">
+        <f t="shared" si="671"/>
+        <v>478451.13514974975</v>
+      </c>
+      <c r="G478" s="3">
+        <f t="shared" si="672"/>
+        <v>0</v>
+      </c>
+      <c r="H478" s="4">
+        <f t="shared" si="673"/>
+        <v>1.0776013595789964</v>
+      </c>
+      <c r="I478" s="5">
+        <v>4070.79</v>
+      </c>
+      <c r="J478" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K478" s="6">
+        <f t="shared" si="674"/>
+        <v>0.4266644622059943</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B479" s="2">
+        <f t="shared" si="670"/>
+        <v>1.472239709034304</v>
+      </c>
+      <c r="C479" s="3">
+        <v>0</v>
+      </c>
+      <c r="D479" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E479" s="3">
+        <v>694394.76</v>
+      </c>
+      <c r="F479" s="3">
+        <f t="shared" si="671"/>
+        <v>471658.76299823419</v>
+      </c>
+      <c r="G479" s="3">
+        <f t="shared" si="672"/>
+        <v>-6792.3721515155748</v>
+      </c>
+      <c r="H479" s="4">
+        <f t="shared" si="673"/>
+        <v>1.0577582829491428</v>
+      </c>
+      <c r="I479" s="5">
+        <v>3995.83</v>
+      </c>
+      <c r="J479" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K479" s="6">
+        <f t="shared" si="674"/>
+        <v>0.41448142608516125</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B480" s="2">
+        <f t="shared" si="670"/>
+        <v>1.4681928002312818</v>
+      </c>
+      <c r="C480" s="3">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E480" s="3">
+        <v>690986</v>
+      </c>
+      <c r="F480" s="3">
+        <f t="shared" si="671"/>
+        <v>470637.09881369135</v>
+      </c>
+      <c r="G480" s="3">
+        <f t="shared" si="672"/>
+        <v>-1021.6641845428663</v>
+      </c>
+      <c r="H480" s="4">
+        <f t="shared" si="673"/>
+        <v>1.0623696275981831</v>
+      </c>
+      <c r="I480" s="5">
+        <v>4013.25</v>
+      </c>
+      <c r="J480" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K480" s="6">
+        <f t="shared" si="674"/>
+        <v>0.40582317263309875</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B481" s="2">
+        <f t="shared" ref="B481" si="675">E481/F481</f>
+        <v>1.4084862661080044</v>
+      </c>
+      <c r="C481" s="3">
+        <v>0</v>
+      </c>
+      <c r="D481" s="3">
+        <v>0</v>
+      </c>
+      <c r="E481" s="3">
+        <v>662885.89</v>
+      </c>
+      <c r="F481" s="3">
+        <f t="shared" ref="F481" si="676">F480+G481</f>
+        <v>470637.09881369135</v>
+      </c>
+      <c r="G481" s="3">
+        <f t="shared" ref="G481" si="677">(C481-D481)/((E481-C481+D481)/F480)</f>
+        <v>0</v>
+      </c>
+      <c r="H481" s="4">
+        <f t="shared" ref="H481" si="678">I481/J481</f>
+        <v>1.0098659480522232</v>
+      </c>
+      <c r="I481" s="5">
+        <v>3814.91</v>
+      </c>
+      <c r="J481" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K481" s="6">
+        <f t="shared" ref="K481" si="679">(B481-H481)</f>
+        <v>0.39862031805578124</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B482" s="2">
+        <f t="shared" ref="B482" si="680">E482/F482</f>
+        <v>1.422148831205843</v>
+      </c>
+      <c r="C482" s="3">
+        <v>0</v>
+      </c>
+      <c r="D482" s="3">
+        <v>0</v>
+      </c>
+      <c r="E482" s="3">
+        <v>669316</v>
+      </c>
+      <c r="F482" s="3">
+        <f t="shared" ref="F482" si="681">F481+G482</f>
+        <v>470637.09881369135</v>
+      </c>
+      <c r="G482" s="3">
+        <f t="shared" ref="G482" si="682">(C482-D482)/((E482-C482+D482)/F481)</f>
+        <v>0</v>
+      </c>
+      <c r="H482" s="4">
+        <f t="shared" ref="H482" si="683">I482/J482</f>
+        <v>1.0017153566777142</v>
+      </c>
+      <c r="I482" s="5">
+        <v>3784.12</v>
+      </c>
+      <c r="J482" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K482" s="6">
+        <f t="shared" ref="K482" si="684">(B482-H482)</f>
+        <v>0.42043347452812885</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B483" s="2">
+        <f t="shared" ref="B483" si="685">E483/F483</f>
+        <v>1.441312088889382</v>
+      </c>
+      <c r="C483" s="3">
+        <v>0</v>
+      </c>
+      <c r="D483" s="3">
+        <v>0</v>
+      </c>
+      <c r="E483" s="3">
+        <v>678334.94</v>
+      </c>
+      <c r="F483" s="3">
+        <f t="shared" ref="F483" si="686">F482+G483</f>
+        <v>470637.09881369135</v>
+      </c>
+      <c r="G483" s="3">
+        <f t="shared" ref="G483" si="687">(C483-D483)/((E483-C483+D483)/F482)</f>
+        <v>0</v>
+      </c>
+      <c r="H483" s="4">
+        <f t="shared" ref="H483" si="688">I483/J483</f>
+        <v>1.0312099617750765</v>
+      </c>
+      <c r="I483" s="5">
+        <v>3895.54</v>
+      </c>
+      <c r="J483" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K483" s="6">
+        <f t="shared" ref="K483" si="689">(B483-H483)</f>
+        <v>0.41010212711430549</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B484" s="2">
+        <f t="shared" ref="B484" si="690">E484/F484</f>
+        <v>1.4491966776932683</v>
+      </c>
+      <c r="C484" s="3">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E484" s="3">
+        <v>680545.72</v>
+      </c>
+      <c r="F484" s="3">
+        <f t="shared" ref="F484" si="691">F483+G484</f>
+        <v>469602.04261801502</v>
+      </c>
+      <c r="G484" s="3">
+        <f t="shared" ref="G484" si="692">(C484-D484)/((E484-C484+D484)/F483)</f>
+        <v>-1035.0561956763502</v>
+      </c>
+      <c r="H484" s="4">
+        <f t="shared" ref="H484" si="693">I484/J484</f>
+        <v>1.0379787380480936</v>
+      </c>
+      <c r="I484" s="5">
+        <v>3921.11</v>
+      </c>
+      <c r="J484" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K484" s="6">
+        <f t="shared" ref="K484" si="694">(B484-H484)</f>
+        <v>0.41121793964517472</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B485" s="2">
+        <f t="shared" ref="B485" si="695">E485/F485</f>
+        <v>1.4851651967095696</v>
+      </c>
+      <c r="C485" s="3">
+        <v>0</v>
+      </c>
+      <c r="D485" s="3">
+        <v>0</v>
+      </c>
+      <c r="E485" s="3">
+        <v>697436.61</v>
+      </c>
+      <c r="F485" s="3">
+        <f t="shared" ref="F485" si="696">F484+G485</f>
+        <v>469602.04261801502</v>
+      </c>
+      <c r="G485" s="3">
+        <f t="shared" ref="G485" si="697">(C485-D485)/((E485-C485+D485)/F484)</f>
+        <v>0</v>
+      </c>
+      <c r="H485" s="4">
+        <f t="shared" ref="H485" si="698">I485/J485</f>
+        <v>1.0631611270528689</v>
+      </c>
+      <c r="I485" s="5">
+        <v>4016.24</v>
+      </c>
+      <c r="J485" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K485" s="6">
+        <f t="shared" ref="K485" si="699">(B485-H485)</f>
+        <v>0.42200406965670068</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE21911-9F26-4DD8-88D6-3A3D2A2DA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825901F0-4B9B-4F43-BE3C-23D019590536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1870,6 +1870,21 @@
                 <c:pt idx="493">
                   <c:v>44680</c:v>
                 </c:pt>
+                <c:pt idx="494">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3360,6 +3375,21 @@
                 </c:pt>
                 <c:pt idx="493">
                   <c:v>1.4689744038032195</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.4978760911460927</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.4762936824378543</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.4785786385330395</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.4917191934117093</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.4932697421350654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4924,6 +4954,21 @@
                 <c:pt idx="493">
                   <c:v>44680</c:v>
                 </c:pt>
+                <c:pt idx="494">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -6414,6 +6459,21 @@
                 </c:pt>
                 <c:pt idx="493">
                   <c:v>1.0625985543596745</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.0610031643225282</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.0341778582087184</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.0258754802044641</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.0371014170661756</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.0520631594543397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8186,6 +8246,51 @@
                 <c:pt idx="483">
                   <c:v>44680</c:v>
                 </c:pt>
+                <c:pt idx="484">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44706</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -9646,6 +9751,51 @@
                 </c:pt>
                 <c:pt idx="483">
                   <c:v>1.4851651967095696</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.51174402062272</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.4835144798692459</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.4815429948477123</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.4990693050507795</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.5053839385822221</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.5082852111262512</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.5198453367103437</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.5082346766440902</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.5033907075145221</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.4956693459446149</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.4851099226145303</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.527390851940299</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.5148101133455028</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.4782173222839474</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.4896949878853247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11141,6 +11291,51 @@
                 <c:pt idx="483">
                   <c:v>44680</c:v>
                 </c:pt>
+                <c:pt idx="484">
+                  <c:v>44686</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>44687</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>44691</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>44706</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -12601,6 +12796,51 @@
                 </c:pt>
                 <c:pt idx="483">
                   <c:v>1.0631611270528689</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1.0615648923666627</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1.0347253841022439</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1.0264186105610911</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1.037650490782605</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1.052620154382101</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1.0479399836935228</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1.0558443896189156</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1.0473576095128176</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1.0604213212481868</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1.0567205980453405</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1.0587562605224425</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1.0794040723838163</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1.0731514914073337</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1.0480485170635636</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1.0544096314100868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13704,11 +13944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q495"/>
+  <dimension ref="A1:Q515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E496" sqref="E496"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E516" sqref="E516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33474,6 +33714,806 @@
         <v>0.40637584944354499</v>
       </c>
     </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B496" s="2">
+        <f t="shared" ref="B496" si="784">E496/F496</f>
+        <v>1.4978760911460927</v>
+      </c>
+      <c r="C496" s="3">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <v>0</v>
+      </c>
+      <c r="E496" s="3">
+        <v>376476.69</v>
+      </c>
+      <c r="F496" s="3">
+        <f t="shared" ref="F496" si="785">F495+G496</f>
+        <v>251340.34265273617</v>
+      </c>
+      <c r="G496" s="3">
+        <f t="shared" ref="G496" si="786">(C496-D496)/((E496-C496+D496)/F495)</f>
+        <v>0</v>
+      </c>
+      <c r="H496" s="4">
+        <f t="shared" ref="H496" si="787">I496/J496</f>
+        <v>1.0610031643225282</v>
+      </c>
+      <c r="I496" s="5">
+        <v>4010.21</v>
+      </c>
+      <c r="J496" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K496" s="6">
+        <f t="shared" ref="K496" si="788">(B496-H496)</f>
+        <v>0.43687292682356449</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B497" s="2">
+        <f t="shared" ref="B497" si="789">E497/F497</f>
+        <v>1.4762936824378543</v>
+      </c>
+      <c r="C497" s="3">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E497" s="3">
+        <v>369552.16</v>
+      </c>
+      <c r="F497" s="3">
+        <f t="shared" ref="F497" si="790">F496+G497</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G497" s="3">
+        <f t="shared" ref="G497" si="791">(C497-D497)/((E497-C497+D497)/F496)</f>
+        <v>-1016.057995671294</v>
+      </c>
+      <c r="H497" s="4">
+        <f t="shared" ref="H497" si="792">I497/J497</f>
+        <v>1.0341778582087184</v>
+      </c>
+      <c r="I497" s="5">
+        <v>3908.82</v>
+      </c>
+      <c r="J497" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K497" s="6">
+        <f t="shared" ref="K497" si="793">(B497-H497)</f>
+        <v>0.44211582422913587</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B498" s="2">
+        <f t="shared" ref="B498" si="794">E498/F498</f>
+        <v>1.4785786385330395</v>
+      </c>
+      <c r="C498" s="3">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <v>0</v>
+      </c>
+      <c r="E498" s="3">
+        <v>370124.14</v>
+      </c>
+      <c r="F498" s="3">
+        <f t="shared" ref="F498" si="795">F497+G498</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G498" s="3">
+        <f t="shared" ref="G498" si="796">(C498-D498)/((E498-C498+D498)/F497)</f>
+        <v>0</v>
+      </c>
+      <c r="H498" s="4">
+        <f t="shared" ref="H498" si="797">I498/J498</f>
+        <v>1.0258754802044641</v>
+      </c>
+      <c r="I498" s="5">
+        <v>3877.44</v>
+      </c>
+      <c r="J498" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K498" s="6">
+        <f t="shared" ref="K498" si="798">(B498-H498)</f>
+        <v>0.45270315832857544</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B499" s="2">
+        <f t="shared" ref="B499" si="799">E499/F499</f>
+        <v>1.4917191934117093</v>
+      </c>
+      <c r="C499" s="3">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3">
+        <v>0</v>
+      </c>
+      <c r="E499" s="3">
+        <v>373413.54</v>
+      </c>
+      <c r="F499" s="3">
+        <f t="shared" ref="F499" si="800">F498+G499</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G499" s="3">
+        <f t="shared" ref="G499" si="801">(C499-D499)/((E499-C499+D499)/F498)</f>
+        <v>0</v>
+      </c>
+      <c r="H499" s="4">
+        <f t="shared" ref="H499" si="802">I499/J499</f>
+        <v>1.0371014170661756</v>
+      </c>
+      <c r="I499" s="5">
+        <v>3919.87</v>
+      </c>
+      <c r="J499" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K499" s="6">
+        <f t="shared" ref="K499" si="803">(B499-H499)</f>
+        <v>0.45461777634553369</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B500" s="2">
+        <f t="shared" ref="B500" si="804">E500/F500</f>
+        <v>1.4932697421350654</v>
+      </c>
+      <c r="C500" s="3">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <v>0</v>
+      </c>
+      <c r="E500" s="3">
+        <v>373801.68</v>
+      </c>
+      <c r="F500" s="3">
+        <f t="shared" ref="F500" si="805">F499+G500</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G500" s="3">
+        <f t="shared" ref="G500" si="806">(C500-D500)/((E500-C500+D500)/F499)</f>
+        <v>0</v>
+      </c>
+      <c r="H500" s="4">
+        <f t="shared" ref="H500" si="807">I500/J500</f>
+        <v>1.0520631594543397</v>
+      </c>
+      <c r="I500" s="5">
+        <v>3976.42</v>
+      </c>
+      <c r="J500" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K500" s="6">
+        <f t="shared" ref="K500" si="808">(B500-H500)</f>
+        <v>0.44120658268072566</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B501" s="2">
+        <f t="shared" ref="B501" si="809">E501/F501</f>
+        <v>1.496910978946143</v>
+      </c>
+      <c r="C501" s="3">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <v>0</v>
+      </c>
+      <c r="E501" s="3">
+        <v>374713.17</v>
+      </c>
+      <c r="F501" s="3">
+        <f t="shared" ref="F501" si="810">F500+G501</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G501" s="3">
+        <f t="shared" ref="G501" si="811">(C501-D501)/((E501-C501+D501)/F500)</f>
+        <v>0</v>
+      </c>
+      <c r="H501" s="4">
+        <f t="shared" ref="H501" si="812">I501/J501</f>
+        <v>1.0473854652824077</v>
+      </c>
+      <c r="I501" s="5">
+        <v>3958.74</v>
+      </c>
+      <c r="J501" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K501" s="6">
+        <f t="shared" ref="K501" si="813">(B501-H501)</f>
+        <v>0.44952551366373528</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B502" s="2">
+        <f t="shared" ref="B502" si="814">E502/F502</f>
+        <v>1.5098117248902456</v>
+      </c>
+      <c r="C502" s="3">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <v>0</v>
+      </c>
+      <c r="E502" s="3">
+        <v>377942.54</v>
+      </c>
+      <c r="F502" s="3">
+        <f t="shared" ref="F502" si="815">F501+G502</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G502" s="3">
+        <f t="shared" ref="G502" si="816">(C502-D502)/((E502-C502+D502)/F501)</f>
+        <v>0</v>
+      </c>
+      <c r="H502" s="4">
+        <f t="shared" ref="H502" si="817">I502/J502</f>
+        <v>1.055285688584098</v>
+      </c>
+      <c r="I502" s="5">
+        <v>3988.6</v>
+      </c>
+      <c r="J502" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K502" s="6">
+        <f t="shared" ref="K502" si="818">(B502-H502)</f>
+        <v>0.45452603630614763</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B503" s="2">
+        <f t="shared" ref="B503" si="819">E503/F503</f>
+        <v>1.4978017035528488</v>
+      </c>
+      <c r="C503" s="3">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <v>0</v>
+      </c>
+      <c r="E503" s="3">
+        <v>374936.14</v>
+      </c>
+      <c r="F503" s="3">
+        <f t="shared" ref="F503" si="820">F502+G503</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G503" s="3">
+        <f t="shared" ref="G503" si="821">(C503-D503)/((E503-C503+D503)/F502)</f>
+        <v>0</v>
+      </c>
+      <c r="H503" s="4">
+        <f t="shared" ref="H503" si="822">I503/J503</f>
+        <v>1.0468033992655386</v>
+      </c>
+      <c r="I503" s="5">
+        <v>3956.54</v>
+      </c>
+      <c r="J503" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K503" s="6">
+        <f t="shared" ref="K503" si="823">(B503-H503)</f>
+        <v>0.45099830428731025</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B504" s="2">
+        <f t="shared" ref="B504" si="824">E504/F504</f>
+        <v>1.4907313547753633</v>
+      </c>
+      <c r="C504" s="3">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <v>0</v>
+      </c>
+      <c r="E504" s="3">
+        <v>373166.26</v>
+      </c>
+      <c r="F504" s="3">
+        <f t="shared" ref="F504" si="825">F503+G504</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G504" s="3">
+        <f t="shared" ref="G504" si="826">(C504-D504)/((E504-C504+D504)/F503)</f>
+        <v>0</v>
+      </c>
+      <c r="H504" s="4">
+        <f t="shared" ref="H504" si="827">I504/J504</f>
+        <v>1.0598601983257665</v>
+      </c>
+      <c r="I504" s="5">
+        <v>4005.89</v>
+      </c>
+      <c r="J504" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K504" s="6">
+        <f t="shared" ref="K504" si="828">(B504-H504)</f>
+        <v>0.43087115644959684</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B505" s="2">
+        <f t="shared" ref="B505" si="829">E505/F505</f>
+        <v>1.4827626113402914</v>
+      </c>
+      <c r="C505" s="3">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <v>0</v>
+      </c>
+      <c r="E505" s="3">
+        <v>371171.49</v>
+      </c>
+      <c r="F505" s="3">
+        <f t="shared" ref="F505" si="830">F504+G505</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G505" s="3">
+        <f t="shared" ref="G505" si="831">(C505-D505)/((E505-C505+D505)/F504)</f>
+        <v>0</v>
+      </c>
+      <c r="H505" s="4">
+        <f t="shared" ref="H505" si="832">I505/J505</f>
+        <v>1.0561614333640241</v>
+      </c>
+      <c r="I505" s="5">
+        <v>3991.91</v>
+      </c>
+      <c r="J505" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K505" s="6">
+        <f t="shared" ref="K505" si="833">(B505-H505)</f>
+        <v>0.42660117797626729</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B506" s="2">
+        <f t="shared" ref="B506" si="834">E506/F506</f>
+        <v>1.4732817493326309</v>
+      </c>
+      <c r="C506" s="3">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <v>0</v>
+      </c>
+      <c r="E506" s="3">
+        <v>368798.2</v>
+      </c>
+      <c r="F506" s="3">
+        <f t="shared" ref="F506" si="835">F505+G506</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G506" s="3">
+        <f t="shared" ref="G506" si="836">(C506-D506)/((E506-C506+D506)/F505)</f>
+        <v>0</v>
+      </c>
+      <c r="H506" s="4">
+        <f t="shared" ref="H506" si="837">I506/J506</f>
+        <v>1.0581960186684447</v>
+      </c>
+      <c r="I506" s="5">
+        <v>3999.6</v>
+      </c>
+      <c r="J506" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K506" s="6">
+        <f t="shared" ref="K506" si="838">(B506-H506)</f>
+        <v>0.41508573066418619</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B507" s="2">
+        <f t="shared" ref="B507" si="839">E507/F507</f>
+        <v>1.5145169016237519</v>
+      </c>
+      <c r="C507" s="3">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <v>0</v>
+      </c>
+      <c r="E507" s="3">
+        <v>379120.36</v>
+      </c>
+      <c r="F507" s="3">
+        <f t="shared" ref="F507" si="840">F506+G507</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G507" s="3">
+        <f t="shared" ref="G507" si="841">(C507-D507)/((E507-C507+D507)/F506)</f>
+        <v>0</v>
+      </c>
+      <c r="H507" s="4">
+        <f t="shared" ref="H507" si="842">I507/J507</f>
+        <v>1.0788329047210845</v>
+      </c>
+      <c r="I507" s="5">
+        <v>4077.6</v>
+      </c>
+      <c r="J507" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K507" s="6">
+        <f t="shared" ref="K507" si="843">(B507-H507)</f>
+        <v>0.43568399690266735</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B508" s="2">
+        <f t="shared" ref="B508" si="844">E508/F508</f>
+        <v>1.5050928459304265</v>
+      </c>
+      <c r="C508" s="3">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <v>0</v>
+      </c>
+      <c r="E508" s="3">
+        <v>376761.29</v>
+      </c>
+      <c r="F508" s="3">
+        <f t="shared" ref="F508" si="845">F507+G508</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G508" s="3">
+        <f t="shared" ref="G508" si="846">(C508-D508)/((E508-C508+D508)/F507)</f>
+        <v>0</v>
+      </c>
+      <c r="H508" s="4">
+        <f t="shared" ref="H508" si="847">I508/J508</f>
+        <v>1.0725836323036058</v>
+      </c>
+      <c r="I508" s="5">
+        <v>4053.98</v>
+      </c>
+      <c r="J508" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K508" s="6">
+        <f t="shared" ref="K508" si="848">(B508-H508)</f>
+        <v>0.43250921362682071</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B509" s="2">
+        <f t="shared" ref="B509" si="849">E509/F509</f>
+        <v>1.4679945675403683</v>
+      </c>
+      <c r="C509" s="3">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <v>0</v>
+      </c>
+      <c r="E509" s="3">
+        <v>367474.69</v>
+      </c>
+      <c r="F509" s="3">
+        <f t="shared" ref="F509" si="850">F508+G509</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G509" s="3">
+        <f t="shared" ref="G509" si="851">(C509-D509)/((E509-C509+D509)/F508)</f>
+        <v>0</v>
+      </c>
+      <c r="H509" s="4">
+        <f t="shared" ref="H509" si="852">I509/J509</f>
+        <v>1.0474939412219153</v>
+      </c>
+      <c r="I509" s="5">
+        <v>3959.15</v>
+      </c>
+      <c r="J509" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K509" s="6">
+        <f t="shared" ref="K509" si="853">(B509-H509)</f>
+        <v>0.42050062631845297</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B510" s="2">
+        <f t="shared" ref="B510" si="854">E510/F510</f>
+        <v>1.4800109406386508</v>
+      </c>
+      <c r="C510" s="3">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <v>0</v>
+      </c>
+      <c r="E510" s="3">
+        <v>370482.68</v>
+      </c>
+      <c r="F510" s="3">
+        <f t="shared" ref="F510" si="855">F509+G510</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G510" s="3">
+        <f t="shared" ref="G510" si="856">(C510-D510)/((E510-C510+D510)/F509)</f>
+        <v>0</v>
+      </c>
+      <c r="H510" s="4">
+        <f t="shared" ref="H510" si="857">I510/J510</f>
+        <v>1.0538516895789016</v>
+      </c>
+      <c r="I510" s="5">
+        <v>3983.18</v>
+      </c>
+      <c r="J510" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K510" s="6">
+        <f t="shared" ref="K510" si="858">(B510-H510)</f>
+        <v>0.42615925105974917</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B511" s="2">
+        <f t="shared" ref="B511" si="859">E511/F511</f>
+        <v>1.4837553636029832</v>
+      </c>
+      <c r="C511" s="3">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <v>0</v>
+      </c>
+      <c r="E511" s="3">
+        <v>371420</v>
+      </c>
+      <c r="F511" s="3">
+        <f t="shared" ref="F511" si="860">F510+G511</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G511" s="3">
+        <f t="shared" ref="G511" si="861">(C511-D511)/((E511-C511+D511)/F510)</f>
+        <v>0</v>
+      </c>
+      <c r="H511" s="4">
+        <f t="shared" ref="H511" si="862">I511/J511</f>
+        <v>1.0564604036363252</v>
+      </c>
+      <c r="I511" s="5">
+        <v>3993.04</v>
+      </c>
+      <c r="J511" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K511" s="6">
+        <f t="shared" ref="K511" si="863">(B511-H511)</f>
+        <v>0.42729495996665801</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B512" s="2">
+        <f t="shared" ref="B512" si="864">E512/F512</f>
+        <v>1.4805998567328362</v>
+      </c>
+      <c r="C512" s="3">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <v>0</v>
+      </c>
+      <c r="E512" s="3">
+        <v>370630.1</v>
+      </c>
+      <c r="F512" s="3">
+        <f t="shared" ref="F512" si="865">F511+G512</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G512" s="3">
+        <f t="shared" ref="G512" si="866">(C512-D512)/((E512-C512+D512)/F511)</f>
+        <v>0</v>
+      </c>
+      <c r="H512" s="4">
+        <f t="shared" ref="H512" si="867">I512/J512</f>
+        <v>1.0586457969542074</v>
+      </c>
+      <c r="I512" s="5">
+        <v>4001.3</v>
+      </c>
+      <c r="J512" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K512" s="6">
+        <f t="shared" ref="K512" si="868">(B512-H512)</f>
+        <v>0.42195405977862888</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B513" s="2">
+        <f t="shared" ref="B513" si="869">E513/F513</f>
+        <v>1.5039063449866334</v>
+      </c>
+      <c r="C513" s="3">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3">
+        <v>0</v>
+      </c>
+      <c r="E513" s="3">
+        <v>376464.28</v>
+      </c>
+      <c r="F513" s="3">
+        <f t="shared" ref="F513" si="870">F512+G513</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G513" s="3">
+        <f t="shared" ref="G513" si="871">(C513-D513)/((E513-C513+D513)/F512)</f>
+        <v>0</v>
+      </c>
+      <c r="H513" s="4">
+        <f t="shared" ref="H513" si="872">I513/J513</f>
+        <v>1.0659798287667608</v>
+      </c>
+      <c r="I513" s="5">
+        <v>4029.02</v>
+      </c>
+      <c r="J513" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K513" s="6">
+        <f t="shared" ref="K513" si="873">(B513-H513)</f>
+        <v>0.43792651621987266</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B514" s="2">
+        <f t="shared" ref="B514" si="874">E514/F514</f>
+        <v>1.5387916539048765</v>
+      </c>
+      <c r="C514" s="3">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3">
+        <v>0</v>
+      </c>
+      <c r="E514" s="3">
+        <v>385196.92</v>
+      </c>
+      <c r="F514" s="3">
+        <f t="shared" ref="F514" si="875">F513+G514</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G514" s="3">
+        <f t="shared" ref="G514" si="876">(C514-D514)/((E514-C514+D514)/F513)</f>
+        <v>0</v>
+      </c>
+      <c r="H514" s="4">
+        <f t="shared" ref="H514" si="877">I514/J514</f>
+        <v>1.0825157951550941</v>
+      </c>
+      <c r="I514" s="5">
+        <v>4091.52</v>
+      </c>
+      <c r="J514" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K514" s="6">
+        <f t="shared" ref="K514" si="878">(B514-H514)</f>
+        <v>0.45627585874978238</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B515" s="2">
+        <f t="shared" ref="B515" si="879">E515/F515</f>
+        <v>1.5245680239247579</v>
+      </c>
+      <c r="C515" s="3">
+        <v>0</v>
+      </c>
+      <c r="D515" s="3">
+        <v>0</v>
+      </c>
+      <c r="E515" s="3">
+        <v>381636.4</v>
+      </c>
+      <c r="F515" s="3">
+        <f t="shared" ref="F515" si="880">F514+G515</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G515" s="3">
+        <f t="shared" ref="G515" si="881">(C515-D515)/((E515-C515+D515)/F514)</f>
+        <v>0</v>
+      </c>
+      <c r="H515" s="4">
+        <f t="shared" ref="H515" si="882">I515/J515</f>
+        <v>1.0803092358002349</v>
+      </c>
+      <c r="I515" s="5">
+        <v>4083.18</v>
+      </c>
+      <c r="J515" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K515" s="6">
+        <f t="shared" ref="K515" si="883">(B515-H515)</f>
+        <v>0.44425878812452302</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -33484,11 +34524,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L485"/>
+  <dimension ref="A1:L505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E486" sqref="E486"/>
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52851,6 +53891,806 @@
         <v>0.42200406965670068</v>
       </c>
     </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B486" s="2">
+        <f t="shared" ref="B486" si="700">E486/F486</f>
+        <v>1.51174402062272</v>
+      </c>
+      <c r="C486" s="3">
+        <v>0</v>
+      </c>
+      <c r="D486" s="3">
+        <v>0</v>
+      </c>
+      <c r="E486" s="3">
+        <v>709918.08</v>
+      </c>
+      <c r="F486" s="3">
+        <f t="shared" ref="F486" si="701">F485+G486</f>
+        <v>469602.04261801502</v>
+      </c>
+      <c r="G486" s="3">
+        <f t="shared" ref="G486" si="702">(C486-D486)/((E486-C486+D486)/F485)</f>
+        <v>0</v>
+      </c>
+      <c r="H486" s="4">
+        <f t="shared" ref="H486" si="703">I486/J486</f>
+        <v>1.0615648923666627</v>
+      </c>
+      <c r="I486" s="5">
+        <v>4010.21</v>
+      </c>
+      <c r="J486" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K486" s="6">
+        <f t="shared" ref="K486" si="704">(B486-H486)</f>
+        <v>0.45017912825605721</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B487" s="2">
+        <f t="shared" ref="B487" si="705">E487/F487</f>
+        <v>1.4835144798692459</v>
+      </c>
+      <c r="C487" s="3">
+        <v>0</v>
+      </c>
+      <c r="D487" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E487" s="3">
+        <v>695161.43</v>
+      </c>
+      <c r="F487" s="3">
+        <f t="shared" ref="F487" si="706">F486+G487</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G487" s="3">
+        <f t="shared" ref="G487" si="707">(C487-D487)/((E487-C487+D487)/F486)</f>
+        <v>-1011.1124767263526</v>
+      </c>
+      <c r="H487" s="4">
+        <f t="shared" ref="H487" si="708">I487/J487</f>
+        <v>1.0347253841022439</v>
+      </c>
+      <c r="I487" s="5">
+        <v>3908.82</v>
+      </c>
+      <c r="J487" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K487" s="6">
+        <f t="shared" ref="K487" si="709">(B487-H487)</f>
+        <v>0.44878909576700199</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B488" s="2">
+        <f t="shared" ref="B488" si="710">E488/F488</f>
+        <v>1.4815429948477123</v>
+      </c>
+      <c r="C488" s="3">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <v>0</v>
+      </c>
+      <c r="E488" s="3">
+        <v>694237.61</v>
+      </c>
+      <c r="F488" s="3">
+        <f t="shared" ref="F488" si="711">F487+G488</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G488" s="3">
+        <f t="shared" ref="G488" si="712">(C488-D488)/((E488-C488+D488)/F487)</f>
+        <v>0</v>
+      </c>
+      <c r="H488" s="4">
+        <f t="shared" ref="H488" si="713">I488/J488</f>
+        <v>1.0264186105610911</v>
+      </c>
+      <c r="I488" s="5">
+        <v>3877.44</v>
+      </c>
+      <c r="J488" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K488" s="6">
+        <f t="shared" ref="K488" si="714">(B488-H488)</f>
+        <v>0.45512438428662128</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B489" s="2">
+        <f t="shared" ref="B489" si="715">E489/F489</f>
+        <v>1.4990693050507795</v>
+      </c>
+      <c r="C489" s="3">
+        <v>0</v>
+      </c>
+      <c r="D489" s="3">
+        <v>0</v>
+      </c>
+      <c r="E489" s="3">
+        <v>702450.28</v>
+      </c>
+      <c r="F489" s="3">
+        <f t="shared" ref="F489" si="716">F488+G489</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G489" s="3">
+        <f t="shared" ref="G489" si="717">(C489-D489)/((E489-C489+D489)/F488)</f>
+        <v>0</v>
+      </c>
+      <c r="H489" s="4">
+        <f t="shared" ref="H489" si="718">I489/J489</f>
+        <v>1.037650490782605</v>
+      </c>
+      <c r="I489" s="5">
+        <v>3919.87</v>
+      </c>
+      <c r="J489" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K489" s="6">
+        <f t="shared" ref="K489" si="719">(B489-H489)</f>
+        <v>0.46141881426817455</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B490" s="2">
+        <f t="shared" ref="B490" si="720">E490/F490</f>
+        <v>1.5053839385822221</v>
+      </c>
+      <c r="C490" s="3">
+        <v>0</v>
+      </c>
+      <c r="D490" s="3">
+        <v>0</v>
+      </c>
+      <c r="E490" s="3">
+        <v>705409.26</v>
+      </c>
+      <c r="F490" s="3">
+        <f t="shared" ref="F490" si="721">F489+G490</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G490" s="3">
+        <f t="shared" ref="G490" si="722">(C490-D490)/((E490-C490+D490)/F489)</f>
+        <v>0</v>
+      </c>
+      <c r="H490" s="4">
+        <f t="shared" ref="H490" si="723">I490/J490</f>
+        <v>1.052620154382101</v>
+      </c>
+      <c r="I490" s="5">
+        <v>3976.42</v>
+      </c>
+      <c r="J490" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K490" s="6">
+        <f t="shared" ref="K490" si="724">(B490-H490)</f>
+        <v>0.45276378420012109</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B491" s="2">
+        <f t="shared" ref="B491" si="725">E491/F491</f>
+        <v>1.5082852111262512</v>
+      </c>
+      <c r="C491" s="3">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <v>0</v>
+      </c>
+      <c r="E491" s="3">
+        <v>706768.77</v>
+      </c>
+      <c r="F491" s="3">
+        <f t="shared" ref="F491" si="726">F490+G491</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G491" s="3">
+        <f t="shared" ref="G491" si="727">(C491-D491)/((E491-C491+D491)/F490)</f>
+        <v>0</v>
+      </c>
+      <c r="H491" s="4">
+        <f t="shared" ref="H491" si="728">I491/J491</f>
+        <v>1.0479399836935228</v>
+      </c>
+      <c r="I491" s="5">
+        <v>3958.74</v>
+      </c>
+      <c r="J491" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K491" s="6">
+        <f t="shared" ref="K491" si="729">(B491-H491)</f>
+        <v>0.46034522743272843</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B492" s="2">
+        <f t="shared" ref="B492" si="730">E492/F492</f>
+        <v>1.5198453367103437</v>
+      </c>
+      <c r="C492" s="3">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <v>0</v>
+      </c>
+      <c r="E492" s="3">
+        <v>712185.74</v>
+      </c>
+      <c r="F492" s="3">
+        <f t="shared" ref="F492" si="731">F491+G492</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G492" s="3">
+        <f t="shared" ref="G492" si="732">(C492-D492)/((E492-C492+D492)/F491)</f>
+        <v>0</v>
+      </c>
+      <c r="H492" s="4">
+        <f t="shared" ref="H492" si="733">I492/J492</f>
+        <v>1.0558443896189156</v>
+      </c>
+      <c r="I492" s="5">
+        <v>3988.6</v>
+      </c>
+      <c r="J492" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K492" s="6">
+        <f t="shared" ref="K492" si="734">(B492-H492)</f>
+        <v>0.46400094709142814</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B493" s="2">
+        <f t="shared" ref="B493" si="735">E493/F493</f>
+        <v>1.5082346766440902</v>
+      </c>
+      <c r="C493" s="3">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <v>0</v>
+      </c>
+      <c r="E493" s="3">
+        <v>706745.09</v>
+      </c>
+      <c r="F493" s="3">
+        <f t="shared" ref="F493" si="736">F492+G493</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G493" s="3">
+        <f t="shared" ref="G493" si="737">(C493-D493)/((E493-C493+D493)/F492)</f>
+        <v>0</v>
+      </c>
+      <c r="H493" s="4">
+        <f t="shared" ref="H493" si="738">I493/J493</f>
+        <v>1.0473576095128176</v>
+      </c>
+      <c r="I493" s="5">
+        <v>3956.54</v>
+      </c>
+      <c r="J493" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K493" s="6">
+        <f t="shared" ref="K493" si="739">(B493-H493)</f>
+        <v>0.46087706713127252</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B494" s="2">
+        <f t="shared" ref="B494" si="740">E494/F494</f>
+        <v>1.5033907075145221</v>
+      </c>
+      <c r="C494" s="3">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <v>0</v>
+      </c>
+      <c r="E494" s="3">
+        <v>704475.25</v>
+      </c>
+      <c r="F494" s="3">
+        <f t="shared" ref="F494" si="741">F493+G494</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G494" s="3">
+        <f t="shared" ref="G494" si="742">(C494-D494)/((E494-C494+D494)/F493)</f>
+        <v>0</v>
+      </c>
+      <c r="H494" s="4">
+        <f t="shared" ref="H494" si="743">I494/J494</f>
+        <v>1.0604213212481868</v>
+      </c>
+      <c r="I494" s="5">
+        <v>4005.89</v>
+      </c>
+      <c r="J494" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K494" s="6">
+        <f t="shared" ref="K494" si="744">(B494-H494)</f>
+        <v>0.44296938626633531</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B495" s="2">
+        <f t="shared" ref="B495" si="745">E495/F495</f>
+        <v>1.4956693459446149</v>
+      </c>
+      <c r="C495" s="3">
+        <v>0</v>
+      </c>
+      <c r="D495" s="3">
+        <v>0</v>
+      </c>
+      <c r="E495" s="3">
+        <v>700857.09</v>
+      </c>
+      <c r="F495" s="3">
+        <f t="shared" ref="F495" si="746">F494+G495</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G495" s="3">
+        <f t="shared" ref="G495" si="747">(C495-D495)/((E495-C495+D495)/F494)</f>
+        <v>0</v>
+      </c>
+      <c r="H495" s="4">
+        <f t="shared" ref="H495" si="748">I495/J495</f>
+        <v>1.0567205980453405</v>
+      </c>
+      <c r="I495" s="5">
+        <v>3991.91</v>
+      </c>
+      <c r="J495" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K495" s="6">
+        <f t="shared" ref="K495" si="749">(B495-H495)</f>
+        <v>0.43894874789927441</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B496" s="2">
+        <f t="shared" ref="B496" si="750">E496/F496</f>
+        <v>1.4851099226145303</v>
+      </c>
+      <c r="C496" s="3">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <v>0</v>
+      </c>
+      <c r="E496" s="3">
+        <v>695909.04</v>
+      </c>
+      <c r="F496" s="3">
+        <f t="shared" ref="F496" si="751">F495+G496</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G496" s="3">
+        <f t="shared" ref="G496" si="752">(C496-D496)/((E496-C496+D496)/F495)</f>
+        <v>0</v>
+      </c>
+      <c r="H496" s="4">
+        <f t="shared" ref="H496" si="753">I496/J496</f>
+        <v>1.0587562605224425</v>
+      </c>
+      <c r="I496" s="5">
+        <v>3999.6</v>
+      </c>
+      <c r="J496" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K496" s="6">
+        <f t="shared" ref="K496" si="754">(B496-H496)</f>
+        <v>0.4263536620920878</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B497" s="2">
+        <f t="shared" ref="B497" si="755">E497/F497</f>
+        <v>1.527390851940299</v>
+      </c>
+      <c r="C497" s="3">
+        <v>0</v>
+      </c>
+      <c r="D497" s="3">
+        <v>0</v>
+      </c>
+      <c r="E497" s="3">
+        <v>715721.5</v>
+      </c>
+      <c r="F497" s="3">
+        <f t="shared" ref="F497" si="756">F496+G497</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G497" s="3">
+        <f t="shared" ref="G497" si="757">(C497-D497)/((E497-C497+D497)/F496)</f>
+        <v>0</v>
+      </c>
+      <c r="H497" s="4">
+        <f t="shared" ref="H497" si="758">I497/J497</f>
+        <v>1.0794040723838163</v>
+      </c>
+      <c r="I497" s="5">
+        <v>4077.6</v>
+      </c>
+      <c r="J497" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K497" s="6">
+        <f t="shared" ref="K497" si="759">(B497-H497)</f>
+        <v>0.44798677955648269</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B498" s="2">
+        <f t="shared" ref="B498" si="760">E498/F498</f>
+        <v>1.5148101133455028</v>
+      </c>
+      <c r="C498" s="3">
+        <v>0</v>
+      </c>
+      <c r="D498" s="3">
+        <v>0</v>
+      </c>
+      <c r="E498" s="3">
+        <v>709826.28</v>
+      </c>
+      <c r="F498" s="3">
+        <f t="shared" ref="F498" si="761">F497+G498</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G498" s="3">
+        <f t="shared" ref="G498" si="762">(C498-D498)/((E498-C498+D498)/F497)</f>
+        <v>0</v>
+      </c>
+      <c r="H498" s="4">
+        <f t="shared" ref="H498" si="763">I498/J498</f>
+        <v>1.0731514914073337</v>
+      </c>
+      <c r="I498" s="5">
+        <v>4053.98</v>
+      </c>
+      <c r="J498" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K498" s="6">
+        <f t="shared" ref="K498" si="764">(B498-H498)</f>
+        <v>0.44165862193816907</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B499" s="2">
+        <f t="shared" ref="B499" si="765">E499/F499</f>
+        <v>1.4782173222839474</v>
+      </c>
+      <c r="C499" s="3">
+        <v>0</v>
+      </c>
+      <c r="D499" s="3">
+        <v>0</v>
+      </c>
+      <c r="E499" s="3">
+        <v>692679.23</v>
+      </c>
+      <c r="F499" s="3">
+        <f t="shared" ref="F499" si="766">F498+G499</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G499" s="3">
+        <f t="shared" ref="G499" si="767">(C499-D499)/((E499-C499+D499)/F498)</f>
+        <v>0</v>
+      </c>
+      <c r="H499" s="4">
+        <f t="shared" ref="H499" si="768">I499/J499</f>
+        <v>1.0480485170635636</v>
+      </c>
+      <c r="I499" s="5">
+        <v>3959.15</v>
+      </c>
+      <c r="J499" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K499" s="6">
+        <f t="shared" ref="K499" si="769">(B499-H499)</f>
+        <v>0.43016880522038381</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B500" s="2">
+        <f t="shared" ref="B500" si="770">E500/F500</f>
+        <v>1.4896949878853247</v>
+      </c>
+      <c r="C500" s="3">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <v>0</v>
+      </c>
+      <c r="E500" s="3">
+        <v>698057.56</v>
+      </c>
+      <c r="F500" s="3">
+        <f t="shared" ref="F500" si="771">F499+G500</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G500" s="3">
+        <f t="shared" ref="G500" si="772">(C500-D500)/((E500-C500+D500)/F499)</f>
+        <v>0</v>
+      </c>
+      <c r="H500" s="4">
+        <f t="shared" ref="H500" si="773">I500/J500</f>
+        <v>1.0544096314100868</v>
+      </c>
+      <c r="I500" s="5">
+        <v>3983.18</v>
+      </c>
+      <c r="J500" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K500" s="6">
+        <f t="shared" ref="K500" si="774">(B500-H500)</f>
+        <v>0.43528535647523792</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B501" s="2">
+        <f t="shared" ref="B501" si="775">E501/F501</f>
+        <v>1.4928872605132839</v>
+      </c>
+      <c r="C501" s="3">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <v>0</v>
+      </c>
+      <c r="E501" s="3">
+        <v>699553.43</v>
+      </c>
+      <c r="F501" s="3">
+        <f t="shared" ref="F501" si="776">F500+G501</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G501" s="3">
+        <f t="shared" ref="G501" si="777">(C501-D501)/((E501-C501+D501)/F500)</f>
+        <v>0</v>
+      </c>
+      <c r="H501" s="4">
+        <f t="shared" ref="H501" si="778">I501/J501</f>
+        <v>1.0570197266017938</v>
+      </c>
+      <c r="I501" s="5">
+        <v>3993.04</v>
+      </c>
+      <c r="J501" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K501" s="6">
+        <f t="shared" ref="K501" si="779">(B501-H501)</f>
+        <v>0.43586753391149013</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B502" s="2">
+        <f t="shared" ref="B502" si="780">E502/F502</f>
+        <v>1.4920869462607504</v>
+      </c>
+      <c r="C502" s="3">
+        <v>0</v>
+      </c>
+      <c r="D502" s="3">
+        <v>0</v>
+      </c>
+      <c r="E502" s="3">
+        <v>699178.41</v>
+      </c>
+      <c r="F502" s="3">
+        <f t="shared" ref="F502" si="781">F501+G502</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G502" s="3">
+        <f t="shared" ref="G502" si="782">(C502-D502)/((E502-C502+D502)/F501)</f>
+        <v>0</v>
+      </c>
+      <c r="H502" s="4">
+        <f t="shared" ref="H502" si="783">I502/J502</f>
+        <v>1.0592062769348058</v>
+      </c>
+      <c r="I502" s="5">
+        <v>4001.3</v>
+      </c>
+      <c r="J502" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K502" s="6">
+        <f t="shared" ref="K502" si="784">(B502-H502)</f>
+        <v>0.4328806693259446</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B503" s="2">
+        <f t="shared" ref="B503" si="785">E503/F503</f>
+        <v>1.5218650727724878</v>
+      </c>
+      <c r="C503" s="3">
+        <v>0</v>
+      </c>
+      <c r="D503" s="3">
+        <v>0</v>
+      </c>
+      <c r="E503" s="3">
+        <v>713132.17</v>
+      </c>
+      <c r="F503" s="3">
+        <f t="shared" ref="F503" si="786">F502+G503</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G503" s="3">
+        <f t="shared" ref="G503" si="787">(C503-D503)/((E503-C503+D503)/F502)</f>
+        <v>0</v>
+      </c>
+      <c r="H503" s="4">
+        <f t="shared" ref="H503" si="788">I503/J503</f>
+        <v>1.066544191611694</v>
+      </c>
+      <c r="I503" s="5">
+        <v>4029.02</v>
+      </c>
+      <c r="J503" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K503" s="6">
+        <f t="shared" ref="K503" si="789">(B503-H503)</f>
+        <v>0.45532088116079383</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B504" s="2">
+        <f t="shared" ref="B504" si="790">E504/F504</f>
+        <v>1.5562529769411437</v>
+      </c>
+      <c r="C504" s="3">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <v>0</v>
+      </c>
+      <c r="E504" s="3">
+        <v>729246.03</v>
+      </c>
+      <c r="F504" s="3">
+        <f t="shared" ref="F504" si="791">F503+G504</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G504" s="3">
+        <f t="shared" ref="G504" si="792">(C504-D504)/((E504-C504+D504)/F503)</f>
+        <v>0</v>
+      </c>
+      <c r="H504" s="4">
+        <f t="shared" ref="H504" si="793">I504/J504</f>
+        <v>1.0830889126544616</v>
+      </c>
+      <c r="I504" s="5">
+        <v>4091.52</v>
+      </c>
+      <c r="J504" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K504" s="6">
+        <f t="shared" ref="K504" si="794">(B504-H504)</f>
+        <v>0.47316406428668212</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B505" s="2">
+        <f t="shared" ref="B505" si="795">E505/F505</f>
+        <v>1.5434527291894609</v>
+      </c>
+      <c r="C505" s="3">
+        <v>0</v>
+      </c>
+      <c r="D505" s="3">
+        <v>0</v>
+      </c>
+      <c r="E505" s="3">
+        <v>723247.95</v>
+      </c>
+      <c r="F505" s="3">
+        <f t="shared" ref="F505" si="796">F504+G505</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G505" s="3">
+        <f t="shared" ref="G505" si="797">(C505-D505)/((E505-C505+D505)/F504)</f>
+        <v>0</v>
+      </c>
+      <c r="H505" s="4">
+        <f t="shared" ref="H505" si="798">I505/J505</f>
+        <v>1.0808811850785147</v>
+      </c>
+      <c r="I505" s="5">
+        <v>4083.18</v>
+      </c>
+      <c r="J505" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K505" s="6">
+        <f t="shared" ref="K505" si="799">(B505-H505)</f>
+        <v>0.46257154411094614</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825901F0-4B9B-4F43-BE3C-23D019590536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543293DC-BE26-4273-B8FF-8728FC340136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="180" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,6 +88,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -133,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +181,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,10 +394,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>个人账户!$A$2:$A$500</c:f>
+              <c:f>个人账户!$A$2:$A$560</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="559"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -1884,16 +1894,121 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>44742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>个人账户!$B$2:$B$500</c:f>
+              <c:f>个人账户!$B$2:$B$560</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="559"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -3390,6 +3505,111 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>1.4932697421350654</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.496910978946143</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.5098117248902456</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.4978017035528488</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1.4907313547753633</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1.4827626113402914</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.4732817493326309</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.5145169016237519</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.5050928459304265</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1.4679945675403683</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.4800109406386508</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1.4837553636029832</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1.4805998567328362</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1.5039063449866334</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.5387916539048765</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.5245680239247579</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.5158426619288483</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.5324908269509085</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.5456692127576206</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.5615378689107458</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.5428098018100149</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.5585185453919133</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.5613835091367714</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.5665239612577584</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.5854268016532975</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.5993894501625634</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.6195538940834362</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.6445609364827614</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.6332726988917858</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>1.6123234329938159</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1.6259755243387755</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1.6471095505769715</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1.6777005897583706</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1.6789393828719705</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.6624057492867594</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1.7099260688446338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,10 +3688,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>个人账户!$A$2:$A$500</c:f>
+              <c:f>个人账户!$A$2:$A$560</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="559"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -4968,16 +5188,121 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>44692</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44693</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44694</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44698</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44699</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44700</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44701</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>44742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>个人账户!$H$2:$H$500</c:f>
+              <c:f>个人账户!$H$2:$H$560</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="559"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -6474,6 +6799,111 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>1.0520631594543397</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.0473854652824077</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.055285688584098</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.0468033992655386</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1.0598601983257665</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1.0561614333640241</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.0581960186684447</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.0788329047210845</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.0725836323036058</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1.0474939412219153</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.0538516895789016</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1.0564604036363252</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1.0586457969542074</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1.0659798287667608</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.0825157951550941</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.0803092358002349</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.0819998730037783</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.1022451873723424</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.1056952513996043</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.1164581812024428</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.104779820300346</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.1215327385676943</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.1083992126234246</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.117119619857976</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.1319120339503235</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.1244615889343961</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1.1400662496957383</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1.1457255188324815</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1.1444396820861247</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>1.1299012604375021</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1.1492840587992508</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1.1627483040712874</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1.1758421436962252</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1.188081404578214</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1.1697833656115397</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1.1866235937814185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6790,10 +7220,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>family!$A$2:$A$500</c:f>
+              <c:f>family!$A$2:$A$545</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="544"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -8290,16 +8720,91 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>family!$B$2:$B$500</c:f>
+              <c:f>family!$B$2:$B$545</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="544"/>
                 <c:pt idx="0">
                   <c:v>1.0169115699259836</c:v>
                 </c:pt>
@@ -9796,6 +10301,81 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>1.4896949878853247</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.4928872605132839</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.4920869462607504</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.5218650727724878</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1.5562529769411437</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1.5434527291894609</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.5366524481873527</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.5550457619405686</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.5719767341162525</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1.5901621053043604</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.5692464422610213</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1.586376308597913</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1.5845398453959032</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1.5908529424059286</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.6093383620818669</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.6207474817555831</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.6437694809153773</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.6728459719944766</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.6616247774262964</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.6383254361507233</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.6559067410161761</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.6759554645310921</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.7110051826189943</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.7151820026855069</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.6995300352054949</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.7472861665357633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9835,10 +10415,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>family!$A$2:$A$500</c:f>
+              <c:f>family!$A$2:$A$545</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="544"/>
                 <c:pt idx="0">
                   <c:v>43938</c:v>
                 </c:pt>
@@ -11335,16 +11915,91 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>44742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>family!$H$2:$H$500</c:f>
+              <c:f>family!$H$2:$H$545</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
-                <c:ptCount val="499"/>
+                <c:ptCount val="544"/>
                 <c:pt idx="0">
                   <c:v>1.0169110402474812</c:v>
                 </c:pt>
@@ -12841,6 +13496,81 @@
                 </c:pt>
                 <c:pt idx="498">
                   <c:v>1.0544096314100868</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1.0570197266017938</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1.0592062769348058</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1.066544191611694</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1.0830889126544616</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1.0808811850785147</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1.0825727173579272</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1.1028287502250083</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1.1062806408233712</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1.1170492688556879</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1.1053647250664436</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1.1221265128492921</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1.1089860336082846</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1.1177110576973985</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1.1325113033534164</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1.1250569138403872</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1.140669836194026</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1.1463321015237027</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1.145045584015417</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1.1304994652746159</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1.1498925254921062</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1.1633638991539692</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1.1764646710644742</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1.1887104117914891</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1.1704026852744041</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1.1872518291843586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13609,14 +14339,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>495</xdr:row>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>544831</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:colOff>611506</xdr:colOff>
+      <xdr:row>553</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13650,14 +14380,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>484</xdr:row>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>508</xdr:row>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>535</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13944,11 +14674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q515"/>
+  <dimension ref="A1:Q536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E516" sqref="E516"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E536" sqref="E536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34514,6 +35244,809 @@
         <v>0.44425878812452302</v>
       </c>
     </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B516" s="2">
+        <f t="shared" ref="B516" si="884">E516/F516</f>
+        <v>1.5158426619288483</v>
+      </c>
+      <c r="C516" s="3">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <v>0</v>
+      </c>
+      <c r="E516" s="3">
+        <v>379452.23</v>
+      </c>
+      <c r="F516" s="3">
+        <f t="shared" ref="F516" si="885">F515+G516</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G516" s="3">
+        <f t="shared" ref="G516" si="886">(C516-D516)/((E516-C516+D516)/F515)</f>
+        <v>0</v>
+      </c>
+      <c r="H516" s="4">
+        <f t="shared" ref="H516" si="887">I516/J516</f>
+        <v>1.0819998730037783</v>
+      </c>
+      <c r="I516" s="5">
+        <v>4089.57</v>
+      </c>
+      <c r="J516" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K516" s="6">
+        <f t="shared" ref="K516" si="888">(B516-H516)</f>
+        <v>0.43384278892507</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B517" s="2">
+        <f t="shared" ref="B517" si="889">E517/F517</f>
+        <v>1.5324908269509085</v>
+      </c>
+      <c r="C517" s="3">
+        <v>0</v>
+      </c>
+      <c r="D517" s="3">
+        <v>0</v>
+      </c>
+      <c r="E517" s="3">
+        <v>383619.67</v>
+      </c>
+      <c r="F517" s="3">
+        <f t="shared" ref="F517" si="890">F516+G517</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G517" s="3">
+        <f t="shared" ref="G517" si="891">(C517-D517)/((E517-C517+D517)/F516)</f>
+        <v>0</v>
+      </c>
+      <c r="H517" s="4">
+        <f t="shared" ref="H517" si="892">I517/J517</f>
+        <v>1.1022451873723424</v>
+      </c>
+      <c r="I517" s="5">
+        <v>4166.09</v>
+      </c>
+      <c r="J517" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K517" s="6">
+        <f t="shared" ref="K517" si="893">(B517-H517)</f>
+        <v>0.4302456395785661</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B518" s="2">
+        <f t="shared" ref="B518" si="894">E518/F518</f>
+        <v>1.5456692127576206</v>
+      </c>
+      <c r="C518" s="3">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <v>0</v>
+      </c>
+      <c r="E518" s="3">
+        <v>386918.54</v>
+      </c>
+      <c r="F518" s="3">
+        <f t="shared" ref="F518" si="895">F517+G518</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G518" s="3">
+        <f t="shared" ref="G518" si="896">(C518-D518)/((E518-C518+D518)/F517)</f>
+        <v>0</v>
+      </c>
+      <c r="H518" s="4">
+        <f t="shared" ref="H518" si="897">I518/J518</f>
+        <v>1.1056952513996043</v>
+      </c>
+      <c r="I518" s="5">
+        <v>4179.13</v>
+      </c>
+      <c r="J518" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K518" s="6">
+        <f t="shared" ref="K518" si="898">(B518-H518)</f>
+        <v>0.43997396135801625</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B519" s="2">
+        <f t="shared" ref="B519" si="899">E519/F519</f>
+        <v>1.5615378689107458</v>
+      </c>
+      <c r="C519" s="3">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <v>0</v>
+      </c>
+      <c r="E519" s="3">
+        <v>390890.85</v>
+      </c>
+      <c r="F519" s="3">
+        <f t="shared" ref="F519" si="900">F518+G519</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G519" s="3">
+        <f t="shared" ref="G519" si="901">(C519-D519)/((E519-C519+D519)/F518)</f>
+        <v>0</v>
+      </c>
+      <c r="H519" s="4">
+        <f t="shared" ref="H519" si="902">I519/J519</f>
+        <v>1.1164581812024428</v>
+      </c>
+      <c r="I519" s="5">
+        <v>4219.8100000000004</v>
+      </c>
+      <c r="J519" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K519" s="6">
+        <f t="shared" ref="K519" si="903">(B519-H519)</f>
+        <v>0.44507968770830297</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B520" s="2">
+        <f t="shared" ref="B520" si="904">E520/F520</f>
+        <v>1.5428098018100149</v>
+      </c>
+      <c r="C520" s="3">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <v>0</v>
+      </c>
+      <c r="E520" s="3">
+        <v>386202.76</v>
+      </c>
+      <c r="F520" s="3">
+        <f t="shared" ref="F520" si="905">F519+G520</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G520" s="3">
+        <f t="shared" ref="G520" si="906">(C520-D520)/((E520-C520+D520)/F519)</f>
+        <v>0</v>
+      </c>
+      <c r="H520" s="4">
+        <f t="shared" ref="H520" si="907">I520/J520</f>
+        <v>1.104779820300346</v>
+      </c>
+      <c r="I520" s="5">
+        <v>4175.67</v>
+      </c>
+      <c r="J520" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K520" s="6">
+        <f t="shared" ref="K520" si="908">(B520-H520)</f>
+        <v>0.43802998150966888</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B521" s="2">
+        <f t="shared" ref="B521" si="909">E521/F521</f>
+        <v>1.5585185453919133</v>
+      </c>
+      <c r="C521" s="3">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <v>0</v>
+      </c>
+      <c r="E521" s="3">
+        <v>390135.03999999998</v>
+      </c>
+      <c r="F521" s="3">
+        <f t="shared" ref="F521" si="910">F520+G521</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G521" s="3">
+        <f t="shared" ref="G521" si="911">(C521-D521)/((E521-C521+D521)/F520)</f>
+        <v>0</v>
+      </c>
+      <c r="H521" s="4">
+        <f t="shared" ref="H521" si="912">I521/J521</f>
+        <v>1.1215327385676943</v>
+      </c>
+      <c r="I521" s="5">
+        <v>4238.99</v>
+      </c>
+      <c r="J521" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K521" s="6">
+        <f t="shared" ref="K521" si="913">(B521-H521)</f>
+        <v>0.43698580682421895</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B522" s="2">
+        <f t="shared" ref="B522" si="914">E522/F522</f>
+        <v>1.5613835091367714</v>
+      </c>
+      <c r="C522" s="3">
+        <v>0</v>
+      </c>
+      <c r="D522" s="3">
+        <v>0</v>
+      </c>
+      <c r="E522" s="3">
+        <v>390852.21</v>
+      </c>
+      <c r="F522" s="3">
+        <f t="shared" ref="F522" si="915">F521+G522</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G522" s="3">
+        <f t="shared" ref="G522" si="916">(C522-D522)/((E522-C522+D522)/F521)</f>
+        <v>0</v>
+      </c>
+      <c r="H522" s="4">
+        <f t="shared" ref="H522" si="917">I522/J522</f>
+        <v>1.1083992126234246</v>
+      </c>
+      <c r="I522" s="5">
+        <v>4189.3500000000004</v>
+      </c>
+      <c r="J522" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K522" s="6">
+        <f t="shared" ref="K522" si="918">(B522-H522)</f>
+        <v>0.45298429651334682</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B523" s="2">
+        <f t="shared" ref="B523" si="919">E523/F523</f>
+        <v>1.5665239612577584</v>
+      </c>
+      <c r="C523" s="3">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <v>0</v>
+      </c>
+      <c r="E523" s="3">
+        <v>392138.99</v>
+      </c>
+      <c r="F523" s="3">
+        <f t="shared" ref="F523" si="920">F522+G523</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G523" s="3">
+        <f t="shared" ref="G523" si="921">(C523-D523)/((E523-C523+D523)/F522)</f>
+        <v>0</v>
+      </c>
+      <c r="H523" s="4">
+        <f t="shared" ref="H523" si="922">I523/J523</f>
+        <v>1.117119619857976</v>
+      </c>
+      <c r="I523" s="5">
+        <v>4222.3100000000004</v>
+      </c>
+      <c r="J523" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K523" s="6">
+        <f t="shared" ref="K523" si="923">(B523-H523)</f>
+        <v>0.44940434139978236</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B524" s="2">
+        <f t="shared" ref="B524" si="924">E524/F524</f>
+        <v>1.5854268016532975</v>
+      </c>
+      <c r="C524" s="3">
+        <v>0</v>
+      </c>
+      <c r="D524" s="3">
+        <v>0</v>
+      </c>
+      <c r="E524" s="3">
+        <v>396870.83</v>
+      </c>
+      <c r="F524" s="3">
+        <f t="shared" ref="F524" si="925">F523+G524</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G524" s="3">
+        <f t="shared" ref="G524" si="926">(C524-D524)/((E524-C524+D524)/F523)</f>
+        <v>0</v>
+      </c>
+      <c r="H524" s="4">
+        <f t="shared" ref="H524" si="927">I524/J524</f>
+        <v>1.1319120339503235</v>
+      </c>
+      <c r="I524" s="5">
+        <v>4278.22</v>
+      </c>
+      <c r="J524" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K524" s="6">
+        <f t="shared" ref="K524" si="928">(B524-H524)</f>
+        <v>0.45351476770297405</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B525" s="2">
+        <f t="shared" ref="B525" si="929">E525/F525</f>
+        <v>1.5993894501625634</v>
+      </c>
+      <c r="C525" s="3">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <v>0</v>
+      </c>
+      <c r="E525" s="3">
+        <v>400366.02</v>
+      </c>
+      <c r="F525" s="3">
+        <f t="shared" ref="F525" si="930">F524+G525</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G525" s="3">
+        <f t="shared" ref="G525" si="931">(C525-D525)/((E525-C525+D525)/F524)</f>
+        <v>0</v>
+      </c>
+      <c r="H525" s="4">
+        <f t="shared" ref="H525" si="932">I525/J525</f>
+        <v>1.1244615889343961</v>
+      </c>
+      <c r="I525" s="5">
+        <v>4250.0600000000004</v>
+      </c>
+      <c r="J525" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K525" s="6">
+        <f t="shared" ref="K525" si="933">(B525-H525)</f>
+        <v>0.47492786122816733</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B526" s="2">
+        <f t="shared" ref="B526" si="934">E526/F526</f>
+        <v>1.6195538940834362</v>
+      </c>
+      <c r="C526" s="3">
+        <v>0</v>
+      </c>
+      <c r="D526" s="3">
+        <v>0</v>
+      </c>
+      <c r="E526" s="3">
+        <v>405413.67</v>
+      </c>
+      <c r="F526" s="3">
+        <f t="shared" ref="F526" si="935">F525+G526</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G526" s="3">
+        <f t="shared" ref="G526" si="936">(C526-D526)/((E526-C526+D526)/F525)</f>
+        <v>0</v>
+      </c>
+      <c r="H526" s="4">
+        <f t="shared" ref="H526" si="937">I526/J526</f>
+        <v>1.1400662496957383</v>
+      </c>
+      <c r="I526" s="5">
+        <v>4309.04</v>
+      </c>
+      <c r="J526" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K526" s="6">
+        <f t="shared" ref="K526" si="938">(B526-H526)</f>
+        <v>0.47948764438769786</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B527" s="2">
+        <f t="shared" ref="B527" si="939">E527/F527</f>
+        <v>1.6445609364827614</v>
+      </c>
+      <c r="C527" s="3">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <v>0</v>
+      </c>
+      <c r="E527" s="3">
+        <v>411673.54</v>
+      </c>
+      <c r="F527" s="3">
+        <f t="shared" ref="F527" si="940">F526+G527</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G527" s="3">
+        <f t="shared" ref="G527" si="941">(C527-D527)/((E527-C527+D527)/F526)</f>
+        <v>0</v>
+      </c>
+      <c r="H527" s="4">
+        <f t="shared" ref="H527" si="942">I527/J527</f>
+        <v>1.1457255188324815</v>
+      </c>
+      <c r="I527" s="5">
+        <v>4330.43</v>
+      </c>
+      <c r="J527" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K527" s="6">
+        <f t="shared" ref="K527" si="943">(B527-H527)</f>
+        <v>0.49883541765027983</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B528" s="2">
+        <f t="shared" ref="B528" si="944">E528/F528</f>
+        <v>1.6332726988917858</v>
+      </c>
+      <c r="C528" s="3">
+        <v>0</v>
+      </c>
+      <c r="D528" s="3">
+        <v>0</v>
+      </c>
+      <c r="E528" s="3">
+        <v>408847.82</v>
+      </c>
+      <c r="F528" s="3">
+        <f t="shared" ref="F528" si="945">F527+G528</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G528" s="3">
+        <f t="shared" ref="G528" si="946">(C528-D528)/((E528-C528+D528)/F527)</f>
+        <v>0</v>
+      </c>
+      <c r="H528" s="4">
+        <f t="shared" ref="H528" si="947">I528/J528</f>
+        <v>1.1444396820861247</v>
+      </c>
+      <c r="I528" s="5">
+        <v>4325.57</v>
+      </c>
+      <c r="J528" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K528" s="6">
+        <f t="shared" ref="K528" si="948">(B528-H528)</f>
+        <v>0.48883301680566116</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B529" s="2">
+        <f t="shared" ref="B529" si="949">E529/F529</f>
+        <v>1.6123234329938159</v>
+      </c>
+      <c r="C529" s="3">
+        <v>0</v>
+      </c>
+      <c r="D529" s="3">
+        <v>0</v>
+      </c>
+      <c r="E529" s="3">
+        <v>403603.71</v>
+      </c>
+      <c r="F529" s="3">
+        <f t="shared" ref="F529" si="950">F528+G529</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G529" s="3">
+        <f t="shared" ref="G529" si="951">(C529-D529)/((E529-C529+D529)/F528)</f>
+        <v>0</v>
+      </c>
+      <c r="H529" s="4">
+        <f t="shared" ref="H529" si="952">I529/J529</f>
+        <v>1.1299012604375021</v>
+      </c>
+      <c r="I529" s="5">
+        <v>4270.62</v>
+      </c>
+      <c r="J529" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K529" s="6">
+        <f t="shared" ref="K529" si="953">(B529-H529)</f>
+        <v>0.48242217255631381</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B530" s="2">
+        <f t="shared" ref="B530" si="954">E530/F530</f>
+        <v>1.6259755243387755</v>
+      </c>
+      <c r="C530" s="3">
+        <v>0</v>
+      </c>
+      <c r="D530" s="3">
+        <v>0</v>
+      </c>
+      <c r="E530" s="3">
+        <v>407021.16</v>
+      </c>
+      <c r="F530" s="3">
+        <f t="shared" ref="F530" si="955">F529+G530</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G530" s="3">
+        <f t="shared" ref="G530" si="956">(C530-D530)/((E530-C530+D530)/F529)</f>
+        <v>0</v>
+      </c>
+      <c r="H530" s="4">
+        <f t="shared" ref="H530" si="957">I530/J530</f>
+        <v>1.1492840587992508</v>
+      </c>
+      <c r="I530" s="5">
+        <v>4343.88</v>
+      </c>
+      <c r="J530" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K530" s="6">
+        <f t="shared" ref="K530" si="958">(B530-H530)</f>
+        <v>0.47669146553952468</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B531" s="2">
+        <f t="shared" ref="B531" si="959">E531/F531</f>
+        <v>1.6471095505769715</v>
+      </c>
+      <c r="C531" s="3">
+        <v>0</v>
+      </c>
+      <c r="D531" s="3">
+        <v>0</v>
+      </c>
+      <c r="E531" s="3">
+        <v>412311.52</v>
+      </c>
+      <c r="F531" s="3">
+        <f t="shared" ref="F531" si="960">F530+G531</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G531" s="3">
+        <f t="shared" ref="G531" si="961">(C531-D531)/((E531-C531+D531)/F530)</f>
+        <v>0</v>
+      </c>
+      <c r="H531" s="4">
+        <f t="shared" ref="H531" si="962">I531/J531</f>
+        <v>1.1627483040712874</v>
+      </c>
+      <c r="I531" s="5">
+        <v>4394.7700000000004</v>
+      </c>
+      <c r="J531" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K531" s="6">
+        <f t="shared" ref="K531" si="963">(B531-H531)</f>
+        <v>0.48436124650568413</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B532" s="2">
+        <f t="shared" ref="B532" si="964">E532/F532</f>
+        <v>1.6777005897583706</v>
+      </c>
+      <c r="C532" s="3">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <v>0</v>
+      </c>
+      <c r="E532" s="3">
+        <v>419969.2</v>
+      </c>
+      <c r="F532" s="3">
+        <f t="shared" ref="F532" si="965">F531+G532</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G532" s="3">
+        <f t="shared" ref="G532" si="966">(C532-D532)/((E532-C532+D532)/F531)</f>
+        <v>0</v>
+      </c>
+      <c r="H532" s="4">
+        <f t="shared" ref="H532" si="967">I532/J532</f>
+        <v>1.1758421436962252</v>
+      </c>
+      <c r="I532" s="5">
+        <v>4444.26</v>
+      </c>
+      <c r="J532" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K532" s="6">
+        <f t="shared" ref="K532" si="968">(B532-H532)</f>
+        <v>0.50185844606214536</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B533" s="2">
+        <f t="shared" ref="B533" si="969">E533/F533</f>
+        <v>1.6789393828719705</v>
+      </c>
+      <c r="C533" s="3">
+        <v>0</v>
+      </c>
+      <c r="D533" s="3">
+        <v>0</v>
+      </c>
+      <c r="E533" s="3">
+        <v>420279.3</v>
+      </c>
+      <c r="F533" s="3">
+        <f t="shared" ref="F533" si="970">F532+G533</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G533" s="3">
+        <f t="shared" ref="G533" si="971">(C533-D533)/((E533-C533+D533)/F532)</f>
+        <v>0</v>
+      </c>
+      <c r="H533" s="4">
+        <f t="shared" ref="H533" si="972">I533/J533</f>
+        <v>1.188081404578214</v>
+      </c>
+      <c r="I533" s="5">
+        <v>4490.5200000000004</v>
+      </c>
+      <c r="J533" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K533" s="6">
+        <f t="shared" ref="K533" si="973">(B533-H533)</f>
+        <v>0.49085797829375655</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B534" s="2">
+        <f t="shared" ref="B534" si="974">E534/F534</f>
+        <v>1.6624057492867594</v>
+      </c>
+      <c r="C534" s="3">
+        <v>0</v>
+      </c>
+      <c r="D534" s="3">
+        <v>0</v>
+      </c>
+      <c r="E534" s="3">
+        <v>416140.53</v>
+      </c>
+      <c r="F534" s="3">
+        <f t="shared" ref="F534" si="975">F533+G534</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G534" s="3">
+        <f t="shared" ref="G534" si="976">(C534-D534)/((E534-C534+D534)/F533)</f>
+        <v>0</v>
+      </c>
+      <c r="H534" s="4">
+        <f t="shared" ref="H534" si="977">I534/J534</f>
+        <v>1.1697833656115397</v>
+      </c>
+      <c r="I534" s="5">
+        <v>4421.3599999999997</v>
+      </c>
+      <c r="J534" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K534" s="6">
+        <f t="shared" ref="K534" si="978">(B534-H534)</f>
+        <v>0.49262238367521971</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B535" s="2">
+        <f t="shared" ref="B535" si="979">E535/F535</f>
+        <v>1.7099260688446338</v>
+      </c>
+      <c r="C535" s="3">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3">
+        <v>0</v>
+      </c>
+      <c r="E535" s="3">
+        <v>428036.02</v>
+      </c>
+      <c r="F535" s="3">
+        <f t="shared" ref="F535" si="980">F534+G535</f>
+        <v>250324.28465706488</v>
+      </c>
+      <c r="G535" s="3">
+        <f t="shared" ref="G535" si="981">(C535-D535)/((E535-C535+D535)/F534)</f>
+        <v>0</v>
+      </c>
+      <c r="H535" s="4">
+        <f t="shared" ref="H535" si="982">I535/J535</f>
+        <v>1.1866235937814185</v>
+      </c>
+      <c r="I535" s="5">
+        <v>4485.01</v>
+      </c>
+      <c r="J535" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K535" s="6">
+        <f t="shared" ref="K535" si="983">(B535-H535)</f>
+        <v>0.52330247506321537</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E536" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -34524,11 +36057,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L505"/>
+  <dimension ref="A1:L525"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I531" sqref="I531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -54691,6 +56224,806 @@
         <v>0.46257154411094614</v>
       </c>
     </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B506" s="2">
+        <f t="shared" ref="B506" si="800">E506/F506</f>
+        <v>1.5366524481873527</v>
+      </c>
+      <c r="C506" s="3">
+        <v>0</v>
+      </c>
+      <c r="D506" s="3">
+        <v>0</v>
+      </c>
+      <c r="E506" s="3">
+        <v>720061.4</v>
+      </c>
+      <c r="F506" s="3">
+        <f t="shared" ref="F506" si="801">F505+G506</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G506" s="3">
+        <f t="shared" ref="G506" si="802">(C506-D506)/((E506-C506+D506)/F505)</f>
+        <v>0</v>
+      </c>
+      <c r="H506" s="4">
+        <f t="shared" ref="H506" si="803">I506/J506</f>
+        <v>1.0825727173579272</v>
+      </c>
+      <c r="I506" s="5">
+        <v>4089.57</v>
+      </c>
+      <c r="J506" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K506" s="6">
+        <f t="shared" ref="K506" si="804">(B506-H506)</f>
+        <v>0.45407973082942554</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B507" s="2">
+        <f t="shared" ref="B507" si="805">E507/F507</f>
+        <v>1.5550457619405686</v>
+      </c>
+      <c r="C507" s="3">
+        <v>0</v>
+      </c>
+      <c r="D507" s="3">
+        <v>0</v>
+      </c>
+      <c r="E507" s="3">
+        <v>728680.34</v>
+      </c>
+      <c r="F507" s="3">
+        <f t="shared" ref="F507" si="806">F506+G507</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G507" s="3">
+        <f t="shared" ref="G507" si="807">(C507-D507)/((E507-C507+D507)/F506)</f>
+        <v>0</v>
+      </c>
+      <c r="H507" s="4">
+        <f t="shared" ref="H507" si="808">I507/J507</f>
+        <v>1.1028287502250083</v>
+      </c>
+      <c r="I507" s="5">
+        <v>4166.09</v>
+      </c>
+      <c r="J507" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K507" s="6">
+        <f t="shared" ref="K507" si="809">(B507-H507)</f>
+        <v>0.45221701171556039</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B508" s="2">
+        <f t="shared" ref="B508" si="810">E508/F508</f>
+        <v>1.5719767341162525</v>
+      </c>
+      <c r="C508" s="3">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <v>0</v>
+      </c>
+      <c r="E508" s="3">
+        <v>736614.04</v>
+      </c>
+      <c r="F508" s="3">
+        <f t="shared" ref="F508" si="811">F507+G508</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G508" s="3">
+        <f t="shared" ref="G508" si="812">(C508-D508)/((E508-C508+D508)/F507)</f>
+        <v>0</v>
+      </c>
+      <c r="H508" s="4">
+        <f t="shared" ref="H508" si="813">I508/J508</f>
+        <v>1.1062806408233712</v>
+      </c>
+      <c r="I508" s="5">
+        <v>4179.13</v>
+      </c>
+      <c r="J508" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K508" s="6">
+        <f t="shared" ref="K508" si="814">(B508-H508)</f>
+        <v>0.46569609329288131</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B509" s="2">
+        <f t="shared" ref="B509" si="815">E509/F509</f>
+        <v>1.5901621053043604</v>
+      </c>
+      <c r="C509" s="3">
+        <v>0</v>
+      </c>
+      <c r="D509" s="3">
+        <v>0</v>
+      </c>
+      <c r="E509" s="3">
+        <v>745135.54</v>
+      </c>
+      <c r="F509" s="3">
+        <f t="shared" ref="F509" si="816">F508+G509</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G509" s="3">
+        <f t="shared" ref="G509" si="817">(C509-D509)/((E509-C509+D509)/F508)</f>
+        <v>0</v>
+      </c>
+      <c r="H509" s="4">
+        <f t="shared" ref="H509" si="818">I509/J509</f>
+        <v>1.1170492688556879</v>
+      </c>
+      <c r="I509" s="5">
+        <v>4219.8100000000004</v>
+      </c>
+      <c r="J509" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K509" s="6">
+        <f t="shared" ref="K509" si="819">(B509-H509)</f>
+        <v>0.47311283644867252</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B510" s="2">
+        <f t="shared" ref="B510" si="820">E510/F510</f>
+        <v>1.5692464422610213</v>
+      </c>
+      <c r="C510" s="3">
+        <v>0</v>
+      </c>
+      <c r="D510" s="3">
+        <v>0</v>
+      </c>
+      <c r="E510" s="3">
+        <v>735334.65</v>
+      </c>
+      <c r="F510" s="3">
+        <f t="shared" ref="F510" si="821">F509+G510</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G510" s="3">
+        <f t="shared" ref="G510" si="822">(C510-D510)/((E510-C510+D510)/F509)</f>
+        <v>0</v>
+      </c>
+      <c r="H510" s="4">
+        <f t="shared" ref="H510" si="823">I510/J510</f>
+        <v>1.1053647250664436</v>
+      </c>
+      <c r="I510" s="5">
+        <v>4175.67</v>
+      </c>
+      <c r="J510" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K510" s="6">
+        <f t="shared" ref="K510" si="824">(B510-H510)</f>
+        <v>0.46388171719457771</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B511" s="2">
+        <f t="shared" ref="B511" si="825">E511/F511</f>
+        <v>1.586376308597913</v>
+      </c>
+      <c r="C511" s="3">
+        <v>0</v>
+      </c>
+      <c r="D511" s="3">
+        <v>0</v>
+      </c>
+      <c r="E511" s="3">
+        <v>743361.55</v>
+      </c>
+      <c r="F511" s="3">
+        <f t="shared" ref="F511" si="826">F510+G511</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G511" s="3">
+        <f t="shared" ref="G511" si="827">(C511-D511)/((E511-C511+D511)/F510)</f>
+        <v>0</v>
+      </c>
+      <c r="H511" s="4">
+        <f t="shared" ref="H511" si="828">I511/J511</f>
+        <v>1.1221265128492921</v>
+      </c>
+      <c r="I511" s="5">
+        <v>4238.99</v>
+      </c>
+      <c r="J511" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K511" s="6">
+        <f t="shared" ref="K511" si="829">(B511-H511)</f>
+        <v>0.46424979574862091</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B512" s="2">
+        <f t="shared" ref="B512" si="830">E512/F512</f>
+        <v>1.5845398453959032</v>
+      </c>
+      <c r="C512" s="3">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <v>0</v>
+      </c>
+      <c r="E512" s="3">
+        <v>742501</v>
+      </c>
+      <c r="F512" s="3">
+        <f t="shared" ref="F512" si="831">F511+G512</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G512" s="3">
+        <f t="shared" ref="G512" si="832">(C512-D512)/((E512-C512+D512)/F511)</f>
+        <v>0</v>
+      </c>
+      <c r="H512" s="4">
+        <f t="shared" ref="H512" si="833">I512/J512</f>
+        <v>1.1089860336082846</v>
+      </c>
+      <c r="I512" s="5">
+        <v>4189.3500000000004</v>
+      </c>
+      <c r="J512" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K512" s="6">
+        <f t="shared" ref="K512" si="834">(B512-H512)</f>
+        <v>0.47555381178761857</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B513" s="2">
+        <f t="shared" ref="B513" si="835">E513/F513</f>
+        <v>1.5908529424059286</v>
+      </c>
+      <c r="C513" s="3">
+        <v>0</v>
+      </c>
+      <c r="D513" s="3">
+        <v>0</v>
+      </c>
+      <c r="E513" s="3">
+        <v>745459.26</v>
+      </c>
+      <c r="F513" s="3">
+        <f t="shared" ref="F513:F518" si="836">F512+G513</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G513" s="3">
+        <f t="shared" ref="G513:G518" si="837">(C513-D513)/((E513-C513+D513)/F512)</f>
+        <v>0</v>
+      </c>
+      <c r="H513" s="4">
+        <f t="shared" ref="H513" si="838">I513/J513</f>
+        <v>1.1177110576973985</v>
+      </c>
+      <c r="I513" s="5">
+        <v>4222.3100000000004</v>
+      </c>
+      <c r="J513" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K513" s="6">
+        <f t="shared" ref="K513" si="839">(B513-H513)</f>
+        <v>0.47314188470853002</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B514" s="2">
+        <f t="shared" ref="B514" si="840">E514/F514</f>
+        <v>1.6093383620818669</v>
+      </c>
+      <c r="C514" s="3">
+        <v>0</v>
+      </c>
+      <c r="D514" s="3">
+        <v>0</v>
+      </c>
+      <c r="E514" s="3">
+        <v>754121.36</v>
+      </c>
+      <c r="F514" s="3">
+        <f t="shared" si="836"/>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G514" s="3">
+        <f t="shared" si="837"/>
+        <v>0</v>
+      </c>
+      <c r="H514" s="4">
+        <f t="shared" ref="H514" si="841">I514/J514</f>
+        <v>1.1325113033534164</v>
+      </c>
+      <c r="I514" s="5">
+        <v>4278.22</v>
+      </c>
+      <c r="J514" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K514" s="6">
+        <f t="shared" ref="K514" si="842">(B514-H514)</f>
+        <v>0.47682705872845044</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B515" s="2">
+        <f t="shared" ref="B515" si="843">E515/F515</f>
+        <v>1.6207474817555831</v>
+      </c>
+      <c r="C515" s="3">
+        <v>0</v>
+      </c>
+      <c r="D515" s="3">
+        <v>0</v>
+      </c>
+      <c r="E515" s="3">
+        <v>759467.57</v>
+      </c>
+      <c r="F515" s="3">
+        <f t="shared" si="836"/>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G515" s="3">
+        <f t="shared" si="837"/>
+        <v>0</v>
+      </c>
+      <c r="H515" s="4">
+        <f t="shared" ref="H515" si="844">I515/J515</f>
+        <v>1.1250569138403872</v>
+      </c>
+      <c r="I515" s="5">
+        <v>4250.0600000000004</v>
+      </c>
+      <c r="J515" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K515" s="6">
+        <f t="shared" ref="K515" si="845">(B515-H515)</f>
+        <v>0.49569056791519595</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B516" s="2">
+        <f t="shared" ref="B516" si="846">E516/F516</f>
+        <v>1.6437694809153773</v>
+      </c>
+      <c r="C516" s="3">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <v>0</v>
+      </c>
+      <c r="E516" s="3">
+        <v>770255.47</v>
+      </c>
+      <c r="F516" s="3">
+        <f t="shared" si="836"/>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G516" s="3">
+        <f t="shared" si="837"/>
+        <v>0</v>
+      </c>
+      <c r="H516" s="4">
+        <f t="shared" ref="H516" si="847">I516/J516</f>
+        <v>1.140669836194026</v>
+      </c>
+      <c r="I516" s="5">
+        <v>4309.04</v>
+      </c>
+      <c r="J516" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K516" s="6">
+        <f t="shared" ref="K516" si="848">(B516-H516)</f>
+        <v>0.50309964472135138</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B517" s="2">
+        <f t="shared" ref="B517" si="849">E517/F517</f>
+        <v>1.6728459719944766</v>
+      </c>
+      <c r="C517" s="3">
+        <v>0</v>
+      </c>
+      <c r="D517" s="3">
+        <v>0</v>
+      </c>
+      <c r="E517" s="3">
+        <v>783880.45</v>
+      </c>
+      <c r="F517" s="3">
+        <f t="shared" si="836"/>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G517" s="3">
+        <f t="shared" si="837"/>
+        <v>0</v>
+      </c>
+      <c r="H517" s="4">
+        <f t="shared" ref="H517" si="850">I517/J517</f>
+        <v>1.1463321015237027</v>
+      </c>
+      <c r="I517" s="5">
+        <v>4330.43</v>
+      </c>
+      <c r="J517" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K517" s="6">
+        <f t="shared" ref="K517" si="851">(B517-H517)</f>
+        <v>0.52651387047077391</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B518" s="2">
+        <f t="shared" ref="B518" si="852">E518/F518</f>
+        <v>1.6616247774262964</v>
+      </c>
+      <c r="C518" s="3">
+        <v>0</v>
+      </c>
+      <c r="D518" s="3">
+        <v>0</v>
+      </c>
+      <c r="E518" s="3">
+        <v>778622.3</v>
+      </c>
+      <c r="F518" s="3">
+        <f t="shared" si="836"/>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G518" s="3">
+        <f t="shared" si="837"/>
+        <v>0</v>
+      </c>
+      <c r="H518" s="4">
+        <f t="shared" ref="H518" si="853">I518/J518</f>
+        <v>1.145045584015417</v>
+      </c>
+      <c r="I518" s="5">
+        <v>4325.57</v>
+      </c>
+      <c r="J518" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K518" s="6">
+        <f t="shared" ref="K518" si="854">(B518-H518)</f>
+        <v>0.51657919341087943</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B519" s="2">
+        <f t="shared" ref="B519" si="855">E519/F519</f>
+        <v>1.6383254361507233</v>
+      </c>
+      <c r="C519" s="3">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <v>0</v>
+      </c>
+      <c r="E519" s="3">
+        <v>767704.44</v>
+      </c>
+      <c r="F519" s="3">
+        <f t="shared" ref="F519" si="856">F518+G519</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G519" s="3">
+        <f t="shared" ref="G519" si="857">(C519-D519)/((E519-C519+D519)/F518)</f>
+        <v>0</v>
+      </c>
+      <c r="H519" s="4">
+        <f t="shared" ref="H519" si="858">I519/J519</f>
+        <v>1.1304994652746159</v>
+      </c>
+      <c r="I519" s="5">
+        <v>4270.62</v>
+      </c>
+      <c r="J519" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K519" s="6">
+        <f t="shared" ref="K519" si="859">(B519-H519)</f>
+        <v>0.50782597087610748</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B520" s="2">
+        <f t="shared" ref="B520" si="860">E520/F520</f>
+        <v>1.6559067410161761</v>
+      </c>
+      <c r="C520" s="3">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <v>0</v>
+      </c>
+      <c r="E520" s="3">
+        <v>775942.88</v>
+      </c>
+      <c r="F520" s="3">
+        <f t="shared" ref="F520" si="861">F519+G520</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G520" s="3">
+        <f t="shared" ref="G520" si="862">(C520-D520)/((E520-C520+D520)/F519)</f>
+        <v>0</v>
+      </c>
+      <c r="H520" s="4">
+        <f t="shared" ref="H520" si="863">I520/J520</f>
+        <v>1.1498925254921062</v>
+      </c>
+      <c r="I520" s="5">
+        <v>4343.88</v>
+      </c>
+      <c r="J520" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K520" s="6">
+        <f t="shared" ref="K520" si="864">(B520-H520)</f>
+        <v>0.50601421552406989</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B521" s="2">
+        <f t="shared" ref="B521" si="865">E521/F521</f>
+        <v>1.6759554645310921</v>
+      </c>
+      <c r="C521" s="3">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <v>0</v>
+      </c>
+      <c r="E521" s="3">
+        <v>785337.53</v>
+      </c>
+      <c r="F521" s="3">
+        <f t="shared" ref="F521" si="866">F520+G521</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G521" s="3">
+        <f t="shared" ref="G521" si="867">(C521-D521)/((E521-C521+D521)/F520)</f>
+        <v>0</v>
+      </c>
+      <c r="H521" s="4">
+        <f t="shared" ref="H521" si="868">I521/J521</f>
+        <v>1.1633638991539692</v>
+      </c>
+      <c r="I521" s="5">
+        <v>4394.7700000000004</v>
+      </c>
+      <c r="J521" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K521" s="6">
+        <f t="shared" ref="K521" si="869">(B521-H521)</f>
+        <v>0.51259156537712292</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B522" s="2">
+        <f t="shared" ref="B522" si="870">E522/F522</f>
+        <v>1.7110051826189943</v>
+      </c>
+      <c r="C522" s="3">
+        <v>0</v>
+      </c>
+      <c r="D522" s="3">
+        <v>0</v>
+      </c>
+      <c r="E522" s="3">
+        <v>801761.51</v>
+      </c>
+      <c r="F522" s="3">
+        <f t="shared" ref="F522" si="871">F521+G522</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G522" s="3">
+        <f t="shared" ref="G522" si="872">(C522-D522)/((E522-C522+D522)/F521)</f>
+        <v>0</v>
+      </c>
+      <c r="H522" s="4">
+        <f t="shared" ref="H522" si="873">I522/J522</f>
+        <v>1.1764646710644742</v>
+      </c>
+      <c r="I522" s="5">
+        <v>4444.26</v>
+      </c>
+      <c r="J522" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K522" s="6">
+        <f t="shared" ref="K522" si="874">(B522-H522)</f>
+        <v>0.53454051155452009</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B523" s="2">
+        <f t="shared" ref="B523" si="875">E523/F523</f>
+        <v>1.7151820026855069</v>
+      </c>
+      <c r="C523" s="3">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <v>0</v>
+      </c>
+      <c r="E523" s="3">
+        <v>803718.73</v>
+      </c>
+      <c r="F523" s="3">
+        <f t="shared" ref="F523" si="876">F522+G523</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G523" s="3">
+        <f t="shared" ref="G523" si="877">(C523-D523)/((E523-C523+D523)/F522)</f>
+        <v>0</v>
+      </c>
+      <c r="H523" s="4">
+        <f t="shared" ref="H523" si="878">I523/J523</f>
+        <v>1.1887104117914891</v>
+      </c>
+      <c r="I523" s="5">
+        <v>4490.5200000000004</v>
+      </c>
+      <c r="J523" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K523" s="6">
+        <f t="shared" ref="K523" si="879">(B523-H523)</f>
+        <v>0.52647159089401785</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B524" s="2">
+        <f t="shared" ref="B524" si="880">E524/F524</f>
+        <v>1.6995300352054949</v>
+      </c>
+      <c r="C524" s="3">
+        <v>0</v>
+      </c>
+      <c r="D524" s="3">
+        <v>0</v>
+      </c>
+      <c r="E524" s="3">
+        <v>796384.36</v>
+      </c>
+      <c r="F524" s="3">
+        <f t="shared" ref="F524" si="881">F523+G524</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G524" s="3">
+        <f t="shared" ref="G524" si="882">(C524-D524)/((E524-C524+D524)/F523)</f>
+        <v>0</v>
+      </c>
+      <c r="H524" s="4">
+        <f t="shared" ref="H524" si="883">I524/J524</f>
+        <v>1.1704026852744041</v>
+      </c>
+      <c r="I524" s="5">
+        <v>4421.3599999999997</v>
+      </c>
+      <c r="J524" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K524" s="6">
+        <f t="shared" ref="K524" si="884">(B524-H524)</f>
+        <v>0.5291273499310909</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B525" s="2">
+        <f t="shared" ref="B525" si="885">E525/F525</f>
+        <v>1.7472861665357633</v>
+      </c>
+      <c r="C525" s="3">
+        <v>0</v>
+      </c>
+      <c r="D525" s="3">
+        <v>0</v>
+      </c>
+      <c r="E525" s="3">
+        <v>818762.45</v>
+      </c>
+      <c r="F525" s="3">
+        <f t="shared" ref="F525" si="886">F524+G525</f>
+        <v>468590.93014128867</v>
+      </c>
+      <c r="G525" s="3">
+        <f t="shared" ref="G525" si="887">(C525-D525)/((E525-C525+D525)/F524)</f>
+        <v>0</v>
+      </c>
+      <c r="H525" s="4">
+        <f t="shared" ref="H525" si="888">I525/J525</f>
+        <v>1.1872518291843586</v>
+      </c>
+      <c r="I525" s="5">
+        <v>4485.01</v>
+      </c>
+      <c r="J525" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K525" s="6">
+        <f t="shared" ref="K525" si="889">(B525-H525)</f>
+        <v>0.56003433735140473</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/净值.xlsx
+++ b/净值.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DEFB79-133B-48B0-AF61-94816A1EF69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F531D53-46D5-4885-B109-008F352C5038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人账户" sheetId="1" r:id="rId1"/>
-    <sheet name="family" sheetId="2" r:id="rId2"/>
+    <sheet name="家庭" sheetId="2" r:id="rId2"/>
+    <sheet name="小西瓜" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>时间</t>
   </si>
@@ -71,14 +72,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="0.000000%"/>
+    <numFmt numFmtId="182" formatCode="0.000000_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,6 +90,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -133,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +183,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2236,6 +2257,66 @@
                 <c:pt idx="615">
                   <c:v>44867</c:v>
                 </c:pt>
+                <c:pt idx="616">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>44895</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4092,6 +4173,66 @@
                 </c:pt>
                 <c:pt idx="615">
                   <c:v>1.4950065389572575</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.4860306279562763</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1.5285080422621602</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1.5233415314091214</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1.5116335454103522</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1.5170367154856297</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1.521965892647565</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1.5484063814077067</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1.5652529869882266</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.5484063814077067</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1.5790845977195276</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>1.5827249045556206</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1.5958500686630854</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>1.5681956946450031</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>1.550886919193593</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>1.5388359856144329</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>1.5463739289958296</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>1.54656460531135</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>1.5461156470952806</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>1.5854774913418241</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>1.5757857705021787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6022,6 +6163,66 @@
                 <c:pt idx="615">
                   <c:v>44867</c:v>
                 </c:pt>
+                <c:pt idx="616">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>44895</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -7878,6 +8079,66 @@
                 </c:pt>
                 <c:pt idx="615">
                   <c:v>0.97305828068281641</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.96514482860801565</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.99670074398619979</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.99885174249399422</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.99198071774031393</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.98270470203511451</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.97514313532505748</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1.0023282640674773</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1.0038045951466277</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.022840799652877</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1.01448550655618</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>1.0103237345355642</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1.0058021398863384</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.99721931189213797</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.99733572509551183</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.99838344392587663</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.99395974219766969</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0.99897873871585663</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0.98772369855330133</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>1.0181975002910331</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>1.0194198389264586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8159,7 +8420,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>family!$B$1</c:f>
+              <c:f>家庭!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8182,7 +8443,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>family!$A$2:$A$1000</c:f>
+              <c:f>家庭!$A$2:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="999"/>
@@ -10004,12 +10265,72 @@
                 <c:pt idx="605">
                   <c:v>44867</c:v>
                 </c:pt>
+                <c:pt idx="606">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>44895</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>family!$B$2:$B$1000</c:f>
+              <c:f>家庭!$B$2:$B$1000</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="999"/>
@@ -11830,6 +12151,66 @@
                 </c:pt>
                 <c:pt idx="605">
                   <c:v>1.5121800413865254</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>1.5030192172645822</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>1.5496609349894728</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>1.5467064189646818</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>1.5335851424850278</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1.5352151475412645</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1.543380423415222</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1.5705261369735306</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.5822934059494604</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.5963949398983097</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1.5963479222605055</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.6004653612866626</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1.6097209239394805</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1.5826801561599118</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1.5651394427497429</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1.5530070034535337</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1.5570235956745029</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1.5560142837163051</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1.556416143868478</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.5969087582888781</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1.5968528997277263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11846,7 +12227,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>family!$H$1</c:f>
+              <c:f>家庭!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11869,7 +12250,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>family!$A$2:$A$1000</c:f>
+              <c:f>家庭!$A$2:$A$1000</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-m\-d</c:formatCode>
                 <c:ptCount val="999"/>
@@ -13691,12 +14072,72 @@
                 <c:pt idx="605">
                   <c:v>44867</c:v>
                 </c:pt>
+                <c:pt idx="606">
+                  <c:v>44868</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>44869</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>44873</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>44875</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>44876</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>44880</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>44881</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>44882</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>44883</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>44887</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>44888</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>44889</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>44890</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>44894</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>44895</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>family!$H$2:$H$1000</c:f>
+              <c:f>家庭!$H$2:$H$1000</c:f>
               <c:numCache>
                 <c:formatCode>0.000000_);[Red]\(0.000000\)</c:formatCode>
                 <c:ptCount val="999"/>
@@ -15517,6 +15958,66 @@
                 </c:pt>
                 <c:pt idx="605">
                   <c:v>0.97357344797280843</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.96565580627058167</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.98412500926504387</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.99938056564415889</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.99250590315646803</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.98322497644031726</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.97565940640188054</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1.0028589277961903</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1.0043360404908885</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1.0233823233553223</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1.0150226067068329</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1.0108586313147891</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1.0063346427928548</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.99774727078281689</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.99786374561895796</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.99891201914422767</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.99448597537086647</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.99950762910176738</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.98824663017121794</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1.0187365656865133</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1.0199595514659947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16285,15 +16786,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>590</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>628</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>625</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16326,15 +16827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>579</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>603</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>638</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16620,11 +17121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q617"/>
+  <dimension ref="A1:Q637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E618" sqref="E618"/>
+      <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H648" sqref="H648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41270,6 +41771,806 @@
         <v>0.52194825827444113</v>
       </c>
     </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B618" s="2">
+        <f t="shared" ref="B618" si="1289">E618/F618</f>
+        <v>1.4860306279562763</v>
+      </c>
+      <c r="C618" s="3">
+        <v>0</v>
+      </c>
+      <c r="D618" s="3">
+        <v>0</v>
+      </c>
+      <c r="E618" s="3">
+        <v>374554.29</v>
+      </c>
+      <c r="F618" s="3">
+        <f t="shared" ref="F618" si="1290">F617+G618</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G618" s="3">
+        <f t="shared" ref="G618" si="1291">(C618-D618)/((E618-C618+D618)/F617)</f>
+        <v>0</v>
+      </c>
+      <c r="H618" s="4">
+        <f t="shared" ref="H618" si="1292">I618/J618</f>
+        <v>0.96514482860801565</v>
+      </c>
+      <c r="I618" s="5">
+        <v>3647.9</v>
+      </c>
+      <c r="J618" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K618" s="6">
+        <f t="shared" ref="K618" si="1293">(B618-H618)</f>
+        <v>0.52088579934826063</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B619" s="2">
+        <f t="shared" ref="B619" si="1294">E619/F619</f>
+        <v>1.5285080422621602</v>
+      </c>
+      <c r="C619" s="3">
+        <v>0</v>
+      </c>
+      <c r="D619" s="3">
+        <v>0</v>
+      </c>
+      <c r="E619" s="3">
+        <v>385260.73</v>
+      </c>
+      <c r="F619" s="3">
+        <f t="shared" ref="F619" si="1295">F618+G619</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G619" s="3">
+        <f t="shared" ref="G619" si="1296">(C619-D619)/((E619-C619+D619)/F618)</f>
+        <v>0</v>
+      </c>
+      <c r="H619" s="4">
+        <f t="shared" ref="H619" si="1297">I619/J619</f>
+        <v>0.99670074398619979</v>
+      </c>
+      <c r="I619" s="5">
+        <v>3767.17</v>
+      </c>
+      <c r="J619" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K619" s="6">
+        <f t="shared" ref="K619" si="1298">(B619-H619)</f>
+        <v>0.53180729827596041</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B620" s="2">
+        <f t="shared" ref="B620" si="1299">E620/F620</f>
+        <v>1.5233415314091214</v>
+      </c>
+      <c r="C620" s="3">
+        <v>0</v>
+      </c>
+      <c r="D620" s="3">
+        <v>0</v>
+      </c>
+      <c r="E620" s="3">
+        <v>383958.51</v>
+      </c>
+      <c r="F620" s="3">
+        <f t="shared" ref="F620" si="1300">F619+G620</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G620" s="3">
+        <f t="shared" ref="G620" si="1301">(C620-D620)/((E620-C620+D620)/F619)</f>
+        <v>0</v>
+      </c>
+      <c r="H620" s="4">
+        <f t="shared" ref="H620" si="1302">I620/J620</f>
+        <v>0.99885174249399422</v>
+      </c>
+      <c r="I620" s="5">
+        <v>3775.3</v>
+      </c>
+      <c r="J620" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K620" s="6">
+        <f t="shared" ref="K620" si="1303">(B620-H620)</f>
+        <v>0.52448978891512721</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B621" s="2">
+        <f t="shared" ref="B621" si="1304">E621/F621</f>
+        <v>1.5116335454103522</v>
+      </c>
+      <c r="C621" s="3">
+        <v>0</v>
+      </c>
+      <c r="D621" s="3">
+        <v>0</v>
+      </c>
+      <c r="E621" s="3">
+        <v>381007.51</v>
+      </c>
+      <c r="F621" s="3">
+        <f t="shared" ref="F621" si="1305">F620+G621</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G621" s="3">
+        <f t="shared" ref="G621" si="1306">(C621-D621)/((E621-C621+D621)/F620)</f>
+        <v>0</v>
+      </c>
+      <c r="H621" s="4">
+        <f t="shared" ref="H621" si="1307">I621/J621</f>
+        <v>0.99198071774031393</v>
+      </c>
+      <c r="I621" s="5">
+        <v>3749.33</v>
+      </c>
+      <c r="J621" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K621" s="6">
+        <f t="shared" ref="K621" si="1308">(B621-H621)</f>
+        <v>0.51965282767003829</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B622" s="2">
+        <f t="shared" ref="B622" si="1309">E622/F622</f>
+        <v>1.5170367154856297</v>
+      </c>
+      <c r="C622" s="3">
+        <v>0</v>
+      </c>
+      <c r="D622" s="3">
+        <v>0</v>
+      </c>
+      <c r="E622" s="3">
+        <v>382369.38</v>
+      </c>
+      <c r="F622" s="3">
+        <f t="shared" ref="F622" si="1310">F621+G622</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G622" s="3">
+        <f t="shared" ref="G622" si="1311">(C622-D622)/((E622-C622+D622)/F621)</f>
+        <v>0</v>
+      </c>
+      <c r="H622" s="4">
+        <f t="shared" ref="H622" si="1312">I622/J622</f>
+        <v>0.98270470203511451</v>
+      </c>
+      <c r="I622" s="5">
+        <v>3714.27</v>
+      </c>
+      <c r="J622" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K622" s="6">
+        <f t="shared" ref="K622" si="1313">(B622-H622)</f>
+        <v>0.53433201345051518</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B623" s="2">
+        <f t="shared" ref="B623" si="1314">E623/F623</f>
+        <v>1.521965892647565</v>
+      </c>
+      <c r="C623" s="3">
+        <v>0</v>
+      </c>
+      <c r="D623" s="3">
+        <v>0</v>
+      </c>
+      <c r="E623" s="3">
+        <v>383611.78</v>
+      </c>
+      <c r="F623" s="3">
+        <f t="shared" ref="F623:F624" si="1315">F622+G623</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G623" s="3">
+        <f t="shared" ref="G623:G624" si="1316">(C623-D623)/((E623-C623+D623)/F622)</f>
+        <v>0</v>
+      </c>
+      <c r="H623" s="4">
+        <f t="shared" ref="H623:H624" si="1317">I623/J623</f>
+        <v>0.97514313532505748</v>
+      </c>
+      <c r="I623" s="5">
+        <v>3685.69</v>
+      </c>
+      <c r="J623" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K623" s="6">
+        <f t="shared" ref="K623:K624" si="1318">(B623-H623)</f>
+        <v>0.54682275732250751</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B624" s="2">
+        <f>E624/F624</f>
+        <v>1.5484063814077067</v>
+      </c>
+      <c r="C624" s="3">
+        <v>0</v>
+      </c>
+      <c r="D624" s="3">
+        <v>0</v>
+      </c>
+      <c r="E624" s="3">
+        <v>390276.11</v>
+      </c>
+      <c r="F624" s="3">
+        <f t="shared" si="1315"/>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G624" s="3">
+        <f t="shared" si="1316"/>
+        <v>0</v>
+      </c>
+      <c r="H624" s="4">
+        <f t="shared" si="1317"/>
+        <v>1.0023282640674773</v>
+      </c>
+      <c r="I624" s="5">
+        <v>3788.44</v>
+      </c>
+      <c r="J624" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K624" s="6">
+        <f t="shared" si="1318"/>
+        <v>0.54607811734022937</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B625" s="2">
+        <f>E625/F625</f>
+        <v>1.5652529869882266</v>
+      </c>
+      <c r="C625" s="3">
+        <v>0</v>
+      </c>
+      <c r="D625" s="3">
+        <v>0</v>
+      </c>
+      <c r="E625" s="3">
+        <v>394522.3</v>
+      </c>
+      <c r="F625" s="3">
+        <f t="shared" ref="F625" si="1319">F624+G625</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G625" s="3">
+        <f t="shared" ref="G625" si="1320">(C625-D625)/((E625-C625+D625)/F624)</f>
+        <v>0</v>
+      </c>
+      <c r="H625" s="4">
+        <f t="shared" ref="H625" si="1321">I625/J625</f>
+        <v>1.0038045951466277</v>
+      </c>
+      <c r="I625" s="5">
+        <v>3794.02</v>
+      </c>
+      <c r="J625" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K625" s="6">
+        <f t="shared" ref="K625" si="1322">(B625-H625)</f>
+        <v>0.56144839184159889</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B626" s="2">
+        <f t="shared" ref="B626:B629" si="1323">E626/F626</f>
+        <v>1.5484063814077067</v>
+      </c>
+      <c r="C626" s="3">
+        <v>0</v>
+      </c>
+      <c r="D626" s="3">
+        <v>0</v>
+      </c>
+      <c r="E626" s="3">
+        <v>390276.11</v>
+      </c>
+      <c r="F626" s="3">
+        <f t="shared" ref="F626:F629" si="1324">F625+G626</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G626" s="3">
+        <f t="shared" ref="G626:G629" si="1325">(C626-D626)/((E626-C626+D626)/F625)</f>
+        <v>0</v>
+      </c>
+      <c r="H626" s="4">
+        <f t="shared" ref="H626:H629" si="1326">I626/J626</f>
+        <v>1.022840799652877</v>
+      </c>
+      <c r="I626" s="5">
+        <v>3865.97</v>
+      </c>
+      <c r="J626" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K626" s="6">
+        <f t="shared" ref="K626:K629" si="1327">(B626-H626)</f>
+        <v>0.5255655817548297</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B627" s="2">
+        <f t="shared" si="1323"/>
+        <v>1.5790845977195276</v>
+      </c>
+      <c r="C627" s="3">
+        <v>0</v>
+      </c>
+      <c r="D627" s="3">
+        <v>0</v>
+      </c>
+      <c r="E627" s="3">
+        <v>398008.56</v>
+      </c>
+      <c r="F627" s="3">
+        <f t="shared" si="1324"/>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G627" s="3">
+        <f t="shared" si="1325"/>
+        <v>0</v>
+      </c>
+      <c r="H627" s="4">
+        <f t="shared" si="1326"/>
+        <v>1.01448550655618</v>
+      </c>
+      <c r="I627" s="5">
+        <v>3834.39</v>
+      </c>
+      <c r="J627" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K627" s="6">
+        <f t="shared" si="1327"/>
+        <v>0.56459909116334761</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B628" s="2">
+        <f t="shared" si="1323"/>
+        <v>1.5827249045556206</v>
+      </c>
+      <c r="C628" s="3">
+        <v>0</v>
+      </c>
+      <c r="D628" s="3">
+        <v>0</v>
+      </c>
+      <c r="E628" s="3">
+        <v>398926.1</v>
+      </c>
+      <c r="F628" s="3">
+        <f t="shared" si="1324"/>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G628" s="3">
+        <f t="shared" si="1325"/>
+        <v>0</v>
+      </c>
+      <c r="H628" s="4">
+        <f t="shared" si="1326"/>
+        <v>1.0103237345355642</v>
+      </c>
+      <c r="I628" s="5">
+        <v>3818.66</v>
+      </c>
+      <c r="J628" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K628" s="6">
+        <f t="shared" si="1327"/>
+        <v>0.57240117002005642</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B629" s="2">
+        <f t="shared" si="1323"/>
+        <v>1.5958500686630854</v>
+      </c>
+      <c r="C629" s="3">
+        <v>0</v>
+      </c>
+      <c r="D629" s="3">
+        <v>0</v>
+      </c>
+      <c r="E629" s="3">
+        <v>402234.3</v>
+      </c>
+      <c r="F629" s="3">
+        <f t="shared" si="1324"/>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G629" s="3">
+        <f t="shared" si="1325"/>
+        <v>0</v>
+      </c>
+      <c r="H629" s="4">
+        <f t="shared" si="1326"/>
+        <v>1.0058021398863384</v>
+      </c>
+      <c r="I629" s="5">
+        <v>3801.57</v>
+      </c>
+      <c r="J629" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K629" s="6">
+        <f t="shared" si="1327"/>
+        <v>0.59004792877674705</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B630" s="2">
+        <f t="shared" ref="B630" si="1328">E630/F630</f>
+        <v>1.5681956946450031</v>
+      </c>
+      <c r="C630" s="3">
+        <v>0</v>
+      </c>
+      <c r="D630" s="3">
+        <v>0</v>
+      </c>
+      <c r="E630" s="3">
+        <v>395264.01</v>
+      </c>
+      <c r="F630" s="3">
+        <f t="shared" ref="F630" si="1329">F629+G630</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G630" s="3">
+        <f t="shared" ref="G630" si="1330">(C630-D630)/((E630-C630+D630)/F629)</f>
+        <v>0</v>
+      </c>
+      <c r="H630" s="4">
+        <f t="shared" ref="H630" si="1331">I630/J630</f>
+        <v>0.99721931189213797</v>
+      </c>
+      <c r="I630" s="5">
+        <v>3769.13</v>
+      </c>
+      <c r="J630" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K630" s="6">
+        <f t="shared" ref="K630" si="1332">(B630-H630)</f>
+        <v>0.57097638275286511</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B631" s="2">
+        <f t="shared" ref="B631" si="1333">E631/F631</f>
+        <v>1.550886919193593</v>
+      </c>
+      <c r="C631" s="3">
+        <v>0</v>
+      </c>
+      <c r="D631" s="3">
+        <v>0</v>
+      </c>
+      <c r="E631" s="3">
+        <v>390901.33</v>
+      </c>
+      <c r="F631" s="3">
+        <f t="shared" ref="F631" si="1334">F630+G631</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G631" s="3">
+        <f t="shared" ref="G631" si="1335">(C631-D631)/((E631-C631+D631)/F630)</f>
+        <v>0</v>
+      </c>
+      <c r="H631" s="4">
+        <f t="shared" ref="H631" si="1336">I631/J631</f>
+        <v>0.99733572509551183</v>
+      </c>
+      <c r="I631" s="5">
+        <v>3769.57</v>
+      </c>
+      <c r="J631" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K631" s="6">
+        <f t="shared" ref="K631" si="1337">(B631-H631)</f>
+        <v>0.55355119409808118</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B632" s="2">
+        <f t="shared" ref="B632" si="1338">E632/F632</f>
+        <v>1.5388359856144329</v>
+      </c>
+      <c r="C632" s="3">
+        <v>0</v>
+      </c>
+      <c r="D632" s="3">
+        <v>0</v>
+      </c>
+      <c r="E632" s="3">
+        <v>387863.89</v>
+      </c>
+      <c r="F632" s="3">
+        <f t="shared" ref="F632" si="1339">F631+G632</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G632" s="3">
+        <f t="shared" ref="G632" si="1340">(C632-D632)/((E632-C632+D632)/F631)</f>
+        <v>0</v>
+      </c>
+      <c r="H632" s="4">
+        <f t="shared" ref="H632" si="1341">I632/J632</f>
+        <v>0.99838344392587663</v>
+      </c>
+      <c r="I632" s="5">
+        <v>3773.53</v>
+      </c>
+      <c r="J632" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K632" s="6">
+        <f t="shared" ref="K632" si="1342">(B632-H632)</f>
+        <v>0.54045254168855628</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B633" s="2">
+        <f t="shared" ref="B633" si="1343">E633/F633</f>
+        <v>1.5463739289958296</v>
+      </c>
+      <c r="C633" s="3">
+        <v>0</v>
+      </c>
+      <c r="D633" s="3">
+        <v>0</v>
+      </c>
+      <c r="E633" s="3">
+        <v>389763.83</v>
+      </c>
+      <c r="F633" s="3">
+        <f t="shared" ref="F633" si="1344">F632+G633</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G633" s="3">
+        <f t="shared" ref="G633" si="1345">(C633-D633)/((E633-C633+D633)/F632)</f>
+        <v>0</v>
+      </c>
+      <c r="H633" s="4">
+        <f t="shared" ref="H633" si="1346">I633/J633</f>
+        <v>0.99395974219766969</v>
+      </c>
+      <c r="I633" s="5">
+        <v>3756.81</v>
+      </c>
+      <c r="J633" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K633" s="6">
+        <f t="shared" ref="K633" si="1347">(B633-H633)</f>
+        <v>0.5524141867981599</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B634" s="2">
+        <f t="shared" ref="B634" si="1348">E634/F634</f>
+        <v>1.54656460531135</v>
+      </c>
+      <c r="C634" s="3">
+        <v>0</v>
+      </c>
+      <c r="D634" s="3">
+        <v>0</v>
+      </c>
+      <c r="E634" s="3">
+        <v>389811.89</v>
+      </c>
+      <c r="F634" s="3">
+        <f t="shared" ref="F634" si="1349">F633+G634</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G634" s="3">
+        <f t="shared" ref="G634" si="1350">(C634-D634)/((E634-C634+D634)/F633)</f>
+        <v>0</v>
+      </c>
+      <c r="H634" s="4">
+        <f t="shared" ref="H634" si="1351">I634/J634</f>
+        <v>0.99897873871585663</v>
+      </c>
+      <c r="I634" s="5">
+        <v>3775.78</v>
+      </c>
+      <c r="J634" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K634" s="6">
+        <f t="shared" ref="K634" si="1352">(B634-H634)</f>
+        <v>0.54758586659549335</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B635" s="2">
+        <f t="shared" ref="B635" si="1353">E635/F635</f>
+        <v>1.5461156470952806</v>
+      </c>
+      <c r="C635" s="3">
+        <v>0</v>
+      </c>
+      <c r="D635" s="3">
+        <v>0</v>
+      </c>
+      <c r="E635" s="3">
+        <v>389698.73</v>
+      </c>
+      <c r="F635" s="3">
+        <f t="shared" ref="F635" si="1354">F634+G635</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G635" s="3">
+        <f t="shared" ref="G635" si="1355">(C635-D635)/((E635-C635+D635)/F634)</f>
+        <v>0</v>
+      </c>
+      <c r="H635" s="4">
+        <f t="shared" ref="H635" si="1356">I635/J635</f>
+        <v>0.98772369855330133</v>
+      </c>
+      <c r="I635" s="5">
+        <v>3733.24</v>
+      </c>
+      <c r="J635" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K635" s="6">
+        <f t="shared" ref="K635" si="1357">(B635-H635)</f>
+        <v>0.55839194854197927</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B636" s="2">
+        <f t="shared" ref="B636" si="1358">E636/F636</f>
+        <v>1.5854774913418241</v>
+      </c>
+      <c r="C636" s="3">
+        <v>0</v>
+      </c>
+      <c r="D636" s="3">
+        <v>0</v>
+      </c>
+      <c r="E636" s="3">
+        <v>399619.89</v>
+      </c>
+      <c r="F636" s="3">
+        <f t="shared" ref="F636" si="1359">F635+G636</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G636" s="3">
+        <f t="shared" ref="G636" si="1360">(C636-D636)/((E636-C636+D636)/F635)</f>
+        <v>0</v>
+      </c>
+      <c r="H636" s="4">
+        <f t="shared" ref="H636" si="1361">I636/J636</f>
+        <v>1.0181975002910331</v>
+      </c>
+      <c r="I636" s="5">
+        <v>3848.42</v>
+      </c>
+      <c r="J636" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K636" s="6">
+        <f t="shared" ref="K636" si="1362">(B636-H636)</f>
+        <v>0.56727999105079108</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B637" s="2">
+        <f t="shared" ref="B637" si="1363">E637/F637</f>
+        <v>1.5757857705021787</v>
+      </c>
+      <c r="C637" s="3">
+        <v>0</v>
+      </c>
+      <c r="D637" s="3">
+        <v>0</v>
+      </c>
+      <c r="E637" s="3">
+        <v>397177.09</v>
+      </c>
+      <c r="F637" s="3">
+        <f t="shared" ref="F637" si="1364">F636+G637</f>
+        <v>252050.18184256466</v>
+      </c>
+      <c r="G637" s="3">
+        <f t="shared" ref="G637" si="1365">(C637-D637)/((E637-C637+D637)/F636)</f>
+        <v>0</v>
+      </c>
+      <c r="H637" s="4">
+        <f t="shared" ref="H637" si="1366">I637/J637</f>
+        <v>1.0194198389264586</v>
+      </c>
+      <c r="I637" s="5">
+        <v>3853.04</v>
+      </c>
+      <c r="J637" s="5">
+        <v>3779.64</v>
+      </c>
+      <c r="K637" s="6">
+        <f t="shared" ref="K637" si="1367">(B637-H637)</f>
+        <v>0.55636593157572012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -41280,11 +42581,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L607"/>
+  <dimension ref="A1:L627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A579" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A607" sqref="A607"/>
+      <pane ySplit="1" topLeftCell="A606" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D633" sqref="D633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -65527,10 +66828,2679 @@
         <v>0.53860659341371697</v>
       </c>
     </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B608" s="2">
+        <f t="shared" ref="B608" si="1194">E608/F608</f>
+        <v>1.5030192172645822</v>
+      </c>
+      <c r="C608" s="3">
+        <v>0</v>
+      </c>
+      <c r="D608" s="3">
+        <v>0</v>
+      </c>
+      <c r="E608" s="3">
+        <v>748030.98</v>
+      </c>
+      <c r="F608" s="3">
+        <f t="shared" ref="F608" si="1195">F607+G608</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G608" s="3">
+        <f t="shared" ref="G608" si="1196">(C608-D608)/((E608-C608+D608)/F607)</f>
+        <v>0</v>
+      </c>
+      <c r="H608" s="4">
+        <f t="shared" ref="H608" si="1197">I608/J608</f>
+        <v>0.96565580627058167</v>
+      </c>
+      <c r="I608" s="5">
+        <v>3647.9</v>
+      </c>
+      <c r="J608" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K608" s="6">
+        <f t="shared" ref="K608" si="1198">(B608-H608)</f>
+        <v>0.53736341099400053</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B609" s="2">
+        <f t="shared" ref="B609" si="1199">E609/F609</f>
+        <v>1.5496609349894728</v>
+      </c>
+      <c r="C609" s="3">
+        <v>0</v>
+      </c>
+      <c r="D609" s="3">
+        <v>0</v>
+      </c>
+      <c r="E609" s="3">
+        <v>771243.89</v>
+      </c>
+      <c r="F609" s="3">
+        <f t="shared" ref="F609" si="1200">F608+G609</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G609" s="3">
+        <f t="shared" ref="G609" si="1201">(C609-D609)/((E609-C609+D609)/F608)</f>
+        <v>0</v>
+      </c>
+      <c r="H609" s="4">
+        <f t="shared" ref="H609" si="1202">I609/J609</f>
+        <v>0.98412500926504387</v>
+      </c>
+      <c r="I609" s="5">
+        <v>3717.67</v>
+      </c>
+      <c r="J609" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K609" s="6">
+        <f t="shared" ref="K609" si="1203">(B609-H609)</f>
+        <v>0.5655359257244289</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B610" s="2">
+        <f t="shared" ref="B610" si="1204">E610/F610</f>
+        <v>1.5467064189646818</v>
+      </c>
+      <c r="C610" s="3">
+        <v>0</v>
+      </c>
+      <c r="D610" s="3">
+        <v>0</v>
+      </c>
+      <c r="E610" s="3">
+        <v>769773.47</v>
+      </c>
+      <c r="F610" s="3">
+        <f t="shared" ref="F610" si="1205">F609+G610</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G610" s="3">
+        <f t="shared" ref="G610" si="1206">(C610-D610)/((E610-C610+D610)/F609)</f>
+        <v>0</v>
+      </c>
+      <c r="H610" s="4">
+        <f t="shared" ref="H610" si="1207">I610/J610</f>
+        <v>0.99938056564415889</v>
+      </c>
+      <c r="I610" s="5">
+        <v>3775.3</v>
+      </c>
+      <c r="J610" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K610" s="6">
+        <f t="shared" ref="K610" si="1208">(B610-H610)</f>
+        <v>0.54732585332052286</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B611" s="2">
+        <f t="shared" ref="B611" si="1209">E611/F611</f>
+        <v>1.5335851424850278</v>
+      </c>
+      <c r="C611" s="3">
+        <v>0</v>
+      </c>
+      <c r="D611" s="3">
+        <v>0</v>
+      </c>
+      <c r="E611" s="16">
+        <v>763243.2</v>
+      </c>
+      <c r="F611" s="3">
+        <f t="shared" ref="F611" si="1210">F610+G611</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G611" s="3">
+        <f t="shared" ref="G611" si="1211">(C611-D611)/((E611-C611+D611)/F610)</f>
+        <v>0</v>
+      </c>
+      <c r="H611" s="4">
+        <f t="shared" ref="H611" si="1212">I611/J611</f>
+        <v>0.99250590315646803</v>
+      </c>
+      <c r="I611" s="5">
+        <v>3749.33</v>
+      </c>
+      <c r="J611" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K611" s="6">
+        <f t="shared" ref="K611" si="1213">(B611-H611)</f>
+        <v>0.54107923932855972</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B612" s="2">
+        <f t="shared" ref="B612" si="1214">E612/F612</f>
+        <v>1.5352151475412645</v>
+      </c>
+      <c r="C612" s="3">
+        <v>0</v>
+      </c>
+      <c r="D612" s="3">
+        <v>0</v>
+      </c>
+      <c r="E612" s="16">
+        <v>764054.43</v>
+      </c>
+      <c r="F612" s="3">
+        <f t="shared" ref="F612" si="1215">F611+G612</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G612" s="3">
+        <f t="shared" ref="G612" si="1216">(C612-D612)/((E612-C612+D612)/F611)</f>
+        <v>0</v>
+      </c>
+      <c r="H612" s="4">
+        <f t="shared" ref="H612" si="1217">I612/J612</f>
+        <v>0.98322497644031726</v>
+      </c>
+      <c r="I612" s="5">
+        <v>3714.27</v>
+      </c>
+      <c r="J612" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K612" s="6">
+        <f t="shared" ref="K612" si="1218">(B612-H612)</f>
+        <v>0.55199017110094728</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B613" s="2">
+        <f t="shared" ref="B613:B614" si="1219">E613/F613</f>
+        <v>1.543380423415222</v>
+      </c>
+      <c r="C613" s="3">
+        <v>0</v>
+      </c>
+      <c r="D613" s="3">
+        <v>0</v>
+      </c>
+      <c r="E613" s="16">
+        <v>768118.17</v>
+      </c>
+      <c r="F613" s="3">
+        <f t="shared" ref="F613:F614" si="1220">F612+G613</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G613" s="3">
+        <f t="shared" ref="G613:G614" si="1221">(C613-D613)/((E613-C613+D613)/F612)</f>
+        <v>0</v>
+      </c>
+      <c r="H613" s="4">
+        <f t="shared" ref="H613:H614" si="1222">I613/J613</f>
+        <v>0.97565940640188054</v>
+      </c>
+      <c r="I613" s="5">
+        <v>3685.69</v>
+      </c>
+      <c r="J613" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K613" s="6">
+        <f t="shared" ref="K613:K614" si="1223">(B613-H613)</f>
+        <v>0.56772101701334143</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B614" s="2">
+        <f t="shared" si="1219"/>
+        <v>1.5705261369735306</v>
+      </c>
+      <c r="C614" s="3">
+        <v>0</v>
+      </c>
+      <c r="D614" s="3">
+        <v>0</v>
+      </c>
+      <c r="E614" s="16">
+        <v>781628.2</v>
+      </c>
+      <c r="F614" s="3">
+        <f t="shared" si="1220"/>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G614" s="3">
+        <f t="shared" si="1221"/>
+        <v>0</v>
+      </c>
+      <c r="H614" s="4">
+        <f t="shared" si="1222"/>
+        <v>1.0028589277961903</v>
+      </c>
+      <c r="I614" s="5">
+        <v>3788.44</v>
+      </c>
+      <c r="J614" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K614" s="6">
+        <f t="shared" si="1223"/>
+        <v>0.56766720917734026</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B615" s="2">
+        <f t="shared" ref="B615" si="1224">E615/F615</f>
+        <v>1.5822934059494604</v>
+      </c>
+      <c r="C615" s="3">
+        <v>0</v>
+      </c>
+      <c r="D615" s="3">
+        <v>0</v>
+      </c>
+      <c r="E615" s="16">
+        <v>787484.6</v>
+      </c>
+      <c r="F615" s="3">
+        <f t="shared" ref="F615" si="1225">F614+G615</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G615" s="3">
+        <f t="shared" ref="G615" si="1226">(C615-D615)/((E615-C615+D615)/F614)</f>
+        <v>0</v>
+      </c>
+      <c r="H615" s="4">
+        <f t="shared" ref="H615" si="1227">I615/J615</f>
+        <v>1.0043360404908885</v>
+      </c>
+      <c r="I615" s="5">
+        <v>3794.02</v>
+      </c>
+      <c r="J615" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K615" s="6">
+        <f t="shared" ref="K615" si="1228">(B615-H615)</f>
+        <v>0.5779573654585719</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B616" s="2">
+        <f t="shared" ref="B616:B619" si="1229">E616/F616</f>
+        <v>1.5963949398983097</v>
+      </c>
+      <c r="C616" s="3">
+        <v>0</v>
+      </c>
+      <c r="D616" s="3">
+        <v>0</v>
+      </c>
+      <c r="E616" s="16">
+        <v>794502.73</v>
+      </c>
+      <c r="F616" s="3">
+        <f t="shared" ref="F616:F619" si="1230">F615+G616</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G616" s="3">
+        <f t="shared" ref="G616:G619" si="1231">(C616-D616)/((E616-C616+D616)/F615)</f>
+        <v>0</v>
+      </c>
+      <c r="H616" s="4">
+        <f t="shared" ref="H616:H619" si="1232">I616/J616</f>
+        <v>1.0233823233553223</v>
+      </c>
+      <c r="I616" s="5">
+        <v>3865.97</v>
+      </c>
+      <c r="J616" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K616" s="6">
+        <f t="shared" ref="K616:K619" si="1233">(B616-H616)</f>
+        <v>0.57301261654298741</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B617" s="2">
+        <f t="shared" si="1229"/>
+        <v>1.5963479222605055</v>
+      </c>
+      <c r="C617" s="3">
+        <v>0</v>
+      </c>
+      <c r="D617" s="3">
+        <v>0</v>
+      </c>
+      <c r="E617" s="16">
+        <v>794479.33</v>
+      </c>
+      <c r="F617" s="3">
+        <f t="shared" si="1230"/>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G617" s="3">
+        <f t="shared" si="1231"/>
+        <v>0</v>
+      </c>
+      <c r="H617" s="4">
+        <f t="shared" si="1232"/>
+        <v>1.0150226067068329</v>
+      </c>
+      <c r="I617" s="5">
+        <v>3834.39</v>
+      </c>
+      <c r="J617" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K617" s="6">
+        <f t="shared" si="1233"/>
+        <v>0.58132531555367262</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B618" s="2">
+        <f t="shared" si="1229"/>
+        <v>1.6004653612866626</v>
+      </c>
+      <c r="C618" s="3">
+        <v>0</v>
+      </c>
+      <c r="D618" s="3">
+        <v>0</v>
+      </c>
+      <c r="E618" s="16">
+        <v>796528.52</v>
+      </c>
+      <c r="F618" s="3">
+        <f t="shared" si="1230"/>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G618" s="3">
+        <f t="shared" si="1231"/>
+        <v>0</v>
+      </c>
+      <c r="H618" s="4">
+        <f t="shared" si="1232"/>
+        <v>1.0108586313147891</v>
+      </c>
+      <c r="I618" s="5">
+        <v>3818.66</v>
+      </c>
+      <c r="J618" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K618" s="6">
+        <f t="shared" si="1233"/>
+        <v>0.58960672997187347</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B619" s="2">
+        <f t="shared" si="1229"/>
+        <v>1.6097209239394805</v>
+      </c>
+      <c r="C619" s="3">
+        <v>0</v>
+      </c>
+      <c r="D619" s="3">
+        <v>0</v>
+      </c>
+      <c r="E619" s="16">
+        <v>801134.88</v>
+      </c>
+      <c r="F619" s="3">
+        <f t="shared" si="1230"/>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G619" s="3">
+        <f t="shared" si="1231"/>
+        <v>0</v>
+      </c>
+      <c r="H619" s="4">
+        <f t="shared" si="1232"/>
+        <v>1.0063346427928548</v>
+      </c>
+      <c r="I619" s="5">
+        <v>3801.57</v>
+      </c>
+      <c r="J619" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K619" s="6">
+        <f t="shared" si="1233"/>
+        <v>0.60338628114662574</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B620" s="2">
+        <f t="shared" ref="B620:B621" si="1234">E620/F620</f>
+        <v>1.5826801561599118</v>
+      </c>
+      <c r="C620" s="3">
+        <v>0</v>
+      </c>
+      <c r="D620" s="3">
+        <v>0</v>
+      </c>
+      <c r="E620" s="16">
+        <v>787677.08</v>
+      </c>
+      <c r="F620" s="3">
+        <f t="shared" ref="F620:F621" si="1235">F619+G620</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G620" s="3">
+        <f t="shared" ref="G620:G621" si="1236">(C620-D620)/((E620-C620+D620)/F619)</f>
+        <v>0</v>
+      </c>
+      <c r="H620" s="4">
+        <f t="shared" ref="H620:H621" si="1237">I620/J620</f>
+        <v>0.99774727078281689</v>
+      </c>
+      <c r="I620" s="5">
+        <v>3769.13</v>
+      </c>
+      <c r="J620" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K620" s="6">
+        <f t="shared" ref="K620:K621" si="1238">(B620-H620)</f>
+        <v>0.58493288537709487</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B621" s="2">
+        <f t="shared" si="1234"/>
+        <v>1.5651394427497429</v>
+      </c>
+      <c r="C621" s="3">
+        <v>0</v>
+      </c>
+      <c r="D621" s="3">
+        <v>0</v>
+      </c>
+      <c r="E621" s="16">
+        <v>778947.32</v>
+      </c>
+      <c r="F621" s="3">
+        <f t="shared" si="1235"/>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G621" s="3">
+        <f t="shared" si="1236"/>
+        <v>0</v>
+      </c>
+      <c r="H621" s="4">
+        <f t="shared" si="1237"/>
+        <v>0.99786374561895796</v>
+      </c>
+      <c r="I621" s="5">
+        <v>3769.57</v>
+      </c>
+      <c r="J621" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K621" s="6">
+        <f t="shared" si="1238"/>
+        <v>0.56727569713078496</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B622" s="2">
+        <f t="shared" ref="B622" si="1239">E622/F622</f>
+        <v>1.5530070034535337</v>
+      </c>
+      <c r="C622" s="3">
+        <v>0</v>
+      </c>
+      <c r="D622" s="3">
+        <v>0</v>
+      </c>
+      <c r="E622" s="16">
+        <v>772909.18</v>
+      </c>
+      <c r="F622" s="3">
+        <f t="shared" ref="F622" si="1240">F621+G622</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G622" s="3">
+        <f t="shared" ref="G622" si="1241">(C622-D622)/((E622-C622+D622)/F621)</f>
+        <v>0</v>
+      </c>
+      <c r="H622" s="4">
+        <f t="shared" ref="H622" si="1242">I622/J622</f>
+        <v>0.99891201914422767</v>
+      </c>
+      <c r="I622" s="5">
+        <v>3773.53</v>
+      </c>
+      <c r="J622" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K622" s="6">
+        <f t="shared" ref="K622" si="1243">(B622-H622)</f>
+        <v>0.55409498430930604</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B623" s="2">
+        <f t="shared" ref="B623" si="1244">E623/F623</f>
+        <v>1.5570235956745029</v>
+      </c>
+      <c r="C623" s="3">
+        <v>0</v>
+      </c>
+      <c r="D623" s="3">
+        <v>0</v>
+      </c>
+      <c r="E623" s="16">
+        <v>774908.18</v>
+      </c>
+      <c r="F623" s="3">
+        <f t="shared" ref="F623" si="1245">F622+G623</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G623" s="3">
+        <f t="shared" ref="G623" si="1246">(C623-D623)/((E623-C623+D623)/F622)</f>
+        <v>0</v>
+      </c>
+      <c r="H623" s="4">
+        <f t="shared" ref="H623" si="1247">I623/J623</f>
+        <v>0.99448597537086647</v>
+      </c>
+      <c r="I623" s="5">
+        <v>3756.81</v>
+      </c>
+      <c r="J623" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K623" s="6">
+        <f t="shared" ref="K623" si="1248">(B623-H623)</f>
+        <v>0.56253762030363641</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B624" s="2">
+        <f t="shared" ref="B624" si="1249">E624/F624</f>
+        <v>1.5560142837163051</v>
+      </c>
+      <c r="C624" s="3">
+        <v>0</v>
+      </c>
+      <c r="D624" s="3">
+        <v>0</v>
+      </c>
+      <c r="E624" s="16">
+        <v>774405.86</v>
+      </c>
+      <c r="F624" s="3">
+        <f t="shared" ref="F624" si="1250">F623+G624</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G624" s="3">
+        <f t="shared" ref="G624" si="1251">(C624-D624)/((E624-C624+D624)/F623)</f>
+        <v>0</v>
+      </c>
+      <c r="H624" s="4">
+        <f t="shared" ref="H624" si="1252">I624/J624</f>
+        <v>0.99950762910176738</v>
+      </c>
+      <c r="I624" s="5">
+        <v>3775.78</v>
+      </c>
+      <c r="J624" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K624" s="6">
+        <f t="shared" ref="K624" si="1253">(B624-H624)</f>
+        <v>0.55650665461453774</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B625" s="2">
+        <f t="shared" ref="B625" si="1254">E625/F625</f>
+        <v>1.556416143868478</v>
+      </c>
+      <c r="C625" s="3">
+        <v>0</v>
+      </c>
+      <c r="D625" s="3">
+        <v>0</v>
+      </c>
+      <c r="E625" s="16">
+        <v>774605.86</v>
+      </c>
+      <c r="F625" s="3">
+        <f t="shared" ref="F625" si="1255">F624+G625</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G625" s="3">
+        <f t="shared" ref="G625" si="1256">(C625-D625)/((E625-C625+D625)/F624)</f>
+        <v>0</v>
+      </c>
+      <c r="H625" s="4">
+        <f t="shared" ref="H625" si="1257">I625/J625</f>
+        <v>0.98824663017121794</v>
+      </c>
+      <c r="I625" s="5">
+        <v>3733.24</v>
+      </c>
+      <c r="J625" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K625" s="6">
+        <f t="shared" ref="K625" si="1258">(B625-H625)</f>
+        <v>0.5681695136972601</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B626" s="2">
+        <f t="shared" ref="B626" si="1259">E626/F626</f>
+        <v>1.5969087582888781</v>
+      </c>
+      <c r="C626" s="3">
+        <v>0</v>
+      </c>
+      <c r="D626" s="3">
+        <v>0</v>
+      </c>
+      <c r="E626" s="16">
+        <v>794758.45</v>
+      </c>
+      <c r="F626" s="3">
+        <f t="shared" ref="F626" si="1260">F625+G626</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G626" s="3">
+        <f t="shared" ref="G626" si="1261">(C626-D626)/((E626-C626+D626)/F625)</f>
+        <v>0</v>
+      </c>
+      <c r="H626" s="4">
+        <f t="shared" ref="H626" si="1262">I626/J626</f>
+        <v>1.0187365656865133</v>
+      </c>
+      <c r="I626" s="5">
+        <v>3848.42</v>
+      </c>
+      <c r="J626" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K626" s="6">
+        <f t="shared" ref="K626" si="1263">(B626-H626)</f>
+        <v>0.57817219260236485</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B627" s="2">
+        <f t="shared" ref="B627" si="1264">E627/F627</f>
+        <v>1.5968528997277263</v>
+      </c>
+      <c r="C627" s="3">
+        <v>0</v>
+      </c>
+      <c r="D627" s="3">
+        <v>0</v>
+      </c>
+      <c r="E627" s="16">
+        <v>794730.65</v>
+      </c>
+      <c r="F627" s="3">
+        <f t="shared" ref="F627" si="1265">F626+G627</f>
+        <v>497685.57275094453</v>
+      </c>
+      <c r="G627" s="3">
+        <f t="shared" ref="G627" si="1266">(C627-D627)/((E627-C627+D627)/F626)</f>
+        <v>0</v>
+      </c>
+      <c r="H627" s="4">
+        <f t="shared" ref="H627" si="1267">I627/J627</f>
+        <v>1.0199595514659947</v>
+      </c>
+      <c r="I627" s="5">
+        <v>3853.04</v>
+      </c>
+      <c r="J627" s="5">
+        <v>3777.64</v>
+      </c>
+      <c r="K627" s="6">
+        <f t="shared" ref="K627" si="1268">(B627-H627)</f>
+        <v>0.57689334826173155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F6A34B-A839-48B5-B884-9A1516242396}">
+  <dimension ref="A1:K637"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="14.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>44895</v>
+      </c>
+      <c r="B2" s="19">
+        <f>E2/F2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>I2/J2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3853.04</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3853.04</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:K65" si="0">(B2-H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F400" s="3"/>
+    </row>
+    <row r="401" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F401" s="3"/>
+    </row>
+    <row r="402" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F402" s="3"/>
+    </row>
+    <row r="403" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F403" s="3"/>
+    </row>
+    <row r="404" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F404" s="3"/>
+    </row>
+    <row r="405" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F405" s="3"/>
+    </row>
+    <row r="406" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F406" s="3"/>
+    </row>
+    <row r="407" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F407" s="3"/>
+    </row>
+    <row r="408" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F408" s="3"/>
+    </row>
+    <row r="409" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F409" s="3"/>
+    </row>
+    <row r="410" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F410" s="3"/>
+    </row>
+    <row r="411" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F411" s="3"/>
+    </row>
+    <row r="412" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F412" s="3"/>
+    </row>
+    <row r="413" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F413" s="3"/>
+    </row>
+    <row r="414" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F414" s="3"/>
+    </row>
+    <row r="415" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F415" s="3"/>
+    </row>
+    <row r="416" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F416" s="3"/>
+    </row>
+    <row r="417" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F417" s="3"/>
+    </row>
+    <row r="418" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F418" s="3"/>
+    </row>
+    <row r="419" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F419" s="3"/>
+    </row>
+    <row r="420" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F420" s="3"/>
+    </row>
+    <row r="421" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F421" s="3"/>
+    </row>
+    <row r="422" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F422" s="3"/>
+    </row>
+    <row r="423" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F423" s="3"/>
+    </row>
+    <row r="424" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F424" s="3"/>
+    </row>
+    <row r="425" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F425" s="3"/>
+    </row>
+    <row r="426" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F426" s="3"/>
+    </row>
+    <row r="427" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F427" s="3"/>
+    </row>
+    <row r="428" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F428" s="3"/>
+    </row>
+    <row r="429" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F429" s="3"/>
+    </row>
+    <row r="430" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F430" s="3"/>
+    </row>
+    <row r="431" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F431" s="3"/>
+    </row>
+    <row r="432" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F432" s="3"/>
+    </row>
+    <row r="433" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F433" s="3"/>
+    </row>
+    <row r="434" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F434" s="3"/>
+    </row>
+    <row r="435" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F435" s="3"/>
+    </row>
+    <row r="436" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F436" s="3"/>
+    </row>
+    <row r="437" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F437" s="3"/>
+    </row>
+    <row r="438" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F438" s="3"/>
+    </row>
+    <row r="439" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F439" s="3"/>
+    </row>
+    <row r="440" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F440" s="3"/>
+    </row>
+    <row r="441" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F441" s="3"/>
+    </row>
+    <row r="442" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F442" s="3"/>
+    </row>
+    <row r="443" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F443" s="3"/>
+    </row>
+    <row r="444" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F444" s="3"/>
+    </row>
+    <row r="445" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F445" s="3"/>
+    </row>
+    <row r="446" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F446" s="3"/>
+    </row>
+    <row r="447" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F447" s="3"/>
+    </row>
+    <row r="448" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F448" s="3"/>
+    </row>
+    <row r="449" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F449" s="3"/>
+    </row>
+    <row r="450" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F450" s="3"/>
+    </row>
+    <row r="451" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F451" s="3"/>
+    </row>
+    <row r="452" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F452" s="3"/>
+    </row>
+    <row r="453" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F453" s="3"/>
+    </row>
+    <row r="454" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F454" s="3"/>
+    </row>
+    <row r="455" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F455" s="3"/>
+    </row>
+    <row r="456" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F456" s="3"/>
+    </row>
+    <row r="457" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F457" s="3"/>
+    </row>
+    <row r="458" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F458" s="3"/>
+    </row>
+    <row r="459" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F459" s="3"/>
+    </row>
+    <row r="460" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F460" s="3"/>
+    </row>
+    <row r="461" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F461" s="3"/>
+    </row>
+    <row r="462" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F462" s="3"/>
+    </row>
+    <row r="463" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F463" s="3"/>
+    </row>
+    <row r="464" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F464" s="3"/>
+    </row>
+    <row r="465" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F465" s="3"/>
+    </row>
+    <row r="466" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F466" s="3"/>
+    </row>
+    <row r="467" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F467" s="3"/>
+    </row>
+    <row r="468" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F468" s="3"/>
+    </row>
+    <row r="469" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F469" s="3"/>
+    </row>
+    <row r="470" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F470" s="3"/>
+    </row>
+    <row r="471" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F471" s="3"/>
+    </row>
+    <row r="472" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F472" s="3"/>
+    </row>
+    <row r="473" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F473" s="3"/>
+    </row>
+    <row r="474" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F474" s="3"/>
+    </row>
+    <row r="475" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F475" s="3"/>
+    </row>
+    <row r="476" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F476" s="3"/>
+    </row>
+    <row r="477" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F477" s="3"/>
+    </row>
+    <row r="478" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F478" s="3"/>
+    </row>
+    <row r="479" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F479" s="3"/>
+    </row>
+    <row r="480" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F480" s="3"/>
+    </row>
+    <row r="481" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F481" s="3"/>
+    </row>
+    <row r="482" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F482" s="3"/>
+    </row>
+    <row r="483" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F483" s="3"/>
+    </row>
+    <row r="484" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F484" s="3"/>
+    </row>
+    <row r="485" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F485" s="3"/>
+    </row>
+    <row r="486" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F486" s="3"/>
+    </row>
+    <row r="487" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F487" s="3"/>
+    </row>
+    <row r="488" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F488" s="3"/>
+    </row>
+    <row r="489" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F489" s="3"/>
+    </row>
+    <row r="490" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F490" s="3"/>
+    </row>
+    <row r="491" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F491" s="3"/>
+    </row>
+    <row r="492" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F492" s="3"/>
+    </row>
+    <row r="493" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F493" s="3"/>
+    </row>
+    <row r="494" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F494" s="3"/>
+    </row>
+    <row r="495" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F495" s="3"/>
+    </row>
+    <row r="496" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F496" s="3"/>
+    </row>
+    <row r="497" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F497" s="3"/>
+    </row>
+    <row r="498" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F498" s="3"/>
+    </row>
+    <row r="499" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F499" s="3"/>
+    </row>
+    <row r="500" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F500" s="3"/>
+    </row>
+    <row r="501" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F501" s="3"/>
+    </row>
+    <row r="502" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F502" s="3"/>
+    </row>
+    <row r="503" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F503" s="3"/>
+    </row>
+    <row r="504" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F504" s="3"/>
+    </row>
+    <row r="505" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F505" s="3"/>
+    </row>
+    <row r="506" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F506" s="3"/>
+    </row>
+    <row r="507" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F507" s="3"/>
+    </row>
+    <row r="508" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F508" s="3"/>
+    </row>
+    <row r="509" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F509" s="3"/>
+    </row>
+    <row r="510" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F510" s="3"/>
+    </row>
+    <row r="511" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F511" s="3"/>
+    </row>
+    <row r="512" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F512" s="3"/>
+    </row>
+    <row r="513" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F513" s="3"/>
+    </row>
+    <row r="514" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F514" s="3"/>
+    </row>
+    <row r="515" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F515" s="3"/>
+    </row>
+    <row r="516" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F516" s="3"/>
+    </row>
+    <row r="517" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F517" s="3"/>
+    </row>
+    <row r="518" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F518" s="3"/>
+    </row>
+    <row r="519" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F519" s="3"/>
+    </row>
+    <row r="520" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F520" s="3"/>
+    </row>
+    <row r="521" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F521" s="3"/>
+    </row>
+    <row r="522" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F522" s="3"/>
+    </row>
+    <row r="523" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F523" s="3"/>
+    </row>
+    <row r="524" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F524" s="3"/>
+    </row>
+    <row r="525" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F525" s="3"/>
+    </row>
+    <row r="526" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F526" s="3"/>
+    </row>
+    <row r="527" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F527" s="3"/>
+    </row>
+    <row r="528" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F528" s="3"/>
+    </row>
+    <row r="529" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F529" s="3"/>
+    </row>
+    <row r="530" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F530" s="3"/>
+    </row>
+    <row r="531" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F531" s="3"/>
+    </row>
+    <row r="532" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F532" s="3"/>
+    </row>
+    <row r="533" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F533" s="3"/>
+    </row>
+    <row r="534" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F534" s="3"/>
+    </row>
+    <row r="535" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F535" s="3"/>
+    </row>
+    <row r="536" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F536" s="3"/>
+    </row>
+    <row r="537" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F537" s="3"/>
+    </row>
+    <row r="538" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F538" s="3"/>
+    </row>
+    <row r="539" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F539" s="3"/>
+    </row>
+    <row r="540" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F540" s="3"/>
+    </row>
+    <row r="541" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F541" s="3"/>
+    </row>
+    <row r="542" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F542" s="3"/>
+    </row>
+    <row r="543" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F543" s="3"/>
+    </row>
+    <row r="544" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F544" s="3"/>
+    </row>
+    <row r="545" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F545" s="3"/>
+    </row>
+    <row r="546" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F546" s="3"/>
+    </row>
+    <row r="547" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F547" s="3"/>
+    </row>
+    <row r="548" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F548" s="3"/>
+    </row>
+    <row r="549" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F549" s="3"/>
+    </row>
+    <row r="550" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F550" s="3"/>
+    </row>
+    <row r="551" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F551" s="3"/>
+    </row>
+    <row r="552" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F552" s="3"/>
+    </row>
+    <row r="553" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F553" s="3"/>
+    </row>
+    <row r="554" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F554" s="3"/>
+    </row>
+    <row r="555" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F555" s="3"/>
+    </row>
+    <row r="556" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F556" s="3"/>
+    </row>
+    <row r="557" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F557" s="3"/>
+    </row>
+    <row r="558" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F558" s="3"/>
+    </row>
+    <row r="559" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F559" s="3"/>
+    </row>
+    <row r="560" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F560" s="3"/>
+    </row>
+    <row r="561" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F561" s="3"/>
+    </row>
+    <row r="562" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F562" s="3"/>
+    </row>
+    <row r="563" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F563" s="3"/>
+    </row>
+    <row r="564" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F564" s="3"/>
+    </row>
+    <row r="565" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F565" s="3"/>
+    </row>
+    <row r="566" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F566" s="3"/>
+    </row>
+    <row r="567" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F567" s="3"/>
+    </row>
+    <row r="568" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F568" s="3"/>
+    </row>
+    <row r="569" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F569" s="3"/>
+    </row>
+    <row r="570" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F570" s="3"/>
+    </row>
+    <row r="571" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F571" s="3"/>
+    </row>
+    <row r="572" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F572" s="3"/>
+    </row>
+    <row r="573" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F573" s="3"/>
+    </row>
+    <row r="574" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F574" s="3"/>
+    </row>
+    <row r="575" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F575" s="3"/>
+    </row>
+    <row r="576" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F576" s="3"/>
+    </row>
+    <row r="577" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F577" s="3"/>
+    </row>
+    <row r="578" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F578" s="3"/>
+    </row>
+    <row r="579" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F579" s="3"/>
+    </row>
+    <row r="580" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F580" s="3"/>
+    </row>
+    <row r="581" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F581" s="3"/>
+    </row>
+    <row r="582" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F582" s="3"/>
+    </row>
+    <row r="583" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F583" s="3"/>
+    </row>
+    <row r="584" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F584" s="3"/>
+    </row>
+    <row r="585" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F585" s="3"/>
+    </row>
+    <row r="586" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F586" s="3"/>
+    </row>
+    <row r="587" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F587" s="3"/>
+    </row>
+    <row r="588" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F588" s="3"/>
+    </row>
+    <row r="589" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F589" s="3"/>
+    </row>
+    <row r="590" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F590" s="3"/>
+    </row>
+    <row r="591" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F591" s="3"/>
+    </row>
+    <row r="592" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F592" s="3"/>
+    </row>
+    <row r="593" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F593" s="3"/>
+    </row>
+    <row r="594" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F594" s="3"/>
+    </row>
+    <row r="595" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F595" s="3"/>
+    </row>
+    <row r="596" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F596" s="3"/>
+    </row>
+    <row r="597" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F597" s="3"/>
+    </row>
+    <row r="598" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F598" s="3"/>
+    </row>
+    <row r="599" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F599" s="3"/>
+    </row>
+    <row r="600" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F600" s="3"/>
+    </row>
+    <row r="601" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F601" s="3"/>
+    </row>
+    <row r="602" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F602" s="3"/>
+    </row>
+    <row r="603" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F603" s="3"/>
+    </row>
+    <row r="604" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F604" s="3"/>
+    </row>
+    <row r="605" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F605" s="3"/>
+    </row>
+    <row r="606" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F606" s="3"/>
+    </row>
+    <row r="607" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F607" s="3"/>
+    </row>
+    <row r="608" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F608" s="3"/>
+    </row>
+    <row r="609" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F609" s="3"/>
+    </row>
+    <row r="610" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F610" s="3"/>
+    </row>
+    <row r="611" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F611" s="3"/>
+    </row>
+    <row r="612" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F612" s="3"/>
+    </row>
+    <row r="613" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F613" s="3"/>
+    </row>
+    <row r="614" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F614" s="3"/>
+    </row>
+    <row r="615" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F615" s="3"/>
+    </row>
+    <row r="616" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F616" s="3"/>
+    </row>
+    <row r="617" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F617" s="3"/>
+    </row>
+    <row r="618" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F618" s="3"/>
+    </row>
+    <row r="619" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F619" s="3"/>
+    </row>
+    <row r="620" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F620" s="3"/>
+    </row>
+    <row r="621" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F621" s="3"/>
+    </row>
+    <row r="622" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F622" s="3"/>
+    </row>
+    <row r="623" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F623" s="3"/>
+    </row>
+    <row r="624" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F624" s="3"/>
+    </row>
+    <row r="625" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F625" s="3"/>
+    </row>
+    <row r="626" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F626" s="3"/>
+    </row>
+    <row r="627" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F627" s="3"/>
+    </row>
+    <row r="628" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F628" s="3"/>
+    </row>
+    <row r="629" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F629" s="3"/>
+    </row>
+    <row r="630" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F630" s="3"/>
+    </row>
+    <row r="631" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F631" s="3"/>
+    </row>
+    <row r="632" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F632" s="3"/>
+    </row>
+    <row r="633" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F633" s="3"/>
+    </row>
+    <row r="634" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F634" s="3"/>
+    </row>
+    <row r="635" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F635" s="3"/>
+    </row>
+    <row r="636" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F636" s="3"/>
+    </row>
+    <row r="637" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F637" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>